--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AFC1C1-E849-2A4E-8EB5-50D3169D5DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522CF6D8-9DD0-ED48-AB07-1CAA09B3E6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -3512,10 +3512,10 @@
     <t>paste0("james-publish-", get_param("james_version"), ".bat")</t>
   </si>
   <si>
-    <t>dev-2022-03-21</t>
-  </si>
-  <si>
     <t>If you want to highlight a time series of type 'bar', with this parameter you can narrow the highlight to only one given x-position. The x-position specified here, is interpreted as a number (only if all values on the x-axis are numbers) or as a string (if at least one of the values on the x-axis is a string). Obviously, you can highlight more than one value (of one and the same time series).</t>
+  </si>
+  <si>
+    <t>dev-2022-04-07</t>
   </si>
 </sst>
 </file>
@@ -4129,8 +4129,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AC227" sqref="AC227"/>
     </sheetView>
   </sheetViews>
@@ -7519,7 +7519,7 @@
         <v>197</v>
       </c>
       <c r="AC227" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.2">
@@ -9957,8 +9957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7057C-15EE-3240-BABA-A5F8BA4F4CF6}">
   <dimension ref="A1:AE375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10125,7 +10125,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="AC5" t="s">
         <v>1068</v>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522CF6D8-9DD0-ED48-AB07-1CAA09B3E6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB5C2F-485B-C240-8375-D0BCA7C19860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -674,9 +674,6 @@
     <t>0, 90</t>
   </si>
   <si>
-    <t>Rotate the barplot labels. Zero (0) for horizontal. 90 for vertical. Leave empty for default (\ie horizontal for labels on top of the bars, vertical for labels inside the bars).</t>
-  </si>
-  <si>
     <t>bar_lab_col</t>
   </si>
   <si>
@@ -2804,9 +2801,6 @@
     <t>lines(p$data[, 1], mean(p$data[, 2:3]))</t>
   </si>
   <si>
-    <t>Your parameters are available as p\$parameter. You have acces to your data as follows. The x-values are in p\$data[, 1]. The first time series is p\$data[, 2], the second is p\$data[, 3], etc. If you generate figures from R (\ie not Excel), you may define a function 'custom &lt;- function(p) { ... }' with a custom implementation instead.</t>
-  </si>
-  <si>
     <t>Custom R-code that will be run after James finishes the rest of the plotting.</t>
   </si>
   <si>
@@ -2906,9 +2900,6 @@
     <t>hist_freq</t>
   </si>
   <si>
-    <t>If `y`, the histogram graphic is a representation of frequencies (i.e. counts). If `n`, probability densities are plotted so that the histogram has a total area of one if you set `bar_gap_fraction = 0`.</t>
-  </si>
-  <si>
     <t>bar--</t>
   </si>
   <si>
@@ -3011,9 +3002,6 @@
     <t>English text next to logo.</t>
   </si>
   <si>
-    <t>This parameter defines whether or not the first column in the data tab represents normal x-values (`first_col_grouping = n`) or whether it contains group names for the x-values (`first_col_grouping = y`). If you don't set this parameter, James tries to guess the value of this parameter as follows. If the second column contains at least one character (\ie a non-numeric value), `first_col_grouping` will be set to `y` automatically. Otherwise it is set to `n` automatically. You can overrule the automatic settings by setting this parameter by hand. This may happen if the values on the x-axis are numerical.</t>
-  </si>
-  <si>
     <t>endeavour, anakiwa</t>
   </si>
   <si>
@@ -3038,9 +3026,6 @@
     <t>Unique identifier that can be used for plotting in reports (\eg plot(id), or plot("my-file.xlsx", id = "nice-fig")). In addition, it can be used to distinguish two different figures in the same xlsx file, that share one and the same data tab.</t>
   </si>
   <si>
-    <t>This parameter is for boxes only. See &lt;a href="#section-box-plot"&gt;section box plot&lt;/a&gt;. It defines whether or not the first row in your data tab contains group names of your time series box plot. Boxes can be grouped, which gives the boxes in the same group the same 'header' (and the same color if you want to). You should put the group names in the first row, \ie above the time series names. In most cases you don't have to set this parameter manually as James will automatically set the value of parameter `first_row_grouping = y` if any of the time series comprises a character. If James erroneously puts group names above your boxes, you can manually overrule this by setting `first_row_grouping = n`.</t>
-  </si>
-  <si>
     <t>#ffffff88</t>
   </si>
   <si>
@@ -3374,9 +3359,6 @@
     <t>fix_path_rel("fonts", path_base = "p_james")</t>
   </si>
   <si>
-    <t>Gives path to font, dependent on platform (i.e. windows, linux, osx)</t>
-  </si>
-  <si>
     <t>james_sh_path</t>
   </si>
   <si>
@@ -3446,12 +3428,6 @@
     <t>paste0(get_param("james_windows"), "-", get_param("james_version"), ".bat")</t>
   </si>
   <si>
-    <t>cpb_1</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
     <t>james_publish_path_on_m</t>
   </si>
   <si>
@@ -3515,7 +3491,31 @@
     <t>If you want to highlight a time series of type 'bar', with this parameter you can narrow the highlight to only one given x-position. The x-position specified here, is interpreted as a number (only if all values on the x-axis are numbers) or as a string (if at least one of the values on the x-axis is a string). Obviously, you can highlight more than one value (of one and the same time series).</t>
   </si>
   <si>
-    <t>dev-2022-04-07</t>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>cpb_2</t>
+  </si>
+  <si>
+    <t>If `y`, the histogram graphic is a representation of frequencies (*i.e.* counts). If `n`, probability densities are plotted so that the histogram has a total area of one if you set `bar_gap_fraction = 0`.</t>
+  </si>
+  <si>
+    <t>Rotate the barplot labels. Zero (0) for horizontal. 90 for vertical. Leave empty for default (*i.e.* horizontal for labels on top of the bars, vertical for labels inside the bars).</t>
+  </si>
+  <si>
+    <t>This parameter defines whether or not the first column in the data tab represents normal x-values (`first_col_grouping = n`) or whether it contains group names for the x-values (`first_col_grouping = y`). If you don't set this parameter, James tries to guess the value of this parameter as follows. If the second column contains at least one character (*i.e.* a non-numeric value), `first_col_grouping` will be set to `y` automatically. Otherwise it is set to `n` automatically. You can overrule the automatic settings by setting this parameter by hand. This may happen if the values on the x-axis are numerical.</t>
+  </si>
+  <si>
+    <t>This parameter is for boxes only. See &lt;a href="#section-box-plot"&gt;section box plot&lt;/a&gt;. It defines whether or not the first row in your data tab contains group names of your time series box plot. Boxes can be grouped, which gives the boxes in the same group the same 'header' (and the same color if you want to). You should put the group names in the first row, *i.e.* above the time series names. In most cases you don't have to set this parameter manually as James will automatically set the value of parameter `first_row_grouping = y` if any of the time series comprises a character. If James erroneously puts group names above your boxes, you can manually overrule this by setting `first_row_grouping = n`.</t>
+  </si>
+  <si>
+    <t>Your parameters are available as p\$parameter. You have acces to your data as follows. The x-values are in p\$data[, 1]. The first time series is p\$data[, 2], the second is p\$data[, 3], etc. If you generate figures from R (*i.e.* not Excel), you may define a function 'custom &lt;- function(p) { ... }' with a custom implementation instead.</t>
+  </si>
+  <si>
+    <t>Gives path to font, dependent on platform (*i.e.* windows, linux, osx)</t>
+  </si>
+  <si>
+    <t>dev-2022-04-15</t>
   </si>
 </sst>
 </file>
@@ -4129,9 +4129,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE411"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC227" sqref="AC227"/>
+    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4179,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>26</v>
@@ -4200,37 +4200,37 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -4242,7 +4242,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -4251,7 +4251,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -4268,18 +4268,18 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -4288,12 +4288,12 @@
         <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4305,12 +4305,12 @@
         <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -4322,7 +4322,7 @@
         <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -4338,7 +4338,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -4358,10 +4358,10 @@
         <v>9</v>
       </c>
       <c r="AB9" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="AC9" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P10" t="s">
         <v>178</v>
@@ -4384,7 +4384,7 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AB10" t="s">
         <v>186</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -4404,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="AC11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -4424,7 +4424,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -4449,10 +4449,10 @@
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -4472,16 +4472,16 @@
         <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O15" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>55</v>
@@ -4500,10 +4500,10 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AE16" s="6"/>
     </row>
@@ -4521,16 +4521,16 @@
       <c r="G17" s="3"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AE17" s="6"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -4542,10 +4542,10 @@
       <c r="G18" s="3"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="6" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AE18" s="6"/>
     </row>
@@ -4561,16 +4561,16 @@
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="6" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AE19" s="6"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -4580,16 +4580,16 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="6" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AE20" s="6"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -4599,16 +4599,16 @@
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AD21" s="3" t="s">
         <v>1077</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>1082</v>
       </c>
       <c r="AE21" s="6"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -4617,20 +4617,20 @@
         <v>0.1</v>
       </c>
       <c r="Z22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AE22" s="6"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -4640,16 +4640,16 @@
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="6" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AE23" s="6"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4659,16 +4659,16 @@
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="6" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AE24" s="6"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -4677,20 +4677,20 @@
         <v>600</v>
       </c>
       <c r="Z25" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="AE25" s="6"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>10</v>
@@ -4724,15 +4724,15 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="6" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -4741,49 +4741,49 @@
         <v>75</v>
       </c>
       <c r="Z27" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AD27" s="3"/>
       <c r="AE27" s="6"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA28" t="s">
         <v>3</v>
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD28" s="3"/>
       <c r="AE28" s="6"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="6"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B30" t="s">
         <v>117</v>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AD30" s="3"/>
       <c r="AE30" s="6"/>
@@ -4803,13 +4803,13 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AE32" s="6"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -4818,13 +4818,13 @@
         <v>0.8</v>
       </c>
       <c r="Z33" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AB33">
         <v>0.8</v>
       </c>
       <c r="AC33" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AE33" s="6"/>
     </row>
@@ -4836,33 +4836,33 @@
         <v>9</v>
       </c>
       <c r="N34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="S34" s="6"/>
       <c r="AC34" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -4874,15 +4874,15 @@
         <v>5</v>
       </c>
       <c r="AC36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AD36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -4891,7 +4891,7 @@
         <v>102</v>
       </c>
       <c r="AC37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AB38" t="s">
         <v>30</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
@@ -4939,12 +4939,12 @@
         <v>5</v>
       </c>
       <c r="AC40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -4955,16 +4955,16 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="N43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AB43" t="s">
         <v>37</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
@@ -5015,12 +5015,12 @@
         <v>5</v>
       </c>
       <c r="AC45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -5031,35 +5031,35 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="AC48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5090,10 +5090,10 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB51" t="s">
         <v>425</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>426</v>
       </c>
       <c r="AC51" t="s">
         <v>65</v>
@@ -5101,34 +5101,34 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E52" t="s">
         <v>1105</v>
       </c>
-      <c r="E52" t="s">
-        <v>1110</v>
-      </c>
       <c r="AB52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AC52" t="s">
-        <v>1111</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F53" s="6"/>
       <c r="AC53" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -5142,10 +5142,10 @@
         <v>7</v>
       </c>
       <c r="Z54" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="AC54" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -5172,13 +5172,13 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AC57" s="6"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s">
         <v>117</v>
@@ -5187,29 +5187,29 @@
         <v>72</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AB59" s="36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s">
         <v>117</v>
@@ -5218,12 +5218,12 @@
         <v>72</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
@@ -5235,12 +5235,12 @@
         <v>104</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s">
         <v>203</v>
@@ -5249,15 +5249,15 @@
         <v>9</v>
       </c>
       <c r="AB62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s">
         <v>117</v>
@@ -5269,15 +5269,15 @@
         <v>102</v>
       </c>
       <c r="AB63" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s">
         <v>117</v>
@@ -5292,12 +5292,12 @@
         <v>116</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
         <v>117</v>
@@ -5312,12 +5312,12 @@
         <v>104</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B66" t="s">
         <v>117</v>
@@ -5329,15 +5329,15 @@
         <v>1</v>
       </c>
       <c r="AB66" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC66" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="AC66" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B67" t="s">
         <v>117</v>
@@ -5349,7 +5349,7 @@
         <v>0.5</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
@@ -5358,16 +5358,16 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C69" s="6"/>
       <c r="AC69" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B70" t="s">
         <v>203</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -5388,12 +5388,12 @@
         <v>1</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B72" t="s">
         <v>117</v>
@@ -5405,12 +5405,12 @@
         <v>102</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B73" t="s">
         <v>117</v>
@@ -5422,15 +5422,15 @@
         <v>4</v>
       </c>
       <c r="AB73" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
@@ -5445,12 +5445,12 @@
         <v>104</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
@@ -5462,12 +5462,12 @@
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
@@ -5479,12 +5479,12 @@
         <v>0.5</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B77" t="s">
         <v>117</v>
@@ -5499,15 +5499,15 @@
         <v>116</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
@@ -5518,15 +5518,15 @@
         <v>9</v>
       </c>
       <c r="AB80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AC80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
         <v>72</v>
@@ -5549,12 +5549,12 @@
         <v>5</v>
       </c>
       <c r="AC82" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
@@ -5566,46 +5566,46 @@
         <v>5</v>
       </c>
       <c r="AC83" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AB84" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC84" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC85" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
         <v>72</v>
@@ -5617,13 +5617,13 @@
         <v>104</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD86" s="6"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
         <v>72</v>
@@ -5632,7 +5632,7 @@
         <v>0.85</v>
       </c>
       <c r="AC87" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
@@ -5640,7 +5640,7 @@
         <v>98</v>
       </c>
       <c r="AC89" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AD89" t="s">
         <v>18</v>
@@ -5683,12 +5683,12 @@
         <v>118</v>
       </c>
       <c r="AC91" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -5697,15 +5697,15 @@
         <v>2</v>
       </c>
       <c r="AC93" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AD93" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -5717,12 +5717,12 @@
         <v>185</v>
       </c>
       <c r="AD94" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B95" t="s">
         <v>72</v>
@@ -5731,15 +5731,15 @@
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="AD95" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
@@ -5748,15 +5748,15 @@
         <v>102</v>
       </c>
       <c r="AC96" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AD96" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B97" t="s">
         <v>72</v>
@@ -5765,15 +5765,15 @@
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="AD97" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
@@ -5782,10 +5782,10 @@
         <v>102</v>
       </c>
       <c r="AC98" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="AD98" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
@@ -5796,10 +5796,10 @@
         <v>72</v>
       </c>
       <c r="AB99" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AC99" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
@@ -5810,13 +5810,13 @@
         <v>72</v>
       </c>
       <c r="AB100" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AC100" s="6" t="s">
         <v>122</v>
       </c>
       <c r="AD100" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>88</v>
       </c>
       <c r="AD101" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
@@ -5847,21 +5847,21 @@
         <v>9</v>
       </c>
       <c r="AC102" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="AD102" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="AC103" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
@@ -5886,7 +5886,7 @@
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B105" t="s">
         <v>117</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B106" t="s">
         <v>72</v>
@@ -5912,7 +5912,7 @@
         <v>5</v>
       </c>
       <c r="AC106" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
@@ -5931,7 +5931,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -5940,18 +5940,18 @@
         <v>72</v>
       </c>
       <c r="Z108" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AC108" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="AD108" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B109" t="s">
         <v>117</v>
@@ -5960,29 +5960,29 @@
         <v>72</v>
       </c>
       <c r="Z109" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AD109" t="s">
         <v>1043</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="AC110" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -5991,12 +5991,12 @@
         <v>3</v>
       </c>
       <c r="AC111" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
@@ -6016,13 +6016,13 @@
         <v>72</v>
       </c>
       <c r="AB113" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD113" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
         <v>72</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
@@ -6106,13 +6106,13 @@
         <v>9</v>
       </c>
       <c r="Z119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB119" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AC119" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="AD119" t="s">
         <v>87</v>
@@ -6132,15 +6132,15 @@
         <v>165</v>
       </c>
       <c r="AC120" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AD120" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -6149,10 +6149,10 @@
         <v>3</v>
       </c>
       <c r="AC121" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AD121" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
@@ -6171,7 +6171,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -6180,10 +6180,10 @@
         <v>2</v>
       </c>
       <c r="AC123" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD123" t="s">
         <v>673</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
@@ -6200,12 +6200,12 @@
         <v>97</v>
       </c>
       <c r="AC124" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B125" t="s">
         <v>166</v>
@@ -6214,10 +6214,10 @@
         <v>9</v>
       </c>
       <c r="AC125" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="AD125" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
@@ -6236,7 +6236,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B127" t="s">
         <v>117</v>
@@ -6245,18 +6245,18 @@
         <v>72</v>
       </c>
       <c r="Z127" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AC127" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="AD127" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B128" t="s">
         <v>117</v>
@@ -6265,18 +6265,18 @@
         <v>72</v>
       </c>
       <c r="Z128" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AC128" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="AD128" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B129" t="s">
         <v>117</v>
@@ -6288,15 +6288,15 @@
         <v>102</v>
       </c>
       <c r="AC129" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AD129" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="130" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B130" s="40" t="s">
         <v>10</v>
@@ -6305,12 +6305,12 @@
         <v>3</v>
       </c>
       <c r="AC130" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -6319,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="AC131" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="132" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
@@ -6333,15 +6333,15 @@
         <v>72</v>
       </c>
       <c r="AC132" s="40" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AD132" s="40" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="133" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="37" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B133" s="38" t="s">
         <v>117</v>
@@ -6353,20 +6353,20 @@
         <v>3</v>
       </c>
       <c r="AD133" s="38" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC135" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B136" t="s">
         <v>117</v>
@@ -6378,21 +6378,21 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB136" t="s">
+        <v>823</v>
+      </c>
+      <c r="AC136" t="s">
         <v>824</v>
       </c>
-      <c r="AC136" t="s">
+      <c r="AD136" t="s">
         <v>825</v>
-      </c>
-      <c r="AD136" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="137" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="42" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B137" s="43" t="s">
         <v>117</v>
@@ -6401,15 +6401,15 @@
         <v>72</v>
       </c>
       <c r="AC137" s="43" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="AD137" s="43" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="138" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="42" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B138" s="43" t="s">
         <v>166</v>
@@ -6418,32 +6418,32 @@
         <v>9</v>
       </c>
       <c r="AC138" s="43" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="AD138" s="44" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="139" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="B139" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB139" s="43" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC139" s="44" t="s">
         <v>833</v>
       </c>
-      <c r="B139" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB139" s="43" t="s">
-        <v>838</v>
-      </c>
-      <c r="AC139" s="44" t="s">
-        <v>834</v>
-      </c>
       <c r="AD139" s="43" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="140" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="42" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="B140" s="43" t="s">
         <v>10</v>
@@ -6452,15 +6452,15 @@
         <v>2</v>
       </c>
       <c r="AC140" s="43" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="AD140" s="44" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B141" s="43" t="s">
         <v>117</v>
@@ -6472,12 +6472,12 @@
         <v>3</v>
       </c>
       <c r="AC141" s="43" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="142" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="43" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B142" s="43" t="s">
         <v>117</v>
@@ -6494,7 +6494,7 @@
         <v>142</v>
       </c>
       <c r="AC144" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
@@ -6535,10 +6535,10 @@
         <v>1</v>
       </c>
       <c r="AB146" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AC146" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AD146" s="6" t="s">
         <v>183</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -6557,13 +6557,13 @@
         <v>2</v>
       </c>
       <c r="AC147" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AD147" s="6"/>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B148" t="s">
         <v>117</v>
@@ -6578,18 +6578,18 @@
         <v>0</v>
       </c>
       <c r="AB148" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AC148" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AD148" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B149" t="s">
         <v>117</v>
@@ -6598,16 +6598,16 @@
         <v>9</v>
       </c>
       <c r="AB149" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AC149" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AD149" s="3"/>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B150" t="s">
         <v>117</v>
@@ -6622,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AD150" s="3"/>
     </row>
@@ -6631,13 +6631,13 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B153" t="s">
         <v>117</v>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AD153" s="3"/>
     </row>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
@@ -6672,10 +6672,10 @@
         <v>0.2</v>
       </c>
       <c r="Z157" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB157" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AC157" t="s">
         <v>182</v>
@@ -6692,10 +6692,10 @@
         <v>3</v>
       </c>
       <c r="AC158" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AD158" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AC159" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>72</v>
       </c>
       <c r="E161" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z161" t="s">
         <v>114</v>
@@ -6744,13 +6744,13 @@
         <v>210</v>
       </c>
       <c r="AC161" s="6" t="s">
-        <v>211</v>
+        <v>1153</v>
       </c>
       <c r="AD161" s="6"/>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B162" t="s">
         <v>72</v>
@@ -6762,12 +6762,12 @@
         <v>104</v>
       </c>
       <c r="AC162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B163" t="s">
         <v>9</v>
@@ -6776,23 +6776,23 @@
         <v>102</v>
       </c>
       <c r="AC163" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC164" t="s">
         <v>338</v>
-      </c>
-      <c r="B164" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC164" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -6801,48 +6801,48 @@
         <v>2</v>
       </c>
       <c r="AC165" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B166" t="s">
         <v>72</v>
       </c>
       <c r="AC166" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC167" t="s">
         <v>226</v>
-      </c>
-      <c r="B167" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC167" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B168" t="s">
         <v>590</v>
-      </c>
-      <c r="B168" t="s">
-        <v>591</v>
       </c>
       <c r="AA168" t="s">
         <v>3</v>
       </c>
       <c r="AC168" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B169" t="s">
         <v>72</v>
@@ -6856,12 +6856,12 @@
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B172" t="s">
         <v>72</v>
@@ -6870,12 +6870,12 @@
         <v>10</v>
       </c>
       <c r="AC172" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -6884,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="AC173" t="s">
-        <v>955</v>
+        <v>1152</v>
       </c>
       <c r="AD173" t="s">
         <v>181</v>
@@ -6895,12 +6895,12 @@
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B176" t="s">
         <v>117</v>
@@ -6909,12 +6909,12 @@
         <v>72</v>
       </c>
       <c r="E176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B177" t="s">
         <v>117</v>
@@ -6923,12 +6923,12 @@
         <v>72</v>
       </c>
       <c r="AC177" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B178" t="s">
         <v>72</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -6962,12 +6962,12 @@
         <v>3</v>
       </c>
       <c r="AC180" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -6976,12 +6976,12 @@
         <v>2</v>
       </c>
       <c r="AC181" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B182" t="s">
         <v>72</v>
@@ -6990,26 +6990,26 @@
         <v>0</v>
       </c>
       <c r="AC182" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB183" t="s">
         <v>320</v>
       </c>
-      <c r="B183" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB183" t="s">
-        <v>321</v>
-      </c>
       <c r="AC183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B185" t="s">
         <v>72</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B186" t="s">
         <v>72</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B187" t="s">
         <v>72</v>
@@ -7054,15 +7054,15 @@
         <v>0.2</v>
       </c>
       <c r="Z187" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC187" t="s">
         <v>325</v>
-      </c>
-      <c r="AC187" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B188" t="s">
         <v>72</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -7082,15 +7082,15 @@
         <v>2</v>
       </c>
       <c r="AC189" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B190" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AA190" t="s">
         <v>3</v>
@@ -7101,12 +7101,12 @@
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>203</v>
@@ -7115,43 +7115,43 @@
         <v>9</v>
       </c>
       <c r="AB193" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC193" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AC193" s="3" t="s">
+      <c r="AD193" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="AD193" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="AE193" s="6"/>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
       <c r="AC194" t="s">
-        <v>990</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
       </c>
       <c r="AB195" s="5"/>
       <c r="AC195" s="3" t="s">
-        <v>999</v>
+        <v>1155</v>
       </c>
       <c r="AD195" s="3"/>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B196" t="s">
         <v>72</v>
@@ -7160,15 +7160,15 @@
         <v>0</v>
       </c>
       <c r="AB196" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AC196" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B197" t="s">
         <v>72</v>
@@ -7180,12 +7180,12 @@
         <v>5</v>
       </c>
       <c r="AC197" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B199" t="s">
         <v>72</v>
@@ -7213,12 +7213,12 @@
         <v>104</v>
       </c>
       <c r="AC199" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B200" t="s">
         <v>72</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B201" t="s">
         <v>72</v>
@@ -7242,12 +7242,12 @@
         <v>5</v>
       </c>
       <c r="AC201" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B202" t="s">
         <v>117</v>
@@ -7256,23 +7256,23 @@
         <v>72</v>
       </c>
       <c r="AC202" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>841</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC205" t="s">
         <v>842</v>
-      </c>
-      <c r="B205" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC205" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.2">
@@ -7280,18 +7280,18 @@
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC208" t="s">
         <v>220</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC208" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.2">
@@ -7299,12 +7299,12 @@
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B211" t="s">
         <v>117</v>
@@ -7313,15 +7313,15 @@
         <v>72</v>
       </c>
       <c r="E211" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC211" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B212" t="s">
         <v>72</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B213" t="s">
         <v>72</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="214" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B214" t="s">
         <v>117</v>
@@ -7358,23 +7358,23 @@
         <v>102</v>
       </c>
       <c r="AC214" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B215" t="s">
         <v>9</v>
       </c>
       <c r="AC215" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B216" t="s">
         <v>72</v>
@@ -7383,24 +7383,24 @@
         <v>1</v>
       </c>
       <c r="AB216" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AC216" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B217" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA217" t="s">
         <v>3</v>
       </c>
       <c r="AC217" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.2">
@@ -7408,15 +7408,15 @@
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC219" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B220" t="s">
         <v>117</v>
@@ -7431,12 +7431,12 @@
         <v>32</v>
       </c>
       <c r="AC220" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B221" t="s">
         <v>117</v>
@@ -7448,12 +7448,12 @@
         <v>1</v>
       </c>
       <c r="AC221" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B222" t="s">
         <v>117</v>
@@ -7465,12 +7465,12 @@
         <v>1</v>
       </c>
       <c r="AC222" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
@@ -7480,7 +7480,7 @@
         <v>3</v>
       </c>
       <c r="AC223" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.2">
@@ -7488,7 +7488,7 @@
         <v>192</v>
       </c>
       <c r="AC225" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.2">
@@ -7519,18 +7519,18 @@
         <v>197</v>
       </c>
       <c r="AC227" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F228" s="32"/>
       <c r="AB228" t="s">
@@ -7545,10 +7545,10 @@
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AC230" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.2">
@@ -7565,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="AC231" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.2">
@@ -7573,13 +7573,13 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA232" t="s">
         <v>3</v>
       </c>
       <c r="AC232" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.2">
@@ -7596,12 +7596,12 @@
         <v>148</v>
       </c>
       <c r="AC233" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B234" t="s">
         <v>203</v>
@@ -7610,15 +7610,15 @@
         <v>9</v>
       </c>
       <c r="AB234" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AC234" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B235" t="s">
         <v>72</v>
@@ -7635,10 +7635,10 @@
         <v>1E-3</v>
       </c>
       <c r="AB235" t="s">
+        <v>725</v>
+      </c>
+      <c r="AC235" t="s">
         <v>726</v>
-      </c>
-      <c r="AC235" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.2">
@@ -7684,10 +7684,10 @@
         <v>165</v>
       </c>
       <c r="AC237" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AD237" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.2">
@@ -7707,21 +7707,21 @@
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
       <c r="AD238" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB239" t="s">
         <v>290</v>
       </c>
-      <c r="B239" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB239" t="s">
+      <c r="AC239" t="s">
         <v>291</v>
-      </c>
-      <c r="AC239" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.2">
@@ -7729,12 +7729,12 @@
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B242" t="s">
         <v>9</v>
@@ -7746,24 +7746,24 @@
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="AB242" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC242" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB243" t="s">
         <v>569</v>
       </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB243" t="s">
+      <c r="AC243" t="s">
         <v>570</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.2">
@@ -7780,7 +7780,7 @@
         <v>41</v>
       </c>
       <c r="AC247" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
@@ -7791,10 +7791,10 @@
         <v>9</v>
       </c>
       <c r="AB248" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AC248" t="s">
-        <v>921</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.2">
@@ -7802,7 +7802,7 @@
         <v>50</v>
       </c>
       <c r="AC253" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.2">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="AB254" s="5"/>
       <c r="AC254" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="AD254" t="s">
         <v>18</v>
@@ -7837,7 +7837,7 @@
         <v>9</v>
       </c>
       <c r="AB255" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AC255" s="3" t="s">
         <v>204</v>
@@ -7846,7 +7846,7 @@
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
         <v>117</v>
@@ -7855,10 +7855,10 @@
         <v>72</v>
       </c>
       <c r="AB256" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.2">
@@ -8014,12 +8014,12 @@
       </c>
       <c r="AB264" s="5"/>
       <c r="AC264" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B265" t="s">
         <v>72</v>
@@ -8031,12 +8031,12 @@
         <v>104</v>
       </c>
       <c r="AC265" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B266" t="s">
         <v>117</v>
@@ -8049,12 +8049,12 @@
       </c>
       <c r="AB266" s="6"/>
       <c r="AC266" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B267" t="s">
         <v>117</v>
@@ -8067,12 +8067,12 @@
       </c>
       <c r="AB267" s="6"/>
       <c r="AC267" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B268" t="s">
         <v>10</v>
@@ -8082,28 +8082,28 @@
       </c>
       <c r="AB268" s="6"/>
       <c r="AC268" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD268" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>799</v>
+      </c>
+      <c r="X269" t="s">
         <v>762</v>
-      </c>
-      <c r="B269" t="s">
-        <v>9</v>
-      </c>
-      <c r="E269" t="s">
-        <v>800</v>
-      </c>
-      <c r="X269" t="s">
-        <v>763</v>
       </c>
       <c r="AB269" s="6"/>
       <c r="AC269" s="6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.2">
@@ -8117,20 +8117,20 @@
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AB272" s="5"/>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B273" t="s">
         <v>72</v>
       </c>
       <c r="AB273" s="5"/>
       <c r="AC273" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.2">
@@ -8144,10 +8144,10 @@
         <v>72</v>
       </c>
       <c r="E274" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="AC274" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD274" t="s">
         <v>145</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
@@ -8165,12 +8165,12 @@
       </c>
       <c r="AB275" s="5"/>
       <c r="AC275" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B276" t="s">
         <v>72</v>
@@ -8179,33 +8179,33 @@
         <v>10</v>
       </c>
       <c r="Z276" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB276" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="AB276" s="5" t="s">
+      <c r="AC276" t="s">
         <v>729</v>
-      </c>
-      <c r="AC276" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B277" t="s">
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AB277" s="5"/>
       <c r="AC277" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B278" t="s">
         <v>72</v>
@@ -8217,15 +8217,15 @@
         <v>114</v>
       </c>
       <c r="AB278" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AC278" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B279" t="s">
         <v>72</v>
@@ -8237,15 +8237,15 @@
         <v>187</v>
       </c>
       <c r="AB279" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AC279" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B280" t="s">
         <v>10</v>
@@ -8255,12 +8255,12 @@
       </c>
       <c r="AB280" s="5"/>
       <c r="AC280" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
@@ -8269,12 +8269,12 @@
         <v>179</v>
       </c>
       <c r="AC281" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B282" t="s">
         <v>72</v>
@@ -8289,12 +8289,12 @@
         <v>188</v>
       </c>
       <c r="AC282" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B283" t="s">
         <v>10</v>
@@ -8304,30 +8304,30 @@
       </c>
       <c r="AB283" s="5"/>
       <c r="AC283" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B284" t="s">
         <v>9</v>
       </c>
       <c r="E284" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="X284" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AB284" s="5"/>
       <c r="AC284" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B285" t="s">
         <v>72</v>
@@ -8339,12 +8339,12 @@
         <v>104</v>
       </c>
       <c r="AC285" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B286" t="s">
         <v>72</v>
@@ -8354,28 +8354,28 @@
       </c>
       <c r="AB286" s="5"/>
       <c r="AC286" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F287" s="16"/>
       <c r="AB287" s="5"/>
       <c r="AC287" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B288" t="s">
         <v>10</v>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="AB288" s="5"/>
       <c r="AC288" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.2">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="AB293" s="5"/>
       <c r="AC293" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294" spans="1:29" x14ac:dyDescent="0.2">
@@ -8470,7 +8470,7 @@
     </row>
     <row r="296" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B296" t="s">
         <v>72</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B297" t="s">
         <v>9</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="298" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B298" t="s">
         <v>72</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
@@ -8522,12 +8522,12 @@
       </c>
       <c r="AB300" s="5"/>
       <c r="AC300" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="301" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B301" t="s">
         <v>117</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="302" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B302" t="s">
         <v>117</v>
@@ -8548,12 +8548,12 @@
         <v>9</v>
       </c>
       <c r="AB302" s="31" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B303" t="s">
         <v>9</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="304" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B304" t="s">
         <v>72</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B305" t="s">
         <v>117</v>
@@ -8586,18 +8586,18 @@
         <v>72</v>
       </c>
       <c r="AB305" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC305" t="s">
         <v>263</v>
       </c>
-      <c r="AC305" t="s">
-        <v>264</v>
-      </c>
       <c r="AD305" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B306" t="s">
         <v>117</v>
@@ -8607,15 +8607,15 @@
       </c>
       <c r="AB306" s="5"/>
       <c r="AC306" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AD306" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B307" t="s">
         <v>117</v>
@@ -8624,13 +8624,13 @@
         <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB307" s="5"/>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B308" t="s">
         <v>117</v>
@@ -8640,15 +8640,15 @@
       </c>
       <c r="AB308" s="5"/>
       <c r="AC308" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AD308" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B309" t="s">
         <v>117</v>
@@ -8658,27 +8658,27 @@
       </c>
       <c r="AB309" s="5"/>
       <c r="AC309" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AD309" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
       </c>
       <c r="E310" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AB310" s="5"/>
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B311" t="s">
         <v>72</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB313" s="5"/>
     </row>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B315" t="s">
         <v>117</v>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B316" t="s">
         <v>117</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B317" t="s">
         <v>117</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B318" t="s">
         <v>117</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B319" t="s">
         <v>117</v>
@@ -8759,13 +8759,13 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="AB319" s="5"/>
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B320" t="s">
         <v>117</v>
@@ -8777,39 +8777,39 @@
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AB321" s="5"/>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
       </c>
       <c r="AB322" s="5"/>
       <c r="AC322" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD322" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>514</v>
+      </c>
+      <c r="B323" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC323" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="B323" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC323" s="5" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B324" t="s">
         <v>117</v>
@@ -8818,15 +8818,15 @@
         <v>9</v>
       </c>
       <c r="E324" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB324" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="AB324" s="5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B325" t="s">
         <v>117</v>
@@ -8835,36 +8835,36 @@
         <v>9</v>
       </c>
       <c r="E325" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AB325" s="5"/>
       <c r="AC325" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>465</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB326" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B326" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB326" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="AC326" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>661</v>
+      </c>
+      <c r="B327" t="s">
+        <v>426</v>
+      </c>
+      <c r="E327" t="s">
         <v>662</v>
-      </c>
-      <c r="B327" t="s">
-        <v>427</v>
-      </c>
-      <c r="E327" t="s">
-        <v>663</v>
       </c>
       <c r="AA327" t="s">
         <v>3</v>
@@ -8873,27 +8873,27 @@
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B328" t="s">
         <v>9</v>
       </c>
       <c r="AB328" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AC328" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B329" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
@@ -8921,133 +8921,133 @@
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B330" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC330" s="3"/>
       <c r="AD330" s="3"/>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>470</v>
+      </c>
+      <c r="B331" t="s">
+        <v>426</v>
+      </c>
+      <c r="E331" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="B331" t="s">
-        <v>427</v>
-      </c>
-      <c r="E331" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="F331" s="5"/>
       <c r="AB331" s="5"/>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>472</v>
+      </c>
+      <c r="B332" t="s">
+        <v>426</v>
+      </c>
+      <c r="E332" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="B332" t="s">
-        <v>427</v>
-      </c>
-      <c r="E332" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="F332" s="5"/>
       <c r="AB332" s="5"/>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>483</v>
+      </c>
+      <c r="B333" t="s">
+        <v>426</v>
+      </c>
+      <c r="E333" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="B333" t="s">
-        <v>427</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F333" s="5"/>
       <c r="AB333" s="5"/>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>485</v>
+      </c>
+      <c r="B334" t="s">
+        <v>426</v>
+      </c>
+      <c r="E334" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="B334" t="s">
-        <v>427</v>
-      </c>
-      <c r="E334" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="F334" s="5"/>
       <c r="AB334" s="5"/>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>489</v>
+      </c>
+      <c r="B335" t="s">
+        <v>426</v>
+      </c>
+      <c r="E335" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="B335" t="s">
-        <v>427</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="F335" s="5"/>
       <c r="AB335" s="5"/>
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>497</v>
+      </c>
+      <c r="B336" t="s">
+        <v>426</v>
+      </c>
+      <c r="E336" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="B336" t="s">
-        <v>427</v>
-      </c>
-      <c r="E336" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="F336" s="5"/>
       <c r="AB336" s="5"/>
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>492</v>
+      </c>
+      <c r="B337" t="s">
+        <v>426</v>
+      </c>
+      <c r="E337" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="B337" t="s">
-        <v>427</v>
-      </c>
-      <c r="E337" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F337" s="5"/>
       <c r="AB337" s="5"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B338" t="s">
         <v>9</v>
       </c>
       <c r="AB338" s="5"/>
       <c r="AC338" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B339" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F339" s="5"/>
       <c r="AB339" s="5"/>
     </row>
     <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B340" t="s">
         <v>10</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B341" t="s">
         <v>10</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B342" t="s">
         <v>10</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
@@ -9098,19 +9098,19 @@
     </row>
     <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B344" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E344" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AB344" s="5"/>
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B345" t="s">
         <v>10</v>
@@ -9122,25 +9122,25 @@
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B346" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E346" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="AB346" s="5"/>
     </row>
     <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>502</v>
+      </c>
+      <c r="B347" t="s">
+        <v>426</v>
+      </c>
+      <c r="E347" t="s">
         <v>503</v>
-      </c>
-      <c r="B347" t="s">
-        <v>427</v>
-      </c>
-      <c r="E347" t="s">
-        <v>504</v>
       </c>
       <c r="AB347" s="5"/>
     </row>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B355" t="s">
         <v>72</v>
@@ -9308,7 +9308,7 @@
         <v>5</v>
       </c>
       <c r="AC355" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="356" spans="1:30" x14ac:dyDescent="0.2">
@@ -9368,7 +9368,7 @@
     </row>
     <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B358" t="s">
         <v>72</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="360" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B360" s="30" t="s">
         <v>72</v>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="AB360" s="35"/>
       <c r="AC360" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.2">
@@ -9444,7 +9444,7 @@
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B362" t="s">
         <v>72</v>
@@ -9456,7 +9456,7 @@
         <v>5</v>
       </c>
       <c r="AC362" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.2">
@@ -9479,29 +9479,29 @@
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B366" t="s">
         <v>9</v>
       </c>
       <c r="AB366" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="AC366" s="3" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="AD366" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="B367" t="s">
         <v>10</v>
@@ -9511,15 +9511,15 @@
       </c>
       <c r="AB367" s="5"/>
       <c r="AC367" s="3" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="AD367" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B368" t="s">
         <v>10</v>
@@ -9529,61 +9529,61 @@
       </c>
       <c r="AB368" s="5"/>
       <c r="AC368" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AD368" s="3"/>
     </row>
     <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B369" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E369" t="s">
         <v>32</v>
       </c>
       <c r="AC369" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="AD369" s="3"/>
     </row>
     <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B370" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E370" t="s">
         <v>32</v>
       </c>
       <c r="AC370" s="3"/>
       <c r="AD370" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B371" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E371" t="s">
         <v>32</v>
       </c>
       <c r="AC371" s="3"/>
       <c r="AD371" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B372" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E372" t="s">
         <v>32</v>
@@ -9592,22 +9592,22 @@
         <v>28</v>
       </c>
       <c r="AD372" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B373" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E373" t="s">
         <v>32</v>
       </c>
       <c r="AC373" s="3"/>
       <c r="AD373" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="374" spans="1:30" x14ac:dyDescent="0.2">
@@ -9615,13 +9615,13 @@
         <v>69</v>
       </c>
       <c r="B374" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC374" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AD374" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
@@ -9629,23 +9629,23 @@
         <v>70</v>
       </c>
       <c r="B375" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC375" s="3"/>
       <c r="AD375" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B376" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC376" s="3"/>
       <c r="AD376" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="377" spans="1:30" x14ac:dyDescent="0.2">
@@ -9653,37 +9653,37 @@
         <v>71</v>
       </c>
       <c r="B377" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC377" s="3"/>
       <c r="AD377" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B378" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC378" s="3"/>
       <c r="AD378" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B379" t="s">
         <v>117</v>
       </c>
       <c r="C379" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC379" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AD379" s="3"/>
     </row>
@@ -9704,18 +9704,18 @@
         <v>2</v>
       </c>
       <c r="AC383" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="384" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="385" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="386" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B386" t="s">
         <v>10</v>
@@ -9724,26 +9724,26 @@
         <v>3</v>
       </c>
       <c r="AC386" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="387" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B387" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E387" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AC387" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="388" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B388" t="s">
         <v>72</v>
@@ -9755,49 +9755,49 @@
         <v>5</v>
       </c>
       <c r="AC388" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="389" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
+        <v>269</v>
+      </c>
+      <c r="B389" t="s">
+        <v>9</v>
+      </c>
+      <c r="E389" t="s">
         <v>270</v>
       </c>
-      <c r="B389" t="s">
-        <v>9</v>
-      </c>
-      <c r="E389" t="s">
-        <v>271</v>
-      </c>
       <c r="AC389" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="390" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
+        <v>271</v>
+      </c>
+      <c r="B390" t="s">
+        <v>9</v>
+      </c>
+      <c r="E390" t="s">
         <v>272</v>
       </c>
-      <c r="B390" t="s">
-        <v>9</v>
-      </c>
-      <c r="E390" t="s">
-        <v>273</v>
-      </c>
       <c r="AC390" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="391" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="AC392" s="6" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>10</v>
@@ -9831,15 +9831,15 @@
       <c r="AA393" s="6"/>
       <c r="AB393" s="5"/>
       <c r="AC393" s="6" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="AD393" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B394" t="s">
         <v>117</v>
@@ -9848,13 +9848,13 @@
         <v>9</v>
       </c>
       <c r="E394" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="AC394" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="AD394" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="395" spans="1:30" x14ac:dyDescent="0.2">
@@ -9864,15 +9864,15 @@
     </row>
     <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="AC396" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B397" t="s">
         <v>10</v>
@@ -9881,37 +9881,37 @@
         <v>2</v>
       </c>
       <c r="AC397" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B398" t="s">
         <v>9</v>
       </c>
       <c r="AC398" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B399" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E399" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="AC399" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B400" t="s">
         <v>10</v>
@@ -9920,12 +9920,12 @@
         <v>3</v>
       </c>
       <c r="AC400" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="401" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B401" t="s">
         <v>9</v>
@@ -9934,7 +9934,7 @@
         <v>3</v>
       </c>
       <c r="AC401" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="403" spans="1:29" x14ac:dyDescent="0.2">
@@ -9958,7 +9958,7 @@
   <dimension ref="A1:AE375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9984,19 +9984,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>26</v>
@@ -10005,37 +10005,37 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -10047,7 +10047,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -10056,7 +10056,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2"/>
@@ -10091,35 +10091,35 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1136</v>
+        <v>1150</v>
       </c>
       <c r="AC3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="AC4" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -10128,12 +10128,12 @@
         <v>1158</v>
       </c>
       <c r="AC5" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -10142,12 +10142,12 @@
         <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -10156,18 +10156,18 @@
         <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA8" t="s">
         <v>3</v>
@@ -10175,13 +10175,13 @@
     </row>
     <row r="9" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F9"/>
       <c r="AA9" s="33" t="s">
@@ -10190,13 +10190,13 @@
     </row>
     <row r="10" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F10"/>
       <c r="AA10" s="33" t="s">
@@ -10205,13 +10205,13 @@
     </row>
     <row r="11" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F11"/>
       <c r="AA11" s="33" t="s">
@@ -10220,25 +10220,25 @@
     </row>
     <row r="12" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>496</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>497</v>
       </c>
       <c r="AA13" s="33" t="s">
         <v>3</v>
@@ -10246,7 +10246,7 @@
     </row>
     <row r="14" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -10254,7 +10254,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F14"/>
       <c r="AA14" s="33" t="s">
@@ -10263,7 +10263,7 @@
     </row>
     <row r="15" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>9</v>
@@ -10271,41 +10271,41 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B16" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B17" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10313,36 +10313,36 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B19" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="F20"/>
       <c r="AA20" s="33" t="s">
@@ -10396,114 +10396,114 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E25" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="B30" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E30" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="B31" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -10614,19 +10614,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>26</v>
@@ -10635,37 +10635,37 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -10677,7 +10677,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -10686,7 +10686,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -10694,10 +10694,10 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AC2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -10711,7 +10711,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="AC3" t="s">
         <v>91</v>
@@ -10728,7 +10728,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AC4" t="s">
         <v>90</v>
@@ -10736,15 +10736,15 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AC6" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -10753,7 +10753,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="AC7" t="s">
         <v>91</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -10770,7 +10770,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AC8" t="s">
         <v>90</v>
@@ -10778,15 +10778,15 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -10795,7 +10795,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="AC11" t="s">
         <v>91</v>
@@ -10803,7 +10803,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -10812,7 +10812,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AC12" t="s">
         <v>90</v>
@@ -10934,19 +10934,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>26</v>
@@ -10955,37 +10955,37 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -10997,7 +10997,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -11006,7 +11006,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -11014,15 +11014,15 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
@@ -11065,15 +11065,15 @@
         <v>9</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AC7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -11083,15 +11083,15 @@
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
@@ -11103,13 +11103,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -11118,33 +11118,33 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Q12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AC12" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -11153,16 +11153,16 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AD13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -11171,19 +11171,19 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" t="s">
+        <v>809</v>
+      </c>
+      <c r="AD14" t="s">
         <v>810</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
         <v>117</v>
@@ -11192,16 +11192,16 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AD15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B16" t="s">
         <v>117</v>
@@ -11210,19 +11210,19 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AD16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -11231,13 +11231,13 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
@@ -11246,24 +11246,24 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="Z18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AB18" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC18" t="s">
         <v>679</v>
       </c>
-      <c r="AC18" t="s">
-        <v>680</v>
-      </c>
       <c r="AD18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -11272,7 +11272,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AB19" s="5"/>
     </row>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA21" t="s">
         <v>3</v>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>9</v>
@@ -11297,7 +11297,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F22" s="12"/>
       <c r="AA22" t="s">
@@ -11307,7 +11307,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>9</v>
@@ -11315,7 +11315,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F23" s="13"/>
       <c r="AA23" t="s">
@@ -11325,7 +11325,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>9</v>
@@ -11333,7 +11333,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F24" s="14"/>
       <c r="AA24" t="s">
@@ -11342,7 +11342,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>9</v>
@@ -11350,7 +11350,7 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F25" s="15"/>
       <c r="AA25" t="s">
@@ -11359,7 +11359,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -11367,7 +11367,7 @@
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" s="16"/>
       <c r="AA26" t="s">
@@ -11376,7 +11376,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>9</v>
@@ -11384,7 +11384,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F27" s="17"/>
       <c r="AA27" t="s">
@@ -11393,7 +11393,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>9</v>
@@ -11401,7 +11401,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F28" s="18"/>
       <c r="AA28" t="s">
@@ -11410,7 +11410,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>9</v>
@@ -11418,7 +11418,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F29" s="19"/>
       <c r="AA29" t="s">
@@ -11427,7 +11427,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F30" s="20"/>
       <c r="AA30" t="s">
@@ -11444,7 +11444,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>9</v>
@@ -11452,7 +11452,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F31" s="21"/>
       <c r="AA31" t="s">
@@ -11461,7 +11461,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>9</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>9</v>
@@ -11486,7 +11486,7 @@
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F33" s="23"/>
       <c r="AA33" t="s">
@@ -11495,7 +11495,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>9</v>
@@ -11503,7 +11503,7 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F34" s="24"/>
       <c r="AA34" t="s">
@@ -11512,7 +11512,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F35" s="25"/>
       <c r="AA35" t="s">
@@ -11529,7 +11529,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>9</v>
@@ -11537,7 +11537,7 @@
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F36" s="26"/>
       <c r="AA36" t="s">
@@ -11546,7 +11546,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>9</v>
@@ -11554,7 +11554,7 @@
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F37" s="27"/>
       <c r="AA37" t="s">
@@ -11563,7 +11563,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>9</v>
@@ -11571,7 +11571,7 @@
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F38" s="28"/>
       <c r="AA38" t="s">
@@ -11580,7 +11580,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>9</v>
@@ -11588,7 +11588,7 @@
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F39" s="29"/>
       <c r="AA39" t="s">
@@ -11597,7 +11597,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>9</v>
@@ -11605,7 +11605,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F40" s="30"/>
       <c r="AA40" t="s">
@@ -11614,13 +11614,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA41" t="s">
         <v>3</v>
@@ -11628,13 +11628,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA42" t="s">
         <v>3</v>
@@ -11642,13 +11642,13 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA43" t="s">
         <v>3</v>
@@ -11656,13 +11656,13 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA44" t="s">
         <v>3</v>
@@ -11670,13 +11670,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA45" t="s">
         <v>3</v>
@@ -11684,13 +11684,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA46" t="s">
         <v>3</v>
@@ -11698,13 +11698,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA47" t="s">
         <v>3</v>
@@ -11712,13 +11712,13 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AA48" t="s">
         <v>3</v>
@@ -11726,13 +11726,13 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA49" t="s">
         <v>3</v>
@@ -11740,13 +11740,13 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>403</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
         <v>404</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>405</v>
       </c>
       <c r="AA50" t="s">
         <v>3</v>
@@ -11754,13 +11754,13 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
         <v>413</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>414</v>
       </c>
       <c r="AA51" t="s">
         <v>3</v>
@@ -11768,13 +11768,13 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
         <v>415</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>416</v>
       </c>
       <c r="AA52" t="s">
         <v>3</v>
@@ -11782,13 +11782,13 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>416</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
         <v>417</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>418</v>
       </c>
       <c r="AA53" t="s">
         <v>3</v>
@@ -11796,51 +11796,51 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
@@ -11862,7 +11862,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="A28:E28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11887,19 +11887,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>26</v>
@@ -11908,37 +11908,37 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -11950,7 +11950,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -11959,7 +11959,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -12072,10 +12072,10 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -12084,10 +12084,10 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -12108,10 +12108,10 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -12132,82 +12132,82 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+      <c r="E18" t="s">
         <v>523</v>
-      </c>
-      <c r="B18" t="s">
-        <v>427</v>
-      </c>
-      <c r="E18" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" t="s">
         <v>610</v>
-      </c>
-      <c r="B22" t="s">
-        <v>427</v>
-      </c>
-      <c r="E22" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>613</v>
+      </c>
+      <c r="B23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" t="s">
         <v>614</v>
-      </c>
-      <c r="B23" t="s">
-        <v>427</v>
-      </c>
-      <c r="E23" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="AA25" t="s">
         <v>3</v>
@@ -12215,7 +12215,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B26" t="s">
         <v>117</v>
@@ -12224,14 +12224,14 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="AA26" t="s">
         <v>3</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -12274,19 +12274,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>26</v>
@@ -12295,37 +12295,37 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -12337,7 +12337,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -12346,7 +12346,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -12354,32 +12354,32 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC2" t="s">
+        <v>655</v>
+      </c>
+      <c r="AD2" t="s">
         <v>656</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="AB3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC3" t="s">
         <v>654</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B6" t="s">
         <v>117</v>
@@ -12419,15 +12419,15 @@
         <v>165</v>
       </c>
       <c r="AC6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -12436,12 +12436,12 @@
         <v>102</v>
       </c>
       <c r="AB7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>72</v>
@@ -12454,12 +12454,12 @@
         <v>104</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>72</v>
@@ -12468,57 +12468,57 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC9" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AC10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AC11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AC12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -12527,7 +12527,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AA13" t="s">
         <v>3</v>
@@ -12535,18 +12535,18 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="E14" t="s">
         <v>660</v>
-      </c>
-      <c r="B14" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B15" t="s">
         <v>166</v>
@@ -12560,7 +12560,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B16" t="s">
         <v>166</v>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -12588,7 +12588,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -12597,12 +12597,12 @@
         <v>3</v>
       </c>
       <c r="AC18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -12616,27 +12616,27 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S22" s="5"/>
       <c r="AC22" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B23" t="s">
         <v>117</v>
@@ -12650,27 +12650,27 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="R24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -12678,51 +12678,51 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R26" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B29" t="s">
         <v>117</v>
@@ -12731,22 +12731,22 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R30" s="5">
         <v>1</v>
@@ -12755,28 +12755,28 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="R32">
         <v>1.3</v>
@@ -12784,41 +12784,41 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="R34" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R35">
         <v>2.1</v>
@@ -12826,25 +12826,25 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="R37" s="5">
         <v>1</v>
@@ -12852,27 +12852,27 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>886</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>909</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>910</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="R39" s="5">
         <v>3</v>
@@ -12880,38 +12880,38 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R42">
         <v>0.5</v>
@@ -12919,16 +12919,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="R43" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -12976,19 +12976,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>26</v>
@@ -12997,37 +12997,37 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -13039,7 +13039,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -13048,7 +13048,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -13056,12 +13056,12 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -13070,7 +13070,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -13078,13 +13078,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA4" t="s">
         <v>3</v>
@@ -13092,24 +13092,24 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>818</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA6" t="s">
         <v>3</v>
@@ -13117,13 +13117,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA7" t="s">
         <v>3</v>
@@ -13132,13 +13132,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AA8" t="s">
         <v>3</v>
@@ -13146,14 +13146,14 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6"/>
       <c r="E9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
@@ -13162,13 +13162,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA10" t="s">
         <v>3</v>
@@ -13177,13 +13177,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AA11" t="s">
         <v>3</v>
@@ -13191,13 +13191,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>770</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>771</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>772</v>
       </c>
       <c r="AA12" t="s">
         <v>3</v>
@@ -13205,24 +13205,24 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA14" t="s">
         <v>3</v>
@@ -13230,13 +13230,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AA15" t="s">
         <v>3</v>
@@ -13244,24 +13244,24 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA17" t="s">
         <v>3</v>
@@ -13269,13 +13269,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AA18" t="s">
         <v>3</v>
@@ -13283,13 +13283,13 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AA19" t="s">
         <v>3</v>
@@ -13297,13 +13297,13 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA20" t="s">
         <v>3</v>
@@ -13311,13 +13311,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AA21" t="s">
         <v>3</v>
@@ -13325,13 +13325,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -13339,13 +13339,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -13353,16 +13353,16 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB5C2F-485B-C240-8375-D0BCA7C19860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8063BD6-C78C-694E-9738-5925A3BE9796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1161">
   <si>
     <t>default</t>
   </si>
@@ -1538,9 +1538,6 @@
     <t>ext/snippet/yaml-powerpoint.Rmd</t>
   </si>
   <si>
-    <t>/Volumes/p_james/dev</t>
-  </si>
-  <si>
     <t>/Users/mdijkstra/Dropbox/cpb/git/james</t>
   </si>
   <si>
@@ -1598,9 +1595,6 @@
     <t>manual_xlsx_example_path</t>
   </si>
   <si>
-    <t>M:/p_james/dev</t>
-  </si>
-  <si>
     <t>R-header.R</t>
   </si>
   <si>
@@ -3320,9 +3314,6 @@
     <t>cpb-rs-l02p.cpb.nl</t>
   </si>
   <si>
-    <t>/cifs/p_james/dev</t>
-  </si>
-  <si>
     <t>path_root_windows</t>
   </si>
   <si>
@@ -3347,9 +3338,6 @@
     <t>project_folder</t>
   </si>
   <si>
-    <t>p_james/dev</t>
-  </si>
-  <si>
     <t># CBS</t>
   </si>
   <si>
@@ -3515,7 +3503,25 @@
     <t>Gives path to font, dependent on platform (*i.e.* windows, linux, osx)</t>
   </si>
   <si>
-    <t>dev-2022-04-15</t>
+    <t>/Volumes/p_james/release</t>
+  </si>
+  <si>
+    <t>M:/p_james/release</t>
+  </si>
+  <si>
+    <t>/cifs/p_james/release</t>
+  </si>
+  <si>
+    <t>p_james/release</t>
+  </si>
+  <si>
+    <t>manual_file_name</t>
+  </si>
+  <si>
+    <t>paste0("james-", get_param("james_version"), "-manual.html")</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
   </si>
 </sst>
 </file>
@@ -4129,9 +4135,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE411"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4179,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>265</v>
@@ -4200,25 +4206,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
@@ -4230,7 +4236,7 @@
         <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -4242,7 +4248,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -4251,7 +4257,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -4288,12 +4294,12 @@
         <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4305,12 +4311,12 @@
         <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -4322,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -4358,10 +4364,10 @@
         <v>9</v>
       </c>
       <c r="AB9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -4384,7 +4390,7 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AB10" t="s">
         <v>186</v>
@@ -4424,7 +4430,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -4434,7 +4440,7 @@
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -4452,7 +4458,7 @@
         <v>450</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -4472,16 +4478,16 @@
         <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N15" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="O15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>55</v>
@@ -4500,10 +4506,10 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE16" s="6"/>
     </row>
@@ -4521,10 +4527,10 @@
       <c r="G17" s="3"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE17" s="6"/>
     </row>
@@ -4542,10 +4548,10 @@
       <c r="G18" s="3"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE18" s="6"/>
     </row>
@@ -4561,16 +4567,16 @@
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE19" s="6"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -4580,16 +4586,16 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AE20" s="6"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -4599,16 +4605,16 @@
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AE21" s="6"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -4617,20 +4623,20 @@
         <v>0.1</v>
       </c>
       <c r="Z22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="6" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AE22" s="6"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -4640,16 +4646,16 @@
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AE23" s="6"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4659,10 +4665,10 @@
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE24" s="6"/>
     </row>
@@ -4677,20 +4683,20 @@
         <v>600</v>
       </c>
       <c r="Z25" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="3" t="s">
         <v>432</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AE25" s="6"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>10</v>
@@ -4724,10 +4730,10 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4741,7 +4747,7 @@
         <v>75</v>
       </c>
       <c r="Z27" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="3" t="s">
@@ -4776,14 +4782,14 @@
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="6"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B30" t="s">
         <v>117</v>
@@ -4793,7 +4799,7 @@
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AD30" s="3"/>
       <c r="AE30" s="6"/>
@@ -4809,7 +4815,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -4818,13 +4824,13 @@
         <v>0.8</v>
       </c>
       <c r="Z33" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AB33">
         <v>0.8</v>
       </c>
       <c r="AC33" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AE33" s="6"/>
     </row>
@@ -4836,16 +4842,16 @@
         <v>9</v>
       </c>
       <c r="N34" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="S34" s="6"/>
       <c r="AC34" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -4857,12 +4863,12 @@
         <v>317</v>
       </c>
       <c r="AC35" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -4874,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="AC36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AD36" t="s">
         <v>267</v>
@@ -4891,7 +4897,7 @@
         <v>102</v>
       </c>
       <c r="AC37" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
@@ -4902,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AB38" t="s">
         <v>30</v>
@@ -4955,7 +4961,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -4975,7 +4981,7 @@
         <v>9</v>
       </c>
       <c r="N43" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AB43" t="s">
         <v>37</v>
@@ -5031,7 +5037,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -5048,7 +5054,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -5059,7 +5065,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5101,34 +5107,34 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E52" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="AB52" t="s">
         <v>427</v>
       </c>
       <c r="AC52" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B53" t="s">
         <v>426</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F53" s="6"/>
       <c r="AC53" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -5142,10 +5148,10 @@
         <v>7</v>
       </c>
       <c r="Z54" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AC54" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -5172,7 +5178,7 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AC57" s="6"/>
     </row>
@@ -5187,24 +5193,24 @@
         <v>72</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AB59" s="36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -5218,7 +5224,7 @@
         <v>72</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -5235,7 +5241,7 @@
         <v>104</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -5249,10 +5255,10 @@
         <v>9</v>
       </c>
       <c r="AB62" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -5269,10 +5275,10 @@
         <v>102</v>
       </c>
       <c r="AB63" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -5292,7 +5298,7 @@
         <v>116</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
@@ -5317,7 +5323,7 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B66" t="s">
         <v>117</v>
@@ -5329,15 +5335,15 @@
         <v>1</v>
       </c>
       <c r="AB66" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B67" t="s">
         <v>117</v>
@@ -5349,7 +5355,7 @@
         <v>0.5</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
@@ -5358,16 +5364,16 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C69" s="6"/>
       <c r="AC69" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B70" t="s">
         <v>203</v>
@@ -5379,7 +5385,7 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -5388,12 +5394,12 @@
         <v>1</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B72" t="s">
         <v>117</v>
@@ -5405,12 +5411,12 @@
         <v>102</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B73" t="s">
         <v>117</v>
@@ -5422,15 +5428,15 @@
         <v>4</v>
       </c>
       <c r="AB73" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
@@ -5450,7 +5456,7 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
@@ -5462,12 +5468,12 @@
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
@@ -5479,12 +5485,12 @@
         <v>0.5</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B77" t="s">
         <v>117</v>
@@ -5499,7 +5505,7 @@
         <v>116</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
@@ -5507,7 +5513,7 @@
         <v>239</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
@@ -5518,7 +5524,7 @@
         <v>9</v>
       </c>
       <c r="AB80" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AC80" t="s">
         <v>240</v>
@@ -5549,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AC82" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
@@ -5566,29 +5572,29 @@
         <v>5</v>
       </c>
       <c r="AC83" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AB84" t="s">
+        <v>788</v>
+      </c>
+      <c r="AC84" t="s">
         <v>790</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -5600,7 +5606,7 @@
         <v>317</v>
       </c>
       <c r="AC85" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
@@ -5632,7 +5638,7 @@
         <v>0.85</v>
       </c>
       <c r="AC87" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
@@ -5640,7 +5646,7 @@
         <v>98</v>
       </c>
       <c r="AC89" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AD89" t="s">
         <v>18</v>
@@ -5683,12 +5689,12 @@
         <v>118</v>
       </c>
       <c r="AC91" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -5697,15 +5703,15 @@
         <v>2</v>
       </c>
       <c r="AC93" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AD93" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -5717,12 +5723,12 @@
         <v>185</v>
       </c>
       <c r="AD94" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B95" t="s">
         <v>72</v>
@@ -5731,15 +5737,15 @@
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AD95" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
@@ -5748,15 +5754,15 @@
         <v>102</v>
       </c>
       <c r="AC96" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AD96" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B97" t="s">
         <v>72</v>
@@ -5765,15 +5771,15 @@
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AD97" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
@@ -5782,10 +5788,10 @@
         <v>102</v>
       </c>
       <c r="AC98" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AD98" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
@@ -5796,10 +5802,10 @@
         <v>72</v>
       </c>
       <c r="AB99" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AC99" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
@@ -5810,13 +5816,13 @@
         <v>72</v>
       </c>
       <c r="AB100" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AC100" s="6" t="s">
         <v>122</v>
       </c>
       <c r="AD100" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
@@ -5833,7 +5839,7 @@
         <v>88</v>
       </c>
       <c r="AD101" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
@@ -5847,10 +5853,10 @@
         <v>9</v>
       </c>
       <c r="AC102" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AD102" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
@@ -5886,7 +5892,7 @@
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B105" t="s">
         <v>117</v>
@@ -5912,7 +5918,7 @@
         <v>5</v>
       </c>
       <c r="AC106" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
@@ -5931,7 +5937,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -5940,18 +5946,18 @@
         <v>72</v>
       </c>
       <c r="Z108" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AC108" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AD108" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B109" t="s">
         <v>117</v>
@@ -5960,13 +5966,13 @@
         <v>72</v>
       </c>
       <c r="Z109" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AC109" t="s">
         <v>1038</v>
       </c>
-      <c r="AC109" t="s">
-        <v>1040</v>
-      </c>
       <c r="AD109" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
@@ -5982,7 +5988,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -5991,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="AC111" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
@@ -6022,7 +6028,7 @@
         <v>254</v>
       </c>
       <c r="AD113" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
@@ -6112,7 +6118,7 @@
         <v>480</v>
       </c>
       <c r="AC119" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AD119" t="s">
         <v>87</v>
@@ -6132,10 +6138,10 @@
         <v>165</v>
       </c>
       <c r="AC120" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AD120" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
@@ -6149,10 +6155,10 @@
         <v>3</v>
       </c>
       <c r="AC121" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AD121" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
@@ -6171,7 +6177,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -6180,10 +6186,10 @@
         <v>2</v>
       </c>
       <c r="AC123" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AD123" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
@@ -6200,12 +6206,12 @@
         <v>97</v>
       </c>
       <c r="AC124" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B125" t="s">
         <v>166</v>
@@ -6214,10 +6220,10 @@
         <v>9</v>
       </c>
       <c r="AC125" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AD125" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
@@ -6236,7 +6242,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B127" t="s">
         <v>117</v>
@@ -6245,18 +6251,18 @@
         <v>72</v>
       </c>
       <c r="Z127" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AC127" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AD127" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B128" t="s">
         <v>117</v>
@@ -6265,18 +6271,18 @@
         <v>72</v>
       </c>
       <c r="Z128" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AC128" t="s">
         <v>1038</v>
       </c>
-      <c r="AC128" t="s">
-        <v>1040</v>
-      </c>
       <c r="AD128" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B129" t="s">
         <v>117</v>
@@ -6288,10 +6294,10 @@
         <v>102</v>
       </c>
       <c r="AC129" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AD129" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="130" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
@@ -6310,7 +6316,7 @@
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -6319,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="AC131" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="132" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
@@ -6333,15 +6339,15 @@
         <v>72</v>
       </c>
       <c r="AC132" s="40" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AD132" s="40" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="133" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="37" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B133" s="38" t="s">
         <v>117</v>
@@ -6353,7 +6359,7 @@
         <v>3</v>
       </c>
       <c r="AD133" s="38" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
@@ -6361,7 +6367,7 @@
         <v>336</v>
       </c>
       <c r="AC135" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
@@ -6381,18 +6387,18 @@
         <v>335</v>
       </c>
       <c r="AB136" t="s">
+        <v>821</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>822</v>
+      </c>
+      <c r="AD136" t="s">
         <v>823</v>
-      </c>
-      <c r="AC136" t="s">
-        <v>824</v>
-      </c>
-      <c r="AD136" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="137" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="42" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B137" s="43" t="s">
         <v>117</v>
@@ -6401,15 +6407,15 @@
         <v>72</v>
       </c>
       <c r="AC137" s="43" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AD137" s="43" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="138" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B138" s="43" t="s">
         <v>166</v>
@@ -6418,32 +6424,32 @@
         <v>9</v>
       </c>
       <c r="AC138" s="43" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AD138" s="44" t="s">
         <v>1136</v>
-      </c>
-      <c r="AD138" s="44" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="139" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="43" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B139" s="43" t="s">
         <v>72</v>
       </c>
       <c r="AB139" s="43" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AC139" s="44" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD139" s="43" t="s">
         <v>833</v>
-      </c>
-      <c r="AD139" s="43" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="140" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="42" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B140" s="43" t="s">
         <v>10</v>
@@ -6452,15 +6458,15 @@
         <v>2</v>
       </c>
       <c r="AC140" s="43" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AD140" s="44" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="141" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="42" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B141" s="43" t="s">
         <v>117</v>
@@ -6472,12 +6478,12 @@
         <v>3</v>
       </c>
       <c r="AC141" s="43" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="142" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="43" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B142" s="43" t="s">
         <v>117</v>
@@ -6494,7 +6500,7 @@
         <v>142</v>
       </c>
       <c r="AC144" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
@@ -6535,10 +6541,10 @@
         <v>1</v>
       </c>
       <c r="AB146" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AC146" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AD146" s="6" t="s">
         <v>183</v>
@@ -6546,7 +6552,7 @@
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -6557,13 +6563,13 @@
         <v>2</v>
       </c>
       <c r="AC147" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AD147" s="6"/>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B148" t="s">
         <v>117</v>
@@ -6578,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AB148" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AC148" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AD148" s="3" t="s">
         <v>237</v>
@@ -6589,7 +6595,7 @@
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B149" t="s">
         <v>117</v>
@@ -6598,16 +6604,16 @@
         <v>9</v>
       </c>
       <c r="AB149" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AC149" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AD149" s="3"/>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B150" t="s">
         <v>117</v>
@@ -6622,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AD150" s="3"/>
     </row>
@@ -6631,13 +6637,13 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B153" t="s">
         <v>117</v>
@@ -6649,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AD153" s="3"/>
     </row>
@@ -6672,10 +6678,10 @@
         <v>0.2</v>
       </c>
       <c r="Z157" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AB157" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AC157" t="s">
         <v>182</v>
@@ -6692,10 +6698,10 @@
         <v>3</v>
       </c>
       <c r="AC158" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AD158" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
@@ -6709,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="AC159" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
@@ -6744,7 +6750,7 @@
         <v>210</v>
       </c>
       <c r="AC161" s="6" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="AD161" s="6"/>
     </row>
@@ -6776,7 +6782,7 @@
         <v>102</v>
       </c>
       <c r="AC163" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
@@ -6792,7 +6798,7 @@
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -6801,7 +6807,7 @@
         <v>2</v>
       </c>
       <c r="AC165" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
@@ -6812,7 +6818,7 @@
         <v>72</v>
       </c>
       <c r="AC166" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.2">
@@ -6828,21 +6834,21 @@
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B168" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AA168" t="s">
         <v>3</v>
       </c>
       <c r="AC168" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B169" t="s">
         <v>72</v>
@@ -6856,12 +6862,12 @@
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B172" t="s">
         <v>72</v>
@@ -6870,12 +6876,12 @@
         <v>10</v>
       </c>
       <c r="AC172" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -6884,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="AC173" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="AD173" t="s">
         <v>181</v>
@@ -7073,7 +7079,7 @@
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -7082,15 +7088,15 @@
         <v>2</v>
       </c>
       <c r="AC189" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B190" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AA190" t="s">
         <v>3</v>
@@ -7101,7 +7107,7 @@
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.2">
@@ -7127,13 +7133,13 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
       <c r="AC194" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.2">
@@ -7145,13 +7151,13 @@
       </c>
       <c r="AB195" s="5"/>
       <c r="AC195" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="AD195" s="3"/>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B196" t="s">
         <v>72</v>
@@ -7160,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="AB196" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AC196" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.2">
@@ -7242,12 +7248,12 @@
         <v>5</v>
       </c>
       <c r="AC201" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B202" t="s">
         <v>117</v>
@@ -7256,23 +7262,23 @@
         <v>72</v>
       </c>
       <c r="AC202" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
       </c>
       <c r="AC205" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.2">
@@ -7316,7 +7322,7 @@
         <v>232</v>
       </c>
       <c r="AC211" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.2">
@@ -7358,23 +7364,23 @@
         <v>102</v>
       </c>
       <c r="AC214" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B215" t="s">
         <v>9</v>
       </c>
       <c r="AC215" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B216" t="s">
         <v>72</v>
@@ -7383,24 +7389,24 @@
         <v>1</v>
       </c>
       <c r="AB216" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AC216" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B217" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AA217" t="s">
         <v>3</v>
       </c>
       <c r="AC217" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.2">
@@ -7411,7 +7417,7 @@
         <v>236</v>
       </c>
       <c r="AC219" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.2">
@@ -7431,7 +7437,7 @@
         <v>32</v>
       </c>
       <c r="AC220" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.2">
@@ -7448,12 +7454,12 @@
         <v>1</v>
       </c>
       <c r="AC221" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B222" t="s">
         <v>117</v>
@@ -7465,12 +7471,12 @@
         <v>1</v>
       </c>
       <c r="AC222" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
@@ -7480,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="AC223" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.2">
@@ -7488,7 +7494,7 @@
         <v>192</v>
       </c>
       <c r="AC225" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.2">
@@ -7519,7 +7525,7 @@
         <v>197</v>
       </c>
       <c r="AC227" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.2">
@@ -7545,10 +7551,10 @@
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AC230" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.2">
@@ -7565,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="AC231" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.2">
@@ -7579,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="AC232" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.2">
@@ -7596,7 +7602,7 @@
         <v>148</v>
       </c>
       <c r="AC233" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.2">
@@ -7618,7 +7624,7 @@
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B235" t="s">
         <v>72</v>
@@ -7635,10 +7641,10 @@
         <v>1E-3</v>
       </c>
       <c r="AB235" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AC235" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.2">
@@ -7684,10 +7690,10 @@
         <v>165</v>
       </c>
       <c r="AC237" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AD237" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.2">
@@ -7707,7 +7713,7 @@
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
       <c r="AD238" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.2">
@@ -7729,7 +7735,7 @@
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
@@ -7749,21 +7755,21 @@
         <v>249</v>
       </c>
       <c r="AC242" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>567</v>
+      </c>
+      <c r="AC243" t="s">
         <v>568</v>
-      </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB243" t="s">
-        <v>569</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.2">
@@ -7780,7 +7786,7 @@
         <v>41</v>
       </c>
       <c r="AC247" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
@@ -7791,10 +7797,10 @@
         <v>9</v>
       </c>
       <c r="AB248" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AC248" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.2">
@@ -7802,7 +7808,7 @@
         <v>50</v>
       </c>
       <c r="AC253" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.2">
@@ -7820,7 +7826,7 @@
       </c>
       <c r="AB254" s="5"/>
       <c r="AC254" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AD254" t="s">
         <v>18</v>
@@ -8014,7 +8020,7 @@
       </c>
       <c r="AB264" s="5"/>
       <c r="AC264" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.2">
@@ -8036,7 +8042,7 @@
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B266" t="s">
         <v>117</v>
@@ -8049,12 +8055,12 @@
       </c>
       <c r="AB266" s="6"/>
       <c r="AC266" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B267" t="s">
         <v>117</v>
@@ -8067,12 +8073,12 @@
       </c>
       <c r="AB267" s="6"/>
       <c r="AC267" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B268" t="s">
         <v>10</v>
@@ -8082,28 +8088,28 @@
       </c>
       <c r="AB268" s="6"/>
       <c r="AC268" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AD268" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B269" t="s">
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="X269" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AB269" s="6"/>
       <c r="AC269" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.2">
@@ -8117,20 +8123,20 @@
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AB272" s="5"/>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B273" t="s">
         <v>72</v>
       </c>
       <c r="AB273" s="5"/>
       <c r="AC273" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.2">
@@ -8144,10 +8150,10 @@
         <v>72</v>
       </c>
       <c r="E274" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AC274" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AD274" t="s">
         <v>145</v>
@@ -8155,7 +8161,7 @@
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
@@ -8165,12 +8171,12 @@
       </c>
       <c r="AB275" s="5"/>
       <c r="AC275" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B276" t="s">
         <v>72</v>
@@ -8179,33 +8185,33 @@
         <v>10</v>
       </c>
       <c r="Z276" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB276" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC276" t="s">
         <v>727</v>
-      </c>
-      <c r="AB276" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="AC276" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B277" t="s">
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AB277" s="5"/>
       <c r="AC277" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B278" t="s">
         <v>72</v>
@@ -8217,15 +8223,15 @@
         <v>114</v>
       </c>
       <c r="AB278" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AC278" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B279" t="s">
         <v>72</v>
@@ -8237,15 +8243,15 @@
         <v>187</v>
       </c>
       <c r="AB279" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AC279" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B280" t="s">
         <v>10</v>
@@ -8255,12 +8261,12 @@
       </c>
       <c r="AB280" s="5"/>
       <c r="AC280" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
@@ -8269,12 +8275,12 @@
         <v>179</v>
       </c>
       <c r="AC281" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B282" t="s">
         <v>72</v>
@@ -8289,12 +8295,12 @@
         <v>188</v>
       </c>
       <c r="AC282" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B283" t="s">
         <v>10</v>
@@ -8304,30 +8310,30 @@
       </c>
       <c r="AB283" s="5"/>
       <c r="AC283" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B284" t="s">
         <v>9</v>
       </c>
       <c r="E284" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="X284" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AB284" s="5"/>
       <c r="AC284" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B285" t="s">
         <v>72</v>
@@ -8344,7 +8350,7 @@
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B286" t="s">
         <v>72</v>
@@ -8354,12 +8360,12 @@
       </c>
       <c r="AB286" s="5"/>
       <c r="AC286" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
@@ -8370,12 +8376,12 @@
       <c r="F287" s="16"/>
       <c r="AB287" s="5"/>
       <c r="AC287" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B288" t="s">
         <v>10</v>
@@ -8385,7 +8391,7 @@
       </c>
       <c r="AB288" s="5"/>
       <c r="AC288" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.2">
@@ -8548,7 +8554,7 @@
         <v>9</v>
       </c>
       <c r="AB302" s="31" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.2">
@@ -8597,7 +8603,7 @@
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B306" t="s">
         <v>117</v>
@@ -8607,7 +8613,7 @@
       </c>
       <c r="AB306" s="5"/>
       <c r="AC306" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AD306" t="s">
         <v>260</v>
@@ -8640,7 +8646,7 @@
       </c>
       <c r="AB308" s="5"/>
       <c r="AC308" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AD308" t="s">
         <v>260</v>
@@ -8648,7 +8654,7 @@
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B309" t="s">
         <v>117</v>
@@ -8658,7 +8664,7 @@
       </c>
       <c r="AB309" s="5"/>
       <c r="AC309" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AD309" s="6" t="s">
         <v>418</v>
@@ -8672,7 +8678,7 @@
         <v>9</v>
       </c>
       <c r="E310" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AB310" s="5"/>
     </row>
@@ -8693,7 +8699,7 @@
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AB313" s="5"/>
     </row>
@@ -8702,7 +8708,7 @@
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B315" t="s">
         <v>117</v>
@@ -8714,7 +8720,7 @@
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B316" t="s">
         <v>117</v>
@@ -8726,7 +8732,7 @@
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B317" t="s">
         <v>117</v>
@@ -8738,7 +8744,7 @@
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B318" t="s">
         <v>117</v>
@@ -8750,7 +8756,7 @@
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B319" t="s">
         <v>117</v>
@@ -8759,13 +8765,13 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AB319" s="5"/>
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B320" t="s">
         <v>117</v>
@@ -8790,26 +8796,26 @@
       </c>
       <c r="AB322" s="5"/>
       <c r="AC322" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AD322" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B323" t="s">
         <v>426</v>
       </c>
       <c r="AC323" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B324" t="s">
         <v>117</v>
@@ -8839,7 +8845,7 @@
       </c>
       <c r="AB325" s="5"/>
       <c r="AC325" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
@@ -8853,18 +8859,18 @@
         <v>466</v>
       </c>
       <c r="AC326" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B327" t="s">
         <v>426</v>
       </c>
       <c r="E327" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AA327" t="s">
         <v>3</v>
@@ -8882,7 +8888,7 @@
         <v>467</v>
       </c>
       <c r="AC328" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
@@ -9086,7 +9092,7 @@
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
@@ -9122,25 +9128,25 @@
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B346" t="s">
         <v>426</v>
       </c>
       <c r="E346" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AB346" s="5"/>
     </row>
     <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B347" t="s">
         <v>426</v>
       </c>
       <c r="E347" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AB347" s="5"/>
     </row>
@@ -9290,7 +9296,7 @@
     </row>
     <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B355" t="s">
         <v>72</v>
@@ -9308,7 +9314,7 @@
         <v>5</v>
       </c>
       <c r="AC355" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="356" spans="1:30" x14ac:dyDescent="0.2">
@@ -9412,7 +9418,7 @@
     </row>
     <row r="360" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="34" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B360" s="30" t="s">
         <v>72</v>
@@ -9422,7 +9428,7 @@
       </c>
       <c r="AB360" s="35"/>
       <c r="AC360" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.2">
@@ -9479,7 +9485,7 @@
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="366" spans="1:30" x14ac:dyDescent="0.2">
@@ -9490,18 +9496,18 @@
         <v>9</v>
       </c>
       <c r="AB366" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AC366" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="AD366" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B367" t="s">
         <v>10</v>
@@ -9511,7 +9517,7 @@
       </c>
       <c r="AB367" s="5"/>
       <c r="AC367" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AD367" s="3" t="s">
         <v>448</v>
@@ -9519,7 +9525,7 @@
     </row>
     <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B368" t="s">
         <v>10</v>
@@ -9529,7 +9535,7 @@
       </c>
       <c r="AB368" s="5"/>
       <c r="AC368" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AD368" s="3"/>
     </row>
@@ -9544,7 +9550,7 @@
         <v>32</v>
       </c>
       <c r="AC369" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AD369" s="3"/>
     </row>
@@ -9597,7 +9603,7 @@
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B373" t="s">
         <v>426</v>
@@ -9618,7 +9624,7 @@
         <v>426</v>
       </c>
       <c r="AC374" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AD374" s="3" t="s">
         <v>448</v>
@@ -9633,7 +9639,7 @@
       </c>
       <c r="AC375" s="3"/>
       <c r="AD375" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="376" spans="1:30" x14ac:dyDescent="0.2">
@@ -9645,7 +9651,7 @@
       </c>
       <c r="AC376" s="3"/>
       <c r="AD376" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="377" spans="1:30" x14ac:dyDescent="0.2">
@@ -9657,24 +9663,24 @@
       </c>
       <c r="AC377" s="3"/>
       <c r="AD377" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B378" t="s">
         <v>426</v>
       </c>
       <c r="AC378" s="3"/>
       <c r="AD378" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B379" t="s">
         <v>117</v>
@@ -9683,7 +9689,7 @@
         <v>426</v>
       </c>
       <c r="AC379" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AD379" s="3"/>
     </row>
@@ -9704,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="AC383" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="384" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9724,21 +9730,21 @@
         <v>3</v>
       </c>
       <c r="AC386" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="387" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B387" t="s">
         <v>426</v>
       </c>
       <c r="E387" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AC387" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="388" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9755,7 +9761,7 @@
         <v>5</v>
       </c>
       <c r="AC388" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="389" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9769,7 +9775,7 @@
         <v>270</v>
       </c>
       <c r="AC389" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="390" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9783,21 +9789,21 @@
         <v>272</v>
       </c>
       <c r="AC390" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="391" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AC392" s="6" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>10</v>
@@ -9831,15 +9837,15 @@
       <c r="AA393" s="6"/>
       <c r="AB393" s="5"/>
       <c r="AC393" s="6" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AD393" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B394" t="s">
         <v>117</v>
@@ -9848,13 +9854,13 @@
         <v>9</v>
       </c>
       <c r="E394" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AC394" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AD394" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="395" spans="1:30" x14ac:dyDescent="0.2">
@@ -9864,15 +9870,15 @@
     </row>
     <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AC396" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B397" t="s">
         <v>10</v>
@@ -9881,37 +9887,37 @@
         <v>2</v>
       </c>
       <c r="AC397" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B398" t="s">
         <v>9</v>
       </c>
       <c r="AC398" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B399" t="s">
         <v>426</v>
       </c>
       <c r="E399" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AC399" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B400" t="s">
         <v>10</v>
@@ -9920,12 +9926,12 @@
         <v>3</v>
       </c>
       <c r="AC400" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="401" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B401" t="s">
         <v>9</v>
@@ -9934,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="AC401" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="403" spans="1:29" x14ac:dyDescent="0.2">
@@ -9958,7 +9964,7 @@
   <dimension ref="A1:AE375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9984,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>265</v>
@@ -10005,25 +10011,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
@@ -10035,7 +10041,7 @@
         <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -10047,7 +10053,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -10056,7 +10062,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -10064,7 +10070,7 @@
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2"/>
@@ -10091,30 +10097,30 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="AC3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="AC4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -10124,16 +10130,16 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>1158</v>
+      <c r="E5" s="31" t="s">
+        <v>1160</v>
       </c>
       <c r="AC5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -10142,12 +10148,12 @@
         <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -10156,18 +10162,18 @@
         <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B8" t="s">
         <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AA8" t="s">
         <v>3</v>
@@ -10175,7 +10181,7 @@
     </row>
     <row r="9" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>426</v>
@@ -10190,13 +10196,13 @@
     </row>
     <row r="10" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>426</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>499</v>
+        <v>1154</v>
       </c>
       <c r="F10"/>
       <c r="AA10" s="33" t="s">
@@ -10205,13 +10211,13 @@
     </row>
     <row r="11" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>426</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>519</v>
+        <v>1155</v>
       </c>
       <c r="F11"/>
       <c r="AA11" s="33" t="s">
@@ -10220,13 +10226,13 @@
     </row>
     <row r="12" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>426</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1093</v>
+        <v>1156</v>
       </c>
       <c r="F12"/>
     </row>
@@ -10246,7 +10252,7 @@
     </row>
     <row r="14" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -10254,7 +10260,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F14"/>
       <c r="AA14" s="33" t="s">
@@ -10263,7 +10269,7 @@
     </row>
     <row r="15" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>9</v>
@@ -10271,41 +10277,41 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B16" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B17" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10313,27 +10319,27 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B19" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>117</v>
@@ -10342,7 +10348,7 @@
         <v>426</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F20"/>
       <c r="AA20" s="33" t="s">
@@ -10396,114 +10402,125 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B25" t="s">
         <v>426</v>
       </c>
       <c r="E25" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B26" t="s">
         <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B27" t="s">
         <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B28" t="s">
         <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>1102</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B30" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E30" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B31" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1148</v>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -10614,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>265</v>
@@ -10635,25 +10652,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
@@ -10665,7 +10682,7 @@
         <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -10677,7 +10694,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -10686,7 +10703,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -10694,10 +10711,10 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AC2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -10711,7 +10728,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AC3" t="s">
         <v>91</v>
@@ -10728,7 +10745,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AC4" t="s">
         <v>90</v>
@@ -10736,15 +10753,15 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AC6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -10753,7 +10770,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AC7" t="s">
         <v>91</v>
@@ -10761,7 +10778,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -10770,7 +10787,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AC8" t="s">
         <v>90</v>
@@ -10778,15 +10795,15 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -10795,7 +10812,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AC11" t="s">
         <v>91</v>
@@ -10803,7 +10820,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -10812,7 +10829,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AC12" t="s">
         <v>90</v>
@@ -10934,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>265</v>
@@ -10955,25 +10972,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
@@ -10985,7 +11002,7 @@
         <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -10997,7 +11014,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -11006,7 +11023,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -11017,12 +11034,12 @@
         <v>340</v>
       </c>
       <c r="AC2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -11065,7 +11082,7 @@
         <v>9</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AC7" t="s">
         <v>356</v>
@@ -11073,7 +11090,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -11083,15 +11100,15 @@
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
@@ -11103,13 +11120,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -11118,33 +11135,33 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G12" t="s">
         <v>265</v>
       </c>
       <c r="M12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N12" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="Q12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="R12" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AC12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -11153,16 +11170,16 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AD13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -11171,14 +11188,14 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AD14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -11192,16 +11209,16 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AD15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B16" t="s">
         <v>117</v>
@@ -11210,19 +11227,19 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AD16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -11231,13 +11248,13 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
@@ -11246,24 +11263,24 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="Z18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AC18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AD18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -11272,7 +11289,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AB19" s="5"/>
     </row>
@@ -11281,7 +11298,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AA21" t="s">
         <v>3</v>
@@ -11614,7 +11631,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -11796,51 +11813,51 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
@@ -11862,7 +11879,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11887,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>265</v>
@@ -11908,25 +11925,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
@@ -11938,7 +11955,7 @@
         <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -11950,7 +11967,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -11959,7 +11976,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -12132,40 +12149,40 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
         <v>426</v>
       </c>
       <c r="E16" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
         <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
         <v>426</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -12174,40 +12191,40 @@
         <v>426</v>
       </c>
       <c r="AC19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B22" t="s">
         <v>426</v>
       </c>
       <c r="E22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B23" t="s">
         <v>426</v>
       </c>
       <c r="E23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AA25" t="s">
         <v>3</v>
@@ -12224,14 +12241,14 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AA26" t="s">
         <v>3</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -12274,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>265</v>
@@ -12295,25 +12312,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
@@ -12325,7 +12342,7 @@
         <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -12337,7 +12354,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -12346,7 +12363,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -12354,32 +12371,32 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AC2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AD2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="AB3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AC3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -12393,7 +12410,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -12407,7 +12424,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B6" t="s">
         <v>117</v>
@@ -12419,15 +12436,15 @@
         <v>165</v>
       </c>
       <c r="AC6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -12436,12 +12453,12 @@
         <v>102</v>
       </c>
       <c r="AB7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>72</v>
@@ -12459,7 +12476,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>72</v>
@@ -12468,57 +12485,57 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AC10" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AC11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AC12" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -12527,7 +12544,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AA13" t="s">
         <v>3</v>
@@ -12535,18 +12552,18 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B14" t="s">
         <v>426</v>
       </c>
       <c r="E14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B15" t="s">
         <v>166</v>
@@ -12560,7 +12577,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B16" t="s">
         <v>166</v>
@@ -12574,7 +12591,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -12588,7 +12605,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -12597,12 +12614,12 @@
         <v>3</v>
       </c>
       <c r="AC18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -12616,27 +12633,27 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="S22" s="5"/>
       <c r="AC22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B23" t="s">
         <v>117</v>
@@ -12650,27 +12667,27 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="R24" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -12678,27 +12695,27 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="R26" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="R27" s="14" t="s">
         <v>367</v>
@@ -12707,13 +12724,13 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="R28" s="14" t="s">
         <v>367</v>
@@ -12722,7 +12739,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B29" t="s">
         <v>117</v>
@@ -12731,22 +12748,22 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="R30" s="5">
         <v>1</v>
@@ -12755,13 +12772,13 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="R31" s="12" t="s">
         <v>365</v>
@@ -12770,13 +12787,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="R32">
         <v>1.3</v>
@@ -12784,13 +12801,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="R33" s="12" t="s">
         <v>365</v>
@@ -12798,27 +12815,27 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="R34" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="R35">
         <v>2.1</v>
@@ -12826,25 +12843,25 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="R37" s="5">
         <v>1</v>
@@ -12852,27 +12869,27 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="R39" s="5">
         <v>3</v>
@@ -12880,38 +12897,38 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="R42">
         <v>0.5</v>
@@ -12919,13 +12936,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="R43" s="14" t="s">
         <v>367</v>
@@ -12976,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>265</v>
@@ -12997,25 +13014,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>178</v>
@@ -13027,7 +13044,7 @@
         <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>184</v>
@@ -13039,7 +13056,7 @@
         <v>14</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>16</v>
@@ -13048,7 +13065,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>67</v>
@@ -13056,12 +13073,12 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -13070,7 +13087,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -13078,13 +13095,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AA4" t="s">
         <v>3</v>
@@ -13092,24 +13109,24 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AA6" t="s">
         <v>3</v>
@@ -13117,13 +13134,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AA7" t="s">
         <v>3</v>
@@ -13132,13 +13149,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AA8" t="s">
         <v>3</v>
@@ -13146,14 +13163,14 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6"/>
       <c r="E9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
@@ -13162,13 +13179,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AA10" t="s">
         <v>3</v>
@@ -13177,13 +13194,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AA11" t="s">
         <v>3</v>
@@ -13191,13 +13208,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AA12" t="s">
         <v>3</v>
@@ -13205,24 +13222,24 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AA14" t="s">
         <v>3</v>
@@ -13230,13 +13247,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AA15" t="s">
         <v>3</v>
@@ -13244,24 +13261,24 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>913</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>915</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA17" t="s">
         <v>3</v>
@@ -13269,13 +13286,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AA18" t="s">
         <v>3</v>
@@ -13283,13 +13300,13 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA19" t="s">
         <v>3</v>
@@ -13297,13 +13314,13 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AA20" t="s">
         <v>3</v>
@@ -13311,13 +13328,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AA21" t="s">
         <v>3</v>
@@ -13325,13 +13342,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -13339,13 +13356,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -13353,7 +13370,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
@@ -13362,7 +13379,7 @@
         <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8063BD6-C78C-694E-9738-5925A3BE9796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F2B0C6-7105-CF4D-9DA7-E3A11A537C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -4135,9 +4135,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE411"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5847,7 +5847,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -6214,7 +6214,7 @@
         <v>593</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
@@ -6418,7 +6418,7 @@
         <v>826</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C138" s="43" t="s">
         <v>9</v>
@@ -9963,8 +9963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7057C-15EE-3240-BABA-A5F8BA4F4CF6}">
   <dimension ref="A1:AE375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F2B0C6-7105-CF4D-9DA7-E3A11A537C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5762F-389D-2B42-AB9F-FB6AF3135C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="1920" yWindow="1700" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="geo" sheetId="8" r:id="rId6"/>
     <sheet name="internal" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1183">
   <si>
     <t>default</t>
   </si>
@@ -3230,9 +3230,6 @@
     <t>Choose one or two if you want ticks at these places. Beware, the default ticks will not be shown now (set x_ticks_show = `y` if you want them too).</t>
   </si>
   <si>
-    <t>add_style, preprocess_data_grouping_variables, validate, draft, append_formula, data_operations, preprocess_first, replicate_params, forecast_pre, label_pre, area_stack_pre, hist_pre, bars_pre, whisker_pre, box_pre, dot_pre, linez_pre, area_pre, color_pre, legend_pre, set_lims, set_labs, find_y_r_scaling, logo_pre</t>
-  </si>
-  <si>
     <t>r_plot</t>
   </si>
   <si>
@@ -3482,9 +3479,6 @@
     <t>4.1.3</t>
   </si>
   <si>
-    <t>cpb_2</t>
-  </si>
-  <si>
     <t>If `y`, the histogram graphic is a representation of frequencies (*i.e.* counts). If `n`, probability densities are plotted so that the histogram has a total area of one if you set `bar_gap_fraction = 0`.</t>
   </si>
   <si>
@@ -3521,7 +3515,79 @@
     <t>paste0("james-", get_param("james_version"), "-manual.html")</t>
   </si>
   <si>
-    <t>2022-06-18</t>
+    <t># ARROWS</t>
+  </si>
+  <si>
+    <t>arrow_n</t>
+  </si>
+  <si>
+    <t>arrow_angle</t>
+  </si>
+  <si>
+    <t>15, 75</t>
+  </si>
+  <si>
+    <t>0.5, 1, 2</t>
+  </si>
+  <si>
+    <t>5; 3, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Length of arrow head line.</t>
+  </si>
+  <si>
+    <t>Number of arrows on time series of type line. If you provide 1 number, then this number represents the total number of arrows on  all 'line time series' together. If there are k &gt; 1 time series of type line, as an alternative to providing only one number, you can provide k numbers. In that case you set the number of arrows for each of the line time series individually.</t>
+  </si>
+  <si>
+    <t>add_style, preprocess_data_grouping_variables, validate, draft, append_formula, data_operations, preprocess_first, replicate_params, forecast_pre, label_pre, area_stack_pre, hist_pre, bars_pre, whisker_pre, box_pre, linez_pre, area_pre, color_pre, legend_pre, set_lims, set_labs, find_y_r_scaling, logo_pre</t>
+  </si>
+  <si>
+    <t>arrow_col</t>
+  </si>
+  <si>
+    <t>endeavour, rose, endeavour</t>
+  </si>
+  <si>
+    <t>Colour of the arrows that decorate your line. The colours default to the colour of the time series the appear on. If you supply one colour, all arrows will get the same colour. The alternative is to supply one colour for each individual arrow.</t>
+  </si>
+  <si>
+    <t>arrow_length_cm</t>
+  </si>
+  <si>
+    <t>arrow_list</t>
+  </si>
+  <si>
+    <t>arc degree</t>
+  </si>
+  <si>
+    <t>Angle between time series and arrow head line (0...360).</t>
+  </si>
+  <si>
+    <t>arrow_position_pct</t>
+  </si>
+  <si>
+    <t>1, 25, 50, 75, 100</t>
+  </si>
+  <si>
+    <t>Consider all time series of type 'line' glued together as one large curve. The percentage corresponds to the distance traveled on 'printed paper', i.e., irrespective of the values on the axes. The start of the curve is 0%, the end is 100%. Distances and percentages You can use this parameter to specify the locations at which you want to position an arrow. Please note that 0% is not allowed, use 1% instead. In addition, parameter 'arrow_position_pct' and 'arrow_n' are mutually exclusive, i.e. you should define at most one of the two.</t>
+  </si>
+  <si>
+    <t>legend_math</t>
+  </si>
+  <si>
+    <t>Enables the use of Greek characters (e.g. mu, sigma), subscript (e.g. f[x]) and superscript (e.g. ^2) in time series names. Please beware: use a tilde (~) to indicate a whitespace.</t>
+  </si>
+  <si>
+    <t>a^2, mu, y[x]</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>ocean_file_paths</t>
+  </si>
+  <si>
+    <t>c("/cifs/p_james/geo", "m:/p_james/geo", file.path(get_param("install_root_local_dev"), "ext", "geo"))</t>
   </si>
 </sst>
 </file>
@@ -4133,11 +4199,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84CE4E8-7971-924E-945B-10EFE25BF424}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE411"/>
+  <dimension ref="A1:AE419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4487,7 +4553,7 @@
         <v>951</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>55</v>
@@ -4506,10 +4572,10 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE16" s="6"/>
     </row>
@@ -4527,10 +4593,10 @@
       <c r="G17" s="3"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE17" s="6"/>
     </row>
@@ -4548,10 +4614,10 @@
       <c r="G18" s="3"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE18" s="6"/>
     </row>
@@ -4567,10 +4633,10 @@
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE19" s="6"/>
     </row>
@@ -4586,10 +4652,10 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AE20" s="6"/>
     </row>
@@ -4605,10 +4671,10 @@
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AE21" s="6"/>
     </row>
@@ -4627,10 +4693,10 @@
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AE22" s="6"/>
     </row>
@@ -4646,16 +4712,16 @@
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AE23" s="6"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4665,10 +4731,10 @@
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AD24" s="3" t="s">
         <v>1073</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>1074</v>
       </c>
       <c r="AE24" s="6"/>
     </row>
@@ -5054,7 +5120,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -5065,7 +5131,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5107,19 +5173,19 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E52" t="s">
         <v>1100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1101</v>
       </c>
       <c r="AB52" t="s">
         <v>427</v>
       </c>
       <c r="AC52" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -5711,7 +5777,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -5740,7 +5806,7 @@
         <v>1056</v>
       </c>
       <c r="AD95" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
@@ -5757,7 +5823,7 @@
         <v>1055</v>
       </c>
       <c r="AD96" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
@@ -6342,7 +6408,7 @@
         <v>601</v>
       </c>
       <c r="AD132" s="40" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="133" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6367,7 +6433,7 @@
         <v>336</v>
       </c>
       <c r="AC135" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
@@ -6407,10 +6473,10 @@
         <v>72</v>
       </c>
       <c r="AC137" s="43" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AD137" s="43" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="138" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6424,10 +6490,10 @@
         <v>9</v>
       </c>
       <c r="AC138" s="43" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AD138" s="44" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="139" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6449,7 +6515,7 @@
     </row>
     <row r="140" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="42" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B140" s="43" t="s">
         <v>10</v>
@@ -6458,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="AC140" s="43" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AD140" s="44" t="s">
         <v>830</v>
@@ -6478,7 +6544,7 @@
         <v>3</v>
       </c>
       <c r="AC141" s="43" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="142" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6637,977 +6703,998 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1010</v>
+        <v>1158</v>
       </c>
       <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1011</v>
+        <v>1160</v>
       </c>
       <c r="B153" t="s">
+        <v>72</v>
+      </c>
+      <c r="E153">
+        <v>15</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AD153" s="3"/>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="E154">
+        <v>0.2</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AD154" s="3"/>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B155" t="s">
         <v>117</v>
       </c>
-      <c r="C153" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB153">
-        <v>1</v>
-      </c>
-      <c r="AC153" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AD153" s="3"/>
-    </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD154" s="3"/>
+      <c r="C155" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>1174</v>
+      </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
-        <v>233</v>
+      <c r="A156" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B156" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AD156" s="3" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>1167</v>
       </c>
       <c r="B157" t="s">
-        <v>72</v>
-      </c>
-      <c r="E157">
-        <v>0.2</v>
-      </c>
-      <c r="Z157" t="s">
-        <v>524</v>
+        <v>117</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
       </c>
       <c r="AB157" t="s">
-        <v>523</v>
+        <v>1168</v>
       </c>
       <c r="AC157" t="s">
-        <v>182</v>
-      </c>
+        <v>1169</v>
+      </c>
+      <c r="AD157" s="3"/>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>1171</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA158" t="s">
         <v>3</v>
       </c>
-      <c r="AC158" t="s">
-        <v>525</v>
-      </c>
-      <c r="AD158" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B159" t="s">
-        <v>72</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="AC159" t="s">
-        <v>526</v>
-      </c>
+      <c r="AD158" s="3"/>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB160" s="5"/>
-      <c r="AC160" t="s">
-        <v>284</v>
-      </c>
+      <c r="A160" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AD160" s="3"/>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>209</v>
+      <c r="A161" t="s">
+        <v>1011</v>
       </c>
       <c r="B161" t="s">
-        <v>72</v>
-      </c>
-      <c r="E161" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z161" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB161" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC161" s="6" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AD161" s="6"/>
-    </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B162" t="s">
-        <v>72</v>
-      </c>
-      <c r="E162">
+        <v>117</v>
+      </c>
+      <c r="C161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB161">
         <v>1</v>
       </c>
-      <c r="AB162" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC162" t="s">
-        <v>244</v>
-      </c>
+      <c r="AC161" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AD161" s="3"/>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC163" t="s">
-        <v>527</v>
+      <c r="A163" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>337</v>
+      <c r="A164" t="s">
+        <v>181</v>
       </c>
       <c r="B164" t="s">
         <v>72</v>
       </c>
+      <c r="E164">
+        <v>0.2</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>523</v>
+      </c>
       <c r="AC164" t="s">
-        <v>338</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>776</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC165" t="s">
-        <v>779</v>
+        <v>525</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
         <v>72</v>
       </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
       <c r="AC166" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB167" s="5"/>
       <c r="AC167" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>587</v>
+        <v>209</v>
       </c>
       <c r="B168" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA168" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC168" t="s">
-        <v>589</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E168" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB168" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC168" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AD168" s="6"/>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>602</v>
+        <v>242</v>
       </c>
       <c r="B169" t="s">
         <v>72</v>
       </c>
-      <c r="AA169" t="s">
-        <v>3</v>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
+      <c r="A170" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A171" s="8" t="s">
-        <v>944</v>
+      <c r="A171" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>945</v>
+        <v>776</v>
       </c>
       <c r="B172" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB172">
         <v>10</v>
       </c>
+      <c r="E172" t="s">
+        <v>2</v>
+      </c>
       <c r="AC172" t="s">
-        <v>946</v>
+        <v>779</v>
       </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>950</v>
+      <c r="A173" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="AC173" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AD173" t="s">
-        <v>181</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
+      <c r="A174" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
-        <v>285</v>
+      <c r="A175" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B175" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>286</v>
+        <v>602</v>
       </c>
       <c r="B176" t="s">
-        <v>117</v>
-      </c>
-      <c r="C176" t="s">
-        <v>72</v>
-      </c>
-      <c r="E176" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B177" t="s">
-        <v>117</v>
-      </c>
-      <c r="C177" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC177" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B178" t="s">
-        <v>72</v>
-      </c>
-      <c r="E178">
-        <v>0.2</v>
-      </c>
-      <c r="P178">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>292</v>
+        <v>72</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>945</v>
       </c>
       <c r="B179" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB179">
         <v>10</v>
       </c>
-      <c r="E179" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>308</v>
+      <c r="AC179" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>950</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
       </c>
       <c r="E180" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B183" t="s">
+        <v>117</v>
+      </c>
+      <c r="C183" t="s">
+        <v>72</v>
+      </c>
+      <c r="E183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B184" t="s">
+        <v>117</v>
+      </c>
+      <c r="C184" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B185" t="s">
+        <v>72</v>
+      </c>
+      <c r="E185">
+        <v>0.2</v>
+      </c>
+      <c r="P185">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
         <v>3</v>
       </c>
-      <c r="AC180" t="s">
+      <c r="AC187" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B188" t="s">
         <v>10</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E188" t="s">
         <v>2</v>
       </c>
-      <c r="AC181" t="s">
+      <c r="AC188" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B182" t="s">
-        <v>72</v>
-      </c>
-      <c r="E182">
+      <c r="B189" t="s">
+        <v>72</v>
+      </c>
+      <c r="E189">
         <v>0</v>
       </c>
-      <c r="AC182" t="s">
+      <c r="AC189" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B183" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB183" t="s">
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB190" t="s">
         <v>320</v>
       </c>
-      <c r="AC183" t="s">
+      <c r="AC190" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B191" t="s">
         <v>10</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E191" t="s">
         <v>3</v>
       </c>
-      <c r="P184" t="s">
+      <c r="P191" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B185" t="s">
-        <v>72</v>
-      </c>
-      <c r="E185">
+      <c r="B192" t="s">
+        <v>72</v>
+      </c>
+      <c r="E192">
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B186" t="s">
-        <v>72</v>
-      </c>
-      <c r="E186">
+      <c r="B193" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B187" t="s">
-        <v>72</v>
-      </c>
-      <c r="E187">
-        <v>0.2</v>
-      </c>
-      <c r="Z187" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC187" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B188" t="s">
-        <v>72</v>
-      </c>
-      <c r="E188">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>780</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="E189" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC189" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="B190" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A192" s="8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>303</v>
-      </c>
-      <c r="B193" t="s">
-        <v>203</v>
-      </c>
-      <c r="C193" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB193" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC193" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD193" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE193" s="6"/>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>556</v>
+        <v>441</v>
       </c>
       <c r="B194" t="s">
+        <v>72</v>
+      </c>
+      <c r="E194">
+        <v>0.2</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B195" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>780</v>
+      </c>
+      <c r="B196" t="s">
         <v>10</v>
       </c>
-      <c r="AC194" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>302</v>
-      </c>
-      <c r="B195" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB195" s="5"/>
-      <c r="AC195" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AD195" s="3"/>
-    </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B196" t="s">
-        <v>72</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="AB196" t="s">
-        <v>560</v>
+      <c r="E196" t="s">
+        <v>2</v>
       </c>
       <c r="AC196" t="s">
-        <v>559</v>
+        <v>781</v>
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>314</v>
+      <c r="A197" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="B197" t="s">
-        <v>72</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="Z197" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC197" t="s">
-        <v>311</v>
+        <v>584</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>315</v>
-      </c>
-      <c r="B198" t="s">
-        <v>9</v>
-      </c>
-      <c r="E198" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>312</v>
-      </c>
-      <c r="B199" t="s">
-        <v>72</v>
-      </c>
-      <c r="E199">
-        <v>2</v>
-      </c>
-      <c r="AB199" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC199" s="6" t="s">
-        <v>244</v>
+      <c r="A199" s="8" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
-        <v>72</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="AC200" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB200" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC200" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD200" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE200" s="6"/>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>316</v>
+      <c r="A201" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="B201" t="s">
-        <v>72</v>
-      </c>
-      <c r="E201">
-        <v>0.5</v>
-      </c>
-      <c r="Z201" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC201" t="s">
-        <v>562</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>585</v>
+        <v>302</v>
       </c>
       <c r="B202" t="s">
-        <v>117</v>
-      </c>
-      <c r="C202" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC202" t="s">
-        <v>586</v>
+        <v>10</v>
+      </c>
+      <c r="AB202" s="5"/>
+      <c r="AC202" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AD202" s="3"/>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B203" t="s">
+        <v>72</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A204" s="8" t="s">
-        <v>1099</v>
+      <c r="A204" t="s">
+        <v>314</v>
+      </c>
+      <c r="B204" t="s">
+        <v>72</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>315</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>312</v>
+      </c>
+      <c r="B206" t="s">
+        <v>72</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC206" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>313</v>
+      </c>
+      <c r="B207" t="s">
+        <v>72</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="AC207" s="6"/>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>316</v>
+      </c>
+      <c r="B208" t="s">
+        <v>72</v>
+      </c>
+      <c r="E208">
+        <v>0.5</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>585</v>
+      </c>
+      <c r="B209" t="s">
+        <v>117</v>
+      </c>
+      <c r="C209" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>839</v>
       </c>
-      <c r="B205" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC205" t="s">
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC212" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC208" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-    </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A210" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B211" t="s">
-        <v>117</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E211" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC211" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B212" t="s">
-        <v>72</v>
-      </c>
-      <c r="E212">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B213" t="s">
-        <v>72</v>
-      </c>
-      <c r="E213">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B214" t="s">
-        <v>117</v>
-      </c>
-      <c r="C214" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC214" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>942</v>
+        <v>219</v>
       </c>
       <c r="B215" t="s">
         <v>9</v>
       </c>
       <c r="AC215" t="s">
-        <v>943</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B216" t="s">
-        <v>72</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="AB216" t="s">
-        <v>793</v>
-      </c>
-      <c r="AC216" t="s">
-        <v>805</v>
-      </c>
+      <c r="A216" s="3"/>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B217" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA217" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC217" t="s">
-        <v>598</v>
+      <c r="A217" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A218" s="3"/>
+      <c r="A218" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B218" t="s">
+        <v>117</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E218" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC219" t="s">
-        <v>716</v>
+      <c r="A219" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B219" t="s">
+        <v>72</v>
+      </c>
+      <c r="E219">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>117</v>
-      </c>
-      <c r="C220" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E220">
-        <v>19</v>
-      </c>
-      <c r="N220" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC220" t="s">
-        <v>762</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B221" t="s">
         <v>117</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
+      <c r="C221" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>102</v>
       </c>
       <c r="AC221" t="s">
-        <v>763</v>
+        <v>941</v>
       </c>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>756</v>
+        <v>942</v>
       </c>
       <c r="B222" t="s">
-        <v>117</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC222" t="s">
-        <v>757</v>
+        <v>943</v>
       </c>
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B223" t="s">
+        <v>72</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>793</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B224" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E227">
+        <v>19</v>
+      </c>
+      <c r="N227" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="AC228" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B230" t="s">
         <v>10</v>
       </c>
-      <c r="C223" s="6"/>
-      <c r="E223" t="s">
+      <c r="C230" s="6"/>
+      <c r="E230" t="s">
         <v>3</v>
       </c>
-      <c r="AC223" t="s">
+      <c r="AC230" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AC225" t="s">
+      <c r="AC232" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B226" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC226" t="s">
+      <c r="B233" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC233" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B227" t="s">
-        <v>203</v>
-      </c>
-      <c r="C227" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z227" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB227" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC227" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>224</v>
-      </c>
-      <c r="B228" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="F228" s="32"/>
-      <c r="AB228" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC228" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-    </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="AC230" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B231" t="s">
-        <v>117</v>
-      </c>
-      <c r="C231" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA231" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC231" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B232" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA232" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC232" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B233" t="s">
-        <v>117</v>
-      </c>
-      <c r="C233" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB233" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC233" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="B234" t="s">
         <v>203</v>
@@ -7615,90 +7702,48 @@
       <c r="C234" t="s">
         <v>9</v>
       </c>
-      <c r="AB234" s="5" t="s">
-        <v>304</v>
+      <c r="Z234" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>197</v>
       </c>
       <c r="AC234" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
-        <v>722</v>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>224</v>
       </c>
       <c r="B235" t="s">
-        <v>72</v>
-      </c>
-      <c r="E235" s="5">
-        <v>1</v>
-      </c>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-      <c r="N235">
-        <v>1E-3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E235" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F235" s="32"/>
       <c r="AB235" t="s">
-        <v>723</v>
+        <v>194</v>
       </c>
       <c r="AC235" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B236" t="s">
-        <v>117</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E236">
-        <v>1</v>
-      </c>
-      <c r="N236">
-        <v>100</v>
-      </c>
-      <c r="AB236">
-        <v>100</v>
-      </c>
-      <c r="AC236" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B237" t="s">
-        <v>117</v>
-      </c>
-      <c r="C237" t="s">
-        <v>72</v>
-      </c>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5"/>
-      <c r="AB237" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
+        <v>534</v>
       </c>
       <c r="AC237" t="s">
-        <v>599</v>
-      </c>
-      <c r="AD237" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B238" t="s">
         <v>117</v>
@@ -7706,682 +7751,708 @@
       <c r="C238" t="s">
         <v>72</v>
       </c>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5"/>
-      <c r="AD238" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA238" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>289</v>
+        <v>2</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB239" t="s">
-        <v>290</v>
+        <v>300</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>3</v>
       </c>
       <c r="AC239" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B240" t="s">
+        <v>117</v>
+      </c>
+      <c r="C240" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A241" s="8" t="s">
-        <v>565</v>
+      <c r="A241" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B241" t="s">
+        <v>203</v>
+      </c>
+      <c r="C241" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB241" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>248</v>
+        <v>722</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="E242" s="5">
+        <v>1</v>
+      </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
+      <c r="N242">
+        <v>1E-3</v>
+      </c>
       <c r="AB242" t="s">
-        <v>249</v>
+        <v>723</v>
       </c>
       <c r="AC242" t="s">
-        <v>557</v>
+        <v>724</v>
       </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B243" t="s">
+        <v>117</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>100</v>
+      </c>
+      <c r="AB243">
+        <v>100</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B244" t="s">
+        <v>117</v>
+      </c>
+      <c r="C244" t="s">
+        <v>72</v>
+      </c>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="AB244" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B245" t="s">
+        <v>117</v>
+      </c>
+      <c r="C245" t="s">
+        <v>72</v>
+      </c>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="AD245" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A248" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="AB249" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB243" t="s">
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB250" t="s">
         <v>567</v>
       </c>
-      <c r="AC243" t="s">
+      <c r="AC250" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
-    </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
-    </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-    </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A247" s="8" t="s">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A254" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AC247" t="s">
+      <c r="AC254" t="s">
         <v>918</v>
-      </c>
-    </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>42</v>
-      </c>
-      <c r="B248" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB248" t="s">
-        <v>917</v>
-      </c>
-      <c r="AC248" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A253" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC253" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>53</v>
-      </c>
-      <c r="B254" t="s">
-        <v>10</v>
-      </c>
-      <c r="E254" t="s">
-        <v>2</v>
-      </c>
-      <c r="T254" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB254" s="5"/>
-      <c r="AC254" t="s">
-        <v>965</v>
-      </c>
-      <c r="AD254" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>42</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>917</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>53</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261" t="s">
+        <v>2</v>
+      </c>
+      <c r="T261" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB261" s="5"/>
+      <c r="AC261" t="s">
+        <v>965</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB262" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>31</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B263" t="s">
         <v>203</v>
       </c>
-      <c r="C255" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB255" s="5" t="s">
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB263" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AC255" s="3" t="s">
+      <c r="AC263" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AD255" s="3"/>
-    </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+      <c r="AD263" s="3"/>
+    </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>257</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B264" t="s">
         <v>117</v>
       </c>
-      <c r="C256" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB256" s="5" t="s">
+      <c r="C264" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB264" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AC256" t="s">
+      <c r="AC264" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>51</v>
       </c>
-      <c r="B257" t="s">
-        <v>72</v>
-      </c>
-      <c r="E257">
+      <c r="B265" t="s">
+        <v>72</v>
+      </c>
+      <c r="E265">
         <v>0.45</v>
       </c>
-      <c r="Z257" t="s">
+      <c r="Z265" t="s">
         <v>5</v>
       </c>
-      <c r="AB257">
+      <c r="AB265">
         <v>0.03</v>
       </c>
-      <c r="AC257" t="s">
+      <c r="AC265" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>52</v>
       </c>
-      <c r="B258" t="s">
-        <v>72</v>
-      </c>
-      <c r="E258">
+      <c r="B266" t="s">
+        <v>72</v>
+      </c>
+      <c r="E266">
         <v>1.3</v>
       </c>
-      <c r="Q258">
+      <c r="Q266">
         <v>1.08</v>
       </c>
-      <c r="Z258" t="s">
+      <c r="Z266" t="s">
         <v>5</v>
       </c>
-      <c r="AB258">
+      <c r="AB266">
         <v>0.12</v>
       </c>
-      <c r="AC258" t="s">
+      <c r="AC266" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A259" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B259" t="s">
-        <v>72</v>
-      </c>
-      <c r="E259">
-        <v>3</v>
-      </c>
-      <c r="M259">
-        <v>4</v>
-      </c>
-      <c r="N259">
-        <v>4</v>
-      </c>
-      <c r="AB259" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC259" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A260" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B260" t="s">
-        <v>72</v>
-      </c>
-      <c r="E260">
-        <v>0.3</v>
-      </c>
-      <c r="Z260" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB260" s="5"/>
-      <c r="AC260" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A261" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B261" t="s">
-        <v>72</v>
-      </c>
-      <c r="E261">
-        <v>0.8</v>
-      </c>
-      <c r="Z261" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB261" s="5"/>
-      <c r="AD261" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B262" t="s">
-        <v>72</v>
-      </c>
-      <c r="E262">
-        <v>0.15</v>
-      </c>
-      <c r="Z262" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB262" s="5"/>
-      <c r="AC262" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B263" t="s">
-        <v>72</v>
-      </c>
-      <c r="E263">
-        <v>0.375</v>
-      </c>
-      <c r="Z263" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB263" s="5"/>
-      <c r="AC263" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B264" t="s">
-        <v>72</v>
-      </c>
-      <c r="E264">
-        <v>0.315</v>
-      </c>
-      <c r="Z264" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB264" s="5"/>
-      <c r="AC264" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A265" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B265" t="s">
-        <v>72</v>
-      </c>
-      <c r="E265">
-        <v>3</v>
-      </c>
-      <c r="AB265" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC265" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B266" t="s">
-        <v>117</v>
-      </c>
-      <c r="C266" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA266" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB266" s="6"/>
-      <c r="AC266" s="6" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>764</v>
+        <v>152</v>
       </c>
       <c r="B267" t="s">
-        <v>117</v>
-      </c>
-      <c r="C267" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA267" t="s">
+        <v>72</v>
+      </c>
+      <c r="E267">
         <v>3</v>
       </c>
-      <c r="AB267" s="6"/>
-      <c r="AC267" s="6" t="s">
-        <v>642</v>
+      <c r="M267">
+        <v>4</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="AB267" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>758</v>
+        <v>202</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
-      </c>
-      <c r="E268" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB268" s="6"/>
-      <c r="AC268" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="AD268" t="s">
-        <v>733</v>
+        <v>72</v>
+      </c>
+      <c r="E268">
+        <v>0.3</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB268" s="5"/>
+      <c r="AC268" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>759</v>
+        <v>176</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
-      </c>
-      <c r="E269" t="s">
-        <v>797</v>
-      </c>
-      <c r="X269" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB269" s="6"/>
-      <c r="AC269" s="6" t="s">
-        <v>967</v>
+        <v>72</v>
+      </c>
+      <c r="E269">
+        <v>0.8</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB269" s="5"/>
+      <c r="AD269" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A270" s="6"/>
-      <c r="AB270" s="6"/>
-      <c r="AC270" s="6"/>
+      <c r="A270" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B270" t="s">
+        <v>72</v>
+      </c>
+      <c r="E270">
+        <v>0.15</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB270" s="5"/>
+      <c r="AC270" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A271" s="6"/>
+      <c r="A271" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B271" t="s">
+        <v>72</v>
+      </c>
+      <c r="E271">
+        <v>0.375</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>5</v>
+      </c>
       <c r="AB271" s="5"/>
+      <c r="AC271" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A272" s="8" t="s">
-        <v>750</v>
+      <c r="A272" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B272" t="s">
+        <v>72</v>
+      </c>
+      <c r="E272">
+        <v>0.315</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>5</v>
       </c>
       <c r="AB272" s="5"/>
+      <c r="AC272" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>733</v>
+        <v>326</v>
       </c>
       <c r="B273" t="s">
         <v>72</v>
       </c>
-      <c r="AB273" s="5"/>
-      <c r="AC273" t="s">
-        <v>728</v>
+      <c r="E273">
+        <v>3</v>
+      </c>
+      <c r="AB273" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC273" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>183</v>
+      <c r="A274" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="B274" t="s">
         <v>117</v>
       </c>
       <c r="C274" t="s">
-        <v>72</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AC274" t="s">
-        <v>749</v>
-      </c>
-      <c r="AD274" t="s">
-        <v>145</v>
+        <v>9</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB274" s="6"/>
+      <c r="AC274" s="6" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
-      </c>
-      <c r="E275" t="s">
+        <v>117</v>
+      </c>
+      <c r="C275" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA275" t="s">
         <v>3</v>
       </c>
-      <c r="AB275" s="5"/>
-      <c r="AC275" t="s">
-        <v>735</v>
+      <c r="AB275" s="6"/>
+      <c r="AC275" s="6" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="B276" t="s">
-        <v>72</v>
-      </c>
-      <c r="E276">
         <v>10</v>
       </c>
-      <c r="Z276" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB276" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC276" t="s">
-        <v>727</v>
+      <c r="E276" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB276" s="6"/>
+      <c r="AC276" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="B277" t="s">
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB277" s="5"/>
-      <c r="AC277" t="s">
-        <v>738</v>
+        <v>797</v>
+      </c>
+      <c r="X277" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB277" s="6"/>
+      <c r="AC277" s="6" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="B278" t="s">
-        <v>72</v>
-      </c>
-      <c r="E278">
-        <v>45</v>
-      </c>
-      <c r="Z278" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB278" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="AC278" t="s">
-        <v>731</v>
-      </c>
+      <c r="A278" s="6"/>
+      <c r="AB278" s="6"/>
+      <c r="AC278" s="6"/>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="B279" t="s">
-        <v>72</v>
-      </c>
-      <c r="E279">
-        <v>0.65</v>
-      </c>
-      <c r="Z279" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB279" t="s">
-        <v>798</v>
-      </c>
-      <c r="AC279" t="s">
-        <v>755</v>
-      </c>
+      <c r="A279" s="6"/>
+      <c r="AB279" s="5"/>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="B280" t="s">
-        <v>10</v>
-      </c>
-      <c r="E280" t="s">
-        <v>2</v>
+      <c r="A280" s="8" t="s">
+        <v>750</v>
       </c>
       <c r="AB280" s="5"/>
-      <c r="AC280" t="s">
-        <v>741</v>
-      </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
-        <v>742</v>
+      <c r="A281" s="6" t="s">
+        <v>733</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
-      </c>
-      <c r="E281" t="s">
-        <v>179</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AB281" s="5"/>
       <c r="AC281" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
-        <v>744</v>
+      <c r="A282" t="s">
+        <v>183</v>
       </c>
       <c r="B282" t="s">
-        <v>72</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="Z282" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB282" t="s">
-        <v>188</v>
+        <v>117</v>
+      </c>
+      <c r="C282" t="s">
+        <v>72</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1083</v>
       </c>
       <c r="AC282" t="s">
-        <v>751</v>
+        <v>749</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B283" t="s">
         <v>10</v>
       </c>
       <c r="E283" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB283" s="5"/>
       <c r="AC283" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
-      </c>
-      <c r="E284" t="s">
-        <v>799</v>
-      </c>
-      <c r="X284" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB284" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="E284">
+        <v>10</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB284" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="AC284" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>803</v>
+        <v>737</v>
       </c>
       <c r="B285" t="s">
-        <v>72</v>
-      </c>
-      <c r="E285">
-        <v>3</v>
-      </c>
-      <c r="AB285" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC285" s="6" t="s">
-        <v>244</v>
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>730</v>
+      </c>
+      <c r="AB285" s="5"/>
+      <c r="AC285" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>802</v>
+        <v>739</v>
       </c>
       <c r="B286" t="s">
         <v>72</v>
       </c>
       <c r="E286">
-        <v>0.9</v>
-      </c>
-      <c r="AB286" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB286" s="5" t="s">
+        <v>732</v>
+      </c>
       <c r="AC286" t="s">
-        <v>804</v>
+        <v>731</v>
       </c>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>811</v>
+        <v>754</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
-      </c>
-      <c r="E287" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F287" s="16"/>
-      <c r="AB287" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="E287">
+        <v>0.65</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>798</v>
+      </c>
       <c r="AC287" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="B288" t="s">
         <v>10</v>
@@ -8391,336 +8462,382 @@
       </c>
       <c r="AB288" s="5"/>
       <c r="AC288" t="s">
-        <v>801</v>
+        <v>741</v>
       </c>
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB289" s="5"/>
+      <c r="A289" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B289" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="290" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A290" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB290" s="5"/>
+      <c r="A290" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B290" t="s">
+        <v>72</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>83</v>
+      <c r="A291" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="B291" t="s">
-        <v>72</v>
-      </c>
-      <c r="E291">
-        <v>0.25</v>
+        <v>10</v>
+      </c>
+      <c r="E291" t="s">
+        <v>2</v>
       </c>
       <c r="AB291" s="5"/>
       <c r="AC291" t="s">
-        <v>100</v>
+        <v>729</v>
       </c>
     </row>
     <row r="292" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>84</v>
+      <c r="A292" s="6" t="s">
+        <v>746</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>102</v>
+        <v>799</v>
+      </c>
+      <c r="X292" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB292" s="5"/>
+      <c r="AC292" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>8</v>
+      <c r="A293" s="6" t="s">
+        <v>803</v>
       </c>
       <c r="B293" t="s">
         <v>72</v>
       </c>
-      <c r="N293">
-        <v>0</v>
-      </c>
-      <c r="AB293" s="5"/>
-      <c r="AC293" t="s">
-        <v>216</v>
+      <c r="E293">
+        <v>3</v>
+      </c>
+      <c r="AB293" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC293" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="294" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>101</v>
+      <c r="A294" s="6" t="s">
+        <v>802</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
-      </c>
-      <c r="E294" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E294">
+        <v>0.9</v>
       </c>
       <c r="AB294" s="5"/>
       <c r="AC294" t="s">
-        <v>103</v>
+        <v>804</v>
       </c>
     </row>
     <row r="295" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>99</v>
+      <c r="A295" s="6" t="s">
+        <v>811</v>
       </c>
       <c r="B295" t="s">
-        <v>72</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F295" s="16"/>
       <c r="AB295" s="5"/>
       <c r="AC295" t="s">
-        <v>100</v>
+        <v>748</v>
       </c>
     </row>
     <row r="296" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>442</v>
+      <c r="A296" s="6" t="s">
+        <v>800</v>
       </c>
       <c r="B296" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="E296" t="s">
+        <v>2</v>
       </c>
       <c r="AB296" s="5"/>
+      <c r="AC296" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>443</v>
-      </c>
-      <c r="B297" t="s">
-        <v>9</v>
-      </c>
-      <c r="E297" t="s">
-        <v>102</v>
-      </c>
       <c r="AB297" s="5"/>
     </row>
     <row r="298" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>444</v>
-      </c>
-      <c r="B298" t="s">
-        <v>72</v>
-      </c>
-      <c r="E298">
-        <v>1</v>
+      <c r="A298" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="AB298" s="5"/>
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
       </c>
       <c r="E299">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="AB299" s="5"/>
+      <c r="AC299" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="300" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B300" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB300" s="5"/>
-      <c r="AC300" t="s">
-        <v>421</v>
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>381</v>
+        <v>8</v>
       </c>
       <c r="B301" t="s">
-        <v>117</v>
-      </c>
-      <c r="C301" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
       </c>
       <c r="AB301" s="5"/>
+      <c r="AC301" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="302" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>422</v>
+        <v>101</v>
       </c>
       <c r="B302" t="s">
-        <v>117</v>
-      </c>
-      <c r="C302" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB302" s="31" t="s">
-        <v>920</v>
+        <v>9</v>
+      </c>
+      <c r="E302" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB302" s="5"/>
+      <c r="AC302" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
       </c>
       <c r="AB303" s="5"/>
+      <c r="AC303" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="304" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="B304" t="s">
         <v>72</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
       </c>
       <c r="AB304" s="5"/>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="B305" t="s">
-        <v>117</v>
-      </c>
-      <c r="C305" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB305" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC305" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD305" t="s">
-        <v>418</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E305" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB305" s="5"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>923</v>
+        <v>444</v>
       </c>
       <c r="B306" t="s">
-        <v>117</v>
-      </c>
-      <c r="C306" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
       </c>
       <c r="AB306" s="5"/>
-      <c r="AC306" t="s">
-        <v>924</v>
-      </c>
-      <c r="AD306" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>261</v>
+        <v>445</v>
       </c>
       <c r="B307" t="s">
-        <v>117</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E307" t="s">
-        <v>264</v>
+        <v>72</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
       </c>
       <c r="AB307" s="5"/>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>418</v>
+        <v>59</v>
       </c>
       <c r="B308" t="s">
-        <v>117</v>
-      </c>
-      <c r="C308" t="s">
         <v>72</v>
       </c>
       <c r="AB308" s="5"/>
       <c r="AC308" t="s">
-        <v>919</v>
-      </c>
-      <c r="AD308" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>921</v>
+        <v>381</v>
       </c>
       <c r="B309" t="s">
         <v>117</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="AB309" s="5"/>
-      <c r="AC309" t="s">
-        <v>922</v>
-      </c>
-      <c r="AD309" s="6" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
-      </c>
-      <c r="E310" t="s">
-        <v>993</v>
-      </c>
-      <c r="AB310" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C310" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB310" s="31" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B311" t="s">
-        <v>72</v>
-      </c>
-      <c r="E311">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>102</v>
       </c>
       <c r="AB311" s="5"/>
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>383</v>
+      </c>
+      <c r="B312" t="s">
+        <v>72</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
       <c r="AB312" s="5"/>
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A313" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="AB313" s="5"/>
+      <c r="A313" t="s">
+        <v>260</v>
+      </c>
+      <c r="B313" t="s">
+        <v>117</v>
+      </c>
+      <c r="C313" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB313" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD313" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>923</v>
+      </c>
+      <c r="B314" t="s">
+        <v>117</v>
+      </c>
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
       <c r="AB314" s="5"/>
+      <c r="AC314" t="s">
+        <v>924</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>550</v>
+        <v>261</v>
       </c>
       <c r="B315" t="s">
         <v>117</v>
       </c>
-      <c r="C315" t="s">
-        <v>72</v>
+      <c r="C315" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>264</v>
       </c>
       <c r="AB315" s="5"/>
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>551</v>
+        <v>418</v>
       </c>
       <c r="B316" t="s">
         <v>117</v>
@@ -8729,1228 +8846,1312 @@
         <v>72</v>
       </c>
       <c r="AB316" s="5"/>
+      <c r="AC316" t="s">
+        <v>919</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>552</v>
+        <v>921</v>
       </c>
       <c r="B317" t="s">
         <v>117</v>
       </c>
       <c r="C317" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="AB317" s="5"/>
+      <c r="AC317" t="s">
+        <v>922</v>
+      </c>
+      <c r="AD317" s="6" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>553</v>
+        <v>419</v>
       </c>
       <c r="B318" t="s">
-        <v>117</v>
-      </c>
-      <c r="C318" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="E318" t="s">
+        <v>993</v>
       </c>
       <c r="AB318" s="5"/>
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>554</v>
+        <v>384</v>
       </c>
       <c r="B319" t="s">
-        <v>117</v>
-      </c>
-      <c r="C319" t="s">
-        <v>9</v>
-      </c>
-      <c r="E319" t="s">
-        <v>994</v>
+        <v>72</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
       </c>
       <c r="AB319" s="5"/>
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>635</v>
-      </c>
-      <c r="B320" t="s">
-        <v>117</v>
-      </c>
-      <c r="C320" t="s">
-        <v>9</v>
-      </c>
       <c r="AB320" s="5"/>
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
-        <v>452</v>
+        <v>549</v>
       </c>
       <c r="AB321" s="5"/>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>460</v>
-      </c>
-      <c r="B322" t="s">
-        <v>9</v>
-      </c>
       <c r="AB322" s="5"/>
-      <c r="AC322" t="s">
-        <v>515</v>
-      </c>
-      <c r="AD322" t="s">
-        <v>609</v>
-      </c>
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="B323" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC323" s="5" t="s">
-        <v>514</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C323" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB323" s="5"/>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
       <c r="B324" t="s">
         <v>117</v>
       </c>
-      <c r="C324" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E324" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB324" s="5" t="s">
-        <v>462</v>
-      </c>
+      <c r="C324" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB324" s="5"/>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>463</v>
+        <v>552</v>
       </c>
       <c r="B325" t="s">
         <v>117</v>
       </c>
       <c r="C325" t="s">
-        <v>9</v>
-      </c>
-      <c r="E325" t="s">
-        <v>464</v>
+        <v>72</v>
       </c>
       <c r="AB325" s="5"/>
-      <c r="AC325" t="s">
-        <v>619</v>
-      </c>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>465</v>
+        <v>553</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB326" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC326" t="s">
-        <v>618</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C326" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB326" s="5"/>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>659</v>
+        <v>554</v>
       </c>
       <c r="B327" t="s">
-        <v>426</v>
+        <v>117</v>
+      </c>
+      <c r="C327" t="s">
+        <v>9</v>
       </c>
       <c r="E327" t="s">
-        <v>660</v>
-      </c>
-      <c r="AA327" t="s">
-        <v>3</v>
+        <v>994</v>
       </c>
       <c r="AB327" s="5"/>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>423</v>
+        <v>635</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB328" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC328" t="s">
-        <v>617</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C328" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB328" s="5"/>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A329" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B329" t="s">
-        <v>426</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F329" s="6"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="6"/>
-      <c r="I329" s="6"/>
-      <c r="J329" s="6"/>
-      <c r="K329" s="6"/>
-      <c r="L329" s="6"/>
-      <c r="M329" s="6"/>
-      <c r="N329" s="6"/>
-      <c r="O329" s="6"/>
-      <c r="P329" s="6"/>
-      <c r="Q329" s="6"/>
-      <c r="R329" s="6"/>
-      <c r="S329" s="6"/>
-      <c r="T329" s="6"/>
-      <c r="U329" s="6"/>
-      <c r="V329" s="6"/>
-      <c r="W329" s="6"/>
-      <c r="X329" s="6"/>
-      <c r="Y329" s="6"/>
+      <c r="A329" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="AB329" s="5"/>
-      <c r="AC329" s="6"/>
-      <c r="AD329" s="6"/>
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B330" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC330" s="3"/>
-      <c r="AD330" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="AB330" s="5"/>
+      <c r="AC330" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD330" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="B331" t="s">
         <v>426</v>
       </c>
-      <c r="E331" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F331" s="5"/>
-      <c r="AB331" s="5"/>
+      <c r="AC331" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>472</v>
+        <v>610</v>
       </c>
       <c r="B332" t="s">
-        <v>426</v>
-      </c>
-      <c r="E332" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F332" s="5"/>
-      <c r="AB332" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB332" s="5" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B333" t="s">
-        <v>426</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F333" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C333" t="s">
+        <v>9</v>
+      </c>
+      <c r="E333" t="s">
+        <v>464</v>
+      </c>
       <c r="AB333" s="5"/>
+      <c r="AC333" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B334" t="s">
-        <v>426</v>
-      </c>
-      <c r="E334" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F334" s="5"/>
-      <c r="AB334" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="AB334" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>489</v>
+        <v>659</v>
       </c>
       <c r="B335" t="s">
         <v>426</v>
       </c>
-      <c r="E335" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F335" s="5"/>
+      <c r="E335" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>3</v>
+      </c>
       <c r="AB335" s="5"/>
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>426</v>
-      </c>
-      <c r="E336" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F336" s="5"/>
-      <c r="AB336" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="AB336" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>492</v>
+      <c r="A337" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="B337" t="s">
         <v>426</v>
       </c>
-      <c r="E337" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="F337" s="5"/>
+      <c r="E337" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+      <c r="I337" s="6"/>
+      <c r="J337" s="6"/>
+      <c r="K337" s="6"/>
+      <c r="L337" s="6"/>
+      <c r="M337" s="6"/>
+      <c r="N337" s="6"/>
+      <c r="O337" s="6"/>
+      <c r="P337" s="6"/>
+      <c r="Q337" s="6"/>
+      <c r="R337" s="6"/>
+      <c r="S337" s="6"/>
+      <c r="T337" s="6"/>
+      <c r="U337" s="6"/>
+      <c r="V337" s="6"/>
+      <c r="W337" s="6"/>
+      <c r="X337" s="6"/>
+      <c r="Y337" s="6"/>
       <c r="AB337" s="5"/>
+      <c r="AC337" s="6"/>
+      <c r="AD337" s="6"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB338" s="5"/>
-      <c r="AC338" t="s">
-        <v>468</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="AC338" s="3"/>
+      <c r="AD338" s="3"/>
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B339" t="s">
         <v>426</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F339" s="5"/>
       <c r="AB339" s="5"/>
     </row>
     <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>2</v>
+        <v>473</v>
       </c>
       <c r="F340" s="5"/>
       <c r="AB340" s="5"/>
     </row>
     <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>3</v>
+        <v>484</v>
       </c>
       <c r="F341" s="5"/>
       <c r="AB341" s="5"/>
     </row>
     <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B342" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>3</v>
+        <v>486</v>
       </c>
       <c r="F342" s="5"/>
       <c r="AB342" s="5"/>
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
-      </c>
-      <c r="E343" t="s">
-        <v>2</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F343" s="5"/>
       <c r="AB343" s="5"/>
     </row>
     <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B344" t="s">
         <v>426</v>
       </c>
-      <c r="E344" t="s">
-        <v>487</v>
-      </c>
+      <c r="E344" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F344" s="5"/>
       <c r="AB344" s="5"/>
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
-      </c>
-      <c r="E345" t="s">
-        <v>2</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F345" s="5"/>
       <c r="AB345" s="5"/>
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>971</v>
+        <v>469</v>
       </c>
       <c r="B346" t="s">
-        <v>426</v>
-      </c>
-      <c r="E346" t="s">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AB346" s="5"/>
+      <c r="AC346" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="B347" t="s">
         <v>426</v>
       </c>
-      <c r="E347" t="s">
-        <v>502</v>
-      </c>
+      <c r="E347" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F347" s="5"/>
       <c r="AB347" s="5"/>
     </row>
     <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>36</v>
+        <v>477</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB348" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC348" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD348" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F348" s="5"/>
+      <c r="AB348" s="5"/>
     </row>
     <row r="349" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>478</v>
+      </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F349" s="5"/>
       <c r="AB349" s="5"/>
     </row>
     <row r="350" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>479</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F350" s="5"/>
       <c r="AB350" s="5"/>
     </row>
     <row r="351" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A351" s="8" t="s">
-        <v>73</v>
+      <c r="A351" t="s">
+        <v>500</v>
+      </c>
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="E351" t="s">
+        <v>2</v>
       </c>
       <c r="AB351" s="5"/>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="B352" t="s">
-        <v>72</v>
-      </c>
-      <c r="E352">
-        <v>7.5</v>
-      </c>
-      <c r="F352">
-        <v>6.8</v>
-      </c>
-      <c r="G352">
-        <v>12.5</v>
-      </c>
-      <c r="H352">
-        <v>15</v>
-      </c>
-      <c r="I352">
-        <v>14.2</v>
-      </c>
-      <c r="J352">
-        <v>21</v>
-      </c>
-      <c r="K352">
-        <v>15.5</v>
-      </c>
-      <c r="R352">
-        <v>15.5</v>
-      </c>
-      <c r="Z352" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC352" t="s">
-        <v>79</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E352" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB352" s="5"/>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="B353" t="s">
-        <v>72</v>
-      </c>
-      <c r="E353">
-        <v>7.5</v>
-      </c>
-      <c r="F353">
-        <v>6.8</v>
-      </c>
-      <c r="G353">
-        <v>7</v>
-      </c>
-      <c r="H353">
-        <v>15</v>
-      </c>
-      <c r="I353">
-        <v>11.7</v>
-      </c>
-      <c r="J353">
-        <v>11.7</v>
-      </c>
-      <c r="L353">
-        <v>15.5</v>
-      </c>
-      <c r="R353">
-        <v>8.5</v>
-      </c>
-      <c r="S353">
-        <v>9</v>
-      </c>
-      <c r="Z353" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC353" t="s">
-        <v>80</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E353" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB353" s="5"/>
     </row>
     <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>76</v>
+        <v>971</v>
       </c>
       <c r="B354" t="s">
-        <v>72</v>
-      </c>
-      <c r="E354">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J354">
-        <v>2.8</v>
-      </c>
-      <c r="Q354">
-        <v>1.5</v>
-      </c>
-      <c r="R354">
-        <v>0</v>
-      </c>
-      <c r="S354">
-        <v>0</v>
-      </c>
-      <c r="T354">
-        <v>1.25</v>
-      </c>
-      <c r="Y354">
-        <v>3</v>
-      </c>
-      <c r="Z354" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB354">
-        <v>1.905</v>
-      </c>
-      <c r="AC354" t="s">
-        <v>92</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E354" t="s">
+        <v>970</v>
+      </c>
+      <c r="AB354" s="5"/>
     </row>
     <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
       <c r="B355" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q355">
-        <v>0.5</v>
-      </c>
-      <c r="R355">
-        <v>0</v>
-      </c>
-      <c r="S355">
-        <v>0</v>
-      </c>
-      <c r="Z355" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC355" t="s">
-        <v>684</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E355" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB355" s="5"/>
     </row>
     <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="B356" t="s">
-        <v>72</v>
-      </c>
-      <c r="E356">
-        <v>0</v>
-      </c>
-      <c r="Y356">
-        <v>-0.04</v>
-      </c>
-      <c r="Z356" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC356" t="s">
-        <v>191</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC356" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD356" s="3"/>
     </row>
     <row r="357" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>75</v>
-      </c>
-      <c r="B357" t="s">
-        <v>72</v>
-      </c>
-      <c r="E357">
-        <v>1.3</v>
-      </c>
-      <c r="P357">
-        <v>0.95</v>
-      </c>
-      <c r="Q357">
-        <v>0.8</v>
-      </c>
-      <c r="R357">
-        <v>0.5</v>
-      </c>
-      <c r="S357">
-        <v>1</v>
-      </c>
-      <c r="U357">
-        <v>0.7</v>
-      </c>
-      <c r="Z357" t="s">
+      <c r="AB357" s="5"/>
+    </row>
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB358" s="5"/>
+    </row>
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A359" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB359" s="5"/>
+    </row>
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>77</v>
+      </c>
+      <c r="B360" t="s">
+        <v>72</v>
+      </c>
+      <c r="E360">
+        <v>7.5</v>
+      </c>
+      <c r="F360">
+        <v>6.8</v>
+      </c>
+      <c r="G360">
+        <v>12.5</v>
+      </c>
+      <c r="H360">
+        <v>15</v>
+      </c>
+      <c r="I360">
+        <v>14.2</v>
+      </c>
+      <c r="J360">
+        <v>21</v>
+      </c>
+      <c r="K360">
+        <v>15.5</v>
+      </c>
+      <c r="R360">
+        <v>15.5</v>
+      </c>
+      <c r="Z360" t="s">
         <v>5</v>
       </c>
-      <c r="AB357">
-        <v>1.524</v>
-      </c>
-      <c r="AC357" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>331</v>
-      </c>
-      <c r="B358" t="s">
-        <v>72</v>
-      </c>
-      <c r="E358">
-        <v>0</v>
-      </c>
-      <c r="V358">
-        <v>0.2</v>
-      </c>
-      <c r="Z358" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>74</v>
-      </c>
-      <c r="B359" t="s">
-        <v>72</v>
-      </c>
-      <c r="E359">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="Q359">
-        <v>0.5</v>
-      </c>
-      <c r="R359">
-        <v>0</v>
-      </c>
-      <c r="S359">
-        <v>0</v>
-      </c>
-      <c r="Z359" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB359" s="5"/>
-      <c r="AC359" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="360" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="34" t="s">
-        <v>782</v>
-      </c>
-      <c r="B360" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z360" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB360" s="35"/>
-      <c r="AC360" s="30" t="s">
-        <v>595</v>
+      <c r="AC360" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="B361" t="s">
         <v>72</v>
       </c>
       <c r="E361">
-        <v>0.45</v>
+        <v>7.5</v>
+      </c>
+      <c r="F361">
+        <v>6.8</v>
+      </c>
+      <c r="G361">
+        <v>7</v>
+      </c>
+      <c r="H361">
+        <v>15</v>
+      </c>
+      <c r="I361">
+        <v>11.7</v>
+      </c>
+      <c r="J361">
+        <v>11.7</v>
+      </c>
+      <c r="L361">
+        <v>15.5</v>
+      </c>
+      <c r="R361">
+        <v>8.5</v>
+      </c>
+      <c r="S361">
+        <v>9</v>
       </c>
       <c r="Z361" t="s">
         <v>5</v>
       </c>
       <c r="AC361" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="B362" t="s">
         <v>72</v>
       </c>
       <c r="E362">
-        <v>0.45</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J362">
+        <v>2.8</v>
+      </c>
+      <c r="Q362">
+        <v>1.5</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+      <c r="S362">
+        <v>0</v>
+      </c>
+      <c r="T362">
+        <v>1.25</v>
+      </c>
+      <c r="Y362">
+        <v>3</v>
       </c>
       <c r="Z362" t="s">
         <v>5</v>
       </c>
+      <c r="AB362">
+        <v>1.905</v>
+      </c>
       <c r="AC362" t="s">
-        <v>275</v>
+        <v>92</v>
       </c>
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A363" s="6" t="s">
-        <v>174</v>
+      <c r="A363" t="s">
+        <v>596</v>
       </c>
       <c r="B363" t="s">
         <v>72</v>
       </c>
-      <c r="E363">
-        <v>1.4999999999999999E-2</v>
+      <c r="Q363">
+        <v>0.5</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+      <c r="S363">
+        <v>0</v>
       </c>
       <c r="Z363" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>190</v>
+      </c>
+      <c r="B364" t="s">
+        <v>72</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>-0.04</v>
+      </c>
+      <c r="Z364" t="s">
         <v>141</v>
       </c>
-      <c r="AB363" s="5"/>
-      <c r="AC363" t="s">
-        <v>175</v>
+      <c r="AC364" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A365" s="8" t="s">
-        <v>959</v>
+      <c r="A365" t="s">
+        <v>75</v>
+      </c>
+      <c r="B365" t="s">
+        <v>72</v>
+      </c>
+      <c r="E365">
+        <v>1.3</v>
+      </c>
+      <c r="P365">
+        <v>0.95</v>
+      </c>
+      <c r="Q365">
+        <v>0.8</v>
+      </c>
+      <c r="R365">
+        <v>0.5</v>
+      </c>
+      <c r="S365">
+        <v>1</v>
+      </c>
+      <c r="U365">
+        <v>0.7</v>
+      </c>
+      <c r="Z365" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB365">
+        <v>1.524</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>448</v>
+        <v>331</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB366" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="AC366" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AD366" t="s">
-        <v>1127</v>
+        <v>72</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="V366">
+        <v>0.2</v>
+      </c>
+      <c r="Z366" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1127</v>
+        <v>74</v>
       </c>
       <c r="B367" t="s">
-        <v>10</v>
-      </c>
-      <c r="E367" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="E367">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="Q367">
+        <v>0.5</v>
+      </c>
+      <c r="R367">
+        <v>0</v>
+      </c>
+      <c r="S367">
+        <v>0</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>5</v>
       </c>
       <c r="AB367" s="5"/>
-      <c r="AC367" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AD367" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>960</v>
-      </c>
-      <c r="B368" t="s">
-        <v>10</v>
-      </c>
-      <c r="E368" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB368" s="5"/>
-      <c r="AC368" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="AD368" s="3"/>
+      <c r="AC367" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="368" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="34" t="s">
+        <v>782</v>
+      </c>
+      <c r="B368" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z368" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB368" s="35"/>
+      <c r="AC368" s="30" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>455</v>
+        <v>173</v>
       </c>
       <c r="B369" t="s">
-        <v>426</v>
-      </c>
-      <c r="E369" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC369" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="AD369" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E369">
+        <v>0.45</v>
+      </c>
+      <c r="Z369" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC369" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>456</v>
+        <v>274</v>
       </c>
       <c r="B370" t="s">
-        <v>426</v>
-      </c>
-      <c r="E370" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC370" s="3"/>
-      <c r="AD370" t="s">
-        <v>455</v>
+        <v>72</v>
+      </c>
+      <c r="E370">
+        <v>0.45</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC370" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="371" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>457</v>
+      <c r="A371" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B371" t="s">
-        <v>426</v>
-      </c>
-      <c r="E371" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC371" s="3"/>
-      <c r="AD371" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>458</v>
-      </c>
-      <c r="B372" t="s">
-        <v>426</v>
-      </c>
-      <c r="E372" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC372" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD372" t="s">
-        <v>455</v>
+        <v>72</v>
+      </c>
+      <c r="E371">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Z371" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB371" s="5"/>
+      <c r="AC371" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>504</v>
-      </c>
-      <c r="B373" t="s">
-        <v>426</v>
-      </c>
-      <c r="E373" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC373" s="3"/>
-      <c r="AD373" t="s">
-        <v>455</v>
+      <c r="A373" s="8" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>69</v>
+        <v>448</v>
       </c>
       <c r="B374" t="s">
-        <v>426</v>
+        <v>9</v>
+      </c>
+      <c r="AB374" s="5" t="s">
+        <v>957</v>
       </c>
       <c r="AC374" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="AD374" s="3" t="s">
-        <v>448</v>
+        <v>1125</v>
+      </c>
+      <c r="AD374" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>70</v>
+        <v>1126</v>
       </c>
       <c r="B375" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC375" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E375" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB375" s="5"/>
+      <c r="AC375" s="3" t="s">
+        <v>1127</v>
+      </c>
       <c r="AD375" s="3" t="s">
-        <v>956</v>
+        <v>448</v>
       </c>
     </row>
     <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>430</v>
+        <v>960</v>
       </c>
       <c r="B376" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC376" s="3"/>
-      <c r="AD376" s="3" t="s">
-        <v>956</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E376" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB376" s="5"/>
+      <c r="AC376" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="AD376" s="3"/>
     </row>
     <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>71</v>
+        <v>455</v>
       </c>
       <c r="B377" t="s">
         <v>426</v>
       </c>
-      <c r="AC377" s="3"/>
-      <c r="AD377" s="3" t="s">
-        <v>956</v>
-      </c>
+      <c r="E377" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC377" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD377" s="3"/>
     </row>
     <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="B378" t="s">
         <v>426</v>
       </c>
+      <c r="E378" t="s">
+        <v>32</v>
+      </c>
       <c r="AC378" s="3"/>
-      <c r="AD378" s="3" t="s">
-        <v>956</v>
+      <c r="AD378" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
+        <v>457</v>
+      </c>
+      <c r="B379" t="s">
+        <v>426</v>
+      </c>
+      <c r="E379" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC379" s="3"/>
+      <c r="AD379" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>458</v>
+      </c>
+      <c r="B380" t="s">
+        <v>426</v>
+      </c>
+      <c r="E380" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC380" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD380" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>504</v>
+      </c>
+      <c r="B381" t="s">
+        <v>426</v>
+      </c>
+      <c r="E381" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC381" s="3"/>
+      <c r="AD381" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>69</v>
+      </c>
+      <c r="B382" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC382" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="AD382" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>70</v>
+      </c>
+      <c r="B383" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC383" s="3"/>
+      <c r="AD383" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>430</v>
+      </c>
+      <c r="B384" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC384" s="3"/>
+      <c r="AD384" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>71</v>
+      </c>
+      <c r="B385" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC385" s="3"/>
+      <c r="AD385" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>505</v>
+      </c>
+      <c r="B386" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC386" s="3"/>
+      <c r="AD386" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>507</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B387" t="s">
         <v>117</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C387" t="s">
         <v>426</v>
       </c>
-      <c r="AC379" s="3" t="s">
+      <c r="AC387" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="AD379" s="3"/>
-    </row>
-    <row r="381" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="8" t="s">
+      <c r="AD387" s="3"/>
+    </row>
+    <row r="389" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="6" t="s">
+    <row r="391" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B383" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA383" t="s">
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA391" t="s">
         <v>2</v>
       </c>
-      <c r="AC383" t="s">
+      <c r="AC391" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="8" t="s">
+    <row r="392" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row r="394" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>267</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B394" t="s">
         <v>10</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E394" t="s">
         <v>3</v>
       </c>
-      <c r="AC386" t="s">
+      <c r="AC394" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="6" t="s">
+    <row r="395" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B395" t="s">
         <v>426</v>
       </c>
-      <c r="E387" t="s">
+      <c r="E395" t="s">
         <v>606</v>
       </c>
-      <c r="AC387" t="s">
+      <c r="AC395" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row r="396" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
         <v>268</v>
       </c>
-      <c r="B388" t="s">
-        <v>72</v>
-      </c>
-      <c r="E388">
+      <c r="B396" t="s">
+        <v>72</v>
+      </c>
+      <c r="E396">
         <v>1</v>
       </c>
-      <c r="Z388" t="s">
+      <c r="Z396" t="s">
         <v>5</v>
       </c>
-      <c r="AC388" t="s">
+      <c r="AC396" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row r="397" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
         <v>269</v>
       </c>
-      <c r="B389" t="s">
-        <v>9</v>
-      </c>
-      <c r="E389" t="s">
+      <c r="B397" t="s">
+        <v>9</v>
+      </c>
+      <c r="E397" t="s">
         <v>270</v>
       </c>
-      <c r="AC389" t="s">
+      <c r="AC397" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row r="398" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>271</v>
       </c>
-      <c r="B390" t="s">
-        <v>9</v>
-      </c>
-      <c r="E390" t="s">
+      <c r="B398" t="s">
+        <v>9</v>
+      </c>
+      <c r="E398" t="s">
         <v>272</v>
       </c>
-      <c r="AC390" t="s">
+      <c r="AC398" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A392" s="8" t="s">
+    <row r="399" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A400" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="AC392" s="6" t="s">
+      <c r="AC400" s="6" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A393" s="6" t="s">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A401" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="B393" s="6" t="s">
+      <c r="B401" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C393" s="6"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="6" t="s">
+      <c r="C401" s="6"/>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F393" s="6"/>
-      <c r="G393" s="6"/>
-      <c r="H393" s="6"/>
-      <c r="I393" s="6"/>
-      <c r="J393" s="6"/>
-      <c r="K393" s="6"/>
-      <c r="L393" s="6"/>
-      <c r="M393" s="6"/>
-      <c r="N393" s="6"/>
-      <c r="O393" s="6"/>
-      <c r="P393" s="6"/>
-      <c r="Q393" s="6"/>
-      <c r="R393" s="6"/>
-      <c r="S393" s="6"/>
-      <c r="T393" s="6"/>
-      <c r="U393" s="6"/>
-      <c r="V393" s="6"/>
-      <c r="W393" s="6"/>
-      <c r="X393" s="6"/>
-      <c r="Y393" s="6"/>
-      <c r="Z393" s="6"/>
-      <c r="AA393" s="6"/>
-      <c r="AB393" s="5"/>
-      <c r="AC393" s="6" t="s">
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
+      <c r="I401" s="6"/>
+      <c r="J401" s="6"/>
+      <c r="K401" s="6"/>
+      <c r="L401" s="6"/>
+      <c r="M401" s="6"/>
+      <c r="N401" s="6"/>
+      <c r="O401" s="6"/>
+      <c r="P401" s="6"/>
+      <c r="Q401" s="6"/>
+      <c r="R401" s="6"/>
+      <c r="S401" s="6"/>
+      <c r="T401" s="6"/>
+      <c r="U401" s="6"/>
+      <c r="V401" s="6"/>
+      <c r="W401" s="6"/>
+      <c r="X401" s="6"/>
+      <c r="Y401" s="6"/>
+      <c r="Z401" s="6"/>
+      <c r="AA401" s="6"/>
+      <c r="AB401" s="5"/>
+      <c r="AC401" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="AD393" t="s">
+      <c r="AD401" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
         <v>1019</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B402" t="s">
         <v>117</v>
       </c>
-      <c r="C394" t="s">
-        <v>9</v>
-      </c>
-      <c r="E394" t="s">
+      <c r="C402" t="s">
+        <v>9</v>
+      </c>
+      <c r="E402" t="s">
         <v>1026</v>
       </c>
-      <c r="AC394" t="s">
+      <c r="AC402" t="s">
         <v>1023</v>
       </c>
-      <c r="AD394" t="s">
+      <c r="AD402" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E395" s="11"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="11"/>
-    </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A396" s="8" t="s">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
+    </row>
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A404" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AC404" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B405" t="s">
+        <v>10</v>
+      </c>
+      <c r="E405" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC405" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B406" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC406" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A407" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B407" t="s">
+        <v>426</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AC407" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A408" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B408" t="s">
+        <v>10</v>
+      </c>
+      <c r="E408" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC408" t="s">
         <v>1111</v>
       </c>
-      <c r="AC396" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B397" t="s">
-        <v>10</v>
-      </c>
-      <c r="E397" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC397" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B398" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC398" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A399" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B399" t="s">
-        <v>426</v>
-      </c>
-      <c r="E399" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AC399" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A400" s="6" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B400" t="s">
-        <v>10</v>
-      </c>
-      <c r="E400" t="s">
+    </row>
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA409" t="s">
         <v>3</v>
       </c>
-      <c r="AC400" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B401" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA401" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC401" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A403" s="6"/>
-    </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A404" s="6"/>
-    </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A411" s="1" t="s">
+      <c r="AC409" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A411" s="6"/>
+    </row>
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A412" s="6"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9963,8 +10164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7057C-15EE-3240-BABA-A5F8BA4F4CF6}">
   <dimension ref="A1:AE375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10103,7 +10304,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AC3" t="s">
         <v>1058</v>
@@ -10117,7 +10318,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1147</v>
+        <v>809</v>
       </c>
       <c r="AC4" t="s">
         <v>1059</v>
@@ -10131,7 +10332,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AC5" t="s">
         <v>1061</v>
@@ -10202,7 +10403,7 @@
         <v>426</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F10"/>
       <c r="AA10" s="33" t="s">
@@ -10217,7 +10418,7 @@
         <v>426</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F11"/>
       <c r="AA11" s="33" t="s">
@@ -10232,7 +10433,7 @@
         <v>426</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F12"/>
     </row>
@@ -10269,7 +10470,7 @@
     </row>
     <row r="15" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>9</v>
@@ -10277,41 +10478,41 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B17" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10319,21 +10520,21 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F19"/>
     </row>
@@ -10348,7 +10549,7 @@
         <v>426</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F20"/>
       <c r="AA20" s="33" t="s">
@@ -10414,113 +10615,124 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>1089</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B25" t="s">
         <v>426</v>
       </c>
       <c r="E25" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B26" t="s">
         <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B27" t="s">
         <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B28" t="s">
         <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E30" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>1143</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B32" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -10605,7 +10817,7 @@
   <dimension ref="A1:AE368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10728,7 +10940,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1063</v>
+        <v>1166</v>
       </c>
       <c r="AC3" t="s">
         <v>91</v>
@@ -10770,7 +10982,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AC7" t="s">
         <v>91</v>
@@ -10812,7 +11024,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AC11" t="s">
         <v>91</v>
@@ -12266,7 +12478,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13348,7 +13560,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -13362,7 +13574,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -13370,7 +13582,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
@@ -13379,7 +13591,7 @@
         <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5762F-389D-2B42-AB9F-FB6AF3135C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C054F-2060-1D40-8572-FE1BC8F49183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1700" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="geo" sheetId="8" r:id="rId6"/>
     <sheet name="internal" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1187">
   <si>
     <t>default</t>
   </si>
@@ -3323,9 +3326,6 @@
     <t>m:</t>
   </si>
   <si>
-    <t>/cifs</t>
-  </si>
-  <si>
     <t>/Volumes</t>
   </si>
   <si>
@@ -3581,13 +3581,28 @@
     <t>a^2, mu, y[x]</t>
   </si>
   <si>
-    <t>2022-09-14</t>
-  </si>
-  <si>
     <t>ocean_file_paths</t>
   </si>
   <si>
     <t>c("/cifs/p_james/geo", "m:/p_james/geo", file.path(get_param("install_root_local_dev"), "ext", "geo"))</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>fig_name</t>
+  </si>
+  <si>
+    <t>select 'publish = y' figures in james-publish.R</t>
+  </si>
+  <si>
+    <t>use this as name in output of james-publish.R</t>
+  </si>
+  <si>
+    <t>/nas/data</t>
+  </si>
+  <si>
+    <t>2022-10-04</t>
   </si>
 </sst>
 </file>
@@ -4202,8 +4217,8 @@
   <dimension ref="A1:AE419"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4553,7 +4568,7 @@
         <v>951</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>55</v>
@@ -5120,7 +5135,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -5131,7 +5146,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5173,19 +5188,19 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E52" t="s">
         <v>1099</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1100</v>
       </c>
       <c r="AB52" t="s">
         <v>427</v>
       </c>
       <c r="AC52" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -6408,7 +6423,7 @@
         <v>601</v>
       </c>
       <c r="AD132" s="40" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="133" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6433,7 +6448,7 @@
         <v>336</v>
       </c>
       <c r="AC135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
@@ -6473,10 +6488,10 @@
         <v>72</v>
       </c>
       <c r="AC137" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AD137" s="43" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="138" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6490,10 +6505,10 @@
         <v>9</v>
       </c>
       <c r="AC138" s="43" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AD138" s="44" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="139" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6515,7 +6530,7 @@
     </row>
     <row r="140" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="42" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B140" s="43" t="s">
         <v>10</v>
@@ -6524,7 +6539,7 @@
         <v>2</v>
       </c>
       <c r="AC140" s="43" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AD140" s="44" t="s">
         <v>830</v>
@@ -6544,7 +6559,7 @@
         <v>3</v>
       </c>
       <c r="AC141" s="43" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="142" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6703,13 +6718,13 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B153" t="s">
         <v>72</v>
@@ -6718,19 +6733,19 @@
         <v>15</v>
       </c>
       <c r="Z153" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AC153" t="s">
         <v>1172</v>
-      </c>
-      <c r="AB153" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AC153" t="s">
-        <v>1173</v>
       </c>
       <c r="AD153" s="3"/>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B154" t="s">
         <v>72</v>
@@ -6742,16 +6757,16 @@
         <v>5</v>
       </c>
       <c r="AB154" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC154" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AD154" s="3"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B155" t="s">
         <v>117</v>
@@ -6760,18 +6775,18 @@
         <v>72</v>
       </c>
       <c r="AB155" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AC155" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AD155" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B156" t="s">
         <v>117</v>
@@ -6783,18 +6798,18 @@
         <v>885</v>
       </c>
       <c r="AB156" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AC156" t="s">
         <v>1175</v>
       </c>
-      <c r="AC156" t="s">
-        <v>1176</v>
-      </c>
       <c r="AD156" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B157" t="s">
         <v>117</v>
@@ -6803,16 +6818,16 @@
         <v>9</v>
       </c>
       <c r="AB157" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AC157" t="s">
         <v>1168</v>
-      </c>
-      <c r="AC157" t="s">
-        <v>1169</v>
       </c>
       <c r="AD157" s="3"/>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B158" t="s">
         <v>588</v>
@@ -6934,7 +6949,7 @@
         <v>210</v>
       </c>
       <c r="AC168" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AD168" s="6"/>
     </row>
@@ -7074,7 +7089,7 @@
         <v>2</v>
       </c>
       <c r="AC180" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AD180" t="s">
         <v>181</v>
@@ -7323,7 +7338,7 @@
         <v>10</v>
       </c>
       <c r="AC201" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
@@ -7335,7 +7350,7 @@
       </c>
       <c r="AB202" s="5"/>
       <c r="AC202" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AD202" s="3"/>
     </row>
@@ -7451,7 +7466,7 @@
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.2">
@@ -7709,7 +7724,7 @@
         <v>197</v>
       </c>
       <c r="AC234" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.2">
@@ -7897,7 +7912,7 @@
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="AD245" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.2">
@@ -7984,7 +7999,7 @@
         <v>917</v>
       </c>
       <c r="AC255" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.2">
@@ -8018,7 +8033,7 @@
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B262" t="s">
         <v>10</v>
@@ -8027,10 +8042,10 @@
         <v>3</v>
       </c>
       <c r="AB262" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AC262" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.2">
@@ -9700,15 +9715,15 @@
         <v>957</v>
       </c>
       <c r="AC374" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AD374" t="s">
         <v>1125</v>
-      </c>
-      <c r="AD374" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B375" t="s">
         <v>10</v>
@@ -9718,7 +9733,7 @@
       </c>
       <c r="AB375" s="5"/>
       <c r="AC375" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AD375" s="3" t="s">
         <v>448</v>
@@ -10071,10 +10086,10 @@
     </row>
     <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AC404" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="405" spans="1:30" x14ac:dyDescent="0.2">
@@ -10118,7 +10133,7 @@
     </row>
     <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B408" t="s">
         <v>10</v>
@@ -10127,12 +10142,12 @@
         <v>3</v>
       </c>
       <c r="AC408" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B409" t="s">
         <v>9</v>
@@ -10141,7 +10156,7 @@
         <v>3</v>
       </c>
       <c r="AC409" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="411" spans="1:30" x14ac:dyDescent="0.2">
@@ -10165,7 +10180,7 @@
   <dimension ref="A1:AE375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10304,7 +10319,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AC3" t="s">
         <v>1058</v>
@@ -10332,7 +10347,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="AC5" t="s">
         <v>1061</v>
@@ -10403,7 +10418,7 @@
         <v>426</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F10"/>
       <c r="AA10" s="33" t="s">
@@ -10418,7 +10433,7 @@
         <v>426</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F11"/>
       <c r="AA11" s="33" t="s">
@@ -10433,7 +10448,7 @@
         <v>426</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F12"/>
     </row>
@@ -10470,7 +10485,7 @@
     </row>
     <row r="15" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>9</v>
@@ -10478,41 +10493,41 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B17" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10520,21 +10535,21 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F19"/>
     </row>
@@ -10549,7 +10564,7 @@
         <v>426</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F20"/>
       <c r="AA20" s="33" t="s">
@@ -10655,7 +10670,7 @@
         <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1094</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -10666,73 +10681,73 @@
         <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B28" t="s">
         <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B30" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E30" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>1142</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>1156</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B34" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E34" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -10809,6 +10824,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10940,7 +10956,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AC3" t="s">
         <v>91</v>
@@ -13180,7 +13196,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13560,7 +13576,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -13574,7 +13590,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -13582,7 +13598,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
@@ -13591,10 +13607,32 @@
         <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C054F-2060-1D40-8572-FE1BC8F49183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E8B41C-E41E-B44A-8ABB-AA2CB6FE3CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1187">
   <si>
     <t>default</t>
   </si>
@@ -3341,9 +3341,6 @@
     <t>font_path</t>
   </si>
   <si>
-    <t>fix_path_rel("fonts", path_base = "p_james")</t>
-  </si>
-  <si>
     <t>james_sh_path</t>
   </si>
   <si>
@@ -3494,9 +3491,6 @@
     <t>Your parameters are available as p\$parameter. You have acces to your data as follows. The x-values are in p\$data[, 1]. The first time series is p\$data[, 2], the second is p\$data[, 3], etc. If you generate figures from R (*i.e.* not Excel), you may define a function 'custom &lt;- function(p) { ... }' with a custom implementation instead.</t>
   </si>
   <si>
-    <t>Gives path to font, dependent on platform (*i.e.* windows, linux, osx)</t>
-  </si>
-  <si>
     <t>/Volumes/p_james/release</t>
   </si>
   <si>
@@ -3602,7 +3596,13 @@
     <t>/nas/data</t>
   </si>
   <si>
-    <t>2022-10-04</t>
+    <t>M:/p_james/fonts, /cifs/p_james/fonts, ~/Library/Fonts, fonts</t>
+  </si>
+  <si>
+    <t>Gives path to font, dependent on platform or app (*i.e.* windows, linux, osx, shiny app)</t>
+  </si>
+  <si>
+    <t>2022-11-02</t>
   </si>
 </sst>
 </file>
@@ -4217,7 +4217,7 @@
   <dimension ref="A1:AE419"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -4568,7 +4568,7 @@
         <v>951</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>55</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5191,16 +5191,19 @@
         <v>1098</v>
       </c>
       <c r="B52" t="s">
-        <v>1095</v>
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>426</v>
       </c>
       <c r="E52" t="s">
-        <v>1099</v>
+        <v>1184</v>
       </c>
       <c r="AB52" t="s">
         <v>427</v>
       </c>
       <c r="AC52" t="s">
-        <v>1150</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -6423,7 +6426,7 @@
         <v>601</v>
       </c>
       <c r="AD132" s="40" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="133" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6451,7 @@
         <v>336</v>
       </c>
       <c r="AC135" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
@@ -6488,10 +6491,10 @@
         <v>72</v>
       </c>
       <c r="AC137" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AD137" s="43" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="138" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6505,10 +6508,10 @@
         <v>9</v>
       </c>
       <c r="AC138" s="43" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AD138" s="44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="139" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6530,7 +6533,7 @@
     </row>
     <row r="140" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="42" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B140" s="43" t="s">
         <v>10</v>
@@ -6539,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="AC140" s="43" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AD140" s="44" t="s">
         <v>830</v>
@@ -6559,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="AC141" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="142" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6718,13 +6721,13 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B153" t="s">
         <v>72</v>
@@ -6733,19 +6736,19 @@
         <v>15</v>
       </c>
       <c r="Z153" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AB153" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AC153" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AD153" s="3"/>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B154" t="s">
         <v>72</v>
@@ -6757,16 +6760,16 @@
         <v>5</v>
       </c>
       <c r="AB154" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AC154" t="s">
         <v>1161</v>
-      </c>
-      <c r="AC154" t="s">
-        <v>1163</v>
       </c>
       <c r="AD154" s="3"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B155" t="s">
         <v>117</v>
@@ -6775,18 +6778,18 @@
         <v>72</v>
       </c>
       <c r="AB155" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AC155" t="s">
         <v>1162</v>
       </c>
-      <c r="AC155" t="s">
-        <v>1164</v>
-      </c>
       <c r="AD155" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B156" t="s">
         <v>117</v>
@@ -6798,18 +6801,18 @@
         <v>885</v>
       </c>
       <c r="AB156" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AC156" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AD156" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B157" t="s">
         <v>117</v>
@@ -6818,16 +6821,16 @@
         <v>9</v>
       </c>
       <c r="AB157" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AC157" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AD157" s="3"/>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B158" t="s">
         <v>588</v>
@@ -6949,7 +6952,7 @@
         <v>210</v>
       </c>
       <c r="AC168" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AD168" s="6"/>
     </row>
@@ -7089,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="AC180" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AD180" t="s">
         <v>181</v>
@@ -7338,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="AC201" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
@@ -7350,7 +7353,7 @@
       </c>
       <c r="AB202" s="5"/>
       <c r="AC202" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AD202" s="3"/>
     </row>
@@ -7724,7 +7727,7 @@
         <v>197</v>
       </c>
       <c r="AC234" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.2">
@@ -7912,7 +7915,7 @@
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="AD245" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.2">
@@ -7999,7 +8002,7 @@
         <v>917</v>
       </c>
       <c r="AC255" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.2">
@@ -8033,7 +8036,7 @@
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B262" t="s">
         <v>10</v>
@@ -8042,10 +8045,10 @@
         <v>3</v>
       </c>
       <c r="AB262" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AC262" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.2">
@@ -9715,15 +9718,15 @@
         <v>957</v>
       </c>
       <c r="AC374" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AD374" t="s">
         <v>1124</v>
-      </c>
-      <c r="AD374" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B375" t="s">
         <v>10</v>
@@ -9733,7 +9736,7 @@
       </c>
       <c r="AB375" s="5"/>
       <c r="AC375" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AD375" s="3" t="s">
         <v>448</v>
@@ -10086,10 +10089,10 @@
     </row>
     <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC404" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="405" spans="1:30" x14ac:dyDescent="0.2">
@@ -10133,7 +10136,7 @@
     </row>
     <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B408" t="s">
         <v>10</v>
@@ -10142,12 +10145,12 @@
         <v>3</v>
       </c>
       <c r="AC408" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B409" t="s">
         <v>9</v>
@@ -10156,7 +10159,7 @@
         <v>3</v>
       </c>
       <c r="AC409" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="411" spans="1:30" x14ac:dyDescent="0.2">
@@ -10319,7 +10322,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AC3" t="s">
         <v>1058</v>
@@ -10418,7 +10421,7 @@
         <v>426</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F10"/>
       <c r="AA10" s="33" t="s">
@@ -10433,7 +10436,7 @@
         <v>426</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F11"/>
       <c r="AA11" s="33" t="s">
@@ -10448,7 +10451,7 @@
         <v>426</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F12"/>
     </row>
@@ -10485,7 +10488,7 @@
     </row>
     <row r="15" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>9</v>
@@ -10493,13 +10496,13 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B16" t="s">
         <v>1095</v>
@@ -10507,13 +10510,13 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B17" t="s">
         <v>1095</v>
@@ -10521,13 +10524,13 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10535,13 +10538,13 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B19" t="s">
         <v>1095</v>
@@ -10549,7 +10552,7 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F19"/>
     </row>
@@ -10564,7 +10567,7 @@
         <v>426</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F20"/>
       <c r="AA20" s="33" t="s">
@@ -10670,7 +10673,7 @@
         <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -10692,62 +10695,62 @@
         <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B30" t="s">
         <v>1095</v>
       </c>
       <c r="E30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B31" t="s">
         <v>1095</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B32" t="s">
         <v>1095</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B34" t="s">
         <v>1095</v>
       </c>
       <c r="E34" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -10956,7 +10959,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AC3" t="s">
         <v>91</v>
@@ -12107,7 +12110,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13576,7 +13579,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -13590,7 +13593,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -13598,7 +13601,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
@@ -13607,7 +13610,7 @@
         <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>
@@ -13615,24 +13618,24 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>1182</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E8B41C-E41E-B44A-8ABB-AA2CB6FE3CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F451A4C5-0DB7-7C49-B100-BBD1747641B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="1211">
   <si>
     <t>default</t>
   </si>
@@ -3050,9 +3050,6 @@
     <t>y_lim, x_keep, x_lim_follow_data</t>
   </si>
   <si>
-    <t>x_ticks, x_lab</t>
-  </si>
-  <si>
     <t>x_ticks_date, x_ticks_lwd, x_ticks_length, x_ticks_col, x_ticks_vshift</t>
   </si>
   <si>
@@ -3602,7 +3599,82 @@
     <t>Gives path to font, dependent on platform or app (*i.e.* windows, linux, osx, shiny app)</t>
   </si>
   <si>
-    <t>2022-11-02</t>
+    <t>month_nl</t>
+  </si>
+  <si>
+    <t>month_en</t>
+  </si>
+  <si>
+    <t># DATES</t>
+  </si>
+  <si>
+    <t>jan, feb, mar, apr, mei, jun, jul, aug, sep, okt, nov, dec</t>
+  </si>
+  <si>
+    <t>You can use the following parameters to customize dates.</t>
+  </si>
+  <si>
+    <t>Dutch date (abbreviations).</t>
+  </si>
+  <si>
+    <t>English date (abbreviations).</t>
+  </si>
+  <si>
+    <t>x_date_format</t>
+  </si>
+  <si>
+    <t>Jan, Feb, Mar, Apr, May, Jun, Jul, Aug, Sep, Oct, Nov, Dec</t>
+  </si>
+  <si>
+    <t>x_at_date</t>
+  </si>
+  <si>
+    <t>x_ticks, x_lab, x_at_date</t>
+  </si>
+  <si>
+    <t>Position in terms of dates at which you want labels at the x-axis.</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd, yyyy-mm, yy-m, yy-m-d or a combination.</t>
+  </si>
+  <si>
+    <t>Defines the date format for date labels on the x-axis. A 'd' stands for the day of the month. Two d's ('dd') will ensure that days will always have two digits (e.g., not 1 but 01). Same for the number of the month: 'm', 'mm', respectively. Using 'month' will replace the number of the month by its abbreviated name. Use 'month_full' to get the full name. Setting 'style = english' will translate Dutch month names to English. Year can be either two or for digits: yy or yyyy. You can use the separator you want (e.g. '-', '/', or a whitespace ' '). You can also choose to use a newline (\n) so move the second part of your date to the next line. Please note that you can use a quote to abbreviate yyyy to 'yy.</t>
+  </si>
+  <si>
+    <t>month_nl_full</t>
+  </si>
+  <si>
+    <t>month_en_full</t>
+  </si>
+  <si>
+    <t>January, February, March, April, May, June, July, August, September, ctober, November, December</t>
+  </si>
+  <si>
+    <t>januari, februari, maart, april, mei, juni, juli, augustus, september, oktober, november, december</t>
+  </si>
+  <si>
+    <t>m-yyyy</t>
+  </si>
+  <si>
+    <t>dd-mm-yyyy, d month_full yyyy, yyyy/month, month, d-m-yy, d-mm-'yy, d-month-'yy, month yyyy, month_full\nyyyy</t>
+  </si>
+  <si>
+    <t>x_at, x_lab, x_date_format</t>
+  </si>
+  <si>
+    <t>month_nl, month_en, month_nl_full, month_en_full, x_lab_date_show</t>
+  </si>
+  <si>
+    <t>y, n</t>
+  </si>
+  <si>
+    <t>james_url</t>
+  </si>
+  <si>
+    <t>paste0("https://james.cpb.nl/manual/", get_param("manual_file_name"))</t>
+  </si>
+  <si>
+    <t>2022-11-26</t>
   </si>
 </sst>
 </file>
@@ -4214,11 +4286,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84CE4E8-7971-924E-945B-10EFE25BF424}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE419"/>
+  <dimension ref="A1:AE428"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4371,8 +4443,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
+      <c r="AB4" t="s">
+        <v>1207</v>
       </c>
       <c r="AC4" t="s">
         <v>963</v>
@@ -4448,7 +4520,7 @@
         <v>990</v>
       </c>
       <c r="AC9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -4568,7 +4640,7 @@
         <v>951</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>55</v>
@@ -4587,10 +4659,10 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AE16" s="6"/>
     </row>
@@ -4608,10 +4680,10 @@
       <c r="G17" s="3"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AE17" s="6"/>
     </row>
@@ -4629,10 +4701,10 @@
       <c r="G18" s="3"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AE18" s="6"/>
     </row>
@@ -4648,10 +4720,10 @@
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AE19" s="6"/>
     </row>
@@ -4667,10 +4739,10 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE20" s="6"/>
     </row>
@@ -4686,10 +4758,10 @@
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE21" s="6"/>
     </row>
@@ -4708,10 +4780,10 @@
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE22" s="6"/>
     </row>
@@ -4727,16 +4799,16 @@
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AE23" s="6"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4746,10 +4818,10 @@
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AD24" s="3" t="s">
         <v>1072</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>1073</v>
       </c>
       <c r="AE24" s="6"/>
     </row>
@@ -4764,20 +4836,20 @@
         <v>600</v>
       </c>
       <c r="Z25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="3" t="s">
         <v>432</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AE25" s="6"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>10</v>
@@ -4811,10 +4883,10 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4911,7 +4983,7 @@
         <v>0.8</v>
       </c>
       <c r="AC33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AE33" s="6"/>
     </row>
@@ -5135,7 +5207,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -5146,7 +5218,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5188,7 +5260,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B52" t="s">
         <v>117</v>
@@ -5197,13 +5269,13 @@
         <v>426</v>
       </c>
       <c r="E52" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AB52" t="s">
         <v>427</v>
       </c>
       <c r="AC52" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -5232,10 +5304,10 @@
         <v>7</v>
       </c>
       <c r="Z54" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AC54" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -5483,7 +5555,7 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B72" t="s">
         <v>117</v>
@@ -5495,7 +5567,7 @@
         <v>102</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
@@ -5512,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="AB73" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>542</v>
@@ -5520,7 +5592,7 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
@@ -5574,7 +5646,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B77" t="s">
         <v>117</v>
@@ -5776,9 +5848,26 @@
         <v>773</v>
       </c>
     </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>668</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>1029</v>
+      </c>
+    </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>668</v>
+        <v>1081</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -5787,61 +5876,61 @@
         <v>2</v>
       </c>
       <c r="AC93" t="s">
-        <v>1033</v>
+        <v>185</v>
       </c>
       <c r="AD93" t="s">
-        <v>1030</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1082</v>
+        <v>1031</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>185</v>
+        <v>1055</v>
       </c>
       <c r="AD94" t="s">
-        <v>668</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>102</v>
       </c>
       <c r="AC95" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AD95" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AD96" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
@@ -5849,38 +5938,35 @@
         <v>1052</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>102</v>
       </c>
       <c r="AC97" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="AD97" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1053</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>835</v>
       </c>
       <c r="AC98" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>1052</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
         <v>72</v>
@@ -5888,135 +5974,144 @@
       <c r="AB99" t="s">
         <v>835</v>
       </c>
-      <c r="AC99" t="s">
-        <v>834</v>
+      <c r="AC99" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>835</v>
-      </c>
-      <c r="AC100" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>88</v>
       </c>
       <c r="AD100" t="s">
-        <v>832</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>72</v>
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
       </c>
       <c r="AC101" t="s">
-        <v>88</v>
+        <v>986</v>
       </c>
       <c r="AD101" t="s">
-        <v>1002</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC102" t="s">
-        <v>986</v>
+        <v>255</v>
       </c>
       <c r="AD102" t="s">
-        <v>1037</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>116</v>
       </c>
       <c r="AC103" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>563</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB104" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC104" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>563</v>
+        <v>282</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E105">
+        <v>0.15</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
         <v>72</v>
       </c>
       <c r="E106">
-        <v>0.15</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>753</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>1033</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C107" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>1035</v>
       </c>
       <c r="AC107" t="s">
-        <v>129</v>
+        <v>1038</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
@@ -6030,10 +6125,10 @@
         <v>72</v>
       </c>
       <c r="Z108" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AC108" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AD108" t="s">
         <v>1040</v>
@@ -6041,196 +6136,193 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1035</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>1036</v>
+        <v>10</v>
       </c>
       <c r="AC109" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>1041</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>774</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
+      <c r="E110" t="s">
+        <v>3</v>
+      </c>
       <c r="AC110" t="s">
-        <v>223</v>
+        <v>777</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>774</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC111" t="s">
-        <v>777</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>333</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="C112" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB113" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD113" t="s">
-        <v>1003</v>
+        <v>72</v>
+      </c>
+      <c r="E113">
+        <v>0.25</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>72</v>
       </c>
       <c r="E114">
-        <v>0.25</v>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="T114">
+        <v>-0.02</v>
+      </c>
+      <c r="AB114">
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="B115" t="s">
         <v>72</v>
       </c>
       <c r="E115">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="T115">
-        <v>-0.02</v>
-      </c>
-      <c r="AB115">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
-      </c>
-      <c r="E116">
-        <v>-0.03</v>
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB117">
+        <v>-0.5</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="B118" t="s">
-        <v>72</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
       </c>
       <c r="Z118" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB118">
-        <v>-0.5</v>
+        <v>253</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>480</v>
       </c>
       <c r="AC118" t="s">
-        <v>113</v>
+        <v>1061</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>252</v>
+      <c r="A119" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="AB119" t="s">
-        <v>480</v>
+        <v>165</v>
       </c>
       <c r="AC119" t="s">
-        <v>1062</v>
+        <v>600</v>
       </c>
       <c r="AD119" t="s">
-        <v>87</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>163</v>
+        <v>420</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB120" t="s">
-        <v>165</v>
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3</v>
       </c>
       <c r="AC120" t="s">
-        <v>600</v>
+        <v>962</v>
       </c>
       <c r="AD120" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>420</v>
+      <c r="A121" t="s">
+        <v>96</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -6239,89 +6331,92 @@
         <v>3</v>
       </c>
       <c r="AC121" t="s">
-        <v>962</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>1000</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>96</v>
+        <v>669</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC122" t="s">
-        <v>108</v>
+        <v>670</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>669</v>
+        <v>95</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="C123" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>97</v>
       </c>
       <c r="AC123" t="s">
-        <v>670</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>671</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>95</v>
+        <v>593</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="AC124" t="s">
-        <v>1029</v>
+        <v>987</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>593</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
-      </c>
-      <c r="C125" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD125" t="s">
-        <v>838</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>1041</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C126" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>1035</v>
       </c>
       <c r="AC126" t="s">
-        <v>130</v>
+        <v>1038</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
@@ -6335,128 +6430,125 @@
         <v>72</v>
       </c>
       <c r="Z127" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AC127" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AD127" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1043</v>
+        <v>636</v>
       </c>
       <c r="B128" t="s">
         <v>117</v>
       </c>
       <c r="C128" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>1036</v>
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>102</v>
       </c>
       <c r="AC128" t="s">
-        <v>1038</v>
+        <v>837</v>
       </c>
       <c r="AD128" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>636</v>
-      </c>
-      <c r="B129" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC129" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>775</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC129" t="s">
-        <v>837</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="40" t="s">
+      <c r="C131" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC131" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD131" s="40" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA132" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AC130" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>775</v>
-      </c>
-      <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC131" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="132" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" s="40" t="s">
+      <c r="AD132" s="38" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B135" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC132" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="AD132" s="40" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="B133" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA133" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD133" s="38" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>336</v>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1188</v>
       </c>
       <c r="AC135" t="s">
-        <v>1134</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>334</v>
+        <v>1186</v>
       </c>
       <c r="B136" t="s">
         <v>117</v>
@@ -6464,796 +6556,796 @@
       <c r="C136" t="s">
         <v>9</v>
       </c>
-      <c r="D136" t="s">
-        <v>2</v>
-      </c>
       <c r="E136" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB136" t="s">
-        <v>821</v>
+        <v>1193</v>
       </c>
       <c r="AC136" t="s">
-        <v>822</v>
-      </c>
-      <c r="AD136" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="42" t="s">
-        <v>825</v>
-      </c>
-      <c r="B137" s="43" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B137" t="s">
         <v>117</v>
       </c>
-      <c r="C137" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC137" s="43" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AD137" s="43" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="B138" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C138" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC138" s="43" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AD138" s="44" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="43" t="s">
-        <v>830</v>
-      </c>
-      <c r="B139" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB139" s="43" t="s">
-        <v>835</v>
-      </c>
-      <c r="AC139" s="44" t="s">
-        <v>831</v>
-      </c>
-      <c r="AD139" s="43" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="42" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B140" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC140" s="43" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AD140" s="44" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="141" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="42" t="s">
-        <v>827</v>
-      </c>
-      <c r="B141" s="43" t="s">
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B138" t="s">
         <v>117</v>
       </c>
-      <c r="C141" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA141" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC141" s="43" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="142" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="43" t="s">
-        <v>836</v>
-      </c>
-      <c r="B142" s="43" t="s">
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AB139" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C142" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="43" t="s">
-        <v>102</v>
+      <c r="C140" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+      <c r="U140" s="6"/>
+      <c r="V140" s="6"/>
+      <c r="W140" s="6"/>
+      <c r="X140" s="6"/>
+      <c r="Y140" s="6"/>
+      <c r="Z140" s="6"/>
+      <c r="AA140" s="6"/>
+      <c r="AB140" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AC140" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AD140" s="6" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
       <c r="AC144" t="s">
-        <v>761</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="B145" t="s">
         <v>117</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
       </c>
-      <c r="E145">
-        <v>1.5</v>
-      </c>
-      <c r="AC145" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD145" s="6"/>
-    </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="E145" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>821</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>822</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="42" t="s">
+        <v>825</v>
+      </c>
+      <c r="B146" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D146" s="6" t="s">
+      <c r="C146" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC146" s="43" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AD146" s="43" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="42" t="s">
+        <v>826</v>
+      </c>
+      <c r="B147" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC147" s="43" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AD147" s="44" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="43" t="s">
+        <v>830</v>
+      </c>
+      <c r="B148" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB148" s="43" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC148" s="44" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD148" s="43" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="42" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B149" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="AB146" t="s">
-        <v>522</v>
-      </c>
-      <c r="AC146" t="s">
-        <v>828</v>
-      </c>
-      <c r="AD146" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC147" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AD147" s="6"/>
-    </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>714</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="AC149" s="43" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AD149" s="44" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="B150" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C148" t="s">
-        <v>72</v>
-      </c>
-      <c r="D148" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="AB148" t="s">
-        <v>715</v>
-      </c>
-      <c r="AC148" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD148" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>717</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C150" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA150" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC150" s="43" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="43" t="s">
+        <v>836</v>
+      </c>
+      <c r="B151" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB149" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC149" t="s">
-        <v>721</v>
-      </c>
-      <c r="AD149" s="3"/>
-    </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>718</v>
-      </c>
-      <c r="B150" t="s">
-        <v>117</v>
-      </c>
-      <c r="C150" t="s">
-        <v>72</v>
-      </c>
-      <c r="D150" t="s">
-        <v>2</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="AC150" t="s">
-        <v>719</v>
-      </c>
-      <c r="AD150" s="3"/>
-    </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD151" s="3"/>
-    </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AD152" s="3"/>
+      <c r="C151" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="43" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B153" t="s">
-        <v>72</v>
-      </c>
-      <c r="E153">
-        <v>15</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AB153" t="s">
-        <v>1158</v>
+      <c r="A153" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="AC153" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AD153" s="3"/>
+        <v>761</v>
+      </c>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1167</v>
+        <v>143</v>
       </c>
       <c r="B154" t="s">
-        <v>72</v>
+        <v>117</v>
+      </c>
+      <c r="C154" t="s">
+        <v>72</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.2</v>
-      </c>
-      <c r="Z154" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB154" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AC154" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AD154" s="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC154" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD154" s="6"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1156</v>
+        <v>145</v>
       </c>
       <c r="B155" t="s">
         <v>117</v>
       </c>
-      <c r="C155" t="s">
-        <v>72</v>
+      <c r="C155" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
       </c>
       <c r="AB155" t="s">
-        <v>1160</v>
+        <v>522</v>
       </c>
       <c r="AC155" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AD155" t="s">
-        <v>1171</v>
+        <v>828</v>
+      </c>
+      <c r="AD155" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1171</v>
+        <v>1048</v>
       </c>
       <c r="B156" t="s">
-        <v>117</v>
-      </c>
-      <c r="C156" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z156" t="s">
-        <v>885</v>
-      </c>
-      <c r="AB156" t="s">
-        <v>1172</v>
+        <v>10</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" t="s">
+        <v>2</v>
       </c>
       <c r="AC156" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AD156" s="3" t="s">
-        <v>1156</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="AD156" s="6"/>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1164</v>
+        <v>714</v>
       </c>
       <c r="B157" t="s">
         <v>117</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
       </c>
       <c r="AB157" t="s">
-        <v>1165</v>
+        <v>715</v>
       </c>
       <c r="AC157" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AD157" s="3"/>
+        <v>720</v>
+      </c>
+      <c r="AD157" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>717</v>
+      </c>
+      <c r="B158" t="s">
+        <v>117</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>721</v>
+      </c>
+      <c r="AD158" s="3"/>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>718</v>
+      </c>
+      <c r="B159" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" t="s">
+        <v>72</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>719</v>
+      </c>
+      <c r="AD159" s="3"/>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD160" s="3"/>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD161" s="3"/>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B162" t="s">
+        <v>72</v>
+      </c>
+      <c r="E162">
+        <v>15</v>
+      </c>
+      <c r="Z162" t="s">
         <v>1168</v>
       </c>
-      <c r="B158" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA158" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD158" s="3"/>
-    </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AD160" s="3"/>
-    </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B161" t="s">
-        <v>117</v>
-      </c>
-      <c r="C161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB161">
-        <v>1</v>
-      </c>
-      <c r="AC161" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AD161" s="3"/>
+      <c r="AB162" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AD162" s="3"/>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A163" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163">
+        <v>0.2</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AD163" s="3"/>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>1155</v>
       </c>
       <c r="B164" t="s">
-        <v>72</v>
-      </c>
-      <c r="E164">
-        <v>0.2</v>
-      </c>
-      <c r="Z164" t="s">
-        <v>524</v>
+        <v>117</v>
+      </c>
+      <c r="C164" t="s">
+        <v>72</v>
       </c>
       <c r="AB164" t="s">
-        <v>523</v>
+        <v>1159</v>
       </c>
       <c r="AC164" t="s">
-        <v>182</v>
+        <v>1161</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>117</v>
+      </c>
+      <c r="C165" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AD165" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AD166" s="3"/>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD167" s="3"/>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AD169" s="3"/>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B170" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AD170" s="3"/>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" t="s">
+        <v>72</v>
+      </c>
+      <c r="E173">
+        <v>0.2</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>206</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B174" t="s">
         <v>10</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E174" t="s">
         <v>3</v>
       </c>
-      <c r="AC165" t="s">
+      <c r="AC174" t="s">
         <v>525</v>
       </c>
-      <c r="AD165" t="s">
+      <c r="AD174" t="s">
         <v>952</v>
-      </c>
-    </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B166" t="s">
-        <v>72</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="AC166" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B167" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB167" s="5"/>
-      <c r="AC167" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B168" t="s">
-        <v>72</v>
-      </c>
-      <c r="E168" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z168" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB168" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC168" s="6" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AD168" s="6"/>
-    </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B169" t="s">
-        <v>72</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="AB169" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC169" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B170" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC170" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B171" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC171" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>776</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="E172" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC172" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B173" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC173" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B174" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC174" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>587</v>
+        <v>207</v>
       </c>
       <c r="B175" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA175" t="s">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
       </c>
       <c r="AC175" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>602</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA176" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB176" s="5"/>
+      <c r="AC176" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
+      <c r="A177" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B177" t="s">
+        <v>72</v>
+      </c>
+      <c r="E177" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB177" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC177" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AD177" s="6"/>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A178" s="8" t="s">
-        <v>944</v>
+      <c r="A178" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B178" t="s">
+        <v>72</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>945</v>
+      <c r="A179" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B179" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB179">
+        <v>9</v>
+      </c>
+      <c r="E179" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B180" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>776</v>
+      </c>
+      <c r="B181" t="s">
         <v>10</v>
       </c>
-      <c r="AC179" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>950</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="E181" t="s">
         <v>2</v>
       </c>
-      <c r="AC180" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AD180" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
+      <c r="AC181" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A182" s="8" t="s">
-        <v>285</v>
+      <c r="A182" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B182" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="B183" t="s">
-        <v>117</v>
-      </c>
-      <c r="C183" t="s">
-        <v>72</v>
-      </c>
-      <c r="E183" t="s">
-        <v>329</v>
+        <v>9</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>287</v>
+        <v>587</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
-      </c>
-      <c r="C184" t="s">
-        <v>72</v>
+        <v>588</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>3</v>
       </c>
       <c r="AC184" t="s">
-        <v>310</v>
+        <v>589</v>
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>288</v>
+        <v>602</v>
       </c>
       <c r="B185" t="s">
         <v>72</v>
       </c>
-      <c r="E185">
-        <v>0.2</v>
-      </c>
-      <c r="P185">
-        <v>0.5</v>
+      <c r="AA185" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>945</v>
+      </c>
+      <c r="B188" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB188">
         <v>10</v>
       </c>
-      <c r="E186" t="s">
+      <c r="AC188" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>950</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="E187" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC187" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC188" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B189" t="s">
-        <v>72</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
       <c r="AC189" t="s">
-        <v>439</v>
+        <v>1143</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B190" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB190" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC190" t="s">
-        <v>446</v>
-      </c>
+      <c r="A190" s="3"/>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B191" t="s">
-        <v>10</v>
-      </c>
-      <c r="E191" t="s">
-        <v>3</v>
-      </c>
-      <c r="P191" t="s">
-        <v>2</v>
+      <c r="A191" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>72</v>
-      </c>
-      <c r="E192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="C192" t="s">
+        <v>72</v>
+      </c>
+      <c r="E192" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B193" t="s">
-        <v>72</v>
-      </c>
-      <c r="E193">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="C193" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>441</v>
+        <v>288</v>
       </c>
       <c r="B194" t="s">
         <v>72</v>
@@ -7261,354 +7353,362 @@
       <c r="E194">
         <v>0.2</v>
       </c>
-      <c r="Z194" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC194" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P194">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
-        <v>72</v>
-      </c>
-      <c r="E195">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>780</v>
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
       </c>
       <c r="E196" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
         <v>2</v>
       </c>
-      <c r="AC196" t="s">
+      <c r="AC197" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B198" t="s">
+        <v>72</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>3</v>
+      </c>
+      <c r="P200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B201" t="s">
+        <v>72</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B202" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B203" t="s">
+        <v>72</v>
+      </c>
+      <c r="E203">
+        <v>0.2</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B204" t="s">
+        <v>72</v>
+      </c>
+      <c r="E204">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>780</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC205" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B206" t="s">
         <v>584</v>
       </c>
-      <c r="AA197" t="s">
+      <c r="AA206" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-    </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A199" s="8" t="s">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>303</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B209" t="s">
         <v>203</v>
       </c>
-      <c r="C200" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB200" s="5" t="s">
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB209" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AC200" s="3" t="s">
+      <c r="AC209" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AD200" s="3" t="s">
+      <c r="AD209" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AE200" s="6"/>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+      <c r="AE209" s="6"/>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B210" t="s">
         <v>10</v>
       </c>
-      <c r="AC201" t="s">
+      <c r="AC210" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>302</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB211" s="5"/>
+      <c r="AC211" s="3" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>302</v>
-      </c>
-      <c r="B202" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB202" s="5"/>
-      <c r="AC202" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AD202" s="3"/>
-    </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+      <c r="AD211" s="3"/>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B203" t="s">
-        <v>72</v>
-      </c>
-      <c r="E203">
+      <c r="B212" t="s">
+        <v>72</v>
+      </c>
+      <c r="E212">
         <v>0</v>
       </c>
-      <c r="AB203" t="s">
+      <c r="AB212" t="s">
         <v>560</v>
       </c>
-      <c r="AC203" t="s">
+      <c r="AC212" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>314</v>
       </c>
-      <c r="B204" t="s">
-        <v>72</v>
-      </c>
-      <c r="E204">
+      <c r="B213" t="s">
+        <v>72</v>
+      </c>
+      <c r="E213">
         <v>0</v>
       </c>
-      <c r="Z204" t="s">
+      <c r="Z213" t="s">
         <v>5</v>
       </c>
-      <c r="AC204" t="s">
+      <c r="AC213" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>315</v>
       </c>
-      <c r="B205" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="10" t="s">
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-    </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+    </row>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>312</v>
       </c>
-      <c r="B206" t="s">
-        <v>72</v>
-      </c>
-      <c r="E206">
+      <c r="B215" t="s">
+        <v>72</v>
+      </c>
+      <c r="E215">
         <v>2</v>
       </c>
-      <c r="AB206" t="s">
+      <c r="AB215" t="s">
         <v>104</v>
       </c>
-      <c r="AC206" s="6" t="s">
+      <c r="AC215" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>313</v>
       </c>
-      <c r="B207" t="s">
-        <v>72</v>
-      </c>
-      <c r="E207">
+      <c r="B216" t="s">
+        <v>72</v>
+      </c>
+      <c r="E216">
         <v>1</v>
       </c>
-      <c r="AC207" s="6"/>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="AC216" s="6"/>
+    </row>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>316</v>
       </c>
-      <c r="B208" t="s">
-        <v>72</v>
-      </c>
-      <c r="E208">
+      <c r="B217" t="s">
+        <v>72</v>
+      </c>
+      <c r="E217">
         <v>0.5</v>
       </c>
-      <c r="Z208" t="s">
+      <c r="Z217" t="s">
         <v>5</v>
       </c>
-      <c r="AC208" t="s">
+      <c r="AC217" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>585</v>
-      </c>
-      <c r="B209" t="s">
-        <v>117</v>
-      </c>
-      <c r="C209" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC209" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>839</v>
-      </c>
-      <c r="B212" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC212" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
-    </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A214" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC215" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
-    </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="B218" t="s">
         <v>117</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E218" t="s">
-        <v>232</v>
+      <c r="C218" t="s">
+        <v>72</v>
       </c>
       <c r="AC218" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B219" t="s">
-        <v>72</v>
-      </c>
-      <c r="E219">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z219" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B220" t="s">
-        <v>72</v>
-      </c>
-      <c r="E220">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
-        <v>228</v>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>839</v>
       </c>
       <c r="B221" t="s">
-        <v>117</v>
-      </c>
-      <c r="C221" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="AC221" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC222" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B223" t="s">
-        <v>72</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-      <c r="AB223" t="s">
-        <v>793</v>
-      </c>
-      <c r="AC223" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>597</v>
+        <v>219</v>
       </c>
       <c r="B224" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA224" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC224" t="s">
-        <v>598</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="1:29" x14ac:dyDescent="0.2">
@@ -7616,15 +7716,12 @@
     </row>
     <row r="226" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC226" t="s">
-        <v>716</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>117</v>
@@ -7632,1153 +7729,1155 @@
       <c r="C227" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E227">
-        <v>19</v>
-      </c>
-      <c r="N227" t="s">
-        <v>32</v>
+      <c r="E227" t="s">
+        <v>232</v>
       </c>
       <c r="AC227" t="s">
-        <v>762</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>117</v>
-      </c>
-      <c r="C228" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="AC228" t="s">
-        <v>763</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>756</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>117</v>
-      </c>
-      <c r="C229" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="AC229" t="s">
-        <v>757</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="230" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>847</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
       <c r="E230" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="AC230" t="s">
-        <v>848</v>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="232" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
-        <v>192</v>
+      <c r="A232" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B232" t="s">
+        <v>72</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>793</v>
       </c>
       <c r="AC232" t="s">
-        <v>529</v>
+        <v>805</v>
       </c>
     </row>
     <row r="233" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>195</v>
+        <v>597</v>
       </c>
       <c r="B233" t="s">
-        <v>72</v>
+        <v>588</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>3</v>
       </c>
       <c r="AC233" t="s">
-        <v>193</v>
+        <v>598</v>
       </c>
     </row>
     <row r="234" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B234" t="s">
-        <v>203</v>
-      </c>
-      <c r="C234" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z234" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB234" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC234" t="s">
-        <v>1142</v>
-      </c>
+      <c r="A234" s="3"/>
     </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>224</v>
-      </c>
-      <c r="B235" t="s">
-        <v>9</v>
-      </c>
-      <c r="E235" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="F235" s="32"/>
-      <c r="AB235" t="s">
-        <v>194</v>
+      <c r="A235" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="AC235" t="s">
-        <v>167</v>
+        <v>716</v>
       </c>
     </row>
     <row r="236" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
+      <c r="A236" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>117</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E236">
+        <v>19</v>
+      </c>
+      <c r="N236" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
-        <v>534</v>
+      <c r="A237" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>117</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
       </c>
       <c r="AC237" t="s">
-        <v>846</v>
+        <v>763</v>
       </c>
     </row>
     <row r="238" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>196</v>
+        <v>756</v>
       </c>
       <c r="B238" t="s">
         <v>117</v>
       </c>
-      <c r="C238" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA238" t="s">
-        <v>3</v>
+      <c r="C238" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
       </c>
       <c r="AC238" t="s">
-        <v>583</v>
+        <v>757</v>
       </c>
     </row>
     <row r="239" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="B239" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="6"/>
+      <c r="E239" t="s">
         <v>3</v>
       </c>
       <c r="AC239" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B240" t="s">
-        <v>117</v>
-      </c>
-      <c r="C240" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB240" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC240" t="s">
-        <v>545</v>
+        <v>848</v>
       </c>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B241" t="s">
-        <v>203</v>
-      </c>
-      <c r="C241" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB241" s="5" t="s">
-        <v>304</v>
+      <c r="A241" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="AC241" t="s">
-        <v>358</v>
+        <v>529</v>
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>722</v>
+        <v>195</v>
       </c>
       <c r="B242" t="s">
         <v>72</v>
       </c>
-      <c r="E242" s="5">
-        <v>1</v>
-      </c>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-      <c r="J242" s="5"/>
-      <c r="N242">
-        <v>1E-3</v>
-      </c>
-      <c r="AB242" t="s">
-        <v>723</v>
-      </c>
       <c r="AC242" t="s">
-        <v>724</v>
+        <v>193</v>
       </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B243" t="s">
+        <v>203</v>
+      </c>
+      <c r="C243" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>224</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F244" s="32"/>
+      <c r="AB244" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A246" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B247" t="s">
         <v>117</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="N243">
-        <v>100</v>
-      </c>
-      <c r="AB243">
-        <v>100</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B244" t="s">
-        <v>117</v>
-      </c>
-      <c r="C244" t="s">
-        <v>72</v>
-      </c>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
-      <c r="I244" s="5"/>
-      <c r="J244" s="5"/>
-      <c r="AB244" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC244" t="s">
-        <v>599</v>
-      </c>
-      <c r="AD244" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B245" t="s">
-        <v>117</v>
-      </c>
-      <c r="C245" t="s">
-        <v>72</v>
-      </c>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5"/>
-      <c r="AD245" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB246" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC246" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
+      <c r="C247" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A248" s="8" t="s">
-        <v>565</v>
+      <c r="A248" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
-      </c>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C249" t="s">
+        <v>72</v>
+      </c>
       <c r="AB249" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="AC249" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B250" t="s">
+        <v>203</v>
+      </c>
+      <c r="C250" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB250" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B251" t="s">
+        <v>72</v>
+      </c>
+      <c r="E251" s="5">
+        <v>1</v>
+      </c>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="N251">
+        <v>1E-3</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B252" t="s">
+        <v>117</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>100</v>
+      </c>
+      <c r="AB252">
+        <v>100</v>
+      </c>
+      <c r="AC252" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B253" t="s">
+        <v>117</v>
+      </c>
+      <c r="C253" t="s">
+        <v>72</v>
+      </c>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="AB253" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B254" t="s">
+        <v>117</v>
+      </c>
+      <c r="C254" t="s">
+        <v>72</v>
+      </c>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="AD254" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A257" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="AB258" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B250" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB250" t="s">
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB259" t="s">
         <v>567</v>
       </c>
-      <c r="AC250" t="s">
+      <c r="AC259" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
-    </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
-    </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A253" s="3"/>
-    </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A254" s="8" t="s">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AC254" t="s">
+      <c r="AC263" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>42</v>
-      </c>
-      <c r="B255" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB255" t="s">
-        <v>917</v>
-      </c>
-      <c r="AC255" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A260" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC260" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>53</v>
-      </c>
-      <c r="B261" t="s">
-        <v>10</v>
-      </c>
-      <c r="E261" t="s">
-        <v>2</v>
-      </c>
-      <c r="T261" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB261" s="5"/>
-      <c r="AC261" t="s">
-        <v>965</v>
-      </c>
-      <c r="AD261" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B262" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB262" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AC262" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>31</v>
-      </c>
-      <c r="B263" t="s">
-        <v>203</v>
-      </c>
-      <c r="C263" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB263" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC263" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD263" s="3"/>
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="B264" t="s">
-        <v>117</v>
-      </c>
-      <c r="C264" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB264" s="5" t="s">
-        <v>259</v>
+        <v>9</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>917</v>
       </c>
       <c r="AC264" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>51</v>
-      </c>
-      <c r="B265" t="s">
-        <v>72</v>
-      </c>
-      <c r="E265">
-        <v>0.45</v>
-      </c>
-      <c r="Z265" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB265">
-        <v>0.03</v>
-      </c>
-      <c r="AC265" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>52</v>
-      </c>
-      <c r="B266" t="s">
-        <v>72</v>
-      </c>
-      <c r="E266">
-        <v>1.3</v>
-      </c>
-      <c r="Q266">
-        <v>1.08</v>
-      </c>
-      <c r="Z266" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB266">
-        <v>0.12</v>
-      </c>
-      <c r="AC266" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A267" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B267" t="s">
-        <v>72</v>
-      </c>
-      <c r="E267">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A269" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>53</v>
+      </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="E270" t="s">
+        <v>2</v>
+      </c>
+      <c r="T270" t="s">
         <v>3</v>
-      </c>
-      <c r="M267">
-        <v>4</v>
-      </c>
-      <c r="N267">
-        <v>4</v>
-      </c>
-      <c r="AB267" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC267" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B268" t="s">
-        <v>72</v>
-      </c>
-      <c r="E268">
-        <v>0.3</v>
-      </c>
-      <c r="Z268" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB268" s="5"/>
-      <c r="AC268" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A269" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B269" t="s">
-        <v>72</v>
-      </c>
-      <c r="E269">
-        <v>0.8</v>
-      </c>
-      <c r="Z269" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB269" s="5"/>
-      <c r="AD269" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A270" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B270" t="s">
-        <v>72</v>
-      </c>
-      <c r="E270">
-        <v>0.15</v>
-      </c>
-      <c r="Z270" t="s">
-        <v>5</v>
       </c>
       <c r="AB270" s="5"/>
       <c r="AC270" t="s">
-        <v>146</v>
+        <v>965</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A271" s="6" t="s">
-        <v>156</v>
+      <c r="A271" t="s">
+        <v>1173</v>
       </c>
       <c r="B271" t="s">
-        <v>72</v>
-      </c>
-      <c r="E271">
-        <v>0.375</v>
-      </c>
-      <c r="Z271" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB271" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>31</v>
+      </c>
+      <c r="B272" t="s">
+        <v>203</v>
+      </c>
+      <c r="C272" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB272" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC272" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD272" s="3"/>
+    </row>
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>257</v>
+      </c>
+      <c r="B273" t="s">
+        <v>117</v>
+      </c>
+      <c r="C273" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB273" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>51</v>
+      </c>
+      <c r="B274" t="s">
+        <v>72</v>
+      </c>
+      <c r="E274">
+        <v>0.45</v>
+      </c>
+      <c r="Z274" t="s">
         <v>5</v>
       </c>
-      <c r="AB271" s="5"/>
-      <c r="AC271" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A272" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B272" t="s">
-        <v>72</v>
-      </c>
-      <c r="E272">
-        <v>0.315</v>
-      </c>
-      <c r="Z272" t="s">
+      <c r="AB274">
+        <v>0.03</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>52</v>
+      </c>
+      <c r="B275" t="s">
+        <v>72</v>
+      </c>
+      <c r="E275">
+        <v>1.3</v>
+      </c>
+      <c r="Q275">
+        <v>1.08</v>
+      </c>
+      <c r="Z275" t="s">
         <v>5</v>
       </c>
-      <c r="AB272" s="5"/>
-      <c r="AC272" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B273" t="s">
-        <v>72</v>
-      </c>
-      <c r="E273">
-        <v>3</v>
-      </c>
-      <c r="AB273" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC273" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A274" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B274" t="s">
-        <v>117</v>
-      </c>
-      <c r="C274" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA274" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB274" s="6"/>
-      <c r="AC274" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A275" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="B275" t="s">
-        <v>117</v>
-      </c>
-      <c r="C275" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA275" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB275" s="6"/>
-      <c r="AC275" s="6" t="s">
-        <v>642</v>
+      <c r="AB275">
+        <v>0.12</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>758</v>
+        <v>152</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
-      </c>
-      <c r="E276" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB276" s="6"/>
-      <c r="AC276" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="AD276" t="s">
-        <v>733</v>
+        <v>72</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+      <c r="M276">
+        <v>4</v>
+      </c>
+      <c r="N276">
+        <v>4</v>
+      </c>
+      <c r="AB276" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>759</v>
+        <v>202</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
-      </c>
-      <c r="E277" t="s">
-        <v>797</v>
-      </c>
-      <c r="X277" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB277" s="6"/>
-      <c r="AC277" s="6" t="s">
-        <v>967</v>
+        <v>72</v>
+      </c>
+      <c r="E277">
+        <v>0.3</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB277" s="5"/>
+      <c r="AC277" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A278" s="6"/>
-      <c r="AB278" s="6"/>
-      <c r="AC278" s="6"/>
+      <c r="A278" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B278" t="s">
+        <v>72</v>
+      </c>
+      <c r="E278">
+        <v>0.8</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB278" s="5"/>
+      <c r="AD278" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A279" s="6"/>
+      <c r="A279" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B279" t="s">
+        <v>72</v>
+      </c>
+      <c r="E279">
+        <v>0.15</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>5</v>
+      </c>
       <c r="AB279" s="5"/>
+      <c r="AC279" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A280" s="8" t="s">
-        <v>750</v>
+      <c r="A280" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B280" t="s">
+        <v>72</v>
+      </c>
+      <c r="E280">
+        <v>0.375</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>5</v>
       </c>
       <c r="AB280" s="5"/>
+      <c r="AC280" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>733</v>
+        <v>158</v>
       </c>
       <c r="B281" t="s">
         <v>72</v>
+      </c>
+      <c r="E281">
+        <v>0.315</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>5</v>
       </c>
       <c r="AB281" s="5"/>
       <c r="AC281" t="s">
-        <v>728</v>
+        <v>988</v>
       </c>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>183</v>
+      <c r="A282" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="B282" t="s">
-        <v>117</v>
-      </c>
-      <c r="C282" t="s">
-        <v>72</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AC282" t="s">
-        <v>749</v>
-      </c>
-      <c r="AD282" t="s">
-        <v>145</v>
+        <v>72</v>
+      </c>
+      <c r="E282">
+        <v>3</v>
+      </c>
+      <c r="AB282" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC282" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>734</v>
+        <v>641</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
-      </c>
-      <c r="E283" t="s">
+        <v>117</v>
+      </c>
+      <c r="C283" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA283" t="s">
         <v>3</v>
       </c>
-      <c r="AB283" s="5"/>
-      <c r="AC283" t="s">
-        <v>735</v>
+      <c r="AB283" s="6"/>
+      <c r="AC283" s="6" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="B284" t="s">
-        <v>72</v>
-      </c>
-      <c r="E284">
-        <v>10</v>
-      </c>
-      <c r="Z284" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB284" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC284" t="s">
-        <v>727</v>
+        <v>117</v>
+      </c>
+      <c r="C284" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB284" s="6"/>
+      <c r="AC284" s="6" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E285" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB285" s="5"/>
-      <c r="AC285" t="s">
-        <v>738</v>
+        <v>2</v>
+      </c>
+      <c r="AB285" s="6"/>
+      <c r="AC285" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="B286" t="s">
-        <v>72</v>
-      </c>
-      <c r="E286">
-        <v>45</v>
-      </c>
-      <c r="Z286" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB286" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="AC286" t="s">
-        <v>731</v>
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>797</v>
+      </c>
+      <c r="X286" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB286" s="6"/>
+      <c r="AC286" s="6" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="B287" t="s">
-        <v>72</v>
-      </c>
-      <c r="E287">
-        <v>0.65</v>
-      </c>
-      <c r="Z287" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB287" t="s">
-        <v>798</v>
-      </c>
-      <c r="AC287" t="s">
-        <v>755</v>
-      </c>
+      <c r="A287" s="6"/>
+      <c r="AB287" s="6"/>
+      <c r="AC287" s="6"/>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="B288" t="s">
+      <c r="A288" s="6"/>
+      <c r="AB288" s="5"/>
+    </row>
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A289" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB289" s="5"/>
+    </row>
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B290" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB290" s="5"/>
+      <c r="AC290" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>183</v>
+      </c>
+      <c r="B291" t="s">
+        <v>117</v>
+      </c>
+      <c r="C291" t="s">
+        <v>72</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B292" t="s">
         <v>10</v>
       </c>
-      <c r="E288" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB288" s="5"/>
-      <c r="AC288" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B289" t="s">
-        <v>9</v>
-      </c>
-      <c r="E289" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC289" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B290" t="s">
-        <v>72</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="Z290" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB290" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC290" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B291" t="s">
-        <v>10</v>
-      </c>
-      <c r="E291" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB291" s="5"/>
-      <c r="AC291" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="B292" t="s">
-        <v>9</v>
-      </c>
       <c r="E292" t="s">
-        <v>799</v>
-      </c>
-      <c r="X292" t="s">
-        <v>760</v>
+        <v>3</v>
       </c>
       <c r="AB292" s="5"/>
       <c r="AC292" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="B293" t="s">
         <v>72</v>
       </c>
       <c r="E293">
-        <v>3</v>
-      </c>
-      <c r="AB293" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC293" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB293" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>802</v>
+        <v>737</v>
       </c>
       <c r="B294" t="s">
-        <v>72</v>
-      </c>
-      <c r="E294">
-        <v>0.9</v>
+        <v>9</v>
+      </c>
+      <c r="E294" t="s">
+        <v>730</v>
       </c>
       <c r="AB294" s="5"/>
       <c r="AC294" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>811</v>
+        <v>739</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
-      </c>
-      <c r="E295" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F295" s="16"/>
-      <c r="AB295" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="E295">
+        <v>45</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB295" s="5" t="s">
+        <v>732</v>
+      </c>
       <c r="AC295" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>800</v>
+        <v>754</v>
       </c>
       <c r="B296" t="s">
+        <v>72</v>
+      </c>
+      <c r="E296">
+        <v>0.65</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B297" t="s">
         <v>10</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E297" t="s">
         <v>2</v>
       </c>
-      <c r="AB296" s="5"/>
-      <c r="AC296" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB297" s="5"/>
-    </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A298" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB298" s="5"/>
-    </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>83</v>
+      <c r="AC297" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>179</v>
+      </c>
+      <c r="G298" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>744</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
       </c>
       <c r="E299">
-        <v>0.25</v>
-      </c>
-      <c r="AB299" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>188</v>
+      </c>
       <c r="AC299" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>84</v>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E300" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="AB300" s="5"/>
+      <c r="AC300" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>746</v>
       </c>
       <c r="B301" t="s">
-        <v>72</v>
-      </c>
-      <c r="N301">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E301" t="s">
+        <v>799</v>
+      </c>
+      <c r="X301" t="s">
+        <v>760</v>
       </c>
       <c r="AB301" s="5"/>
       <c r="AC301" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>101</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>803</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
-      </c>
-      <c r="E302" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB302" s="5"/>
-      <c r="AC302" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="E302">
+        <v>3</v>
+      </c>
+      <c r="AB302" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC302" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
+        <v>802</v>
       </c>
       <c r="B303" t="s">
         <v>72</v>
       </c>
       <c r="E303">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AB303" s="5"/>
       <c r="AC303" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>442</v>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
+        <v>811</v>
       </c>
       <c r="B304" t="s">
-        <v>72</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E304" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F304" s="16"/>
       <c r="AB304" s="5"/>
-    </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>443</v>
+      <c r="AC304" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
+        <v>800</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E305" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="AB305" s="5"/>
-    </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>444</v>
-      </c>
-      <c r="B306" t="s">
-        <v>72</v>
-      </c>
-      <c r="E306">
-        <v>1</v>
-      </c>
+      <c r="AC305" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB306" s="5"/>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>445</v>
-      </c>
-      <c r="B307" t="s">
-        <v>72</v>
-      </c>
-      <c r="E307">
-        <v>3</v>
+    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A307" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="AB307" s="5"/>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B308" t="s">
         <v>72</v>
+      </c>
+      <c r="E308">
+        <v>0.25</v>
       </c>
       <c r="AB308" s="5"/>
       <c r="AC308" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>381</v>
+        <v>84</v>
       </c>
       <c r="B309" t="s">
-        <v>117</v>
-      </c>
-      <c r="C309" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB309" s="5"/>
-    </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E309" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>422</v>
+        <v>8</v>
       </c>
       <c r="B310" t="s">
-        <v>117</v>
-      </c>
-      <c r="C310" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB310" s="31" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="AB310" s="5"/>
+      <c r="AC310" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>382</v>
+        <v>101</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
@@ -8787,10 +8886,13 @@
         <v>102</v>
       </c>
       <c r="AB311" s="5"/>
-    </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC311" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>383</v>
+        <v>99</v>
       </c>
       <c r="B312" t="s">
         <v>72</v>
@@ -8799,159 +8901,173 @@
         <v>1</v>
       </c>
       <c r="AB312" s="5"/>
-    </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC312" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
       <c r="B313" t="s">
-        <v>117</v>
-      </c>
-      <c r="C313" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB313" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC313" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD313" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="AB313" s="5"/>
+    </row>
+    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>923</v>
+        <v>443</v>
       </c>
       <c r="B314" t="s">
-        <v>117</v>
-      </c>
-      <c r="C314" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
+        <v>102</v>
       </c>
       <c r="AB314" s="5"/>
-      <c r="AC314" t="s">
-        <v>924</v>
-      </c>
-      <c r="AD314" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="B315" t="s">
-        <v>117</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E315" t="s">
-        <v>264</v>
+        <v>72</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
       </c>
       <c r="AB315" s="5"/>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="B316" t="s">
-        <v>117</v>
-      </c>
-      <c r="C316" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="E316">
+        <v>3</v>
       </c>
       <c r="AB316" s="5"/>
-      <c r="AC316" t="s">
-        <v>919</v>
-      </c>
-      <c r="AD316" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>921</v>
+        <v>59</v>
       </c>
       <c r="B317" t="s">
-        <v>117</v>
-      </c>
-      <c r="C317" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="AB317" s="5"/>
       <c r="AC317" t="s">
-        <v>922</v>
-      </c>
-      <c r="AD317" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>381</v>
+      </c>
+      <c r="B318" t="s">
+        <v>117</v>
+      </c>
+      <c r="C318" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB318" s="5"/>
+    </row>
+    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>422</v>
+      </c>
+      <c r="B319" t="s">
+        <v>117</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB319" s="31" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>382</v>
+      </c>
+      <c r="B320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB320" s="5"/>
+    </row>
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>383</v>
+      </c>
+      <c r="B321" t="s">
+        <v>72</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="AB321" s="5"/>
+    </row>
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>260</v>
+      </c>
+      <c r="B322" t="s">
+        <v>117</v>
+      </c>
+      <c r="C322" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB322" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD322" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>419</v>
-      </c>
-      <c r="B318" t="s">
-        <v>9</v>
-      </c>
-      <c r="E318" t="s">
-        <v>993</v>
-      </c>
-      <c r="AB318" s="5"/>
-    </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>384</v>
-      </c>
-      <c r="B319" t="s">
-        <v>72</v>
-      </c>
-      <c r="E319">
-        <v>3</v>
-      </c>
-      <c r="AB319" s="5"/>
-    </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AB320" s="5"/>
-    </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A321" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="AB321" s="5"/>
-    </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AB322" s="5"/>
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>550</v>
+        <v>923</v>
       </c>
       <c r="B323" t="s">
         <v>117</v>
       </c>
       <c r="C323" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="AB323" s="5"/>
+      <c r="AC323" t="s">
+        <v>924</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>551</v>
+        <v>261</v>
       </c>
       <c r="B324" t="s">
         <v>117</v>
       </c>
-      <c r="C324" t="s">
-        <v>72</v>
+      <c r="C324" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>264</v>
       </c>
       <c r="AB324" s="5"/>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>552</v>
+        <v>418</v>
       </c>
       <c r="B325" t="s">
         <v>117</v>
@@ -8960,1216 +9076,1312 @@
         <v>72</v>
       </c>
       <c r="AB325" s="5"/>
+      <c r="AC325" t="s">
+        <v>919</v>
+      </c>
+      <c r="AD325" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>553</v>
+        <v>921</v>
       </c>
       <c r="B326" t="s">
         <v>117</v>
       </c>
       <c r="C326" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="AB326" s="5"/>
+      <c r="AC326" t="s">
+        <v>922</v>
+      </c>
+      <c r="AD326" s="6" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>554</v>
+        <v>419</v>
       </c>
       <c r="B327" t="s">
-        <v>117</v>
-      </c>
-      <c r="C327" t="s">
         <v>9</v>
       </c>
       <c r="E327" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AB327" s="5"/>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>635</v>
+        <v>384</v>
       </c>
       <c r="B328" t="s">
-        <v>117</v>
-      </c>
-      <c r="C328" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="E328">
+        <v>3</v>
       </c>
       <c r="AB328" s="5"/>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A329" s="8" t="s">
-        <v>452</v>
-      </c>
       <c r="AB329" s="5"/>
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>460</v>
-      </c>
-      <c r="B330" t="s">
-        <v>9</v>
+      <c r="A330" s="8" t="s">
+        <v>549</v>
       </c>
       <c r="AB330" s="5"/>
-      <c r="AC330" t="s">
-        <v>515</v>
-      </c>
-      <c r="AD330" t="s">
-        <v>609</v>
-      </c>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>513</v>
-      </c>
-      <c r="B331" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC331" s="5" t="s">
-        <v>514</v>
-      </c>
+      <c r="AB331" s="5"/>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="B332" t="s">
         <v>117</v>
       </c>
-      <c r="C332" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E332" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB332" s="5" t="s">
-        <v>462</v>
-      </c>
+      <c r="C332" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB332" s="5"/>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>463</v>
+        <v>551</v>
       </c>
       <c r="B333" t="s">
         <v>117</v>
       </c>
       <c r="C333" t="s">
-        <v>9</v>
-      </c>
-      <c r="E333" t="s">
-        <v>464</v>
+        <v>72</v>
       </c>
       <c r="AB333" s="5"/>
-      <c r="AC333" t="s">
-        <v>619</v>
-      </c>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB334" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC334" t="s">
-        <v>618</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C334" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB334" s="5"/>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>659</v>
+        <v>553</v>
       </c>
       <c r="B335" t="s">
-        <v>426</v>
-      </c>
-      <c r="E335" t="s">
-        <v>660</v>
-      </c>
-      <c r="AA335" t="s">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="C335" t="s">
+        <v>72</v>
       </c>
       <c r="AB335" s="5"/>
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>423</v>
+        <v>554</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB336" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC336" t="s">
-        <v>617</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C336" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" t="s">
+        <v>994</v>
+      </c>
+      <c r="AB336" s="5"/>
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A337" s="6" t="s">
-        <v>459</v>
+      <c r="A337" t="s">
+        <v>635</v>
       </c>
       <c r="B337" t="s">
-        <v>426</v>
-      </c>
-      <c r="E337" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="6"/>
-      <c r="I337" s="6"/>
-      <c r="J337" s="6"/>
-      <c r="K337" s="6"/>
-      <c r="L337" s="6"/>
-      <c r="M337" s="6"/>
-      <c r="N337" s="6"/>
-      <c r="O337" s="6"/>
-      <c r="P337" s="6"/>
-      <c r="Q337" s="6"/>
-      <c r="R337" s="6"/>
-      <c r="S337" s="6"/>
-      <c r="T337" s="6"/>
-      <c r="U337" s="6"/>
-      <c r="V337" s="6"/>
-      <c r="W337" s="6"/>
-      <c r="X337" s="6"/>
-      <c r="Y337" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="C337" t="s">
+        <v>9</v>
+      </c>
       <c r="AB337" s="5"/>
-      <c r="AC337" s="6"/>
-      <c r="AD337" s="6"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>454</v>
-      </c>
-      <c r="B338" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC338" s="3"/>
-      <c r="AD338" s="3"/>
+      <c r="A338" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB338" s="5"/>
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B339" t="s">
-        <v>426</v>
-      </c>
-      <c r="E339" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F339" s="5"/>
+        <v>9</v>
+      </c>
       <c r="AB339" s="5"/>
+      <c r="AC339" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD339" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="B340" t="s">
         <v>426</v>
       </c>
-      <c r="E340" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F340" s="5"/>
-      <c r="AB340" s="5"/>
+      <c r="AC340" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>483</v>
+        <v>610</v>
       </c>
       <c r="B341" t="s">
-        <v>426</v>
-      </c>
-      <c r="E341" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F341" s="5"/>
-      <c r="AB341" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB341" s="5" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B342" t="s">
-        <v>426</v>
-      </c>
-      <c r="E342" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F342" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>464</v>
+      </c>
       <c r="AB342" s="5"/>
+      <c r="AC342" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B343" t="s">
-        <v>426</v>
-      </c>
-      <c r="E343" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F343" s="5"/>
-      <c r="AB343" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="AB343" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>497</v>
+        <v>659</v>
       </c>
       <c r="B344" t="s">
         <v>426</v>
       </c>
-      <c r="E344" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F344" s="5"/>
+      <c r="E344" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>3</v>
+      </c>
       <c r="AB344" s="5"/>
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB345" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A346" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B346" t="s">
         <v>426</v>
       </c>
-      <c r="E345" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="F345" s="5"/>
-      <c r="AB345" s="5"/>
-    </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>469</v>
-      </c>
-      <c r="B346" t="s">
-        <v>9</v>
-      </c>
+      <c r="E346" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="6"/>
+      <c r="K346" s="6"/>
+      <c r="L346" s="6"/>
+      <c r="M346" s="6"/>
+      <c r="N346" s="6"/>
+      <c r="O346" s="6"/>
+      <c r="P346" s="6"/>
+      <c r="Q346" s="6"/>
+      <c r="R346" s="6"/>
+      <c r="S346" s="6"/>
+      <c r="T346" s="6"/>
+      <c r="U346" s="6"/>
+      <c r="V346" s="6"/>
+      <c r="W346" s="6"/>
+      <c r="X346" s="6"/>
+      <c r="Y346" s="6"/>
       <c r="AB346" s="5"/>
-      <c r="AC346" t="s">
-        <v>468</v>
-      </c>
+      <c r="AC346" s="6"/>
+      <c r="AD346" s="6"/>
     </row>
     <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="B347" t="s">
         <v>426</v>
       </c>
-      <c r="E347" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F347" s="5"/>
-      <c r="AB347" s="5"/>
+      <c r="AC347" s="3"/>
+      <c r="AD347" s="3"/>
     </row>
     <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>2</v>
+        <v>471</v>
       </c>
       <c r="F348" s="5"/>
       <c r="AB348" s="5"/>
     </row>
     <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>3</v>
+        <v>473</v>
       </c>
       <c r="F349" s="5"/>
       <c r="AB349" s="5"/>
     </row>
     <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>3</v>
+        <v>484</v>
       </c>
       <c r="F350" s="5"/>
       <c r="AB350" s="5"/>
     </row>
     <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
-      </c>
-      <c r="E351" t="s">
-        <v>2</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F351" s="5"/>
       <c r="AB351" s="5"/>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B352" t="s">
         <v>426</v>
       </c>
-      <c r="E352" t="s">
-        <v>487</v>
-      </c>
+      <c r="E352" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F352" s="5"/>
       <c r="AB352" s="5"/>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B353" t="s">
-        <v>10</v>
-      </c>
-      <c r="E353" t="s">
-        <v>2</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F353" s="5"/>
       <c r="AB353" s="5"/>
     </row>
     <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>971</v>
+        <v>492</v>
       </c>
       <c r="B354" t="s">
         <v>426</v>
       </c>
-      <c r="E354" t="s">
-        <v>970</v>
-      </c>
+      <c r="E354" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F354" s="5"/>
       <c r="AB354" s="5"/>
     </row>
     <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="B355" t="s">
-        <v>426</v>
-      </c>
-      <c r="E355" t="s">
-        <v>502</v>
+        <v>9</v>
       </c>
       <c r="AB355" s="5"/>
+      <c r="AC355" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>36</v>
+        <v>482</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB356" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC356" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD356" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F356" s="5"/>
+      <c r="AB356" s="5"/>
     </row>
     <row r="357" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>477</v>
+      </c>
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F357" s="5"/>
       <c r="AB357" s="5"/>
     </row>
     <row r="358" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>478</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F358" s="5"/>
       <c r="AB358" s="5"/>
     </row>
     <row r="359" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A359" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="A359" t="s">
+        <v>479</v>
+      </c>
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F359" s="5"/>
       <c r="AB359" s="5"/>
     </row>
     <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="B360" t="s">
-        <v>72</v>
-      </c>
-      <c r="E360">
-        <v>7.5</v>
-      </c>
-      <c r="F360">
-        <v>6.8</v>
-      </c>
-      <c r="G360">
-        <v>12.5</v>
-      </c>
-      <c r="H360">
-        <v>15</v>
-      </c>
-      <c r="I360">
-        <v>14.2</v>
-      </c>
-      <c r="J360">
-        <v>21</v>
-      </c>
-      <c r="K360">
-        <v>15.5</v>
-      </c>
-      <c r="R360">
-        <v>15.5</v>
-      </c>
-      <c r="Z360" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC360" t="s">
-        <v>79</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E360" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB360" s="5"/>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="B361" t="s">
-        <v>72</v>
-      </c>
-      <c r="E361">
-        <v>7.5</v>
-      </c>
-      <c r="F361">
-        <v>6.8</v>
-      </c>
-      <c r="G361">
-        <v>7</v>
-      </c>
-      <c r="H361">
-        <v>15</v>
-      </c>
-      <c r="I361">
-        <v>11.7</v>
-      </c>
-      <c r="J361">
-        <v>11.7</v>
-      </c>
-      <c r="L361">
-        <v>15.5</v>
-      </c>
-      <c r="R361">
-        <v>8.5</v>
-      </c>
-      <c r="S361">
-        <v>9</v>
-      </c>
-      <c r="Z361" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC361" t="s">
-        <v>80</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E361" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB361" s="5"/>
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="B362" t="s">
-        <v>72</v>
-      </c>
-      <c r="E362">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J362">
-        <v>2.8</v>
-      </c>
-      <c r="Q362">
-        <v>1.5</v>
-      </c>
-      <c r="R362">
-        <v>0</v>
-      </c>
-      <c r="S362">
-        <v>0</v>
-      </c>
-      <c r="T362">
-        <v>1.25</v>
-      </c>
-      <c r="Y362">
-        <v>3</v>
-      </c>
-      <c r="Z362" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB362">
-        <v>1.905</v>
-      </c>
-      <c r="AC362" t="s">
-        <v>92</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E362" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB362" s="5"/>
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>596</v>
+        <v>971</v>
       </c>
       <c r="B363" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q363">
-        <v>0.5</v>
-      </c>
-      <c r="R363">
-        <v>0</v>
-      </c>
-      <c r="S363">
-        <v>0</v>
-      </c>
-      <c r="Z363" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC363" t="s">
-        <v>684</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E363" t="s">
+        <v>970</v>
+      </c>
+      <c r="AB363" s="5"/>
     </row>
     <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>190</v>
+        <v>501</v>
       </c>
       <c r="B364" t="s">
-        <v>72</v>
-      </c>
-      <c r="E364">
-        <v>0</v>
-      </c>
-      <c r="Y364">
-        <v>-0.04</v>
-      </c>
-      <c r="Z364" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC364" t="s">
-        <v>191</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E364" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB364" s="5"/>
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B365" t="s">
-        <v>72</v>
-      </c>
-      <c r="E365">
-        <v>1.3</v>
-      </c>
-      <c r="P365">
-        <v>0.95</v>
-      </c>
-      <c r="Q365">
-        <v>0.8</v>
-      </c>
-      <c r="R365">
-        <v>0.5</v>
-      </c>
-      <c r="S365">
-        <v>1</v>
-      </c>
-      <c r="U365">
-        <v>0.7</v>
-      </c>
-      <c r="Z365" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB365">
-        <v>1.524</v>
-      </c>
-      <c r="AC365" t="s">
-        <v>93</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC365" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD365" s="3"/>
     </row>
     <row r="366" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>331</v>
-      </c>
-      <c r="B366" t="s">
-        <v>72</v>
-      </c>
-      <c r="E366">
-        <v>0</v>
-      </c>
-      <c r="V366">
-        <v>0.2</v>
-      </c>
-      <c r="Z366" t="s">
-        <v>5</v>
-      </c>
+      <c r="AB366" s="5"/>
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>74</v>
-      </c>
-      <c r="B367" t="s">
-        <v>72</v>
-      </c>
-      <c r="E367">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="Q367">
-        <v>0.5</v>
-      </c>
-      <c r="R367">
-        <v>0</v>
-      </c>
-      <c r="S367">
-        <v>0</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>5</v>
-      </c>
       <c r="AB367" s="5"/>
-      <c r="AC367" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="368" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="34" t="s">
-        <v>782</v>
-      </c>
-      <c r="B368" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z368" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB368" s="35"/>
-      <c r="AC368" s="30" t="s">
-        <v>595</v>
-      </c>
+    </row>
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A368" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB368" s="5"/>
     </row>
     <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="B369" t="s">
         <v>72</v>
       </c>
       <c r="E369">
-        <v>0.45</v>
+        <v>7.5</v>
+      </c>
+      <c r="F369">
+        <v>6.8</v>
+      </c>
+      <c r="G369">
+        <v>12.5</v>
+      </c>
+      <c r="H369">
+        <v>15</v>
+      </c>
+      <c r="I369">
+        <v>14.2</v>
+      </c>
+      <c r="J369">
+        <v>21</v>
+      </c>
+      <c r="K369">
+        <v>15.5</v>
+      </c>
+      <c r="R369">
+        <v>15.5</v>
       </c>
       <c r="Z369" t="s">
         <v>5</v>
       </c>
       <c r="AC369" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
     </row>
     <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="B370" t="s">
         <v>72</v>
       </c>
       <c r="E370">
-        <v>0.45</v>
+        <v>7.5</v>
+      </c>
+      <c r="F370">
+        <v>6.8</v>
+      </c>
+      <c r="G370">
+        <v>7</v>
+      </c>
+      <c r="H370">
+        <v>15</v>
+      </c>
+      <c r="I370">
+        <v>11.7</v>
+      </c>
+      <c r="J370">
+        <v>11.7</v>
+      </c>
+      <c r="L370">
+        <v>15.5</v>
+      </c>
+      <c r="R370">
+        <v>8.5</v>
+      </c>
+      <c r="S370">
+        <v>9</v>
       </c>
       <c r="Z370" t="s">
         <v>5</v>
       </c>
       <c r="AC370" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="371" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A371" s="6" t="s">
-        <v>174</v>
+      <c r="A371" t="s">
+        <v>76</v>
       </c>
       <c r="B371" t="s">
         <v>72</v>
       </c>
       <c r="E371">
-        <v>1.4999999999999999E-2</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J371">
+        <v>2.8</v>
+      </c>
+      <c r="Q371">
+        <v>1.5</v>
+      </c>
+      <c r="R371">
+        <v>0</v>
+      </c>
+      <c r="S371">
+        <v>0</v>
+      </c>
+      <c r="T371">
+        <v>1.25</v>
+      </c>
+      <c r="Y371">
+        <v>3</v>
       </c>
       <c r="Z371" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB371">
+        <v>1.905</v>
+      </c>
+      <c r="AC371" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>596</v>
+      </c>
+      <c r="B372" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q372">
+        <v>0.5</v>
+      </c>
+      <c r="R372">
+        <v>0</v>
+      </c>
+      <c r="S372">
+        <v>0</v>
+      </c>
+      <c r="Z372" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC372" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>190</v>
+      </c>
+      <c r="B373" t="s">
+        <v>72</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <v>-0.04</v>
+      </c>
+      <c r="Z373" t="s">
         <v>141</v>
       </c>
-      <c r="AB371" s="5"/>
-      <c r="AC371" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A373" s="8" t="s">
-        <v>959</v>
+      <c r="AC373" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>448</v>
+        <v>75</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB374" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="AC374" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AD374" t="s">
-        <v>1124</v>
+        <v>72</v>
+      </c>
+      <c r="E374">
+        <v>1.3</v>
+      </c>
+      <c r="P374">
+        <v>0.95</v>
+      </c>
+      <c r="Q374">
+        <v>0.8</v>
+      </c>
+      <c r="R374">
+        <v>0.5</v>
+      </c>
+      <c r="S374">
+        <v>1</v>
+      </c>
+      <c r="U374">
+        <v>0.7</v>
+      </c>
+      <c r="Z374" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB374">
+        <v>1.524</v>
+      </c>
+      <c r="AC374" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1124</v>
+        <v>331</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
-      </c>
-      <c r="E375" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB375" s="5"/>
-      <c r="AC375" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AD375" s="3" t="s">
-        <v>448</v>
+        <v>72</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="V375">
+        <v>0.2</v>
+      </c>
+      <c r="Z375" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>960</v>
+        <v>74</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
-      </c>
-      <c r="E376" t="s">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="E376">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="Q376">
+        <v>0.5</v>
+      </c>
+      <c r="R376">
+        <v>0</v>
+      </c>
+      <c r="S376">
+        <v>0</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>5</v>
       </c>
       <c r="AB376" s="5"/>
-      <c r="AC376" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="AD376" s="3"/>
-    </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>455</v>
-      </c>
-      <c r="B377" t="s">
-        <v>426</v>
-      </c>
-      <c r="E377" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC377" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="AD377" s="3"/>
+      <c r="AC376" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="377" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="34" t="s">
+        <v>782</v>
+      </c>
+      <c r="B377" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z377" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB377" s="35"/>
+      <c r="AC377" s="30" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>456</v>
+        <v>173</v>
       </c>
       <c r="B378" t="s">
-        <v>426</v>
-      </c>
-      <c r="E378" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC378" s="3"/>
-      <c r="AD378" t="s">
-        <v>455</v>
+        <v>72</v>
+      </c>
+      <c r="E378">
+        <v>0.45</v>
+      </c>
+      <c r="Z378" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC378" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>457</v>
+        <v>274</v>
       </c>
       <c r="B379" t="s">
-        <v>426</v>
-      </c>
-      <c r="E379" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC379" s="3"/>
-      <c r="AD379" t="s">
-        <v>455</v>
+        <v>72</v>
+      </c>
+      <c r="E379">
+        <v>0.45</v>
+      </c>
+      <c r="Z379" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC379" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="380" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>458</v>
+      <c r="A380" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B380" t="s">
-        <v>426</v>
-      </c>
-      <c r="E380" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC380" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD380" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>504</v>
-      </c>
-      <c r="B381" t="s">
-        <v>426</v>
-      </c>
-      <c r="E381" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC381" s="3"/>
-      <c r="AD381" t="s">
-        <v>455</v>
+        <v>72</v>
+      </c>
+      <c r="E380">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB380" s="5"/>
+      <c r="AC380" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="382" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>69</v>
-      </c>
-      <c r="B382" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC382" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="AD382" s="3" t="s">
-        <v>448</v>
+      <c r="A382" s="8" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>70</v>
+        <v>448</v>
       </c>
       <c r="B383" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC383" s="3"/>
-      <c r="AD383" s="3" t="s">
-        <v>956</v>
+        <v>9</v>
+      </c>
+      <c r="AB383" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="AC383" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD383" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>430</v>
+        <v>1123</v>
       </c>
       <c r="B384" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC384" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E384" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB384" s="5"/>
+      <c r="AC384" s="3" t="s">
+        <v>1124</v>
+      </c>
       <c r="AD384" s="3" t="s">
-        <v>956</v>
+        <v>448</v>
       </c>
     </row>
     <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>71</v>
+        <v>960</v>
       </c>
       <c r="B385" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC385" s="3"/>
-      <c r="AD385" s="3" t="s">
-        <v>956</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E385" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB385" s="5"/>
+      <c r="AC385" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="AD385" s="3"/>
     </row>
     <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="B386" t="s">
         <v>426</v>
       </c>
-      <c r="AC386" s="3"/>
-      <c r="AD386" s="3" t="s">
-        <v>956</v>
-      </c>
+      <c r="E386" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC386" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD386" s="3"/>
     </row>
     <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="B387" t="s">
-        <v>117</v>
-      </c>
-      <c r="C387" t="s">
         <v>426</v>
       </c>
-      <c r="AC387" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="AD387" s="3"/>
-    </row>
-    <row r="389" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="391" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="6" t="s">
-        <v>107</v>
+      <c r="E387" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC387" s="3"/>
+      <c r="AD387" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>457</v>
+      </c>
+      <c r="B388" t="s">
+        <v>426</v>
+      </c>
+      <c r="E388" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC388" s="3"/>
+      <c r="AD388" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>458</v>
+      </c>
+      <c r="B389" t="s">
+        <v>426</v>
+      </c>
+      <c r="E389" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC389" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD389" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>504</v>
+      </c>
+      <c r="B390" t="s">
+        <v>426</v>
+      </c>
+      <c r="E390" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC390" s="3"/>
+      <c r="AD390" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>69</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA391" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC391" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="392" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="394" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="AC391" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="AD391" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>70</v>
+      </c>
+      <c r="B392" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC392" s="3"/>
+      <c r="AD392" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>430</v>
+      </c>
+      <c r="B393" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC393" s="3"/>
+      <c r="AD393" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
-      </c>
-      <c r="E394" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC394" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="395" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="6" t="s">
-        <v>979</v>
+        <v>426</v>
+      </c>
+      <c r="AC394" s="3"/>
+      <c r="AD394" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>505</v>
       </c>
       <c r="B395" t="s">
         <v>426</v>
       </c>
-      <c r="E395" t="s">
+      <c r="AC395" s="3"/>
+      <c r="AD395" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>507</v>
+      </c>
+      <c r="B396" t="s">
+        <v>117</v>
+      </c>
+      <c r="C396" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC396" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD396" s="3"/>
+    </row>
+    <row r="398" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="400" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B400" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC400" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="401" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="403" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>267</v>
+      </c>
+      <c r="B403" t="s">
+        <v>10</v>
+      </c>
+      <c r="E403" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC403" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="404" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="B404" t="s">
+        <v>426</v>
+      </c>
+      <c r="E404" t="s">
         <v>606</v>
       </c>
-      <c r="AC395" t="s">
+      <c r="AC404" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="405" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>268</v>
       </c>
-      <c r="B396" t="s">
-        <v>72</v>
-      </c>
-      <c r="E396">
+      <c r="B405" t="s">
+        <v>72</v>
+      </c>
+      <c r="E405">
         <v>1</v>
       </c>
-      <c r="Z396" t="s">
+      <c r="Z405" t="s">
         <v>5</v>
       </c>
-      <c r="AC396" t="s">
+      <c r="AC405" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="406" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
         <v>269</v>
       </c>
-      <c r="B397" t="s">
-        <v>9</v>
-      </c>
-      <c r="E397" t="s">
+      <c r="B406" t="s">
+        <v>9</v>
+      </c>
+      <c r="E406" t="s">
         <v>270</v>
       </c>
-      <c r="AC397" t="s">
+      <c r="AC406" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="407" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
         <v>271</v>
       </c>
-      <c r="B398" t="s">
-        <v>9</v>
-      </c>
-      <c r="E398" t="s">
+      <c r="B407" t="s">
+        <v>9</v>
+      </c>
+      <c r="E407" t="s">
         <v>272</v>
       </c>
-      <c r="AC398" t="s">
+      <c r="AC407" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A400" s="8" t="s">
+    <row r="408" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A409" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AC409" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A410" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" s="6"/>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F410" s="6"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="6"/>
+      <c r="I410" s="6"/>
+      <c r="J410" s="6"/>
+      <c r="K410" s="6"/>
+      <c r="L410" s="6"/>
+      <c r="M410" s="6"/>
+      <c r="N410" s="6"/>
+      <c r="O410" s="6"/>
+      <c r="P410" s="6"/>
+      <c r="Q410" s="6"/>
+      <c r="R410" s="6"/>
+      <c r="S410" s="6"/>
+      <c r="T410" s="6"/>
+      <c r="U410" s="6"/>
+      <c r="V410" s="6"/>
+      <c r="W410" s="6"/>
+      <c r="X410" s="6"/>
+      <c r="Y410" s="6"/>
+      <c r="Z410" s="6"/>
+      <c r="AA410" s="6"/>
+      <c r="AB410" s="5"/>
+      <c r="AC410" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD410" t="s">
         <v>1018</v>
       </c>
-      <c r="AC400" s="6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A401" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B401" s="6" t="s">
+    </row>
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B411" t="s">
+        <v>117</v>
+      </c>
+      <c r="C411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AC411" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AD411" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E412" s="11"/>
+      <c r="F412" s="11"/>
+      <c r="G412" s="11"/>
+    </row>
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A413" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AC413" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B414" t="s">
         <v>10</v>
       </c>
-      <c r="C401" s="6"/>
-      <c r="D401" s="6"/>
-      <c r="E401" s="6" t="s">
+      <c r="E414" t="s">
         <v>2</v>
       </c>
-      <c r="F401" s="6"/>
-      <c r="G401" s="6"/>
-      <c r="H401" s="6"/>
-      <c r="I401" s="6"/>
-      <c r="J401" s="6"/>
-      <c r="K401" s="6"/>
-      <c r="L401" s="6"/>
-      <c r="M401" s="6"/>
-      <c r="N401" s="6"/>
-      <c r="O401" s="6"/>
-      <c r="P401" s="6"/>
-      <c r="Q401" s="6"/>
-      <c r="R401" s="6"/>
-      <c r="S401" s="6"/>
-      <c r="T401" s="6"/>
-      <c r="U401" s="6"/>
-      <c r="V401" s="6"/>
-      <c r="W401" s="6"/>
-      <c r="X401" s="6"/>
-      <c r="Y401" s="6"/>
-      <c r="Z401" s="6"/>
-      <c r="AA401" s="6"/>
-      <c r="AB401" s="5"/>
-      <c r="AC401" s="6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AD401" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B402" t="s">
-        <v>117</v>
-      </c>
-      <c r="C402" t="s">
-        <v>9</v>
-      </c>
-      <c r="E402" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AC402" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AD402" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E403" s="11"/>
-      <c r="F403" s="11"/>
-      <c r="G403" s="11"/>
-    </row>
-    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A404" s="8" t="s">
+      <c r="AC414" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC415" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A416" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B416" t="s">
+        <v>426</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AC416" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A417" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B417" t="s">
+        <v>10</v>
+      </c>
+      <c r="E417" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC417" t="s">
         <v>1108</v>
       </c>
-      <c r="AC404" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B405" t="s">
-        <v>10</v>
-      </c>
-      <c r="E405" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC405" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B406" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC406" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A407" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B407" t="s">
-        <v>426</v>
-      </c>
-      <c r="E407" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AC407" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A408" s="6" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B408" t="s">
-        <v>10</v>
-      </c>
-      <c r="E408" t="s">
+    </row>
+    <row r="418" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B418" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA418" t="s">
         <v>3</v>
       </c>
-      <c r="AC408" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B409" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA409" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC409" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A411" s="6"/>
-    </row>
-    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A412" s="6"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="1" t="s">
+      <c r="AC418" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A420" s="6"/>
+    </row>
+    <row r="421" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A421" s="6"/>
+    </row>
+    <row r="428" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10183,7 +10395,7 @@
   <dimension ref="A1:AE375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10322,10 +10534,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AC3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10339,7 +10551,7 @@
         <v>809</v>
       </c>
       <c r="AC4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -10350,10 +10562,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1186</v>
+        <v>1210</v>
       </c>
       <c r="AC5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -10421,7 +10633,7 @@
         <v>426</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F10"/>
       <c r="AA10" s="33" t="s">
@@ -10436,7 +10648,7 @@
         <v>426</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F11"/>
       <c r="AA11" s="33" t="s">
@@ -10445,13 +10657,13 @@
     </row>
     <row r="12" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>426</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F12"/>
     </row>
@@ -10488,7 +10700,7 @@
     </row>
     <row r="15" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>9</v>
@@ -10496,41 +10708,41 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10538,21 +10750,21 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F19"/>
     </row>
@@ -10567,7 +10779,7 @@
         <v>426</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F20"/>
       <c r="AA20" s="33" t="s">
@@ -10621,136 +10833,147 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>1088</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B25" t="s">
         <v>426</v>
       </c>
       <c r="E25" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B26" t="s">
         <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B27" t="s">
         <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B28" t="s">
         <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E30" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>1140</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="B32" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>1154</v>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1177</v>
+        <v>1208</v>
       </c>
       <c r="B34" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E34" t="s">
-        <v>1178</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -10959,7 +11182,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AC3" t="s">
         <v>91</v>
@@ -10976,7 +11199,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AC4" t="s">
         <v>90</v>
@@ -11001,7 +11224,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AC7" t="s">
         <v>91</v>
@@ -11043,7 +11266,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AC11" t="s">
         <v>91</v>
@@ -11154,9 +11377,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12472,7 +12693,7 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA26" t="s">
         <v>3</v>
@@ -13579,7 +13800,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -13593,7 +13814,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -13601,7 +13822,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
@@ -13610,7 +13831,7 @@
         <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>
@@ -13618,24 +13839,24 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F451A4C5-0DB7-7C49-B100-BBD1747641B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8273C1-4F64-A14E-9BD1-80031A05D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -3653,12 +3653,6 @@
     <t>januari, februari, maart, april, mei, juni, juli, augustus, september, oktober, november, december</t>
   </si>
   <si>
-    <t>m-yyyy</t>
-  </si>
-  <si>
-    <t>dd-mm-yyyy, d month_full yyyy, yyyy/month, month, d-m-yy, d-mm-'yy, d-month-'yy, month yyyy, month_full\nyyyy</t>
-  </si>
-  <si>
     <t>x_at, x_lab, x_date_format</t>
   </si>
   <si>
@@ -3675,6 +3669,12 @@
   </si>
   <si>
     <t>2022-11-26</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>m-yyyy, 'dd-mm-yyyy, d month_full yyyy, yyyy/month, month, d-m-yy, d-mm-'yy, d-month-'yy, month yyyy, month_full\nyyyy</t>
   </si>
 </sst>
 </file>
@@ -4288,9 +4288,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE428"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB139" sqref="AB139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4444,7 +4444,7 @@
         <v>10</v>
       </c>
       <c r="AB4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AC4" t="s">
         <v>963</v>
@@ -6599,16 +6599,16 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="AB139" s="5" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="AC139" t="s">
         <v>1198</v>
       </c>
       <c r="AD139" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
         <v>1196</v>
       </c>
       <c r="AD140" s="6" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
@@ -10394,7 +10394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7057C-15EE-3240-BABA-A5F8BA4F4CF6}">
   <dimension ref="A1:AE375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -10562,7 +10562,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AC5" t="s">
         <v>1060</v>
@@ -10967,13 +10967,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B34" t="s">
         <v>1094</v>
       </c>
       <c r="E34" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8273C1-4F64-A14E-9BD1-80031A05D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6868BDF9-5E51-AA4E-8D14-D355D610D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -3668,13 +3668,13 @@
     <t>paste0("https://james.cpb.nl/manual/", get_param("manual_file_name"))</t>
   </si>
   <si>
-    <t>2022-11-26</t>
-  </si>
-  <si>
     <t>yyyy</t>
   </si>
   <si>
     <t>m-yyyy, 'dd-mm-yyyy, d month_full yyyy, yyyy/month, month, d-m-yy, d-mm-'yy, d-month-'yy, month yyyy, month_full\nyyyy</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
   </si>
 </sst>
 </file>
@@ -4288,9 +4288,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB139" sqref="AB139"/>
+      <selection pane="bottomLeft" activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AB139" s="5" t="s">
         <v>1209</v>
-      </c>
-      <c r="AB139" s="5" t="s">
-        <v>1210</v>
       </c>
       <c r="AC139" t="s">
         <v>1198</v>
@@ -10394,7 +10394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7057C-15EE-3240-BABA-A5F8BA4F4CF6}">
   <dimension ref="A1:AE375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -10562,7 +10562,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="AC5" t="s">
         <v>1060</v>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6868BDF9-5E51-AA4E-8D14-D355D610D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E86637-09F2-8A49-9008-5D9DBBC51F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
@@ -2084,9 +2084,6 @@
     <t>james_class_print_hide</t>
   </si>
   <si>
-    <t>data, globals, geo_region_data, geo_cbs_centroid_map, geo_centroid_data</t>
-  </si>
-  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -3674,7 +3671,10 @@
     <t>m-yyyy, 'dd-mm-yyyy, d month_full yyyy, yyyy/month, month, d-m-yy, d-mm-'yy, d-month-'yy, month yyyy, month_full\nyyyy</t>
   </si>
   <si>
-    <t>2022-11-28</t>
+    <t>data, globals, geo_region_data, geo_cbs_centroid_map, geo_centroid_data, open</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
   </si>
 </sst>
 </file>
@@ -3918,11 +3918,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3956,14 +3955,9 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4334,67 +4328,67 @@
       <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -4417,7 +4411,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA2" t="s">
@@ -4444,15 +4438,15 @@
         <v>10</v>
       </c>
       <c r="AB4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AC4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4464,12 +4458,12 @@
         <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -4481,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -4507,24 +4501,24 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AB9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AC9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -4543,7 +4537,7 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AB10" t="s">
         <v>186</v>
@@ -4553,7 +4547,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>327</v>
       </c>
       <c r="B11" t="s">
@@ -4567,7 +4561,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>109</v>
       </c>
       <c r="B12" t="s">
@@ -4576,14 +4570,14 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="AB12" s="5"/>
+      <c r="AB12" s="4"/>
       <c r="AC12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>812</v>
+      <c r="A13" t="s">
+        <v>811</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -4591,9 +4585,9 @@
       <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="AB13" s="5"/>
+      <c r="AB13" s="4"/>
       <c r="AC13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -4606,12 +4600,12 @@
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="3" t="s">
+      <c r="AB14" s="4"/>
+      <c r="AC14" t="s">
         <v>450</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>812</v>
+      <c r="AD14" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -4631,21 +4625,20 @@
         <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O15" t="s">
-        <v>951</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AC15" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AC15" t="s">
         <v>55</v>
       </c>
-      <c r="AD15" s="3"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4657,14 +4650,14 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AE16" s="6"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AE16" s="5"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4673,19 +4666,17 @@
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AE17" s="6"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AE17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -4694,19 +4685,17 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AE18" s="6"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AE18" s="5"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -4718,14 +4707,14 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AE19" s="6"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AE19" s="5"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -4737,14 +4726,14 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AE20" s="6"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AE20" s="5"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -4756,14 +4745,14 @@
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AE21" s="6"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AE21" s="5"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -4778,14 +4767,14 @@
       <c r="Z22" t="s">
         <v>510</v>
       </c>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="6" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AE22" s="6"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AE22" s="5"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4797,18 +4786,18 @@
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AE23" s="6"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AE23" s="5"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4816,14 +4805,14 @@
       <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="6" t="s">
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AD24" t="s">
         <v>1071</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AE24" s="6"/>
+      <c r="AE24" s="5"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -4836,57 +4825,57 @@
         <v>600</v>
       </c>
       <c r="Z25" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AC25" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AE25" s="6"/>
+      <c r="AD25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AE25" s="5"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AD26" s="5" t="s">
         <v>1015</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4900,14 +4889,13 @@
         <v>75</v>
       </c>
       <c r="Z27" t="s">
-        <v>885</v>
-      </c>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" t="s">
         <v>433</v>
       </c>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="6"/>
+      <c r="AE27" s="5"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -4919,12 +4907,11 @@
       <c r="AA28" t="s">
         <v>3</v>
       </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AB28" s="4"/>
+      <c r="AC28" t="s">
         <v>449</v>
       </c>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="6"/>
+      <c r="AE28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -4933,12 +4920,11 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="6"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" t="s">
+        <v>991</v>
+      </c>
+      <c r="AE29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -4950,21 +4936,20 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="3" t="s">
+      <c r="AB30" s="4"/>
+      <c r="AC30" t="s">
         <v>605</v>
       </c>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="6"/>
+      <c r="AE30" s="5"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AE31" s="6"/>
+      <c r="AE31" s="5"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="AE32" s="6"/>
+      <c r="AE32" s="5"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -4977,15 +4962,15 @@
         <v>0.8</v>
       </c>
       <c r="Z33" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AB33">
         <v>0.8</v>
       </c>
       <c r="AC33" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AE33" s="6"/>
+        <v>1046</v>
+      </c>
+      <c r="AE33" s="5"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -4995,16 +4980,16 @@
         <v>9</v>
       </c>
       <c r="N34" t="s">
-        <v>843</v>
-      </c>
-      <c r="S34" s="6"/>
+        <v>842</v>
+      </c>
+      <c r="S34" s="5"/>
       <c r="AC34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -5021,7 +5006,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -5061,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AB38" t="s">
         <v>30</v>
@@ -5114,7 +5099,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -5134,7 +5119,7 @@
         <v>9</v>
       </c>
       <c r="N43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AB43" t="s">
         <v>37</v>
@@ -5190,7 +5175,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -5207,7 +5192,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -5218,7 +5203,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5260,7 +5245,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B52" t="s">
         <v>117</v>
@@ -5269,28 +5254,28 @@
         <v>426</v>
       </c>
       <c r="E52" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AB52" t="s">
         <v>427</v>
       </c>
       <c r="AC52" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>512</v>
       </c>
       <c r="B53" t="s">
         <v>426</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="F53" s="6"/>
+      <c r="E53" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="F53" s="5"/>
       <c r="AC53" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -5304,10 +5289,10 @@
         <v>7</v>
       </c>
       <c r="Z54" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AC54" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -5317,26 +5302,26 @@
       <c r="B55" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>1.2857142857142858</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
       <c r="AC55" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AC56" s="6"/>
+      <c r="AC56" s="5"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="AC57" s="6"/>
+      <c r="AC57" s="5"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -5348,7 +5333,7 @@
       <c r="C58" t="s">
         <v>72</v>
       </c>
-      <c r="AC58" s="6" t="s">
+      <c r="AC58" s="5" t="s">
         <v>620</v>
       </c>
     </row>
@@ -5362,10 +5347,10 @@
       <c r="C59" t="s">
         <v>613</v>
       </c>
-      <c r="AB59" s="36" t="s">
+      <c r="AB59" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="AC59" s="6" t="s">
+      <c r="AC59" s="5" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5379,7 +5364,7 @@
       <c r="C60" t="s">
         <v>72</v>
       </c>
-      <c r="AC60" s="6" t="s">
+      <c r="AC60" s="5" t="s">
         <v>621</v>
       </c>
     </row>
@@ -5396,7 +5381,7 @@
       <c r="AB61" t="s">
         <v>104</v>
       </c>
-      <c r="AC61" s="6" t="s">
+      <c r="AC61" s="5" t="s">
         <v>623</v>
       </c>
     </row>
@@ -5407,13 +5392,13 @@
       <c r="B62" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AB62" t="s">
-        <v>772</v>
-      </c>
-      <c r="AC62" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="AC62" s="5" t="s">
         <v>624</v>
       </c>
     </row>
@@ -5424,7 +5409,7 @@
       <c r="B63" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
@@ -5433,7 +5418,7 @@
       <c r="AB63" t="s">
         <v>633</v>
       </c>
-      <c r="AC63" s="6" t="s">
+      <c r="AC63" s="5" t="s">
         <v>625</v>
       </c>
     </row>
@@ -5444,7 +5429,7 @@
       <c r="B64" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E64">
@@ -5453,7 +5438,7 @@
       <c r="AB64" t="s">
         <v>116</v>
       </c>
-      <c r="AC64" s="6" t="s">
+      <c r="AC64" s="5" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5464,7 +5449,7 @@
       <c r="B65" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E65">
@@ -5473,7 +5458,7 @@
       <c r="AB65" t="s">
         <v>104</v>
       </c>
-      <c r="AC65" s="6" t="s">
+      <c r="AC65" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5484,7 +5469,7 @@
       <c r="B66" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E66">
@@ -5493,7 +5478,7 @@
       <c r="AB66" t="s">
         <v>628</v>
       </c>
-      <c r="AC66" s="6" t="s">
+      <c r="AC66" s="5" t="s">
         <v>629</v>
       </c>
     </row>
@@ -5504,26 +5489,26 @@
       <c r="B67" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E67">
         <v>0.5</v>
       </c>
-      <c r="AC67" s="6" t="s">
+      <c r="AC67" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C68" s="6"/>
-      <c r="AC68" s="6"/>
+      <c r="C68" s="5"/>
+      <c r="AC68" s="5"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="AC69" s="6" t="s">
+      <c r="C69" s="5"/>
+      <c r="AC69" s="5" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5534,10 +5519,10 @@
       <c r="B70" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC70" s="6"/>
+      <c r="C70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC70" s="5"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -5549,13 +5534,13 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="AC71" s="6" t="s">
+      <c r="AC71" s="5" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B72" t="s">
         <v>117</v>
@@ -5566,8 +5551,8 @@
       <c r="E72" t="s">
         <v>102</v>
       </c>
-      <c r="AC72" s="6" t="s">
-        <v>1006</v>
+      <c r="AC72" s="5" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
@@ -5584,20 +5569,20 @@
         <v>4</v>
       </c>
       <c r="AB73" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AC73" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AC73" s="5" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E74">
@@ -5606,7 +5591,7 @@
       <c r="AB74" t="s">
         <v>104</v>
       </c>
-      <c r="AC74" s="6" t="s">
+      <c r="AC74" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5617,7 +5602,7 @@
       <c r="B75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E75">
@@ -5634,24 +5619,24 @@
       <c r="B76" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E76">
         <v>0.5</v>
       </c>
-      <c r="AC76" s="6" t="s">
+      <c r="AC76" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B77" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E77">
@@ -5660,15 +5645,15 @@
       <c r="AB77" t="s">
         <v>116</v>
       </c>
-      <c r="AC77" s="6" t="s">
+      <c r="AC77" s="5" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="AC79" s="6" t="s">
+      <c r="AC79" s="5" t="s">
         <v>665</v>
       </c>
     </row>
@@ -5711,7 +5696,7 @@
         <v>5</v>
       </c>
       <c r="AC82" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
@@ -5728,29 +5713,29 @@
         <v>5</v>
       </c>
       <c r="AC83" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AB84" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AC84" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -5762,7 +5747,7 @@
         <v>317</v>
       </c>
       <c r="AC85" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
@@ -5778,10 +5763,10 @@
       <c r="AB86" t="s">
         <v>104</v>
       </c>
-      <c r="AC86" s="6" t="s">
+      <c r="AC86" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AD86" s="6"/>
+      <c r="AD86" s="5"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -5794,11 +5779,11 @@
         <v>0.85</v>
       </c>
       <c r="AC87" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AC89" t="s">
@@ -5845,7 +5830,7 @@
         <v>118</v>
       </c>
       <c r="AC91" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
@@ -5859,15 +5844,15 @@
         <v>2</v>
       </c>
       <c r="AC92" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AD92" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -5884,7 +5869,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B94" t="s">
         <v>72</v>
@@ -5893,15 +5878,15 @@
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AD94" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
@@ -5910,15 +5895,15 @@
         <v>102</v>
       </c>
       <c r="AC95" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AD95" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B96" t="s">
         <v>72</v>
@@ -5927,15 +5912,15 @@
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD96" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
@@ -5944,10 +5929,10 @@
         <v>102</v>
       </c>
       <c r="AC97" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AD97" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
@@ -5958,10 +5943,10 @@
         <v>72</v>
       </c>
       <c r="AB98" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AC98" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
@@ -5972,13 +5957,13 @@
         <v>72</v>
       </c>
       <c r="AB99" t="s">
-        <v>835</v>
-      </c>
-      <c r="AC99" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC99" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AD99" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
@@ -5988,14 +5973,14 @@
       <c r="B100" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>72</v>
       </c>
       <c r="AC100" t="s">
         <v>88</v>
       </c>
       <c r="AD100" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
@@ -6009,10 +5994,10 @@
         <v>9</v>
       </c>
       <c r="AC101" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AD101" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
@@ -6026,7 +6011,7 @@
         <v>255</v>
       </c>
       <c r="AD102" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
@@ -6056,7 +6041,7 @@
       <c r="B104" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E104" t="s">
@@ -6077,7 +6062,7 @@
         <v>5</v>
       </c>
       <c r="AC105" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
@@ -6096,7 +6081,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B107" t="s">
         <v>117</v>
@@ -6105,18 +6090,18 @@
         <v>72</v>
       </c>
       <c r="Z107" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AC107" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AD107" t="s">
         <v>1038</v>
-      </c>
-      <c r="AD107" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -6125,13 +6110,13 @@
         <v>72</v>
       </c>
       <c r="Z108" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AC108" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AD108" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
@@ -6147,7 +6132,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -6156,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="AC110" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
@@ -6187,7 +6172,7 @@
         <v>254</v>
       </c>
       <c r="AD112" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
@@ -6277,14 +6262,14 @@
         <v>480</v>
       </c>
       <c r="AC118" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AD118" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+      <c r="A119" t="s">
         <v>163</v>
       </c>
       <c r="B119" t="s">
@@ -6300,11 +6285,11 @@
         <v>600</v>
       </c>
       <c r="AD119" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+      <c r="A120" t="s">
         <v>420</v>
       </c>
       <c r="B120" t="s">
@@ -6314,10 +6299,10 @@
         <v>3</v>
       </c>
       <c r="AC120" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AD120" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
@@ -6365,7 +6350,7 @@
         <v>97</v>
       </c>
       <c r="AC123" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
@@ -6379,10 +6364,10 @@
         <v>9</v>
       </c>
       <c r="AC124" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AD124" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
@@ -6401,7 +6386,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B126" t="s">
         <v>117</v>
@@ -6410,18 +6395,18 @@
         <v>72</v>
       </c>
       <c r="Z126" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AC126" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AD126" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B127" t="s">
         <v>117</v>
@@ -6430,13 +6415,13 @@
         <v>72</v>
       </c>
       <c r="Z127" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AC127" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AD127" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
@@ -6453,29 +6438,29 @@
         <v>102</v>
       </c>
       <c r="AC128" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AD128" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="129" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="40" t="s">
+    <row r="129" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B129" s="40" t="s">
+      <c r="B129" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="40" t="s">
+      <c r="E129" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC129" s="40" t="s">
+      <c r="AC129" s="37" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -6484,54 +6469,54 @@
         <v>2</v>
       </c>
       <c r="AC130" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="39" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B131" s="40" t="s">
+      <c r="B131" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C131" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC131" s="40" t="s">
+      <c r="C131" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC131" s="37" t="s">
         <v>601</v>
       </c>
-      <c r="AD131" s="40" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="B132" s="38" t="s">
+      <c r="AD131" s="37" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="B132" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA132" s="38" t="s">
+      <c r="C132" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA132" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AD132" s="38" t="s">
-        <v>998</v>
+      <c r="AD132" s="36" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
-        <v>1187</v>
+      <c r="A134" s="7" t="s">
+        <v>1186</v>
       </c>
       <c r="AC134" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B135" t="s">
         <v>117</v>
@@ -6540,15 +6525,15 @@
         <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AC135" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B136" t="s">
         <v>117</v>
@@ -6557,15 +6542,15 @@
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AC136" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B137" t="s">
         <v>117</v>
@@ -6574,12 +6559,12 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B138" t="s">
         <v>117</v>
@@ -6588,79 +6573,79 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B139" t="s">
         <v>9</v>
       </c>
       <c r="E139" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AB139" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="AB139" s="5" t="s">
-        <v>1209</v>
-      </c>
       <c r="AC139" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD139" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B140" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-      <c r="T140" s="6"/>
-      <c r="U140" s="6"/>
-      <c r="V140" s="6"/>
-      <c r="W140" s="6"/>
-      <c r="X140" s="6"/>
-      <c r="Y140" s="6"/>
-      <c r="Z140" s="6"/>
-      <c r="AA140" s="6"/>
-      <c r="AB140" s="6" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AC140" s="6" t="s">
+      <c r="C140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+      <c r="W140" s="5"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="AD140" s="6" t="s">
-        <v>1203</v>
+      <c r="AC140" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AD140" s="5" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>336</v>
       </c>
       <c r="AC144" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
@@ -6680,120 +6665,120 @@
         <v>335</v>
       </c>
       <c r="AB145" t="s">
+        <v>820</v>
+      </c>
+      <c r="AC145" t="s">
         <v>821</v>
       </c>
-      <c r="AC145" t="s">
+      <c r="AD145" t="s">
         <v>822</v>
       </c>
-      <c r="AD145" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="42" t="s">
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>824</v>
+      </c>
+      <c r="B146" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>825</v>
       </c>
-      <c r="B146" s="43" t="s">
+      <c r="B147" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AD147" s="5" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>829</v>
+      </c>
+      <c r="B148" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC148" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AD149" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>826</v>
+      </c>
+      <c r="B150" t="s">
         <v>117</v>
       </c>
-      <c r="C146" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC146" s="43" t="s">
+      <c r="C150" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC150" t="s">
         <v>1126</v>
       </c>
-      <c r="AD146" s="43" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="B147" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C147" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC147" s="43" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AD147" s="44" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="43" t="s">
-        <v>830</v>
-      </c>
-      <c r="B148" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB148" s="43" t="s">
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>835</v>
       </c>
-      <c r="AC148" s="44" t="s">
-        <v>831</v>
-      </c>
-      <c r="AD148" s="43" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="149" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="42" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B149" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC149" s="43" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AD149" s="44" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="150" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="42" t="s">
-        <v>827</v>
-      </c>
-      <c r="B150" s="43" t="s">
+      <c r="B151" t="s">
         <v>117</v>
       </c>
-      <c r="C150" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA150" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC150" s="43" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="43" t="s">
-        <v>836</v>
-      </c>
-      <c r="B151" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="43" t="s">
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>142</v>
       </c>
       <c r="AC153" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
@@ -6812,10 +6797,10 @@
       <c r="E154">
         <v>1.5</v>
       </c>
-      <c r="AC154" s="6" t="s">
+      <c r="AC154" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AD154" s="6"/>
+      <c r="AD154" s="5"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -6824,10 +6809,10 @@
       <c r="B155" t="s">
         <v>117</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D155" s="6" t="s">
+      <c r="C155" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E155">
@@ -6837,32 +6822,32 @@
         <v>522</v>
       </c>
       <c r="AC155" t="s">
-        <v>828</v>
-      </c>
-      <c r="AD155" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="AD155" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
       <c r="E156" t="s">
         <v>2</v>
       </c>
       <c r="AC156" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AD156" s="6"/>
+        <v>1048</v>
+      </c>
+      <c r="AD156" s="5"/>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B157" t="s">
         <v>117</v>
@@ -6877,18 +6862,18 @@
         <v>0</v>
       </c>
       <c r="AB157" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AC157" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD157" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="AD157" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B158" t="s">
         <v>117</v>
@@ -6900,13 +6885,12 @@
         <v>530</v>
       </c>
       <c r="AC158" t="s">
-        <v>721</v>
-      </c>
-      <c r="AD158" s="3"/>
+        <v>720</v>
+      </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B159" t="s">
         <v>117</v>
@@ -6921,22 +6905,17 @@
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>719</v>
-      </c>
-      <c r="AD159" s="3"/>
-    </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD160" s="3"/>
+        <v>718</v>
+      </c>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AD161" s="3"/>
+      <c r="A161" s="7" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B162" t="s">
         <v>72</v>
@@ -6945,19 +6924,18 @@
         <v>15</v>
       </c>
       <c r="Z162" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC162" t="s">
         <v>1168</v>
       </c>
-      <c r="AB162" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AC162" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AD162" s="3"/>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B163" t="s">
         <v>72</v>
@@ -6969,16 +6947,15 @@
         <v>5</v>
       </c>
       <c r="AB163" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AC163" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AD163" s="3"/>
+        <v>1159</v>
+      </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B164" t="s">
         <v>117</v>
@@ -6987,18 +6964,18 @@
         <v>72</v>
       </c>
       <c r="AB164" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AC164" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AD164" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B165" t="s">
         <v>117</v>
@@ -7007,21 +6984,21 @@
         <v>72</v>
       </c>
       <c r="Z165" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AB165" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AC165" t="s">
         <v>1171</v>
       </c>
-      <c r="AC165" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AD165" s="3" t="s">
-        <v>1155</v>
+      <c r="AD165" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B166" t="s">
         <v>117</v>
@@ -7030,16 +7007,15 @@
         <v>9</v>
       </c>
       <c r="AB166" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AC166" t="s">
         <v>1164</v>
       </c>
-      <c r="AC166" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AD166" s="3"/>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B167" t="s">
         <v>588</v>
@@ -7047,17 +7023,15 @@
       <c r="AA167" t="s">
         <v>3</v>
       </c>
-      <c r="AD167" s="3"/>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A169" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AD169" s="3"/>
+      <c r="A169" s="7" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B170" t="s">
         <v>117</v>
@@ -7069,12 +7043,11 @@
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AD170" s="3"/>
+        <v>1010</v>
+      </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7112,11 +7085,11 @@
         <v>525</v>
       </c>
       <c r="AD174" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+      <c r="A175" t="s">
         <v>207</v>
       </c>
       <c r="B175" t="s">
@@ -7130,7 +7103,7 @@
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+      <c r="A176" t="s">
         <v>208</v>
       </c>
       <c r="B176" t="s">
@@ -7139,13 +7112,13 @@
       <c r="E176" t="s">
         <v>2</v>
       </c>
-      <c r="AB176" s="5"/>
+      <c r="AB176" s="4"/>
       <c r="AC176" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+      <c r="A177" t="s">
         <v>209</v>
       </c>
       <c r="B177" t="s">
@@ -7157,16 +7130,16 @@
       <c r="Z177" t="s">
         <v>114</v>
       </c>
-      <c r="AB177" s="5" t="s">
+      <c r="AB177" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AC177" s="6" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AD177" s="6"/>
+      <c r="AC177" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AD177" s="5"/>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+      <c r="A178" t="s">
         <v>242</v>
       </c>
       <c r="B178" t="s">
@@ -7183,7 +7156,7 @@
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+      <c r="A179" t="s">
         <v>211</v>
       </c>
       <c r="B179" t="s">
@@ -7197,7 +7170,7 @@
       </c>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+      <c r="A180" t="s">
         <v>337</v>
       </c>
       <c r="B180" t="s">
@@ -7209,7 +7182,7 @@
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -7218,11 +7191,11 @@
         <v>2</v>
       </c>
       <c r="AC181" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+      <c r="A182" t="s">
         <v>221</v>
       </c>
       <c r="B182" t="s">
@@ -7233,7 +7206,7 @@
       </c>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
+      <c r="A183" t="s">
         <v>225</v>
       </c>
       <c r="B183" t="s">
@@ -7244,7 +7217,7 @@
       </c>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+      <c r="A184" t="s">
         <v>587</v>
       </c>
       <c r="B184" t="s">
@@ -7258,7 +7231,7 @@
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+      <c r="A185" t="s">
         <v>602</v>
       </c>
       <c r="B185" t="s">
@@ -7268,17 +7241,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
-    </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A187" s="8" t="s">
-        <v>944</v>
+      <c r="A187" s="7" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B188" t="s">
         <v>72</v>
@@ -7287,12 +7257,12 @@
         <v>10</v>
       </c>
       <c r="AC188" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -7301,22 +7271,19 @@
         <v>2</v>
       </c>
       <c r="AC189" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AD189" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-    </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+      <c r="A192" t="s">
         <v>286</v>
       </c>
       <c r="B192" t="s">
@@ -7330,7 +7297,7 @@
       </c>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+      <c r="A193" t="s">
         <v>287</v>
       </c>
       <c r="B193" t="s">
@@ -7344,7 +7311,7 @@
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+      <c r="A194" t="s">
         <v>288</v>
       </c>
       <c r="B194" t="s">
@@ -7358,7 +7325,7 @@
       </c>
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+      <c r="A195" t="s">
         <v>292</v>
       </c>
       <c r="B195" t="s">
@@ -7369,7 +7336,7 @@
       </c>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+      <c r="A196" t="s">
         <v>308</v>
       </c>
       <c r="B196" t="s">
@@ -7383,7 +7350,7 @@
       </c>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+      <c r="A197" t="s">
         <v>293</v>
       </c>
       <c r="B197" t="s">
@@ -7397,7 +7364,7 @@
       </c>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+      <c r="A198" t="s">
         <v>438</v>
       </c>
       <c r="B198" t="s">
@@ -7411,7 +7378,7 @@
       </c>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+      <c r="A199" t="s">
         <v>319</v>
       </c>
       <c r="B199" t="s">
@@ -7425,7 +7392,7 @@
       </c>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+      <c r="A200" t="s">
         <v>321</v>
       </c>
       <c r="B200" t="s">
@@ -7439,7 +7406,7 @@
       </c>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+      <c r="A201" t="s">
         <v>322</v>
       </c>
       <c r="B201" t="s">
@@ -7450,7 +7417,7 @@
       </c>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+      <c r="A202" t="s">
         <v>323</v>
       </c>
       <c r="B202" t="s">
@@ -7461,7 +7428,7 @@
       </c>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+      <c r="A203" t="s">
         <v>441</v>
       </c>
       <c r="B203" t="s">
@@ -7478,7 +7445,7 @@
       </c>
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+      <c r="A204" t="s">
         <v>440</v>
       </c>
       <c r="B204" t="s">
@@ -7490,7 +7457,7 @@
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
@@ -7499,11 +7466,11 @@
         <v>2</v>
       </c>
       <c r="AC205" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="206" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+      <c r="A206" t="s">
         <v>603</v>
       </c>
       <c r="B206" t="s">
@@ -7513,11 +7480,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-    </row>
     <row r="208" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="7" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7531,26 +7495,26 @@
       <c r="C209" t="s">
         <v>9</v>
       </c>
-      <c r="AB209" s="5" t="s">
+      <c r="AB209" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AC209" s="3" t="s">
+      <c r="AC209" t="s">
         <v>306</v>
       </c>
-      <c r="AD209" s="3" t="s">
+      <c r="AD209" t="s">
         <v>307</v>
       </c>
-      <c r="AE209" s="6"/>
+      <c r="AE209" s="5"/>
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
+      <c r="A210" t="s">
         <v>556</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
       </c>
       <c r="AC210" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.2">
@@ -7560,14 +7524,13 @@
       <c r="B211" t="s">
         <v>10</v>
       </c>
-      <c r="AB211" s="5"/>
-      <c r="AC211" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AD211" s="3"/>
+      <c r="AB211" s="4"/>
+      <c r="AC211" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+      <c r="A212" t="s">
         <v>561</v>
       </c>
       <c r="B212" t="s">
@@ -7607,14 +7570,14 @@
       <c r="B214" t="s">
         <v>9</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -7629,7 +7592,7 @@
       <c r="AB215" t="s">
         <v>104</v>
       </c>
-      <c r="AC215" s="6" t="s">
+      <c r="AC215" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7643,7 +7606,7 @@
       <c r="E216">
         <v>1</v>
       </c>
-      <c r="AC216" s="6"/>
+      <c r="AC216" s="5"/>
     </row>
     <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -7677,31 +7640,28 @@
       </c>
     </row>
     <row r="220" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
-        <v>1096</v>
+      <c r="A220" s="7" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>838</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC221" t="s">
         <v>839</v>
       </c>
-      <c r="B221" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC221" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
     </row>
     <row r="223" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+      <c r="A224" t="s">
         <v>219</v>
       </c>
       <c r="B224" t="s">
@@ -7711,22 +7671,19 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-    </row>
     <row r="226" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
+      <c r="A227" t="s">
         <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>117</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C227" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E227" t="s">
@@ -7737,7 +7694,7 @@
       </c>
     </row>
     <row r="228" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+      <c r="A228" t="s">
         <v>229</v>
       </c>
       <c r="B228" t="s">
@@ -7751,7 +7708,7 @@
       </c>
     </row>
     <row r="229" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
+      <c r="A229" t="s">
         <v>230</v>
       </c>
       <c r="B229" t="s">
@@ -7762,7 +7719,7 @@
       </c>
     </row>
     <row r="230" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
       <c r="B230" t="s">
@@ -7775,23 +7732,23 @@
         <v>102</v>
       </c>
       <c r="AC230" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC231" t="s">
         <v>942</v>
       </c>
-      <c r="B231" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC231" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="232" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
-        <v>792</v>
+      <c r="A232" t="s">
+        <v>791</v>
       </c>
       <c r="B232" t="s">
         <v>72</v>
@@ -7800,14 +7757,14 @@
         <v>1</v>
       </c>
       <c r="AB232" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AC232" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="233" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
+      <c r="A233" t="s">
         <v>597</v>
       </c>
       <c r="B233" t="s">
@@ -7820,25 +7777,22 @@
         <v>598</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
-    </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="7" t="s">
         <v>236</v>
       </c>
       <c r="AC235" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="236" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
+      <c r="A236" t="s">
         <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>117</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C236" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E236">
@@ -7848,60 +7802,60 @@
         <v>32</v>
       </c>
       <c r="AC236" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
+      <c r="A237" t="s">
         <v>238</v>
       </c>
       <c r="B237" t="s">
         <v>117</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E237">
         <v>1</v>
       </c>
       <c r="AC237" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="238" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
-        <v>756</v>
+      <c r="A238" t="s">
+        <v>755</v>
       </c>
       <c r="B238" t="s">
         <v>117</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="AC238" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="239" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
-        <v>847</v>
+      <c r="A239" t="s">
+        <v>846</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
       </c>
-      <c r="C239" s="6"/>
+      <c r="C239" s="5"/>
       <c r="E239" t="s">
         <v>3</v>
       </c>
       <c r="AC239" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="7" t="s">
         <v>192</v>
       </c>
       <c r="AC241" t="s">
@@ -7909,7 +7863,7 @@
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
+      <c r="A242" t="s">
         <v>195</v>
       </c>
       <c r="B242" t="s">
@@ -7920,7 +7874,7 @@
       </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+      <c r="A243" t="s">
         <v>169</v>
       </c>
       <c r="B243" t="s">
@@ -7936,7 +7890,7 @@
         <v>197</v>
       </c>
       <c r="AC243" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.2">
@@ -7946,10 +7900,10 @@
       <c r="B244" t="s">
         <v>9</v>
       </c>
-      <c r="E244" s="32" t="s">
+      <c r="E244" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F244" s="32"/>
+      <c r="F244" s="31"/>
       <c r="AB244" t="s">
         <v>194</v>
       </c>
@@ -7957,19 +7911,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
-    </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="7" t="s">
         <v>534</v>
       </c>
       <c r="AC246" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="247" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
+      <c r="A247" t="s">
         <v>196</v>
       </c>
       <c r="B247" t="s">
@@ -7986,7 +7937,7 @@
       </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+      <c r="A248" t="s">
         <v>2</v>
       </c>
       <c r="B248" t="s">
@@ -8000,7 +7951,7 @@
       </c>
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+      <c r="A249" t="s">
         <v>205</v>
       </c>
       <c r="B249" t="s">
@@ -8017,7 +7968,7 @@
       </c>
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
+      <c r="A250" t="s">
         <v>357</v>
       </c>
       <c r="B250" t="s">
@@ -8026,7 +7977,7 @@
       <c r="C250" t="s">
         <v>9</v>
       </c>
-      <c r="AB250" s="5" t="s">
+      <c r="AB250" s="4" t="s">
         <v>304</v>
       </c>
       <c r="AC250" t="s">
@@ -8034,38 +7985,38 @@
       </c>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
-        <v>722</v>
+      <c r="A251" t="s">
+        <v>721</v>
       </c>
       <c r="B251" t="s">
         <v>72</v>
       </c>
-      <c r="E251" s="5">
+      <c r="E251" s="4">
         <v>1</v>
       </c>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
-      <c r="I251" s="5"/>
-      <c r="J251" s="5"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
       <c r="N251">
         <v>1E-3</v>
       </c>
       <c r="AB251" t="s">
+        <v>722</v>
+      </c>
+      <c r="AC251" t="s">
         <v>723</v>
       </c>
-      <c r="AC251" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+      <c r="A252" t="s">
         <v>43</v>
       </c>
       <c r="B252" t="s">
         <v>117</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C252" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E252">
@@ -8082,7 +8033,7 @@
       </c>
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
+      <c r="A253" t="s">
         <v>170</v>
       </c>
       <c r="B253" t="s">
@@ -8091,24 +8042,24 @@
       <c r="C253" t="s">
         <v>72</v>
       </c>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="5"/>
-      <c r="J253" s="5"/>
-      <c r="AB253" s="5" t="s">
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="AB253" s="4" t="s">
         <v>165</v>
       </c>
       <c r="AC253" t="s">
         <v>599</v>
       </c>
       <c r="AD253" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
+      <c r="A254" t="s">
         <v>171</v>
       </c>
       <c r="B254" t="s">
@@ -8117,18 +8068,18 @@
       <c r="C254" t="s">
         <v>72</v>
       </c>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
       <c r="AD254" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+      <c r="A255" t="s">
         <v>289</v>
       </c>
       <c r="B255" t="s">
@@ -8141,27 +8092,24 @@
         <v>291</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A256" s="3"/>
-    </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
+      <c r="A258" t="s">
         <v>248</v>
       </c>
       <c r="B258" t="s">
         <v>9</v>
       </c>
-      <c r="E258" s="5"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="5"/>
-      <c r="H258" s="5"/>
-      <c r="I258" s="5"/>
-      <c r="J258" s="5"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="4"/>
       <c r="AB258" t="s">
         <v>249</v>
       </c>
@@ -8170,7 +8118,7 @@
       </c>
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+      <c r="A259" t="s">
         <v>566</v>
       </c>
       <c r="B259" t="s">
@@ -8183,21 +8131,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
-    </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
-    </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
-    </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AC263" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.2">
@@ -8208,18 +8147,18 @@
         <v>9</v>
       </c>
       <c r="AB264" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AC264" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A269" s="8" t="s">
+      <c r="A269" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AC269" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.2">
@@ -8235,9 +8174,9 @@
       <c r="T270" t="s">
         <v>3</v>
       </c>
-      <c r="AB270" s="5"/>
+      <c r="AB270" s="4"/>
       <c r="AC270" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AD270" t="s">
         <v>18</v>
@@ -8245,7 +8184,7 @@
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B271" t="s">
         <v>10</v>
@@ -8253,11 +8192,11 @@
       <c r="E271" t="s">
         <v>3</v>
       </c>
-      <c r="AB271" s="5" t="s">
-        <v>1175</v>
+      <c r="AB271" s="4" t="s">
+        <v>1174</v>
       </c>
       <c r="AC271" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.2">
@@ -8270,13 +8209,12 @@
       <c r="C272" t="s">
         <v>9</v>
       </c>
-      <c r="AB272" s="5" t="s">
+      <c r="AB272" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AC272" s="3" t="s">
+      <c r="AC272" t="s">
         <v>204</v>
       </c>
-      <c r="AD272" s="3"/>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -8288,7 +8226,7 @@
       <c r="C273" t="s">
         <v>72</v>
       </c>
-      <c r="AB273" s="5" t="s">
+      <c r="AB273" s="4" t="s">
         <v>259</v>
       </c>
       <c r="AC273" t="s">
@@ -8339,7 +8277,7 @@
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
+      <c r="A276" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B276" t="s">
@@ -8354,7 +8292,7 @@
       <c r="N276">
         <v>4</v>
       </c>
-      <c r="AB276" s="5" t="s">
+      <c r="AB276" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AC276" t="s">
@@ -8362,7 +8300,7 @@
       </c>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B277" t="s">
@@ -8374,13 +8312,13 @@
       <c r="Z277" t="s">
         <v>5</v>
       </c>
-      <c r="AB277" s="5"/>
+      <c r="AB277" s="4"/>
       <c r="AC277" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B278" t="s">
@@ -8392,13 +8330,13 @@
       <c r="Z278" t="s">
         <v>177</v>
       </c>
-      <c r="AB278" s="5"/>
+      <c r="AB278" s="4"/>
       <c r="AD278" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
+      <c r="A279" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B279" t="s">
@@ -8410,13 +8348,13 @@
       <c r="Z279" t="s">
         <v>5</v>
       </c>
-      <c r="AB279" s="5"/>
+      <c r="AB279" s="4"/>
       <c r="AC279" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B280" t="s">
@@ -8428,13 +8366,13 @@
       <c r="Z280" t="s">
         <v>5</v>
       </c>
-      <c r="AB280" s="5"/>
+      <c r="AB280" s="4"/>
       <c r="AC280" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B281" t="s">
@@ -8446,13 +8384,13 @@
       <c r="Z281" t="s">
         <v>5</v>
       </c>
-      <c r="AB281" s="5"/>
+      <c r="AB281" s="4"/>
       <c r="AC281" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="s">
+      <c r="A282" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B282" t="s">
@@ -8461,15 +8399,15 @@
       <c r="E282">
         <v>3</v>
       </c>
-      <c r="AB282" s="6" t="s">
+      <c r="AB282" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AC282" s="6" t="s">
+      <c r="AC282" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A283" s="6" t="s">
+      <c r="A283" s="5" t="s">
         <v>641</v>
       </c>
       <c r="B283" t="s">
@@ -8481,14 +8419,14 @@
       <c r="AA283" t="s">
         <v>3</v>
       </c>
-      <c r="AB283" s="6"/>
-      <c r="AC283" s="6" t="s">
+      <c r="AB283" s="5"/>
+      <c r="AC283" s="5" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A284" s="6" t="s">
-        <v>764</v>
+      <c r="A284" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="B284" t="s">
         <v>117</v>
@@ -8499,14 +8437,14 @@
       <c r="AA284" t="s">
         <v>3</v>
       </c>
-      <c r="AB284" s="6"/>
-      <c r="AC284" s="6" t="s">
+      <c r="AB284" s="5"/>
+      <c r="AC284" s="5" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A285" s="6" t="s">
-        <v>758</v>
+      <c r="A285" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="B285" t="s">
         <v>10</v>
@@ -8514,57 +8452,57 @@
       <c r="E285" t="s">
         <v>2</v>
       </c>
-      <c r="AB285" s="6"/>
-      <c r="AC285" s="6" t="s">
-        <v>829</v>
+      <c r="AB285" s="5"/>
+      <c r="AC285" s="5" t="s">
+        <v>828</v>
       </c>
       <c r="AD285" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>796</v>
+      </c>
+      <c r="X286" t="s">
         <v>759</v>
       </c>
-      <c r="B286" t="s">
-        <v>9</v>
-      </c>
-      <c r="E286" t="s">
-        <v>797</v>
-      </c>
-      <c r="X286" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB286" s="6"/>
-      <c r="AC286" s="6" t="s">
-        <v>967</v>
+      <c r="AB286" s="5"/>
+      <c r="AC286" s="5" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A287" s="6"/>
-      <c r="AB287" s="6"/>
-      <c r="AC287" s="6"/>
+      <c r="A287" s="5"/>
+      <c r="AB287" s="5"/>
+      <c r="AC287" s="5"/>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A288" s="6"/>
-      <c r="AB288" s="5"/>
+      <c r="A288" s="5"/>
+      <c r="AB288" s="4"/>
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A289" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="AB289" s="5"/>
+      <c r="A289" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB289" s="4"/>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
-        <v>733</v>
+      <c r="A290" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="B290" t="s">
         <v>72</v>
       </c>
-      <c r="AB290" s="5"/>
+      <c r="AB290" s="4"/>
       <c r="AC290" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.2">
@@ -8578,18 +8516,18 @@
         <v>72</v>
       </c>
       <c r="E291" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AC291" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AD291" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
-        <v>734</v>
+      <c r="A292" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="B292" t="s">
         <v>10</v>
@@ -8597,14 +8535,14 @@
       <c r="E292" t="s">
         <v>3</v>
       </c>
-      <c r="AB292" s="5"/>
+      <c r="AB292" s="4"/>
       <c r="AC292" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A293" s="5" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="s">
-        <v>736</v>
       </c>
       <c r="B293" t="s">
         <v>72</v>
@@ -8613,33 +8551,33 @@
         <v>10</v>
       </c>
       <c r="Z293" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB293" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="AB293" s="5" t="s">
+      <c r="AC293" t="s">
         <v>726</v>
       </c>
-      <c r="AC293" t="s">
-        <v>727</v>
-      </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="s">
+      <c r="A294" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB294" s="4"/>
+      <c r="AC294" t="s">
         <v>737</v>
       </c>
-      <c r="B294" t="s">
-        <v>9</v>
-      </c>
-      <c r="E294" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB294" s="5"/>
-      <c r="AC294" t="s">
+    </row>
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A295" s="5" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A295" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="B295" t="s">
         <v>72</v>
@@ -8650,16 +8588,16 @@
       <c r="Z295" t="s">
         <v>114</v>
       </c>
-      <c r="AB295" s="5" t="s">
-        <v>732</v>
+      <c r="AB295" s="4" t="s">
+        <v>731</v>
       </c>
       <c r="AC295" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A296" s="6" t="s">
-        <v>754</v>
+      <c r="A296" s="5" t="s">
+        <v>753</v>
       </c>
       <c r="B296" t="s">
         <v>72</v>
@@ -8671,15 +8609,15 @@
         <v>187</v>
       </c>
       <c r="AB296" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AC296" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A297" s="6" t="s">
-        <v>740</v>
+      <c r="A297" s="5" t="s">
+        <v>739</v>
       </c>
       <c r="B297" t="s">
         <v>10</v>
@@ -8687,14 +8625,14 @@
       <c r="E297" t="s">
         <v>2</v>
       </c>
-      <c r="AB297" s="5"/>
+      <c r="AB297" s="4"/>
       <c r="AC297" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
         <v>741</v>
-      </c>
-    </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="B298" t="s">
         <v>9</v>
@@ -8703,15 +8641,15 @@
         <v>179</v>
       </c>
       <c r="G298" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AC298" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
-        <v>744</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
@@ -8726,12 +8664,12 @@
         <v>188</v>
       </c>
       <c r="AC299" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A300" s="6" t="s">
-        <v>745</v>
+      <c r="A300" s="5" t="s">
+        <v>744</v>
       </c>
       <c r="B300" t="s">
         <v>10</v>
@@ -8739,32 +8677,32 @@
       <c r="E300" t="s">
         <v>2</v>
       </c>
-      <c r="AB300" s="5"/>
+      <c r="AB300" s="4"/>
       <c r="AC300" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" t="s">
+        <v>798</v>
+      </c>
+      <c r="X301" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB301" s="4"/>
+      <c r="AC301" t="s">
         <v>746</v>
       </c>
-      <c r="B301" t="s">
-        <v>9</v>
-      </c>
-      <c r="E301" t="s">
-        <v>799</v>
-      </c>
-      <c r="X301" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB301" s="5"/>
-      <c r="AC301" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
-        <v>803</v>
+      <c r="A302" s="5" t="s">
+        <v>802</v>
       </c>
       <c r="B302" t="s">
         <v>72</v>
@@ -8772,16 +8710,16 @@
       <c r="E302">
         <v>3</v>
       </c>
-      <c r="AB302" s="6" t="s">
+      <c r="AB302" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AC302" s="6" t="s">
+      <c r="AC302" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="s">
-        <v>802</v>
+      <c r="A303" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="B303" t="s">
         <v>72</v>
@@ -8789,30 +8727,30 @@
       <c r="E303">
         <v>0.9</v>
       </c>
-      <c r="AB303" s="5"/>
+      <c r="AB303" s="4"/>
       <c r="AC303" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A304" s="6" t="s">
-        <v>811</v>
+      <c r="A304" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="B304" t="s">
         <v>9</v>
       </c>
-      <c r="E304" s="16" t="s">
+      <c r="E304" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="F304" s="16"/>
-      <c r="AB304" s="5"/>
+      <c r="F304" s="15"/>
+      <c r="AB304" s="4"/>
       <c r="AC304" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="305" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A305" s="6" t="s">
-        <v>800</v>
+      <c r="A305" s="5" t="s">
+        <v>799</v>
       </c>
       <c r="B305" t="s">
         <v>10</v>
@@ -8820,19 +8758,19 @@
       <c r="E305" t="s">
         <v>2</v>
       </c>
-      <c r="AB305" s="5"/>
+      <c r="AB305" s="4"/>
       <c r="AC305" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="306" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB306" s="5"/>
+      <c r="AB306" s="4"/>
     </row>
     <row r="307" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A307" s="8" t="s">
+      <c r="A307" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AB307" s="5"/>
+      <c r="AB307" s="4"/>
     </row>
     <row r="308" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -8844,7 +8782,7 @@
       <c r="E308">
         <v>0.25</v>
       </c>
-      <c r="AB308" s="5"/>
+      <c r="AB308" s="4"/>
       <c r="AC308" t="s">
         <v>100</v>
       </c>
@@ -8870,7 +8808,7 @@
       <c r="N310">
         <v>0</v>
       </c>
-      <c r="AB310" s="5"/>
+      <c r="AB310" s="4"/>
       <c r="AC310" t="s">
         <v>216</v>
       </c>
@@ -8885,7 +8823,7 @@
       <c r="E311" t="s">
         <v>102</v>
       </c>
-      <c r="AB311" s="5"/>
+      <c r="AB311" s="4"/>
       <c r="AC311" t="s">
         <v>103</v>
       </c>
@@ -8900,7 +8838,7 @@
       <c r="E312">
         <v>1</v>
       </c>
-      <c r="AB312" s="5"/>
+      <c r="AB312" s="4"/>
       <c r="AC312" t="s">
         <v>100</v>
       </c>
@@ -8912,7 +8850,7 @@
       <c r="B313" t="s">
         <v>72</v>
       </c>
-      <c r="AB313" s="5"/>
+      <c r="AB313" s="4"/>
     </row>
     <row r="314" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -8924,7 +8862,7 @@
       <c r="E314" t="s">
         <v>102</v>
       </c>
-      <c r="AB314" s="5"/>
+      <c r="AB314" s="4"/>
     </row>
     <row r="315" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -8936,7 +8874,7 @@
       <c r="E315">
         <v>1</v>
       </c>
-      <c r="AB315" s="5"/>
+      <c r="AB315" s="4"/>
     </row>
     <row r="316" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -8948,7 +8886,7 @@
       <c r="E316">
         <v>3</v>
       </c>
-      <c r="AB316" s="5"/>
+      <c r="AB316" s="4"/>
     </row>
     <row r="317" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -8957,7 +8895,7 @@
       <c r="B317" t="s">
         <v>72</v>
       </c>
-      <c r="AB317" s="5"/>
+      <c r="AB317" s="4"/>
       <c r="AC317" t="s">
         <v>421</v>
       </c>
@@ -8972,7 +8910,7 @@
       <c r="C318" t="s">
         <v>72</v>
       </c>
-      <c r="AB318" s="5"/>
+      <c r="AB318" s="4"/>
     </row>
     <row r="319" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -8984,8 +8922,8 @@
       <c r="C319" t="s">
         <v>9</v>
       </c>
-      <c r="AB319" s="31" t="s">
-        <v>920</v>
+      <c r="AB319" s="30" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="320" spans="1:29" x14ac:dyDescent="0.2">
@@ -8998,7 +8936,7 @@
       <c r="E320" t="s">
         <v>102</v>
       </c>
-      <c r="AB320" s="5"/>
+      <c r="AB320" s="4"/>
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -9010,7 +8948,7 @@
       <c r="E321">
         <v>1</v>
       </c>
-      <c r="AB321" s="5"/>
+      <c r="AB321" s="4"/>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
@@ -9022,7 +8960,7 @@
       <c r="C322" t="s">
         <v>72</v>
       </c>
-      <c r="AB322" s="5" t="s">
+      <c r="AB322" s="4" t="s">
         <v>262</v>
       </c>
       <c r="AC322" t="s">
@@ -9034,7 +8972,7 @@
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B323" t="s">
         <v>117</v>
@@ -9042,9 +8980,9 @@
       <c r="C323" t="s">
         <v>9</v>
       </c>
-      <c r="AB323" s="5"/>
+      <c r="AB323" s="4"/>
       <c r="AC323" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AD323" t="s">
         <v>260</v>
@@ -9057,13 +8995,13 @@
       <c r="B324" t="s">
         <v>117</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C324" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E324" t="s">
         <v>264</v>
       </c>
-      <c r="AB324" s="5"/>
+      <c r="AB324" s="4"/>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -9075,9 +9013,9 @@
       <c r="C325" t="s">
         <v>72</v>
       </c>
-      <c r="AB325" s="5"/>
+      <c r="AB325" s="4"/>
       <c r="AC325" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AD325" t="s">
         <v>260</v>
@@ -9085,7 +9023,7 @@
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B326" t="s">
         <v>117</v>
@@ -9093,11 +9031,11 @@
       <c r="C326" t="s">
         <v>9</v>
       </c>
-      <c r="AB326" s="5"/>
+      <c r="AB326" s="4"/>
       <c r="AC326" t="s">
-        <v>922</v>
-      </c>
-      <c r="AD326" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="AD326" s="5" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9109,9 +9047,9 @@
         <v>9</v>
       </c>
       <c r="E327" t="s">
-        <v>993</v>
-      </c>
-      <c r="AB327" s="5"/>
+        <v>992</v>
+      </c>
+      <c r="AB327" s="4"/>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -9123,19 +9061,19 @@
       <c r="E328">
         <v>3</v>
       </c>
-      <c r="AB328" s="5"/>
+      <c r="AB328" s="4"/>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AB329" s="5"/>
+      <c r="AB329" s="4"/>
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A330" s="8" t="s">
+      <c r="A330" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="AB330" s="5"/>
+      <c r="AB330" s="4"/>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AB331" s="5"/>
+      <c r="AB331" s="4"/>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -9147,7 +9085,7 @@
       <c r="C332" t="s">
         <v>72</v>
       </c>
-      <c r="AB332" s="5"/>
+      <c r="AB332" s="4"/>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -9159,7 +9097,7 @@
       <c r="C333" t="s">
         <v>72</v>
       </c>
-      <c r="AB333" s="5"/>
+      <c r="AB333" s="4"/>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -9171,7 +9109,7 @@
       <c r="C334" t="s">
         <v>72</v>
       </c>
-      <c r="AB334" s="5"/>
+      <c r="AB334" s="4"/>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -9183,7 +9121,7 @@
       <c r="C335" t="s">
         <v>72</v>
       </c>
-      <c r="AB335" s="5"/>
+      <c r="AB335" s="4"/>
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -9196,9 +9134,9 @@
         <v>9</v>
       </c>
       <c r="E336" t="s">
-        <v>994</v>
-      </c>
-      <c r="AB336" s="5"/>
+        <v>993</v>
+      </c>
+      <c r="AB336" s="4"/>
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -9210,13 +9148,13 @@
       <c r="C337" t="s">
         <v>9</v>
       </c>
-      <c r="AB337" s="5"/>
+      <c r="AB337" s="4"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A338" s="8" t="s">
+      <c r="A338" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="AB338" s="5"/>
+      <c r="AB338" s="4"/>
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -9225,7 +9163,7 @@
       <c r="B339" t="s">
         <v>9</v>
       </c>
-      <c r="AB339" s="5"/>
+      <c r="AB339" s="4"/>
       <c r="AC339" t="s">
         <v>515</v>
       </c>
@@ -9240,7 +9178,7 @@
       <c r="B340" t="s">
         <v>426</v>
       </c>
-      <c r="AC340" s="5" t="s">
+      <c r="AC340" s="4" t="s">
         <v>514</v>
       </c>
     </row>
@@ -9251,13 +9189,13 @@
       <c r="B341" t="s">
         <v>117</v>
       </c>
-      <c r="C341" s="6" t="s">
+      <c r="C341" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E341" t="s">
         <v>461</v>
       </c>
-      <c r="AB341" s="5" t="s">
+      <c r="AB341" s="4" t="s">
         <v>462</v>
       </c>
     </row>
@@ -9274,7 +9212,7 @@
       <c r="E342" t="s">
         <v>464</v>
       </c>
-      <c r="AB342" s="5"/>
+      <c r="AB342" s="4"/>
       <c r="AC342" t="s">
         <v>619</v>
       </c>
@@ -9286,7 +9224,7 @@
       <c r="B343" t="s">
         <v>9</v>
       </c>
-      <c r="AB343" s="5" t="s">
+      <c r="AB343" s="4" t="s">
         <v>466</v>
       </c>
       <c r="AC343" t="s">
@@ -9306,7 +9244,7 @@
       <c r="AA344" t="s">
         <v>3</v>
       </c>
-      <c r="AB344" s="5"/>
+      <c r="AB344" s="4"/>
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -9315,7 +9253,7 @@
       <c r="B345" t="s">
         <v>9</v>
       </c>
-      <c r="AB345" s="5" t="s">
+      <c r="AB345" s="4" t="s">
         <v>467</v>
       </c>
       <c r="AC345" t="s">
@@ -9323,38 +9261,38 @@
       </c>
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A346" s="6" t="s">
+      <c r="A346" s="5" t="s">
         <v>459</v>
       </c>
       <c r="B346" t="s">
         <v>426</v>
       </c>
-      <c r="E346" s="6" t="s">
+      <c r="E346" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F346" s="6"/>
-      <c r="G346" s="6"/>
-      <c r="H346" s="6"/>
-      <c r="I346" s="6"/>
-      <c r="J346" s="6"/>
-      <c r="K346" s="6"/>
-      <c r="L346" s="6"/>
-      <c r="M346" s="6"/>
-      <c r="N346" s="6"/>
-      <c r="O346" s="6"/>
-      <c r="P346" s="6"/>
-      <c r="Q346" s="6"/>
-      <c r="R346" s="6"/>
-      <c r="S346" s="6"/>
-      <c r="T346" s="6"/>
-      <c r="U346" s="6"/>
-      <c r="V346" s="6"/>
-      <c r="W346" s="6"/>
-      <c r="X346" s="6"/>
-      <c r="Y346" s="6"/>
-      <c r="AB346" s="5"/>
-      <c r="AC346" s="6"/>
-      <c r="AD346" s="6"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5"/>
+      <c r="K346" s="5"/>
+      <c r="L346" s="5"/>
+      <c r="M346" s="5"/>
+      <c r="N346" s="5"/>
+      <c r="O346" s="5"/>
+      <c r="P346" s="5"/>
+      <c r="Q346" s="5"/>
+      <c r="R346" s="5"/>
+      <c r="S346" s="5"/>
+      <c r="T346" s="5"/>
+      <c r="U346" s="5"/>
+      <c r="V346" s="5"/>
+      <c r="W346" s="5"/>
+      <c r="X346" s="5"/>
+      <c r="Y346" s="5"/>
+      <c r="AB346" s="4"/>
+      <c r="AC346" s="5"/>
+      <c r="AD346" s="5"/>
     </row>
     <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -9363,8 +9301,6 @@
       <c r="B347" t="s">
         <v>426</v>
       </c>
-      <c r="AC347" s="3"/>
-      <c r="AD347" s="3"/>
     </row>
     <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
@@ -9373,11 +9309,11 @@
       <c r="B348" t="s">
         <v>426</v>
       </c>
-      <c r="E348" s="5" t="s">
+      <c r="E348" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F348" s="5"/>
-      <c r="AB348" s="5"/>
+      <c r="F348" s="4"/>
+      <c r="AB348" s="4"/>
     </row>
     <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -9386,11 +9322,11 @@
       <c r="B349" t="s">
         <v>426</v>
       </c>
-      <c r="E349" s="5" t="s">
+      <c r="E349" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="F349" s="5"/>
-      <c r="AB349" s="5"/>
+      <c r="F349" s="4"/>
+      <c r="AB349" s="4"/>
     </row>
     <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -9399,11 +9335,11 @@
       <c r="B350" t="s">
         <v>426</v>
       </c>
-      <c r="E350" s="5" t="s">
+      <c r="E350" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F350" s="5"/>
-      <c r="AB350" s="5"/>
+      <c r="F350" s="4"/>
+      <c r="AB350" s="4"/>
     </row>
     <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -9412,11 +9348,11 @@
       <c r="B351" t="s">
         <v>426</v>
       </c>
-      <c r="E351" s="5" t="s">
+      <c r="E351" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F351" s="5"/>
-      <c r="AB351" s="5"/>
+      <c r="F351" s="4"/>
+      <c r="AB351" s="4"/>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -9425,103 +9361,103 @@
       <c r="B352" t="s">
         <v>426</v>
       </c>
-      <c r="E352" s="5" t="s">
+      <c r="E352" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F352" s="5"/>
-      <c r="AB352" s="5"/>
-    </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F352" s="4"/>
+      <c r="AB352" s="4"/>
+    </row>
+    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>497</v>
       </c>
       <c r="B353" t="s">
         <v>426</v>
       </c>
-      <c r="E353" s="5" t="s">
+      <c r="E353" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F353" s="5"/>
-      <c r="AB353" s="5"/>
-    </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F353" s="4"/>
+      <c r="AB353" s="4"/>
+    </row>
+    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>492</v>
       </c>
       <c r="B354" t="s">
         <v>426</v>
       </c>
-      <c r="E354" s="5" t="s">
+      <c r="E354" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F354" s="5"/>
-      <c r="AB354" s="5"/>
-    </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F354" s="4"/>
+      <c r="AB354" s="4"/>
+    </row>
+    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>469</v>
       </c>
       <c r="B355" t="s">
         <v>9</v>
       </c>
-      <c r="AB355" s="5"/>
+      <c r="AB355" s="4"/>
       <c r="AC355" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>482</v>
       </c>
       <c r="B356" t="s">
         <v>426</v>
       </c>
-      <c r="E356" s="5" t="s">
+      <c r="E356" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="F356" s="5"/>
-      <c r="AB356" s="5"/>
-    </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F356" s="4"/>
+      <c r="AB356" s="4"/>
+    </row>
+    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>477</v>
       </c>
       <c r="B357" t="s">
         <v>10</v>
       </c>
-      <c r="E357" s="5" t="s">
+      <c r="E357" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F357" s="5"/>
-      <c r="AB357" s="5"/>
-    </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F357" s="4"/>
+      <c r="AB357" s="4"/>
+    </row>
+    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>478</v>
       </c>
       <c r="B358" t="s">
         <v>10</v>
       </c>
-      <c r="E358" s="5" t="s">
+      <c r="E358" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F358" s="5"/>
-      <c r="AB358" s="5"/>
-    </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F358" s="4"/>
+      <c r="AB358" s="4"/>
+    </row>
+    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>479</v>
       </c>
       <c r="B359" t="s">
         <v>10</v>
       </c>
-      <c r="E359" s="5" t="s">
+      <c r="E359" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F359" s="5"/>
-      <c r="AB359" s="5"/>
-    </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F359" s="4"/>
+      <c r="AB359" s="4"/>
+    </row>
+    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>500</v>
       </c>
@@ -9531,9 +9467,9 @@
       <c r="E360" t="s">
         <v>2</v>
       </c>
-      <c r="AB360" s="5"/>
-    </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB360" s="4"/>
+    </row>
+    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>488</v>
       </c>
@@ -9543,9 +9479,9 @@
       <c r="E361" t="s">
         <v>487</v>
       </c>
-      <c r="AB361" s="5"/>
-    </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB361" s="4"/>
+    </row>
+    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>491</v>
       </c>
@@ -9555,21 +9491,21 @@
       <c r="E362" t="s">
         <v>2</v>
       </c>
-      <c r="AB362" s="5"/>
-    </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB362" s="4"/>
+    </row>
+    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B363" t="s">
         <v>426</v>
       </c>
       <c r="E363" t="s">
-        <v>970</v>
-      </c>
-      <c r="AB363" s="5"/>
-    </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
+        <v>969</v>
+      </c>
+      <c r="AB363" s="4"/>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>501</v>
       </c>
@@ -9579,9 +9515,9 @@
       <c r="E364" t="s">
         <v>502</v>
       </c>
-      <c r="AB364" s="5"/>
-    </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB364" s="4"/>
+    </row>
+    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>36</v>
       </c>
@@ -9591,22 +9527,21 @@
       <c r="AB365" t="s">
         <v>62</v>
       </c>
-      <c r="AC365" s="3" t="s">
+      <c r="AC365" t="s">
         <v>63</v>
       </c>
-      <c r="AD365" s="3"/>
-    </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AB366" s="5"/>
-    </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AB367" s="5"/>
-    </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A368" s="8" t="s">
+    </row>
+    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB366" s="4"/>
+    </row>
+    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB367" s="4"/>
+    </row>
+    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A368" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB368" s="5"/>
+      <c r="AB368" s="4"/>
     </row>
     <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
@@ -9745,7 +9680,7 @@
         <v>5</v>
       </c>
       <c r="AC372" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.2">
@@ -9842,23 +9777,23 @@
       <c r="Z376" t="s">
         <v>5</v>
       </c>
-      <c r="AB376" s="5"/>
+      <c r="AB376" s="4"/>
       <c r="AC376" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="377" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="34" t="s">
-        <v>782</v>
-      </c>
-      <c r="B377" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z377" s="30" t="s">
+    <row r="377" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B377" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z377" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AB377" s="35"/>
-      <c r="AC377" s="30" t="s">
+      <c r="AB377" s="34"/>
+      <c r="AC377" s="29" t="s">
         <v>595</v>
       </c>
     </row>
@@ -9897,7 +9832,7 @@
       </c>
     </row>
     <row r="380" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A380" s="6" t="s">
+      <c r="A380" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B380" t="s">
@@ -9909,14 +9844,14 @@
       <c r="Z380" t="s">
         <v>141</v>
       </c>
-      <c r="AB380" s="5"/>
+      <c r="AB380" s="4"/>
       <c r="AC380" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="382" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A382" s="8" t="s">
-        <v>959</v>
+      <c r="A382" s="7" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="383" spans="1:30" x14ac:dyDescent="0.2">
@@ -9926,19 +9861,19 @@
       <c r="B383" t="s">
         <v>9</v>
       </c>
-      <c r="AB383" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="AC383" s="3" t="s">
+      <c r="AB383" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AC383" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AD383" t="s">
         <v>1122</v>
-      </c>
-      <c r="AD383" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B384" t="s">
         <v>10</v>
@@ -9946,17 +9881,17 @@
       <c r="E384" t="s">
         <v>2</v>
       </c>
-      <c r="AB384" s="5"/>
-      <c r="AC384" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AD384" s="3" t="s">
+      <c r="AB384" s="4"/>
+      <c r="AC384" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AD384" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B385" t="s">
         <v>10</v>
@@ -9964,11 +9899,10 @@
       <c r="E385" t="s">
         <v>3</v>
       </c>
-      <c r="AB385" s="5"/>
-      <c r="AC385" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="AD385" s="3"/>
+      <c r="AB385" s="4"/>
+      <c r="AC385" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -9980,10 +9914,9 @@
       <c r="E386" t="s">
         <v>32</v>
       </c>
-      <c r="AC386" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="AD386" s="3"/>
+      <c r="AC386" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
@@ -9995,7 +9928,6 @@
       <c r="E387" t="s">
         <v>32</v>
       </c>
-      <c r="AC387" s="3"/>
       <c r="AD387" t="s">
         <v>455</v>
       </c>
@@ -10010,7 +9942,6 @@
       <c r="E388" t="s">
         <v>32</v>
       </c>
-      <c r="AC388" s="3"/>
       <c r="AD388" t="s">
         <v>455</v>
       </c>
@@ -10025,7 +9956,7 @@
       <c r="E389" t="s">
         <v>32</v>
       </c>
-      <c r="AC389" s="3" t="s">
+      <c r="AC389" t="s">
         <v>28</v>
       </c>
       <c r="AD389" t="s">
@@ -10042,7 +9973,6 @@
       <c r="E390" t="s">
         <v>32</v>
       </c>
-      <c r="AC390" s="3"/>
       <c r="AD390" t="s">
         <v>455</v>
       </c>
@@ -10054,10 +9984,10 @@
       <c r="B391" t="s">
         <v>426</v>
       </c>
-      <c r="AC391" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="AD391" s="3" t="s">
+      <c r="AC391" t="s">
+        <v>957</v>
+      </c>
+      <c r="AD391" t="s">
         <v>448</v>
       </c>
     </row>
@@ -10068,9 +9998,8 @@
       <c r="B392" t="s">
         <v>426</v>
       </c>
-      <c r="AC392" s="3"/>
-      <c r="AD392" s="3" t="s">
-        <v>956</v>
+      <c r="AD392" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="393" spans="1:30" x14ac:dyDescent="0.2">
@@ -10080,9 +10009,8 @@
       <c r="B393" t="s">
         <v>426</v>
       </c>
-      <c r="AC393" s="3"/>
-      <c r="AD393" s="3" t="s">
-        <v>956</v>
+      <c r="AD393" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="394" spans="1:30" x14ac:dyDescent="0.2">
@@ -10092,9 +10020,8 @@
       <c r="B394" t="s">
         <v>426</v>
       </c>
-      <c r="AC394" s="3"/>
-      <c r="AD394" s="3" t="s">
-        <v>956</v>
+      <c r="AD394" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="395" spans="1:30" x14ac:dyDescent="0.2">
@@ -10104,9 +10031,8 @@
       <c r="B395" t="s">
         <v>426</v>
       </c>
-      <c r="AC395" s="3"/>
-      <c r="AD395" s="3" t="s">
-        <v>956</v>
+      <c r="AD395" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="396" spans="1:30" x14ac:dyDescent="0.2">
@@ -10119,19 +10045,18 @@
       <c r="C396" t="s">
         <v>426</v>
       </c>
-      <c r="AC396" s="3" t="s">
+      <c r="AC396" t="s">
         <v>508</v>
       </c>
-      <c r="AD396" s="3"/>
     </row>
     <row r="398" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="399" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="8" t="s">
+      <c r="A399" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="400" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="6" t="s">
+      <c r="A400" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B400" t="s">
@@ -10146,7 +10071,7 @@
     </row>
     <row r="401" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="402" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="8" t="s">
+      <c r="A402" s="7" t="s">
         <v>266</v>
       </c>
     </row>
@@ -10161,12 +10086,12 @@
         <v>3</v>
       </c>
       <c r="AC403" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="404" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="6" t="s">
-        <v>979</v>
+      <c r="A404" s="5" t="s">
+        <v>978</v>
       </c>
       <c r="B404" t="s">
         <v>426</v>
@@ -10175,7 +10100,7 @@
         <v>606</v>
       </c>
       <c r="AC404" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="405" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10192,7 +10117,7 @@
         <v>5</v>
       </c>
       <c r="AC405" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="406" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10206,7 +10131,7 @@
         <v>270</v>
       </c>
       <c r="AC406" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="407" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10220,63 +10145,63 @@
         <v>272</v>
       </c>
       <c r="AC407" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="408" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="409" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A409" s="8" t="s">
+      <c r="A409" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AC409" s="5" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A410" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
+      <c r="L410" s="5"/>
+      <c r="M410" s="5"/>
+      <c r="N410" s="5"/>
+      <c r="O410" s="5"/>
+      <c r="P410" s="5"/>
+      <c r="Q410" s="5"/>
+      <c r="R410" s="5"/>
+      <c r="S410" s="5"/>
+      <c r="T410" s="5"/>
+      <c r="U410" s="5"/>
+      <c r="V410" s="5"/>
+      <c r="W410" s="5"/>
+      <c r="X410" s="5"/>
+      <c r="Y410" s="5"/>
+      <c r="Z410" s="5"/>
+      <c r="AA410" s="5"/>
+      <c r="AB410" s="4"/>
+      <c r="AC410" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AD410" t="s">
         <v>1017</v>
-      </c>
-      <c r="AC409" s="6" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A410" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C410" s="6"/>
-      <c r="D410" s="6"/>
-      <c r="E410" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F410" s="6"/>
-      <c r="G410" s="6"/>
-      <c r="H410" s="6"/>
-      <c r="I410" s="6"/>
-      <c r="J410" s="6"/>
-      <c r="K410" s="6"/>
-      <c r="L410" s="6"/>
-      <c r="M410" s="6"/>
-      <c r="N410" s="6"/>
-      <c r="O410" s="6"/>
-      <c r="P410" s="6"/>
-      <c r="Q410" s="6"/>
-      <c r="R410" s="6"/>
-      <c r="S410" s="6"/>
-      <c r="T410" s="6"/>
-      <c r="U410" s="6"/>
-      <c r="V410" s="6"/>
-      <c r="W410" s="6"/>
-      <c r="X410" s="6"/>
-      <c r="Y410" s="6"/>
-      <c r="Z410" s="6"/>
-      <c r="AA410" s="6"/>
-      <c r="AB410" s="5"/>
-      <c r="AC410" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AD410" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B411" t="s">
         <v>117</v>
@@ -10285,31 +10210,31 @@
         <v>9</v>
       </c>
       <c r="E411" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AC411" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AD411" t="s">
         <v>1022</v>
       </c>
-      <c r="AD411" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="412" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E412" s="11"/>
-      <c r="F412" s="11"/>
-      <c r="G412" s="11"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
     </row>
     <row r="413" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A413" s="8" t="s">
-        <v>1107</v>
+      <c r="A413" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="AC413" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B414" t="s">
         <v>10</v>
@@ -10318,37 +10243,37 @@
         <v>2</v>
       </c>
       <c r="AC414" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC415" t="s">
         <v>1076</v>
       </c>
-      <c r="B415" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC415" t="s">
+    </row>
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A416" s="5" t="s">
         <v>1077</v>
-      </c>
-    </row>
-    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A416" s="6" t="s">
-        <v>1078</v>
       </c>
       <c r="B416" t="s">
         <v>426</v>
       </c>
       <c r="E416" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AC416" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="417" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A417" s="6" t="s">
-        <v>1106</v>
+      <c r="A417" s="5" t="s">
+        <v>1105</v>
       </c>
       <c r="B417" t="s">
         <v>10</v>
@@ -10357,12 +10282,12 @@
         <v>3</v>
       </c>
       <c r="AC417" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="418" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B418" t="s">
         <v>9</v>
@@ -10371,14 +10296,14 @@
         <v>3</v>
       </c>
       <c r="AC418" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="420" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A420" s="6"/>
+      <c r="A420" s="5"/>
     </row>
     <row r="421" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A421" s="6"/>
+      <c r="A421" s="5"/>
     </row>
     <row r="428" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
@@ -10417,67 +10342,67 @@
       <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -10500,58 +10425,58 @@
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
       <c r="AA2"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AC3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AC4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -10561,11 +10486,11 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>1210</v>
       </c>
       <c r="AC5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -10610,60 +10535,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>494</v>
       </c>
       <c r="F9"/>
-      <c r="AA9" s="33" t="s">
+      <c r="AA9" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F10"/>
+      <c r="AA10" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="F10"/>
-      <c r="AA10" s="33" t="s">
+      <c r="F11"/>
+      <c r="AA11" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="B11" s="33" t="s">
+    <row r="12" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>1149</v>
-      </c>
-      <c r="F11"/>
-      <c r="AA11" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1150</v>
       </c>
       <c r="F12"/>
     </row>
@@ -10677,11 +10602,11 @@
       <c r="E13" t="s">
         <v>496</v>
       </c>
-      <c r="AA13" s="33" t="s">
+      <c r="AA13" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>614</v>
       </c>
@@ -10694,55 +10619,55 @@
         <v>518</v>
       </c>
       <c r="F14"/>
-      <c r="AA14" s="33" t="s">
+      <c r="AA14" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>1100</v>
+    <row r="16" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>1098</v>
+    <row r="17" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1097</v>
       </c>
       <c r="B17" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>1102</v>
+    <row r="18" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1101</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10750,44 +10675,44 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>1103</v>
       </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>1104</v>
-      </c>
       <c r="B19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>1135</v>
+      <c r="E20" s="32" t="s">
+        <v>1134</v>
       </c>
       <c r="F20"/>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
@@ -10832,221 +10757,219 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>1027</v>
+      <c r="A22" t="s">
+        <v>1026</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>1025</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>1086</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>1087</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>1088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>1089</v>
       </c>
       <c r="B25" t="s">
         <v>426</v>
       </c>
       <c r="E25" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>1090</v>
+      <c r="A26" t="s">
+        <v>1089</v>
       </c>
       <c r="B26" t="s">
         <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>1091</v>
+      <c r="A27" t="s">
+        <v>1090</v>
       </c>
       <c r="B27" t="s">
         <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>1095</v>
+      <c r="A28" t="s">
+        <v>1094</v>
       </c>
       <c r="B28" t="s">
         <v>426</v>
       </c>
       <c r="E28" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>1152</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E33" t="s">
         <v>1176</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E34" t="s">
         <v>1206</v>
       </c>
-      <c r="B34" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1207</v>
-      </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" s="6"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="10"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F183" s="10"/>
+      <c r="F183" s="9"/>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F210" s="32"/>
+      <c r="F210" s="31"/>
     </row>
     <row r="217" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F217" s="5"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F218" s="5"/>
+      <c r="F218" s="4"/>
     </row>
     <row r="219" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F219" s="5"/>
+      <c r="F219" s="4"/>
     </row>
     <row r="224" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F224" s="5"/>
+      <c r="F224" s="4"/>
     </row>
     <row r="269" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F269" s="16"/>
+      <c r="F269" s="15"/>
     </row>
     <row r="310" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F310" s="6"/>
+      <c r="F310" s="5"/>
     </row>
     <row r="311" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F311" s="5"/>
+      <c r="F311" s="4"/>
     </row>
     <row r="312" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F312" s="5"/>
+      <c r="F312" s="4"/>
     </row>
     <row r="313" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F313" s="5"/>
+      <c r="F313" s="4"/>
     </row>
     <row r="314" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F314" s="5"/>
+      <c r="F314" s="4"/>
     </row>
     <row r="315" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F315" s="5"/>
+      <c r="F315" s="4"/>
     </row>
     <row r="316" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F316" s="5"/>
+      <c r="F316" s="4"/>
     </row>
     <row r="317" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F317" s="5"/>
+      <c r="F317" s="4"/>
     </row>
     <row r="319" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F319" s="5"/>
+      <c r="F319" s="4"/>
     </row>
     <row r="320" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F320" s="5"/>
+      <c r="F320" s="4"/>
     </row>
     <row r="321" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F321" s="5"/>
+      <c r="F321" s="4"/>
     </row>
     <row r="322" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F322" s="5"/>
+      <c r="F322" s="4"/>
     </row>
     <row r="340" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F340" s="30"/>
+      <c r="F340" s="29"/>
     </row>
     <row r="347" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F347" s="6"/>
+      <c r="F347" s="5"/>
     </row>
     <row r="375" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F375" s="11"/>
+      <c r="F375" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11081,67 +11004,67 @@
       <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -11164,11 +11087,11 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>637</v>
       </c>
       <c r="AC2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -11182,7 +11105,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC3" t="s">
         <v>91</v>
@@ -11199,18 +11122,18 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AC4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>638</v>
       </c>
       <c r="AC6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -11224,7 +11147,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AC7" t="s">
         <v>91</v>
@@ -11241,23 +11164,23 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AC8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>978</v>
+      <c r="A10" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -11266,7 +11189,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AC11" t="s">
         <v>91</v>
@@ -11274,7 +11197,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -11283,89 +11206,83 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AC12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="F16" s="3"/>
-    </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="6"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F54" s="10"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="176" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F176" s="10"/>
+      <c r="F176" s="9"/>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F203" s="32"/>
+      <c r="F203" s="31"/>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F210" s="5"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F211" s="5"/>
+      <c r="F211" s="4"/>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F212" s="5"/>
+      <c r="F212" s="4"/>
     </row>
     <row r="217" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F217" s="5"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F262" s="16"/>
+      <c r="F262" s="15"/>
     </row>
     <row r="303" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F303" s="6"/>
+      <c r="F303" s="5"/>
     </row>
     <row r="304" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F304" s="5"/>
+      <c r="F304" s="4"/>
     </row>
     <row r="305" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F305" s="5"/>
+      <c r="F305" s="4"/>
     </row>
     <row r="306" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F306" s="5"/>
+      <c r="F306" s="4"/>
     </row>
     <row r="307" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F307" s="5"/>
+      <c r="F307" s="4"/>
     </row>
     <row r="308" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F308" s="5"/>
+      <c r="F308" s="4"/>
     </row>
     <row r="309" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F309" s="5"/>
+      <c r="F309" s="4"/>
     </row>
     <row r="310" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F310" s="5"/>
+      <c r="F310" s="4"/>
     </row>
     <row r="312" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F312" s="5"/>
+      <c r="F312" s="4"/>
     </row>
     <row r="313" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F313" s="5"/>
+      <c r="F313" s="4"/>
     </row>
     <row r="314" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F314" s="5"/>
+      <c r="F314" s="4"/>
     </row>
     <row r="315" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F315" s="5"/>
+      <c r="F315" s="4"/>
     </row>
     <row r="333" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F333" s="30"/>
+      <c r="F333" s="29"/>
     </row>
     <row r="340" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F340" s="6"/>
+      <c r="F340" s="5"/>
     </row>
     <row r="368" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F368" s="11"/>
+      <c r="F368" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11399,67 +11316,67 @@
       <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -11482,16 +11399,16 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>340</v>
       </c>
       <c r="AC2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -11533,7 +11450,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="4" t="s">
         <v>535</v>
       </c>
       <c r="AC7" t="s">
@@ -11550,7 +11467,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="5"/>
+      <c r="AB8" s="4"/>
       <c r="AC8" t="s">
         <v>591</v>
       </c>
@@ -11565,16 +11482,16 @@
       <c r="AA9" t="s">
         <v>3</v>
       </c>
-      <c r="AB9" s="5"/>
+      <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AB10" s="5"/>
+      <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="AB11" s="5"/>
+      <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -11587,28 +11504,28 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G12" t="s">
         <v>265</v>
       </c>
       <c r="M12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="Q12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R12" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB12" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>572</v>
       </c>
       <c r="AC12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -11622,16 +11539,16 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>765</v>
-      </c>
-      <c r="AB13" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="AB13" s="4"/>
       <c r="AD13" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -11640,14 +11557,14 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
+        <v>805</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" t="s">
         <v>806</v>
       </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>807</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -11663,14 +11580,14 @@
       <c r="E15" t="s">
         <v>531</v>
       </c>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="4"/>
       <c r="AD15" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B16" t="s">
         <v>117</v>
@@ -11679,11 +11596,11 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>771</v>
-      </c>
-      <c r="AB16" s="5"/>
+        <v>770</v>
+      </c>
+      <c r="AB16" s="4"/>
       <c r="AC16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AD16" t="s">
         <v>532</v>
@@ -11691,7 +11608,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -11700,13 +11617,13 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>925</v>
-      </c>
-      <c r="AB17" s="5"/>
+        <v>924</v>
+      </c>
+      <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
@@ -11715,12 +11632,12 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Z18" t="s">
         <v>673</v>
       </c>
-      <c r="AB18" s="5" t="s">
+      <c r="AB18" s="4" t="s">
         <v>676</v>
       </c>
       <c r="AC18" t="s">
@@ -11732,7 +11649,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -11741,15 +11658,15 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>858</v>
-      </c>
-      <c r="AB19" s="5"/>
+        <v>857</v>
+      </c>
+      <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AB20" s="5"/>
+      <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>537</v>
       </c>
       <c r="AA21" t="s">
@@ -11757,326 +11674,326 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="AA22" t="s">
         <v>3</v>
       </c>
-      <c r="AC22" s="6"/>
+      <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12"/>
       <c r="AA23" t="s">
         <v>3</v>
       </c>
-      <c r="AC23" s="6"/>
+      <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
       <c r="AA24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
+      <c r="B25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="AA25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16" t="s">
+      <c r="B26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="15"/>
       <c r="AA26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="B27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16"/>
       <c r="AA27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="s">
+      <c r="B28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="17"/>
       <c r="AA28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
+      <c r="B29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="18"/>
       <c r="AA29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="19"/>
       <c r="AA30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="B31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="20"/>
       <c r="AA31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22" t="s">
+      <c r="B32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="AA32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23" t="s">
+      <c r="B33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="22"/>
       <c r="AA33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24" t="s">
+      <c r="B34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="23"/>
       <c r="AA34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
+      <c r="B35" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="24"/>
       <c r="AA35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26" t="s">
+      <c r="B36" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="25"/>
       <c r="AA36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27" t="s">
+      <c r="B37" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="26"/>
       <c r="AA37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28" t="s">
+      <c r="B38" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="27"/>
       <c r="AA38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29" t="s">
+      <c r="B39" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="28"/>
       <c r="AA39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30" t="s">
+      <c r="B40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="29"/>
       <c r="AA40" t="s">
         <v>3</v>
       </c>
@@ -12265,51 +12182,51 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>849</v>
+      <c r="E54" s="13" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>916</v>
+      <c r="A56" s="7" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
@@ -12352,67 +12269,67 @@
       <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -12435,7 +12352,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AA2" t="s">
@@ -12443,7 +12360,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -12528,10 +12445,10 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
       <c r="AA9" t="s">
         <v>3</v>
       </c>
@@ -12546,10 +12463,10 @@
       <c r="B10" t="s">
         <v>300</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -12558,10 +12475,10 @@
       <c r="B11" t="s">
         <v>300</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -12570,10 +12487,10 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -12582,10 +12499,10 @@
       <c r="B13" t="s">
         <v>301</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -12594,10 +12511,10 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -12670,13 +12587,13 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>995</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>996</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>997</v>
       </c>
       <c r="AA25" t="s">
         <v>3</v>
@@ -12693,14 +12610,14 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA26" t="s">
         <v>3</v>
       </c>
-      <c r="AB26" s="5"/>
+      <c r="AB26" s="4"/>
       <c r="AC26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -12739,67 +12656,67 @@
       <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -12822,7 +12739,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>643</v>
       </c>
       <c r="AC2" t="s">
@@ -12888,9 +12805,9 @@
         <v>165</v>
       </c>
       <c r="AC6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AD6" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AD6" s="5" t="s">
         <v>675</v>
       </c>
     </row>
@@ -12912,17 +12829,17 @@
       <c r="A8" t="s">
         <v>648</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="AB8" t="s">
         <v>104</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -12930,7 +12847,7 @@
       <c r="A9" t="s">
         <v>649</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E9">
@@ -12939,55 +12856,55 @@
       <c r="AB9" t="s">
         <v>628</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AC10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AC11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>930</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>931</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>932</v>
-      </c>
       <c r="AC12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -12996,7 +12913,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AA13" t="s">
         <v>3</v>
@@ -13029,7 +12946,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B16" t="s">
         <v>166</v>
@@ -13043,7 +12960,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -13057,7 +12974,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -13066,12 +12983,12 @@
         <v>3</v>
       </c>
       <c r="AC18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -13084,28 +13001,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>860</v>
+      <c r="A21" s="7" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="S22" s="5"/>
+      <c r="R22" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="S22" s="4"/>
       <c r="AC22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B23" t="s">
         <v>117</v>
@@ -13119,13 +13036,13 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R24" t="s">
         <v>650</v>
@@ -13133,13 +13050,13 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -13147,51 +13064,51 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="R26" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>896</v>
-      </c>
-      <c r="R27" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="R27" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="S27" s="14"/>
+      <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>897</v>
-      </c>
-      <c r="R28" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="R28" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="S28" s="14"/>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B29" t="s">
         <v>117</v>
@@ -13200,52 +13117,52 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>898</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="S29" s="5"/>
+        <v>897</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>901</v>
-      </c>
-      <c r="R30" s="5">
+        <v>900</v>
+      </c>
+      <c r="R30" s="4">
         <v>1</v>
       </c>
-      <c r="S30" s="5"/>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>899</v>
-      </c>
-      <c r="R31" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="R31" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="S31" s="12"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="R32">
         <v>1.3</v>
@@ -13253,27 +13170,27 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>902</v>
-      </c>
-      <c r="R33" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="R34" t="s">
         <v>650</v>
@@ -13281,13 +13198,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R35">
         <v>2.1</v>
@@ -13295,92 +13212,92 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>905</v>
-      </c>
-      <c r="R36" s="5"/>
+        <v>904</v>
+      </c>
+      <c r="R36" s="4"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>906</v>
-      </c>
-      <c r="R37" s="5">
+        <v>905</v>
+      </c>
+      <c r="R37" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>883</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>906</v>
+      </c>
+      <c r="R38" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>907</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>908</v>
-      </c>
-      <c r="R39" s="5">
+        <v>907</v>
+      </c>
+      <c r="R39" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>909</v>
-      </c>
-      <c r="R40" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="R40" s="4" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="R42">
         <v>0.5</v>
@@ -13388,15 +13305,15 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>912</v>
-      </c>
-      <c r="R43" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="R43" s="13" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13420,7 +13337,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13441,67 +13358,67 @@
       <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -13524,7 +13441,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>678</v>
       </c>
     </row>
@@ -13535,11 +13452,11 @@
       <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>680</v>
+        <v>1209</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -13547,13 +13464,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AA4" t="s">
         <v>3</v>
@@ -13561,24 +13478,24 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>815</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA6" t="s">
         <v>3</v>
@@ -13586,28 +13503,28 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AA7" t="s">
         <v>3</v>
       </c>
-      <c r="AD7" s="6"/>
+      <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AA8" t="s">
         <v>3</v>
@@ -13615,44 +13532,44 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="E9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" s="6"/>
+      <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA10" t="s">
         <v>3</v>
       </c>
-      <c r="AC10" s="6"/>
+      <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AA11" t="s">
         <v>3</v>
@@ -13660,13 +13577,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>768</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>769</v>
       </c>
       <c r="AA12" t="s">
         <v>3</v>
@@ -13674,24 +13591,24 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>947</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>948</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AA14" t="s">
         <v>3</v>
@@ -13699,13 +13616,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AA15" t="s">
         <v>3</v>
@@ -13713,24 +13630,24 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA17" t="s">
         <v>3</v>
@@ -13738,13 +13655,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA18" t="s">
         <v>3</v>
@@ -13752,13 +13669,13 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA19" t="s">
         <v>3</v>
@@ -13766,13 +13683,13 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA20" t="s">
         <v>3</v>
@@ -13780,13 +13697,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AA21" t="s">
         <v>3</v>
@@ -13794,13 +13711,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -13808,13 +13725,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -13822,7 +13739,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
@@ -13831,7 +13748,7 @@
         <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>
@@ -13839,24 +13756,24 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E86637-09F2-8A49-9008-5D9DBBC51F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD093DD-4FAA-2741-9D3E-BF20610D7710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
@@ -3674,7 +3674,7 @@
     <t>data, globals, geo_region_data, geo_cbs_centroid_map, geo_centroid_data, open</t>
   </si>
   <si>
-    <t>2022-12-13</t>
+    <t>2022-11-28</t>
   </si>
 </sst>
 </file>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D34A9-5F4D-0F42-B26D-F24CBCC8348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5983DCFC-E09A-A644-B5BF-C2C66D3A96B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1269">
   <si>
     <t>default</t>
   </si>
@@ -3843,6 +3843,12 @@
   </si>
   <si>
     <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>y_title_align_turn</t>
+  </si>
+  <si>
+    <t>x_title_align_turn</t>
   </si>
 </sst>
 </file>
@@ -4448,11 +4454,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84CE4E8-7971-924E-945B-10EFE25BF424}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF439"/>
+  <dimension ref="A1:AF441"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5282,253 +5288,253 @@
       <c r="AC42" t="s">
         <v>317</v>
       </c>
+      <c r="AD42" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>1268</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="N43" t="s">
-        <v>843</v>
+      <c r="E43" t="s">
+        <v>318</v>
       </c>
       <c r="AC43" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="AD43" t="s">
-        <v>126</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="N44" t="s">
+        <v>843</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>37</v>
       </c>
       <c r="AD44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
       </c>
       <c r="E45">
-        <v>0.35</v>
-      </c>
-      <c r="P45">
-        <v>0.3</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>0.35</v>
+      </c>
+      <c r="P46">
+        <v>0.3</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>795</v>
+        <v>281</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>318</v>
-      </c>
-      <c r="V47" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>317</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1107</v>
+        <v>795</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="AD48" t="s">
-        <v>481</v>
+      <c r="E48" t="s">
+        <v>318</v>
+      </c>
+      <c r="V48" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1108</v>
+        <v>1267</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>1107</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD50" t="s">
-        <v>147</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>1108</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>425</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1093</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>426</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>427</v>
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
       </c>
       <c r="AD52" t="s">
-        <v>1176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>512</v>
+      <c r="A53" t="s">
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>426</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="F53" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>425</v>
+      </c>
       <c r="AD53" t="s">
-        <v>966</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>426</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" t="s">
+        <v>426</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="AD55" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54">
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56">
         <v>7</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AA56" t="s">
         <v>1010</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AD56" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>139</v>
       </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="9">
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="9">
         <v>1.2857142857142858</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="AD55" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="AD57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD56" s="5"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD58" s="5"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="AD57" s="5"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>405</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD58" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>616</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>613</v>
-      </c>
-      <c r="AC59" s="35" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD59" s="5" t="s">
-        <v>622</v>
-      </c>
+      <c r="AD59" s="5"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s">
         <v>117</v>
@@ -5537,106 +5543,97 @@
         <v>72</v>
       </c>
       <c r="AD60" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>616</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>104</v>
+        <v>613</v>
+      </c>
+      <c r="AC61" s="35" t="s">
+        <v>632</v>
       </c>
       <c r="AD61" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>771</v>
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>102</v>
+      <c r="C63" t="s">
+        <v>72</v>
       </c>
       <c r="AC63" t="s">
-        <v>633</v>
+        <v>104</v>
       </c>
       <c r="AD63" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC64" t="s">
-        <v>116</v>
+        <v>771</v>
       </c>
       <c r="AD64" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s">
         <v>117</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>102</v>
       </c>
       <c r="AC65" t="s">
-        <v>104</v>
+        <v>633</v>
       </c>
       <c r="AD65" s="5" t="s">
-        <v>244</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>627</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s">
         <v>117</v>
@@ -5645,18 +5642,18 @@
         <v>72</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="s">
-        <v>628</v>
+        <v>116</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>547</v>
+        <v>411</v>
       </c>
       <c r="B67" t="s">
         <v>117</v>
@@ -5665,128 +5662,131 @@
         <v>72</v>
       </c>
       <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD67" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>627</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>628</v>
+      </c>
+      <c r="AD68" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>547</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69">
         <v>0.5</v>
       </c>
-      <c r="AD67" s="5" t="s">
+      <c r="AD69" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C68" s="5"/>
-      <c r="AD68" s="5"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C70" s="5"/>
+      <c r="AD70" s="5"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="AD69" s="5" t="s">
+      <c r="C71" s="5"/>
+      <c r="AD71" s="5" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>546</v>
-      </c>
-      <c r="B70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD70" s="5"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>538</v>
-      </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="5" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1002</v>
+        <v>546</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD72" s="5" t="s">
-        <v>1003</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD72" s="5"/>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" t="s">
         <v>72</v>
       </c>
       <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>104</v>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>102</v>
       </c>
       <c r="AD74" s="5" t="s">
-        <v>244</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" t="s">
         <v>72</v>
       </c>
       <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>544</v>
+        <v>4</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD75" s="5" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>634</v>
+        <v>1004</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
@@ -5795,15 +5795,18 @@
         <v>72</v>
       </c>
       <c r="E76">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>104</v>
       </c>
       <c r="AD76" s="5" t="s">
-        <v>548</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1005</v>
+        <v>543</v>
       </c>
       <c r="B77" t="s">
         <v>117</v>
@@ -5812,273 +5815,273 @@
         <v>72</v>
       </c>
       <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>634</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78">
+        <v>0.5</v>
+      </c>
+      <c r="AD78" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79">
         <v>0</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AC79" t="s">
         <v>116</v>
       </c>
-      <c r="AD77" s="5" t="s">
+      <c r="AD79" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="AD79" s="5" t="s">
+      <c r="AD81" s="5" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>666</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>247</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E82">
-        <v>0.25</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>666</v>
       </c>
       <c r="AD82" t="s">
-        <v>782</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83">
-        <v>0.15</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>783</v>
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>784</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>790</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>787</v>
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <v>0.25</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>5</v>
       </c>
       <c r="AD84" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>785</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>317</v>
+        <v>72</v>
+      </c>
+      <c r="E85">
+        <v>0.15</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>5</v>
       </c>
       <c r="AD85" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>784</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>790</v>
       </c>
       <c r="AC86" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD86" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE86" s="5"/>
+        <v>787</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>785</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD88" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE88" s="5"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>241</v>
       </c>
-      <c r="B87" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87">
+      <c r="B89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89">
         <v>0.85</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AD89" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AD91" t="s">
         <v>667</v>
       </c>
-      <c r="AE89" t="s">
+      <c r="AE91" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>117</v>
-      </c>
-      <c r="X90" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
-        <v>32</v>
-      </c>
-      <c r="X91" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>668</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="X92" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>118</v>
       </c>
       <c r="AD92" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>1026</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1077</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="X93" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>118</v>
       </c>
       <c r="AD93" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1028</v>
+        <v>668</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
       </c>
       <c r="AD94" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="AE94" t="s">
-        <v>1077</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1027</v>
+        <v>1077</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>3</v>
       </c>
       <c r="AD95" t="s">
-        <v>1050</v>
+        <v>185</v>
       </c>
       <c r="AE95" t="s">
-        <v>1077</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="B96" t="s">
         <v>72</v>
@@ -6087,15 +6090,15 @@
         <v>1</v>
       </c>
       <c r="AD96" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="AE96" t="s">
-        <v>1048</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
@@ -6104,631 +6107,631 @@
         <v>102</v>
       </c>
       <c r="AD97" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AE97" t="s">
-        <v>1047</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>1047</v>
       </c>
       <c r="B98" t="s">
         <v>72</v>
       </c>
-      <c r="AC98" t="s">
-        <v>834</v>
+      <c r="E98">
+        <v>1</v>
       </c>
       <c r="AD98" t="s">
-        <v>833</v>
+        <v>1049</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>1048</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>834</v>
-      </c>
-      <c r="AD99" s="5" t="s">
-        <v>122</v>
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>1052</v>
       </c>
       <c r="AE99" t="s">
-        <v>831</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>834</v>
       </c>
       <c r="AD100" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>1187</v>
+        <v>833</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>984</v>
+        <v>72</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>834</v>
+      </c>
+      <c r="AD101" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="AE101" t="s">
-        <v>1033</v>
+        <v>831</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>117</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="AD102" t="s">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="AE102" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>116</v>
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
       </c>
       <c r="AD103" t="s">
-        <v>115</v>
+        <v>984</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>563</v>
+        <v>283</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
         <v>72</v>
       </c>
       <c r="E105">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AA105" t="s">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>116</v>
       </c>
       <c r="AD105" t="s">
-        <v>752</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="AD106" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1030</v>
+        <v>282</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="E107">
+        <v>0.15</v>
       </c>
       <c r="AA107" t="s">
-        <v>1032</v>
+        <v>5</v>
       </c>
       <c r="AD107" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>1036</v>
+        <v>752</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1031</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
-      </c>
-      <c r="C108" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>1032</v>
+        <v>72</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
       </c>
       <c r="AD108" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>1037</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>1030</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>1032</v>
       </c>
       <c r="AD109" t="s">
-        <v>223</v>
+        <v>1035</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>773</v>
+        <v>1031</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" t="s">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="C110" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>1032</v>
       </c>
       <c r="AD110" t="s">
-        <v>776</v>
+        <v>1034</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>773</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC112" t="s">
-        <v>250</v>
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3</v>
       </c>
       <c r="AD112" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>999</v>
+        <v>776</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113">
-        <v>0.25</v>
-      </c>
-      <c r="Y113">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="T114">
-        <v>-0.02</v>
-      </c>
-      <c r="AC114">
-        <v>-1.4999999999999999E-2</v>
+        <v>117</v>
+      </c>
+      <c r="C114" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
         <v>72</v>
       </c>
       <c r="E115">
-        <v>-0.03</v>
+        <v>0.25</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E116">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="T116">
+        <v>-0.02</v>
+      </c>
+      <c r="AC116">
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
         <v>72</v>
       </c>
       <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC117">
-        <v>-0.5</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>113</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>480</v>
-      </c>
-      <c r="AD118" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>87</v>
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>165</v>
+        <v>72</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC119">
+        <v>-0.5</v>
       </c>
       <c r="AD119" t="s">
-        <v>600</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>252</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>480</v>
       </c>
       <c r="AD120" t="s">
-        <v>960</v>
+        <v>1057</v>
       </c>
       <c r="AE120" t="s">
-        <v>997</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>165</v>
       </c>
       <c r="AD121" t="s">
-        <v>108</v>
+        <v>600</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>669</v>
+        <v>420</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD122" t="s">
-        <v>670</v>
+        <v>960</v>
       </c>
       <c r="AE122" t="s">
-        <v>671</v>
+        <v>997</v>
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>3</v>
       </c>
       <c r="AD123" t="s">
-        <v>1025</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
-      </c>
-      <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
       </c>
       <c r="AD124" t="s">
-        <v>1204</v>
+        <v>670</v>
       </c>
       <c r="AE124" t="s">
-        <v>837</v>
+        <v>671</v>
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C125" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>97</v>
       </c>
       <c r="AD125" t="s">
-        <v>130</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1038</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>1032</v>
+        <v>9</v>
       </c>
       <c r="AD126" t="s">
-        <v>1035</v>
+        <v>1204</v>
       </c>
       <c r="AE126" t="s">
-        <v>1041</v>
+        <v>837</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1039</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>1032</v>
+        <v>72</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
       </c>
       <c r="AD127" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>1040</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>636</v>
+        <v>1038</v>
       </c>
       <c r="B128" t="s">
         <v>117</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>1032</v>
       </c>
       <c r="AD128" t="s">
-        <v>836</v>
+        <v>1035</v>
       </c>
       <c r="AE128" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="129" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B129" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD129" s="37" t="s">
-        <v>217</v>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>774</v>
+        <v>636</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>117</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="AD130" t="s">
-        <v>777</v>
+        <v>836</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD131" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>774</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B133" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C131" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD131" s="37" t="s">
+      <c r="C133" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD133" s="37" t="s">
         <v>601</v>
       </c>
-      <c r="AE131" s="37" t="s">
+      <c r="AE133" s="37" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="132" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="36" t="s">
+    <row r="134" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="36" t="s">
         <v>823</v>
       </c>
-      <c r="B132" s="36" t="s">
+      <c r="B134" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB132" s="36" t="s">
+      <c r="C134" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB134" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AE132" s="36" t="s">
+      <c r="AE134" s="36" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="AD134" t="s">
+      <c r="AD136" t="s">
         <v>1181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B135" t="s">
-        <v>117</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AD135" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AD136" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="B137" t="s">
         <v>117</v>
@@ -6737,12 +6740,15 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>1193</v>
+        <v>1180</v>
+      </c>
+      <c r="AD137" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="B138" t="s">
         <v>117</v>
@@ -6751,345 +6757,333 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>1192</v>
+        <v>1185</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="B139" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" t="s">
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AC139" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AD139" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AE139" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B140" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AC141" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>1186</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B142" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5"/>
-      <c r="W140" s="5"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
-      <c r="AA140" s="5"/>
-      <c r="AB140" s="5"/>
-      <c r="AC140" s="5" t="s">
+      <c r="C142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="AD140" s="5" t="s">
+      <c r="AD142" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="AE140" s="5" t="s">
+      <c r="AE142" s="5" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="AD144" t="s">
+      <c r="AD146" t="s">
         <v>1127</v>
-      </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>334</v>
-      </c>
-      <c r="B145" t="s">
-        <v>117</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
-        <v>2</v>
-      </c>
-      <c r="E145" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC145" t="s">
-        <v>820</v>
-      </c>
-      <c r="AD145" t="s">
-        <v>821</v>
-      </c>
-      <c r="AE145" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>824</v>
-      </c>
-      <c r="B146" t="s">
-        <v>117</v>
-      </c>
-      <c r="C146" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD146" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AE146" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1203</v>
+        <v>334</v>
       </c>
       <c r="B147" t="s">
         <v>117</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>335</v>
       </c>
       <c r="AC147" t="s">
-        <v>1208</v>
+        <v>820</v>
       </c>
       <c r="AD147" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AE147" s="5" t="s">
-        <v>1206</v>
+        <v>821</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="AD148" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AE148" s="5" t="s">
-        <v>1207</v>
+        <v>1122</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>829</v>
+        <v>1203</v>
       </c>
       <c r="B149" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" t="s">
         <v>72</v>
       </c>
       <c r="AC149" t="s">
-        <v>834</v>
-      </c>
-      <c r="AD149" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="AE149" t="s">
-        <v>832</v>
+        <v>1208</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AE149" s="5" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1124</v>
+        <v>825</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" t="s">
-        <v>2</v>
+        <v>203</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
       </c>
       <c r="AD150" t="s">
-        <v>1125</v>
+        <v>1205</v>
       </c>
       <c r="AE150" s="5" t="s">
-        <v>829</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB151" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD151" t="s">
-        <v>1123</v>
+        <v>72</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>834</v>
+      </c>
+      <c r="AD151" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AE152" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>826</v>
+      </c>
+      <c r="B153" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>835</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B154" t="s">
         <v>117</v>
       </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AD154" t="s">
+      <c r="AD156" t="s">
         <v>760</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>143</v>
-      </c>
-      <c r="B155" t="s">
-        <v>117</v>
-      </c>
-      <c r="C155" t="s">
-        <v>72</v>
-      </c>
-      <c r="D155" t="s">
-        <v>2</v>
-      </c>
-      <c r="E155">
-        <v>1.5</v>
-      </c>
-      <c r="AD155" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE155" s="5"/>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>145</v>
-      </c>
-      <c r="B156" t="s">
-        <v>117</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="AC156" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD156" t="s">
-        <v>827</v>
-      </c>
-      <c r="AE156" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1045</v>
+        <v>143</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" t="s">
+        <v>72</v>
+      </c>
+      <c r="D157" t="s">
         <v>2</v>
       </c>
-      <c r="AD157" t="s">
-        <v>1046</v>
+      <c r="E157">
+        <v>1.5</v>
+      </c>
+      <c r="AD157" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="AE157" s="5"/>
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>713</v>
+        <v>145</v>
       </c>
       <c r="B158" t="s">
         <v>117</v>
       </c>
-      <c r="C158" t="s">
-        <v>72</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C158" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>714</v>
+        <v>522</v>
       </c>
       <c r="AD158" t="s">
-        <v>719</v>
-      </c>
-      <c r="AE158" t="s">
-        <v>237</v>
+        <v>827</v>
+      </c>
+      <c r="AE158" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>716</v>
+        <v>1045</v>
       </c>
       <c r="B159" t="s">
-        <v>117</v>
-      </c>
-      <c r="C159" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC159" t="s">
-        <v>530</v>
+        <v>10</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" t="s">
+        <v>2</v>
       </c>
       <c r="AD159" t="s">
-        <v>720</v>
-      </c>
+        <v>1046</v>
+      </c>
+      <c r="AE159" s="5"/>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B160" t="s">
         <v>117</v>
@@ -7101,456 +7095,474 @@
         <v>2</v>
       </c>
       <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>714</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>719</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>716</v>
+      </c>
+      <c r="B161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>717</v>
+      </c>
+      <c r="B162" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162">
         <v>1</v>
       </c>
-      <c r="AD160" t="s">
+      <c r="AD162" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
         <v>1147</v>
-      </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B163" t="s">
-        <v>72</v>
-      </c>
-      <c r="E163">
-        <v>15</v>
-      </c>
-      <c r="AA163" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AC163" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AD163" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B164" t="s">
-        <v>72</v>
-      </c>
-      <c r="E164">
-        <v>0.2</v>
-      </c>
-      <c r="AA164" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC164" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AD164" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B165" t="s">
-        <v>117</v>
-      </c>
-      <c r="C165" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="E165">
+        <v>15</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>1160</v>
       </c>
       <c r="AC165" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AD165" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AE165" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B166" t="s">
-        <v>117</v>
-      </c>
-      <c r="C166" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="E166">
+        <v>0.2</v>
       </c>
       <c r="AA166" t="s">
-        <v>884</v>
+        <v>5</v>
       </c>
       <c r="AC166" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="AD166" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AE166" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="B167" t="s">
         <v>117</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="AC167" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AD167" t="s">
-        <v>1157</v>
+        <v>1154</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B168" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B169" t="s">
+        <v>117</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>1159</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B170" t="s">
         <v>588</v>
       </c>
-      <c r="AB168" t="s">
+      <c r="AB170" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A172" s="7" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>1007</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B173" t="s">
         <v>117</v>
       </c>
-      <c r="C171" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC171">
+      <c r="C173" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC173">
         <v>1</v>
       </c>
-      <c r="AD171" t="s">
+      <c r="AD173" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>181</v>
-      </c>
-      <c r="B174" t="s">
-        <v>72</v>
-      </c>
-      <c r="E174">
-        <v>0.2</v>
-      </c>
-      <c r="AA174" t="s">
-        <v>524</v>
-      </c>
-      <c r="AC174" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD174" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>206</v>
-      </c>
-      <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD175" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE175" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
         <v>72</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>523</v>
       </c>
       <c r="AD176" t="s">
-        <v>526</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC177" s="4"/>
+        <v>3</v>
+      </c>
       <c r="AD177" t="s">
-        <v>284</v>
+        <v>525</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B178" t="s">
         <v>72</v>
       </c>
-      <c r="E178" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA178" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC178" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD178" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AE178" s="5"/>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>72</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="AC179" t="s">
-        <v>104</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC179" s="4"/>
       <c r="AD179" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E180" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD180" t="s">
-        <v>527</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC180" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD180" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AE180" s="5"/>
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="B181" t="s">
         <v>72</v>
       </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>104</v>
+      </c>
       <c r="AD181" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>775</v>
+        <v>211</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="AD182" t="s">
-        <v>778</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="B183" t="s">
         <v>72</v>
       </c>
       <c r="AD183" t="s">
-        <v>528</v>
+        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>225</v>
+        <v>775</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2</v>
       </c>
       <c r="AD184" t="s">
-        <v>226</v>
+        <v>778</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>587</v>
+        <v>221</v>
       </c>
       <c r="B185" t="s">
-        <v>588</v>
-      </c>
-      <c r="AB185" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AD185" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>225</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>587</v>
+      </c>
+      <c r="B187" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>602</v>
       </c>
-      <c r="B186" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB186" t="s">
+      <c r="B188" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB188" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A190" s="7" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>943</v>
       </c>
-      <c r="B189" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC189">
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC191">
         <v>10</v>
       </c>
-      <c r="AD189" t="s">
+      <c r="AD191" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>948</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B192" t="s">
         <v>10</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E192" t="s">
         <v>2</v>
       </c>
-      <c r="AD190" t="s">
+      <c r="AD192" t="s">
         <v>1136</v>
       </c>
-      <c r="AE190" t="s">
+      <c r="AE192" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>286</v>
-      </c>
-      <c r="B193" t="s">
-        <v>117</v>
-      </c>
-      <c r="C193" t="s">
-        <v>72</v>
-      </c>
-      <c r="E193" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>287</v>
-      </c>
-      <c r="B194" t="s">
-        <v>117</v>
-      </c>
-      <c r="C194" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD194" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>72</v>
-      </c>
-      <c r="E195">
-        <v>0.2</v>
-      </c>
-      <c r="P195">
-        <v>0.5</v>
+        <v>117</v>
+      </c>
+      <c r="C195" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
-      </c>
-      <c r="E196" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="C196" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
-      </c>
-      <c r="E197" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD197" t="s">
-        <v>309</v>
+        <v>72</v>
+      </c>
+      <c r="E197">
+        <v>0.2</v>
+      </c>
+      <c r="P197">
+        <v>0.5</v>
       </c>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -7558,498 +7570,486 @@
       <c r="E198" t="s">
         <v>2</v>
       </c>
-      <c r="AD198" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
       <c r="B199" t="s">
-        <v>72</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
+        <v>3</v>
       </c>
       <c r="AD199" t="s">
-        <v>439</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC200" t="s">
-        <v>320</v>
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2</v>
       </c>
       <c r="AD200" t="s">
-        <v>446</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>321</v>
+        <v>438</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
-      </c>
-      <c r="E201" t="s">
-        <v>3</v>
-      </c>
-      <c r="P201" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
       </c>
       <c r="AD201" t="s">
-        <v>1211</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B202" t="s">
-        <v>72</v>
-      </c>
-      <c r="E202">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>320</v>
       </c>
       <c r="AD202" t="s">
-        <v>1212</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B203" t="s">
-        <v>72</v>
-      </c>
-      <c r="E203">
-        <v>0.7</v>
-      </c>
-      <c r="AC203">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>3</v>
+      </c>
+      <c r="P203" t="s">
+        <v>2</v>
       </c>
       <c r="AD203" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1210</v>
+        <v>322</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC204" t="s">
-        <v>1214</v>
+        <v>72</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
       </c>
       <c r="AD204" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="B205" t="s">
         <v>72</v>
       </c>
       <c r="E205">
-        <v>0.2</v>
-      </c>
-      <c r="AA205" t="s">
-        <v>324</v>
+        <v>0.7</v>
+      </c>
+      <c r="AC205">
+        <v>1</v>
       </c>
       <c r="AD205" t="s">
-        <v>325</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>440</v>
+        <v>1210</v>
       </c>
       <c r="B206" t="s">
-        <v>72</v>
-      </c>
-      <c r="E206">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>779</v>
+        <v>441</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="E207">
+        <v>0.2</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>324</v>
       </c>
       <c r="AD207" t="s">
-        <v>780</v>
+        <v>325</v>
       </c>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>440</v>
+      </c>
+      <c r="B208" t="s">
+        <v>72</v>
+      </c>
+      <c r="E208">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>779</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>603</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B210" t="s">
         <v>584</v>
       </c>
-      <c r="AB208" t="s">
+      <c r="AB210" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A212" s="7" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>303</v>
-      </c>
-      <c r="B211" t="s">
-        <v>203</v>
-      </c>
-      <c r="C211" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC211" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD211" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE211" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF211" s="5"/>
-    </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>556</v>
-      </c>
-      <c r="B212" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD212" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC213" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="C213" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC213" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="AD213" t="s">
-        <v>1139</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF213" s="5"/>
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B214" t="s">
-        <v>72</v>
-      </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-      <c r="AC214" t="s">
-        <v>560</v>
+        <v>10</v>
       </c>
       <c r="AD214" t="s">
-        <v>559</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B215" t="s">
-        <v>72</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="AA215" t="s">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AC215" s="4"/>
       <c r="AD215" t="s">
-        <v>311</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>315</v>
+        <v>561</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B217" t="s">
         <v>72</v>
       </c>
       <c r="E217">
-        <v>2</v>
-      </c>
-      <c r="AC217" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD217" s="5" t="s">
-        <v>244</v>
+        <v>0</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B218" t="s">
-        <v>72</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="AD218" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
     </row>
     <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B219" t="s">
         <v>72</v>
       </c>
       <c r="E219">
-        <v>0.5</v>
-      </c>
-      <c r="AA219" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD219" t="s">
-        <v>562</v>
+        <v>2</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD219" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>313</v>
+      </c>
+      <c r="B220" t="s">
+        <v>72</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="AD220" s="5"/>
+    </row>
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>316</v>
+      </c>
+      <c r="B221" t="s">
+        <v>72</v>
+      </c>
+      <c r="E221">
+        <v>0.5</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>585</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B222" t="s">
         <v>117</v>
       </c>
-      <c r="C220" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD220" t="s">
+      <c r="C222" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD222" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A224" s="7" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>838</v>
       </c>
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD223" t="s">
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD225" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A227" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>219</v>
       </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD226" t="s">
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD228" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A230" s="7" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>117</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E229" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD229" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>72</v>
-      </c>
-      <c r="E230">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AA230" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B231" t="s">
-        <v>72</v>
-      </c>
-      <c r="E231">
-        <v>0.5</v>
+        <v>117</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E231" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>117</v>
-      </c>
-      <c r="C232" t="s">
-        <v>9</v>
-      </c>
-      <c r="E232" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD232" t="s">
-        <v>939</v>
+        <v>72</v>
+      </c>
+      <c r="E232">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>940</v>
+        <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD233" t="s">
-        <v>941</v>
+        <v>72</v>
+      </c>
+      <c r="E233">
+        <v>0.5</v>
       </c>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>791</v>
+        <v>228</v>
       </c>
       <c r="B234" t="s">
-        <v>72</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="AC234" t="s">
-        <v>792</v>
+        <v>117</v>
+      </c>
+      <c r="C234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>102</v>
       </c>
       <c r="AD234" t="s">
-        <v>804</v>
+        <v>939</v>
       </c>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>940</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>791</v>
+      </c>
+      <c r="B236" t="s">
+        <v>72</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>597</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B237" t="s">
         <v>588</v>
       </c>
-      <c r="AB235" t="s">
+      <c r="AB237" t="s">
         <v>3</v>
       </c>
-      <c r="AD235" t="s">
+      <c r="AD237" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A237" s="7" t="s">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A239" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AD237" t="s">
+      <c r="AD239" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>117</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E238">
-        <v>19</v>
-      </c>
-      <c r="N238" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD238" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>117</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="AD239" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>755</v>
+        <v>237</v>
       </c>
       <c r="B240" t="s">
         <v>117</v>
@@ -8058,126 +8058,132 @@
         <v>72</v>
       </c>
       <c r="E240">
+        <v>19</v>
+      </c>
+      <c r="N240" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241" t="s">
+        <v>117</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E241">
         <v>1</v>
       </c>
-      <c r="AD240" t="s">
+      <c r="AD241" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>755</v>
+      </c>
+      <c r="B242" t="s">
+        <v>117</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="AD242" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>846</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B243" t="s">
         <v>10</v>
       </c>
-      <c r="C241" s="5"/>
-      <c r="E241" t="s">
+      <c r="C243" s="5"/>
+      <c r="E243" t="s">
         <v>3</v>
       </c>
-      <c r="AD241" t="s">
+      <c r="AD243" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A245" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AD243" t="s">
+      <c r="AD245" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>195</v>
       </c>
-      <c r="B244" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD244" t="s">
+      <c r="B246" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD246" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>169</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B247" t="s">
         <v>203</v>
       </c>
-      <c r="C245" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA245" t="s">
+      <c r="C247" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA247" t="s">
         <v>196</v>
       </c>
-      <c r="AC245" t="s">
+      <c r="AC247" t="s">
         <v>197</v>
       </c>
-      <c r="AD245" t="s">
+      <c r="AD247" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>224</v>
       </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
-      <c r="E246" s="31" t="s">
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F246" s="31"/>
-      <c r="AC246" t="s">
+      <c r="F248" s="31"/>
+      <c r="AC248" t="s">
         <v>194</v>
       </c>
-      <c r="AD246" t="s">
+      <c r="AD248" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A248" s="7" t="s">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A250" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="AD248" t="s">
+      <c r="AD250" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>196</v>
-      </c>
-      <c r="B249" t="s">
-        <v>117</v>
-      </c>
-      <c r="C249" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB249" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD249" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>2</v>
-      </c>
-      <c r="B250" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB250" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD250" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>205</v>
       </c>
       <c r="B251" t="s">
         <v>117</v>
@@ -8185,862 +8191,867 @@
       <c r="C251" t="s">
         <v>72</v>
       </c>
-      <c r="AC251" t="s">
+      <c r="AB251" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>205</v>
+      </c>
+      <c r="B253" t="s">
+        <v>117</v>
+      </c>
+      <c r="C253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC253" t="s">
         <v>148</v>
       </c>
-      <c r="AD251" t="s">
+      <c r="AD253" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>357</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B254" t="s">
         <v>203</v>
       </c>
-      <c r="C252" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC252" s="4" t="s">
+      <c r="C254" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC254" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AD252" t="s">
+      <c r="AD254" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>721</v>
       </c>
-      <c r="B253" t="s">
-        <v>72</v>
-      </c>
-      <c r="E253" s="4">
+      <c r="B255" t="s">
+        <v>72</v>
+      </c>
+      <c r="E255" s="4">
         <v>1</v>
       </c>
-      <c r="F253" s="4"/>
-      <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="4"/>
-      <c r="J253" s="4"/>
-      <c r="N253">
-        <v>1E-3</v>
-      </c>
-      <c r="AC253" t="s">
-        <v>722</v>
-      </c>
-      <c r="AD253" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>43</v>
-      </c>
-      <c r="B254" t="s">
-        <v>117</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="N254">
-        <v>100</v>
-      </c>
-      <c r="AC254">
-        <v>100</v>
-      </c>
-      <c r="AD254" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>170</v>
-      </c>
-      <c r="B255" t="s">
-        <v>117</v>
-      </c>
-      <c r="C255" t="s">
-        <v>72</v>
-      </c>
-      <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="AC255" s="4" t="s">
-        <v>165</v>
+      <c r="N255">
+        <v>1E-3</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>722</v>
       </c>
       <c r="AD255" t="s">
-        <v>599</v>
-      </c>
-      <c r="AE255" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="B256" t="s">
         <v>117</v>
       </c>
-      <c r="C256" t="s">
-        <v>72</v>
-      </c>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4"/>
-      <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
-      <c r="AE256" t="s">
-        <v>1106</v>
+      <c r="C256" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>100</v>
+      </c>
+      <c r="AC256">
+        <v>100</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>170</v>
+      </c>
+      <c r="B257" t="s">
+        <v>117</v>
+      </c>
+      <c r="C257" t="s">
+        <v>72</v>
+      </c>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+      <c r="I257" s="4"/>
+      <c r="J257" s="4"/>
+      <c r="AC257" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>171</v>
+      </c>
+      <c r="B258" t="s">
+        <v>117</v>
+      </c>
+      <c r="C258" t="s">
+        <v>72</v>
+      </c>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="4"/>
+      <c r="AE258" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>289</v>
       </c>
-      <c r="B257" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC257" t="s">
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC259" t="s">
         <v>290</v>
       </c>
-      <c r="AD257" t="s">
+      <c r="AD259" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A259" s="7" t="s">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A261" s="7" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>248</v>
       </c>
-      <c r="B260" t="s">
-        <v>9</v>
-      </c>
-      <c r="E260" s="4"/>
-      <c r="F260" s="4"/>
-      <c r="G260" s="4"/>
-      <c r="H260" s="4"/>
-      <c r="I260" s="4"/>
-      <c r="J260" s="4"/>
-      <c r="AC260" t="s">
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="AC262" t="s">
         <v>249</v>
       </c>
-      <c r="AD260" t="s">
+      <c r="AD262" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>566</v>
       </c>
-      <c r="B261" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC261" t="s">
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC263" t="s">
         <v>567</v>
       </c>
-      <c r="AD261" t="s">
+      <c r="AD263" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A265" s="7" t="s">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A267" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AD265" t="s">
+      <c r="AD267" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>42</v>
       </c>
-      <c r="B266" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC266" t="s">
+      <c r="B268" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC268" t="s">
         <v>915</v>
       </c>
-      <c r="AD266" t="s">
+      <c r="AD268" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A271" s="7" t="s">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A273" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD271" t="s">
+      <c r="AD273" t="s">
         <v>964</v>
-      </c>
-    </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>53</v>
-      </c>
-      <c r="B272" t="s">
-        <v>10</v>
-      </c>
-      <c r="E272" t="s">
-        <v>2</v>
-      </c>
-      <c r="T272" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC272" s="4"/>
-      <c r="AD272" t="s">
-        <v>963</v>
-      </c>
-      <c r="AE272" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B273" t="s">
-        <v>10</v>
-      </c>
-      <c r="E273" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC273" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AD273" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B274" t="s">
-        <v>203</v>
-      </c>
-      <c r="C274" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC274" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
+        <v>2</v>
+      </c>
+      <c r="T274" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC274" s="4"/>
       <c r="AD274" t="s">
-        <v>204</v>
+        <v>963</v>
+      </c>
+      <c r="AE274" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>257</v>
+        <v>1165</v>
       </c>
       <c r="B275" t="s">
-        <v>117</v>
-      </c>
-      <c r="C275" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="E275" t="s">
+        <v>3</v>
       </c>
       <c r="AC275" s="4" t="s">
-        <v>259</v>
+        <v>1167</v>
       </c>
       <c r="AD275" t="s">
-        <v>258</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B276" t="s">
-        <v>72</v>
-      </c>
-      <c r="E276">
-        <v>0.45</v>
-      </c>
-      <c r="AA276" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC276">
-        <v>0.03</v>
+        <v>203</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC276" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="AD276" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>257</v>
+      </c>
+      <c r="B277" t="s">
+        <v>117</v>
+      </c>
+      <c r="C277" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC277" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>51</v>
+      </c>
+      <c r="B278" t="s">
+        <v>72</v>
+      </c>
+      <c r="E278">
+        <v>0.45</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC278">
+        <v>0.03</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>52</v>
       </c>
-      <c r="B277" t="s">
-        <v>72</v>
-      </c>
-      <c r="E277">
+      <c r="B279" t="s">
+        <v>72</v>
+      </c>
+      <c r="E279">
         <v>1.3</v>
       </c>
-      <c r="Q277">
+      <c r="Q279">
         <v>1.08</v>
-      </c>
-      <c r="AA277" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC277">
-        <v>0.12</v>
-      </c>
-      <c r="AD277" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A278" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B278" t="s">
-        <v>72</v>
-      </c>
-      <c r="E278">
-        <v>3</v>
-      </c>
-      <c r="M278">
-        <v>4</v>
-      </c>
-      <c r="N278">
-        <v>4</v>
-      </c>
-      <c r="AC278" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD278" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A279" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B279" t="s">
-        <v>72</v>
-      </c>
-      <c r="E279">
-        <v>0.3</v>
       </c>
       <c r="AA279" t="s">
         <v>5</v>
       </c>
-      <c r="AC279" s="4"/>
+      <c r="AC279">
+        <v>0.12</v>
+      </c>
       <c r="AD279" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B280" t="s">
         <v>72</v>
       </c>
       <c r="E280">
-        <v>0.8</v>
-      </c>
-      <c r="AA280" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC280" s="4"/>
-      <c r="AE280" t="s">
-        <v>158</v>
+        <v>3</v>
+      </c>
+      <c r="M280">
+        <v>4</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="AC280" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="B281" t="s">
         <v>72</v>
       </c>
       <c r="E281">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA281" t="s">
         <v>5</v>
       </c>
       <c r="AC281" s="4"/>
       <c r="AD281" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
     </row>
     <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B282" t="s">
         <v>72</v>
       </c>
       <c r="E282">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA282" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="AC282" s="4"/>
-      <c r="AD282" t="s">
-        <v>157</v>
+      <c r="AE282" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B283" t="s">
         <v>72</v>
       </c>
       <c r="E283">
-        <v>0.315</v>
+        <v>0.15</v>
       </c>
       <c r="AA283" t="s">
         <v>5</v>
       </c>
       <c r="AC283" s="4"/>
       <c r="AD283" t="s">
-        <v>985</v>
+        <v>146</v>
       </c>
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="B284" t="s">
         <v>72</v>
       </c>
       <c r="E284">
-        <v>3</v>
-      </c>
-      <c r="AC284" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD284" s="5" t="s">
-        <v>244</v>
+        <v>0.375</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC284" s="4"/>
+      <c r="AD284" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>641</v>
+        <v>158</v>
       </c>
       <c r="B285" t="s">
-        <v>117</v>
-      </c>
-      <c r="C285" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB285" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC285" s="5"/>
-      <c r="AD285" s="5" t="s">
-        <v>642</v>
+        <v>72</v>
+      </c>
+      <c r="E285">
+        <v>0.315</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC285" s="4"/>
+      <c r="AD285" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>763</v>
+        <v>326</v>
       </c>
       <c r="B286" t="s">
-        <v>117</v>
-      </c>
-      <c r="C286" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB286" t="s">
+        <v>72</v>
+      </c>
+      <c r="E286">
         <v>3</v>
       </c>
-      <c r="AC286" s="5"/>
+      <c r="AC286" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="AD286" s="5" t="s">
-        <v>642</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>757</v>
+        <v>641</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E287" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="C287" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>3</v>
       </c>
       <c r="AC287" s="5"/>
       <c r="AD287" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="AE287" t="s">
-        <v>732</v>
+        <v>642</v>
       </c>
     </row>
     <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
-      </c>
-      <c r="E288" t="s">
-        <v>796</v>
-      </c>
-      <c r="X288" t="s">
-        <v>759</v>
+        <v>117</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>3</v>
       </c>
       <c r="AC288" s="5"/>
       <c r="AD288" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A289" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC289" s="5"/>
+      <c r="AD289" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A290" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" t="s">
+        <v>796</v>
+      </c>
+      <c r="X290" t="s">
+        <v>759</v>
+      </c>
+      <c r="AC290" s="5"/>
+      <c r="AD290" s="5" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A289" s="5"/>
-      <c r="AC289" s="5"/>
-      <c r="AD289" s="5"/>
-    </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A290" s="5"/>
-      <c r="AC290" s="4"/>
-    </row>
     <row r="291" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="5"/>
+      <c r="AC291" s="5"/>
+      <c r="AD291" s="5"/>
+    </row>
+    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A292" s="5"/>
+      <c r="AC292" s="4"/>
+    </row>
+    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A293" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="AC291" s="4"/>
-    </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A292" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B292" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC292" s="4"/>
-      <c r="AD292" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>183</v>
-      </c>
-      <c r="B293" t="s">
-        <v>117</v>
-      </c>
-      <c r="C293" t="s">
-        <v>72</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD293" t="s">
-        <v>748</v>
-      </c>
-      <c r="AE293" t="s">
-        <v>145</v>
-      </c>
+      <c r="AC293" s="4"/>
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
-      </c>
-      <c r="E294" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AC294" s="4"/>
       <c r="AD294" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A295" s="5" t="s">
-        <v>735</v>
+      <c r="A295" t="s">
+        <v>183</v>
       </c>
       <c r="B295" t="s">
-        <v>72</v>
-      </c>
-      <c r="E295">
-        <v>10</v>
-      </c>
-      <c r="AA295" t="s">
-        <v>724</v>
-      </c>
-      <c r="AC295" s="4" t="s">
-        <v>725</v>
+        <v>117</v>
+      </c>
+      <c r="C295" t="s">
+        <v>72</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1078</v>
       </c>
       <c r="AD295" t="s">
-        <v>726</v>
+        <v>748</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E296" t="s">
-        <v>729</v>
+        <v>3</v>
       </c>
       <c r="AC296" s="4"/>
       <c r="AD296" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B297" t="s">
         <v>72</v>
       </c>
       <c r="E297">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="AA297" t="s">
-        <v>114</v>
+        <v>724</v>
       </c>
       <c r="AC297" s="4" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="AD297" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B298" t="s">
-        <v>72</v>
-      </c>
-      <c r="E298">
-        <v>0.65</v>
-      </c>
-      <c r="AA298" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC298" t="s">
-        <v>797</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>729</v>
+      </c>
+      <c r="AC298" s="4"/>
       <c r="AD298" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B299" t="s">
+        <v>72</v>
+      </c>
+      <c r="E299">
+        <v>45</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC299" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A300" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B300" t="s">
+        <v>72</v>
+      </c>
+      <c r="E300">
+        <v>0.65</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>797</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A301" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B301" t="s">
         <v>10</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E301" t="s">
         <v>2</v>
       </c>
-      <c r="AC299" s="4"/>
-      <c r="AD299" t="s">
+      <c r="AC301" s="4"/>
+      <c r="AD301" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>741</v>
       </c>
-      <c r="B300" t="s">
-        <v>9</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="B302" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" t="s">
         <v>179</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G302" t="s">
         <v>871</v>
       </c>
-      <c r="AD300" t="s">
+      <c r="AD302" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>743</v>
       </c>
-      <c r="B301" t="s">
-        <v>72</v>
-      </c>
-      <c r="E301">
+      <c r="B303" t="s">
+        <v>72</v>
+      </c>
+      <c r="E303">
         <v>0</v>
       </c>
-      <c r="AA301" t="s">
+      <c r="AA303" t="s">
         <v>187</v>
       </c>
-      <c r="AC301" t="s">
+      <c r="AC303" t="s">
         <v>188</v>
       </c>
-      <c r="AD301" t="s">
+      <c r="AD303" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A302" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="B302" t="s">
-        <v>10</v>
-      </c>
-      <c r="E302" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC302" s="4"/>
-      <c r="AD302" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A303" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="B303" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" t="s">
-        <v>798</v>
-      </c>
-      <c r="X303" t="s">
-        <v>759</v>
-      </c>
-      <c r="AC303" s="4"/>
-      <c r="AD303" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="B304" t="s">
-        <v>72</v>
-      </c>
-      <c r="E304">
-        <v>3</v>
-      </c>
-      <c r="AC304" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD304" s="5" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="E304" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC304" s="4"/>
+      <c r="AD304" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>801</v>
+        <v>745</v>
       </c>
       <c r="B305" t="s">
-        <v>72</v>
-      </c>
-      <c r="E305">
-        <v>0.9</v>
+        <v>9</v>
+      </c>
+      <c r="E305" t="s">
+        <v>798</v>
+      </c>
+      <c r="X305" t="s">
+        <v>759</v>
       </c>
       <c r="AC305" s="4"/>
       <c r="AD305" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
-      </c>
-      <c r="E306" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="F306" s="15"/>
-      <c r="AC306" s="4"/>
-      <c r="AD306" t="s">
-        <v>747</v>
+        <v>72</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
+      </c>
+      <c r="AC306" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD306" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
-      </c>
-      <c r="E307" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="E307">
+        <v>0.9</v>
       </c>
       <c r="AC307" s="4"/>
       <c r="AD307" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A308" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F308" s="15"/>
+      <c r="AC308" s="4"/>
+      <c r="AD308" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+      <c r="E309" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC309" s="4"/>
+      <c r="AD309" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AC308" s="4"/>
-    </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A309" s="7" t="s">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC310" s="4"/>
+    </row>
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A311" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AC309" s="4"/>
-    </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>83</v>
-      </c>
-      <c r="B310" t="s">
-        <v>72</v>
-      </c>
-      <c r="E310">
-        <v>0.25</v>
-      </c>
-      <c r="AC310" s="4"/>
-      <c r="AD310" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>84</v>
-      </c>
-      <c r="B311" t="s">
-        <v>9</v>
-      </c>
-      <c r="E311" t="s">
-        <v>102</v>
-      </c>
+      <c r="AC311" s="4"/>
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B312" t="s">
         <v>72</v>
       </c>
-      <c r="N312">
-        <v>0</v>
+      <c r="E312">
+        <v>0.25</v>
       </c>
       <c r="AC312" s="4"/>
       <c r="AD312" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
@@ -9048,199 +9059,192 @@
       <c r="E313" t="s">
         <v>102</v>
       </c>
-      <c r="AC313" s="4"/>
-      <c r="AD313" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B314" t="s">
         <v>72</v>
       </c>
-      <c r="E314">
-        <v>1</v>
+      <c r="N314">
+        <v>0</v>
       </c>
       <c r="AC314" s="4"/>
       <c r="AD314" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>442</v>
+        <v>101</v>
       </c>
       <c r="B315" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>102</v>
       </c>
       <c r="AC315" s="4"/>
+      <c r="AD315" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>443</v>
+        <v>99</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
-      </c>
-      <c r="E316" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
       </c>
       <c r="AC316" s="4"/>
+      <c r="AD316" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B317" t="s">
         <v>72</v>
-      </c>
-      <c r="E317">
-        <v>1</v>
       </c>
       <c r="AC317" s="4"/>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B318" t="s">
-        <v>72</v>
-      </c>
-      <c r="E318">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E318" t="s">
+        <v>102</v>
       </c>
       <c r="AC318" s="4"/>
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>59</v>
+        <v>444</v>
       </c>
       <c r="B319" t="s">
         <v>72</v>
       </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
       <c r="AC319" s="4"/>
-      <c r="AD319" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="B320" t="s">
-        <v>117</v>
-      </c>
-      <c r="C320" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="E320">
+        <v>3</v>
       </c>
       <c r="AC320" s="4"/>
     </row>
     <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>422</v>
+        <v>59</v>
       </c>
       <c r="B321" t="s">
-        <v>117</v>
-      </c>
-      <c r="C321" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC321" s="30" t="s">
-        <v>918</v>
+        <v>72</v>
+      </c>
+      <c r="AC321" s="4"/>
+      <c r="AD321" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
-      </c>
-      <c r="E322" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="C322" t="s">
+        <v>72</v>
       </c>
       <c r="AC322" s="4"/>
     </row>
     <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="B323" t="s">
-        <v>72</v>
-      </c>
-      <c r="E323">
-        <v>1</v>
-      </c>
-      <c r="AC323" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="C323" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC323" s="30" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="B324" t="s">
-        <v>117</v>
-      </c>
-      <c r="C324" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC324" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD324" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE324" t="s">
-        <v>418</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC324" s="4"/>
     </row>
     <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>921</v>
+        <v>383</v>
       </c>
       <c r="B325" t="s">
-        <v>117</v>
-      </c>
-      <c r="C325" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
       </c>
       <c r="AC325" s="4"/>
-      <c r="AD325" t="s">
-        <v>922</v>
-      </c>
-      <c r="AE325" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B326" t="s">
         <v>117</v>
       </c>
-      <c r="C326" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E326" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC326" s="4"/>
+      <c r="C326" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC326" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE326" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>418</v>
+        <v>921</v>
       </c>
       <c r="B327" t="s">
         <v>117</v>
       </c>
       <c r="C327" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="AC327" s="4"/>
       <c r="AD327" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="AE327" t="s">
         <v>260</v>
@@ -9248,52 +9252,76 @@
     </row>
     <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>919</v>
+        <v>261</v>
       </c>
       <c r="B328" t="s">
         <v>117</v>
       </c>
-      <c r="C328" t="s">
-        <v>9</v>
+      <c r="C328" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>264</v>
       </c>
       <c r="AC328" s="4"/>
-      <c r="AD328" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE328" s="5" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
-      </c>
-      <c r="E329" t="s">
-        <v>990</v>
+        <v>117</v>
+      </c>
+      <c r="C329" t="s">
+        <v>72</v>
       </c>
       <c r="AC329" s="4"/>
+      <c r="AD329" t="s">
+        <v>917</v>
+      </c>
+      <c r="AE329" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>919</v>
+      </c>
+      <c r="B330" t="s">
+        <v>117</v>
+      </c>
+      <c r="C330" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC330" s="4"/>
+      <c r="AD330" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE330" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>419</v>
+      </c>
+      <c r="B331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>990</v>
+      </c>
+      <c r="AC331" s="4"/>
+    </row>
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>384</v>
       </c>
-      <c r="B330" t="s">
-        <v>72</v>
-      </c>
-      <c r="E330">
+      <c r="B332" t="s">
+        <v>72</v>
+      </c>
+      <c r="E332">
         <v>3</v>
-      </c>
-      <c r="AC330" s="4"/>
-    </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC331" s="4"/>
-    </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A332" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="AC332" s="4"/>
     </row>
@@ -9301,32 +9329,17 @@
       <c r="AC333" s="4"/>
     </row>
     <row r="334" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>550</v>
-      </c>
-      <c r="B334" t="s">
-        <v>117</v>
-      </c>
-      <c r="C334" t="s">
-        <v>72</v>
+      <c r="A334" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="AC334" s="4"/>
     </row>
     <row r="335" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>551</v>
-      </c>
-      <c r="B335" t="s">
-        <v>117</v>
-      </c>
-      <c r="C335" t="s">
-        <v>72</v>
-      </c>
       <c r="AC335" s="4"/>
     </row>
     <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B336" t="s">
         <v>117</v>
@@ -9338,7 +9351,7 @@
     </row>
     <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B337" t="s">
         <v>117</v>
@@ -9350,366 +9363,366 @@
     </row>
     <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B338" t="s">
         <v>117</v>
       </c>
       <c r="C338" t="s">
-        <v>9</v>
-      </c>
-      <c r="E338" t="s">
-        <v>991</v>
+        <v>72</v>
       </c>
       <c r="AC338" s="4"/>
     </row>
     <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="B339" t="s">
         <v>117</v>
       </c>
       <c r="C339" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="AC339" s="4"/>
     </row>
     <row r="340" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A340" s="7" t="s">
-        <v>452</v>
+      <c r="A340" t="s">
+        <v>554</v>
+      </c>
+      <c r="B340" t="s">
+        <v>117</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>991</v>
       </c>
       <c r="AC340" s="4"/>
     </row>
     <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>460</v>
+        <v>635</v>
       </c>
       <c r="B341" t="s">
+        <v>117</v>
+      </c>
+      <c r="C341" t="s">
         <v>9</v>
       </c>
       <c r="AC341" s="4"/>
-      <c r="AD341" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE341" t="s">
-        <v>609</v>
-      </c>
     </row>
     <row r="342" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>513</v>
-      </c>
-      <c r="B342" t="s">
-        <v>426</v>
-      </c>
-      <c r="AD342" s="4" t="s">
-        <v>514</v>
-      </c>
+      <c r="A342" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC342" s="4"/>
     </row>
     <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>610</v>
+        <v>460</v>
       </c>
       <c r="B343" t="s">
-        <v>117</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E343" t="s">
-        <v>461</v>
-      </c>
-      <c r="AC343" s="4" t="s">
-        <v>462</v>
+        <v>9</v>
+      </c>
+      <c r="AC343" s="4"/>
+      <c r="AD343" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE343" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="B344" t="s">
-        <v>117</v>
-      </c>
-      <c r="C344" t="s">
-        <v>9</v>
-      </c>
-      <c r="E344" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC344" s="4"/>
-      <c r="AD344" t="s">
-        <v>619</v>
+        <v>426</v>
+      </c>
+      <c r="AD344" s="4" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>465</v>
+        <v>610</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>117</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E345" t="s">
+        <v>461</v>
       </c>
       <c r="AC345" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD345" t="s">
-        <v>618</v>
+        <v>462</v>
       </c>
     </row>
     <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>659</v>
+        <v>463</v>
       </c>
       <c r="B346" t="s">
-        <v>426</v>
+        <v>117</v>
+      </c>
+      <c r="C346" t="s">
+        <v>9</v>
       </c>
       <c r="E346" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB346" t="s">
-        <v>3</v>
+        <v>464</v>
       </c>
       <c r="AC346" s="4"/>
+      <c r="AD346" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="B347" t="s">
         <v>9</v>
       </c>
       <c r="AC347" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AD347" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="348" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A348" s="5" t="s">
-        <v>459</v>
+      <c r="A348" t="s">
+        <v>659</v>
       </c>
       <c r="B348" t="s">
         <v>426</v>
       </c>
-      <c r="E348" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F348" s="5"/>
-      <c r="G348" s="5"/>
-      <c r="H348" s="5"/>
-      <c r="I348" s="5"/>
-      <c r="J348" s="5"/>
-      <c r="K348" s="5"/>
-      <c r="L348" s="5"/>
-      <c r="M348" s="5"/>
-      <c r="N348" s="5"/>
-      <c r="O348" s="5"/>
-      <c r="P348" s="5"/>
-      <c r="Q348" s="5"/>
-      <c r="R348" s="5"/>
-      <c r="S348" s="5"/>
-      <c r="T348" s="5"/>
-      <c r="U348" s="5"/>
-      <c r="V348" s="5"/>
-      <c r="W348" s="5"/>
-      <c r="X348" s="5"/>
-      <c r="Y348" s="5"/>
-      <c r="Z348" s="5"/>
+      <c r="E348" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>3</v>
+      </c>
       <c r="AC348" s="4"/>
-      <c r="AD348" s="5"/>
-      <c r="AE348" s="5"/>
     </row>
     <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="B349" t="s">
-        <v>426</v>
+        <v>9</v>
+      </c>
+      <c r="AC349" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="350" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>470</v>
+      <c r="A350" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="B350" t="s">
         <v>426</v>
       </c>
-      <c r="E350" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F350" s="4"/>
+      <c r="E350" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="5"/>
+      <c r="J350" s="5"/>
+      <c r="K350" s="5"/>
+      <c r="L350" s="5"/>
+      <c r="M350" s="5"/>
+      <c r="N350" s="5"/>
+      <c r="O350" s="5"/>
+      <c r="P350" s="5"/>
+      <c r="Q350" s="5"/>
+      <c r="R350" s="5"/>
+      <c r="S350" s="5"/>
+      <c r="T350" s="5"/>
+      <c r="U350" s="5"/>
+      <c r="V350" s="5"/>
+      <c r="W350" s="5"/>
+      <c r="X350" s="5"/>
+      <c r="Y350" s="5"/>
+      <c r="Z350" s="5"/>
       <c r="AC350" s="4"/>
+      <c r="AD350" s="5"/>
+      <c r="AE350" s="5"/>
     </row>
     <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B351" t="s">
         <v>426</v>
       </c>
-      <c r="E351" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="F351" s="4"/>
-      <c r="AC351" s="4"/>
     </row>
     <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B352" t="s">
         <v>426</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F352" s="4"/>
       <c r="AC352" s="4"/>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B353" t="s">
         <v>426</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="F353" s="4"/>
       <c r="AC353" s="4"/>
     </row>
     <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B354" t="s">
         <v>426</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F354" s="4"/>
       <c r="AC354" s="4"/>
     </row>
     <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B355" t="s">
         <v>426</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F355" s="4"/>
       <c r="AC355" s="4"/>
     </row>
     <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B356" t="s">
         <v>426</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F356" s="4"/>
       <c r="AC356" s="4"/>
     </row>
     <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F357" s="4"/>
       <c r="AC357" s="4"/>
-      <c r="AD357" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B358" t="s">
         <v>426</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F358" s="4"/>
       <c r="AC358" s="4"/>
     </row>
     <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
-      </c>
-      <c r="E359" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F359" s="4"/>
+        <v>9</v>
+      </c>
       <c r="AC359" s="4"/>
+      <c r="AD359" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>3</v>
+        <v>474</v>
       </c>
       <c r="F360" s="4"/>
       <c r="AC360" s="4"/>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B361" t="s">
         <v>10</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F361" s="4"/>
       <c r="AC361" s="4"/>
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="B362" t="s">
         <v>10</v>
       </c>
-      <c r="E362" t="s">
-        <v>2</v>
-      </c>
+      <c r="E362" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F362" s="4"/>
       <c r="AC362" s="4"/>
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B363" t="s">
-        <v>426</v>
-      </c>
-      <c r="E363" t="s">
-        <v>487</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F363" s="4"/>
       <c r="AC363" s="4"/>
     </row>
     <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B364" t="s">
         <v>10</v>
@@ -9721,252 +9734,221 @@
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>969</v>
+        <v>488</v>
       </c>
       <c r="B365" t="s">
         <v>426</v>
       </c>
       <c r="E365" t="s">
-        <v>968</v>
+        <v>487</v>
       </c>
       <c r="AC365" s="4"/>
     </row>
     <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B366" t="s">
-        <v>426</v>
+        <v>10</v>
       </c>
       <c r="E366" t="s">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="AC366" s="4"/>
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>969</v>
+      </c>
+      <c r="B367" t="s">
+        <v>426</v>
+      </c>
+      <c r="E367" t="s">
+        <v>968</v>
+      </c>
+      <c r="AC367" s="4"/>
+    </row>
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>501</v>
+      </c>
+      <c r="B368" t="s">
+        <v>426</v>
+      </c>
+      <c r="E368" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC368" s="4"/>
+    </row>
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
         <v>36</v>
       </c>
-      <c r="B367" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC367" t="s">
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC369" t="s">
         <v>62</v>
       </c>
-      <c r="AD367" t="s">
+      <c r="AD369" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AC368" s="4"/>
-    </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AC369" s="4"/>
-    </row>
     <row r="370" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A370" s="7" t="s">
+      <c r="AC370" s="4"/>
+    </row>
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC371" s="4"/>
+    </row>
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A372" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AC370" s="4"/>
-    </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>77</v>
-      </c>
-      <c r="B371" t="s">
-        <v>72</v>
-      </c>
-      <c r="E371">
-        <v>7.5</v>
-      </c>
-      <c r="F371">
-        <v>6.8</v>
-      </c>
-      <c r="G371">
-        <v>12.5</v>
-      </c>
-      <c r="H371">
-        <v>15</v>
-      </c>
-      <c r="I371">
-        <v>14.2</v>
-      </c>
-      <c r="J371">
-        <v>21</v>
-      </c>
-      <c r="K371">
-        <v>15.5</v>
-      </c>
-      <c r="R371">
-        <v>15.5</v>
-      </c>
-      <c r="AA371" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD371" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>78</v>
-      </c>
-      <c r="B372" t="s">
-        <v>72</v>
-      </c>
-      <c r="E372">
-        <v>7.5</v>
-      </c>
-      <c r="F372">
-        <v>6.8</v>
-      </c>
-      <c r="G372">
-        <v>7</v>
-      </c>
-      <c r="H372">
-        <v>15</v>
-      </c>
-      <c r="I372">
-        <v>11.7</v>
-      </c>
-      <c r="J372">
-        <v>11.7</v>
-      </c>
-      <c r="L372">
-        <v>15.5</v>
-      </c>
-      <c r="R372">
-        <v>8.5</v>
-      </c>
-      <c r="S372">
-        <v>9</v>
-      </c>
-      <c r="AA372" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD372" t="s">
-        <v>80</v>
-      </c>
+      <c r="AC372" s="4"/>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B373" t="s">
         <v>72</v>
       </c>
       <c r="E373">
-        <v>2.2999999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="F373">
+        <v>6.8</v>
+      </c>
+      <c r="G373">
+        <v>12.5</v>
+      </c>
+      <c r="H373">
+        <v>15</v>
+      </c>
+      <c r="I373">
+        <v>14.2</v>
       </c>
       <c r="J373">
-        <v>2.8</v>
-      </c>
-      <c r="Q373">
-        <v>1.5</v>
+        <v>21</v>
+      </c>
+      <c r="K373">
+        <v>15.5</v>
       </c>
       <c r="R373">
-        <v>0</v>
-      </c>
-      <c r="S373">
-        <v>0</v>
-      </c>
-      <c r="T373">
-        <v>1.25</v>
-      </c>
-      <c r="Z373">
-        <v>3</v>
+        <v>15.5</v>
       </c>
       <c r="AA373" t="s">
         <v>5</v>
       </c>
-      <c r="AC373">
-        <v>1.905</v>
-      </c>
       <c r="AD373" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>596</v>
+        <v>78</v>
       </c>
       <c r="B374" t="s">
         <v>72</v>
       </c>
-      <c r="Q374">
-        <v>0.5</v>
+      <c r="E374">
+        <v>7.5</v>
+      </c>
+      <c r="F374">
+        <v>6.8</v>
+      </c>
+      <c r="G374">
+        <v>7</v>
+      </c>
+      <c r="H374">
+        <v>15</v>
+      </c>
+      <c r="I374">
+        <v>11.7</v>
+      </c>
+      <c r="J374">
+        <v>11.7</v>
+      </c>
+      <c r="L374">
+        <v>15.5</v>
       </c>
       <c r="R374">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="S374">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA374" t="s">
         <v>5</v>
       </c>
       <c r="AD374" t="s">
-        <v>683</v>
+        <v>80</v>
       </c>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="B375" t="s">
         <v>72</v>
       </c>
       <c r="E375">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J375">
+        <v>2.8</v>
+      </c>
+      <c r="Q375">
+        <v>1.5</v>
+      </c>
+      <c r="R375">
         <v>0</v>
       </c>
+      <c r="S375">
+        <v>0</v>
+      </c>
+      <c r="T375">
+        <v>1.25</v>
+      </c>
       <c r="Z375">
-        <v>-0.04</v>
+        <v>3</v>
       </c>
       <c r="AA375" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="AC375">
+        <v>1.905</v>
       </c>
       <c r="AD375" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>75</v>
+        <v>596</v>
       </c>
       <c r="B376" t="s">
         <v>72</v>
       </c>
-      <c r="E376">
-        <v>1.3</v>
-      </c>
-      <c r="P376">
-        <v>0.95</v>
-      </c>
       <c r="Q376">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R376">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S376">
-        <v>1</v>
-      </c>
-      <c r="U376">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA376" t="s">
         <v>5</v>
       </c>
-      <c r="AC376">
-        <v>1.524</v>
-      </c>
       <c r="AD376" t="s">
-        <v>93</v>
+        <v>683</v>
       </c>
     </row>
     <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="B377" t="s">
         <v>72</v>
@@ -9974,193 +9956,220 @@
       <c r="E377">
         <v>0</v>
       </c>
-      <c r="V377">
-        <v>0.2</v>
+      <c r="Z377">
+        <v>-0.04</v>
       </c>
       <c r="AA377" t="s">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="AD377" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B378" t="s">
         <v>72</v>
       </c>
       <c r="E378">
-        <v>0.63500000000000001</v>
+        <v>1.3</v>
+      </c>
+      <c r="P378">
+        <v>0.95</v>
       </c>
       <c r="Q378">
+        <v>0.8</v>
+      </c>
+      <c r="R378">
         <v>0.5</v>
       </c>
-      <c r="R378">
-        <v>0</v>
-      </c>
       <c r="S378">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U378">
+        <v>0.7</v>
       </c>
       <c r="AA378" t="s">
         <v>5</v>
       </c>
-      <c r="AC378" s="4"/>
+      <c r="AC378">
+        <v>1.524</v>
+      </c>
       <c r="AD378" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="379" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="33" t="s">
-        <v>781</v>
-      </c>
-      <c r="B379" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA379" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>331</v>
+      </c>
+      <c r="B379" t="s">
+        <v>72</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="V379">
+        <v>0.2</v>
+      </c>
+      <c r="AA379" t="s">
         <v>5</v>
-      </c>
-      <c r="AC379" s="34"/>
-      <c r="AD379" s="29" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="B380" t="s">
         <v>72</v>
       </c>
       <c r="E380">
-        <v>0.45</v>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="Q380">
+        <v>0.5</v>
+      </c>
+      <c r="R380">
+        <v>0</v>
+      </c>
+      <c r="S380">
+        <v>0</v>
       </c>
       <c r="AA380" t="s">
         <v>5</v>
       </c>
+      <c r="AC380" s="4"/>
       <c r="AD380" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="381" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B381" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA381" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC381" s="34"/>
+      <c r="AD381" s="29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>173</v>
+      </c>
+      <c r="B382" t="s">
+        <v>72</v>
+      </c>
+      <c r="E382">
+        <v>0.45</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD382" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>274</v>
       </c>
-      <c r="B381" t="s">
-        <v>72</v>
-      </c>
-      <c r="E381">
+      <c r="B383" t="s">
+        <v>72</v>
+      </c>
+      <c r="E383">
         <v>0.45</v>
       </c>
-      <c r="AA381" t="s">
+      <c r="AA383" t="s">
         <v>5</v>
       </c>
-      <c r="AD381" t="s">
+      <c r="AD383" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A382" s="5" t="s">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A384" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B382" t="s">
-        <v>72</v>
-      </c>
-      <c r="E382">
+      <c r="B384" t="s">
+        <v>72</v>
+      </c>
+      <c r="E384">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AA382" t="s">
+      <c r="AA384" t="s">
         <v>141</v>
       </c>
-      <c r="AC382" s="4"/>
-      <c r="AD382" t="s">
+      <c r="AC384" s="4"/>
+      <c r="AD384" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A384" s="7" t="s">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A386" s="7" t="s">
         <v>957</v>
-      </c>
-    </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>448</v>
-      </c>
-      <c r="B385" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC385" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="AD385" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AE385" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B386" t="s">
-        <v>10</v>
-      </c>
-      <c r="E386" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC386" s="4"/>
-      <c r="AD386" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AE386" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>958</v>
+        <v>448</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
-      </c>
-      <c r="E387" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC387" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="AC387" s="4" t="s">
+        <v>955</v>
+      </c>
       <c r="AD387" t="s">
-        <v>959</v>
+        <v>1118</v>
+      </c>
+      <c r="AE387" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>455</v>
+        <v>1119</v>
       </c>
       <c r="B388" t="s">
-        <v>426</v>
+        <v>10</v>
       </c>
       <c r="E388" t="s">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AC388" s="4"/>
       <c r="AD388" t="s">
-        <v>953</v>
+        <v>1120</v>
+      </c>
+      <c r="AE388" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>456</v>
+        <v>958</v>
       </c>
       <c r="B389" t="s">
-        <v>426</v>
+        <v>10</v>
       </c>
       <c r="E389" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE389" t="s">
-        <v>455</v>
+        <v>3</v>
+      </c>
+      <c r="AC389" s="4"/>
+      <c r="AD389" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B390" t="s">
         <v>426</v>
@@ -10168,13 +10177,13 @@
       <c r="E390" t="s">
         <v>32</v>
       </c>
-      <c r="AE390" t="s">
-        <v>455</v>
+      <c r="AD390" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B391" t="s">
         <v>426</v>
@@ -10182,16 +10191,13 @@
       <c r="E391" t="s">
         <v>32</v>
       </c>
-      <c r="AD391" t="s">
-        <v>28</v>
-      </c>
       <c r="AE391" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="B392" t="s">
         <v>426</v>
@@ -10205,43 +10211,52 @@
     </row>
     <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>69</v>
+        <v>458</v>
       </c>
       <c r="B393" t="s">
         <v>426</v>
       </c>
+      <c r="E393" t="s">
+        <v>32</v>
+      </c>
       <c r="AD393" t="s">
-        <v>956</v>
+        <v>28</v>
       </c>
       <c r="AE393" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>70</v>
+        <v>504</v>
       </c>
       <c r="B394" t="s">
         <v>426</v>
       </c>
+      <c r="E394" t="s">
+        <v>32</v>
+      </c>
       <c r="AE394" t="s">
-        <v>954</v>
+        <v>455</v>
       </c>
     </row>
     <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>430</v>
+        <v>69</v>
       </c>
       <c r="B395" t="s">
         <v>426</v>
       </c>
+      <c r="AD395" t="s">
+        <v>956</v>
+      </c>
       <c r="AE395" t="s">
-        <v>954</v>
+        <v>448</v>
       </c>
     </row>
     <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B396" t="s">
         <v>426</v>
@@ -10252,7 +10267,7 @@
     </row>
     <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>505</v>
+        <v>430</v>
       </c>
       <c r="B397" t="s">
         <v>426</v>
@@ -10263,497 +10278,494 @@
     </row>
     <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>71</v>
+      </c>
+      <c r="B398" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE398" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>505</v>
+      </c>
+      <c r="B399" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE399" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>507</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B400" t="s">
         <v>117</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C400" t="s">
         <v>426</v>
       </c>
-      <c r="AD398" t="s">
+      <c r="AD400" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="400" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="7" t="s">
+    <row r="402" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="402" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="5" t="s">
+    <row r="404" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B402" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB402" t="s">
+      <c r="B404" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB404" t="s">
         <v>2</v>
       </c>
-      <c r="AD402" t="s">
+      <c r="AD404" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="403" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="7" t="s">
+    <row r="405" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="7" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="405" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>267</v>
-      </c>
-      <c r="B405" t="s">
-        <v>10</v>
-      </c>
-      <c r="E405" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD405" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="406" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="B406" t="s">
-        <v>426</v>
-      </c>
-      <c r="E406" t="s">
-        <v>606</v>
-      </c>
-      <c r="AD406" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="407" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B407" t="s">
-        <v>72</v>
-      </c>
-      <c r="E407">
-        <v>1</v>
-      </c>
-      <c r="AA407" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E407" t="s">
+        <v>3</v>
       </c>
       <c r="AD407" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="408" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>269</v>
+      <c r="A408" s="5" t="s">
+        <v>977</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="E408" t="s">
-        <v>270</v>
+        <v>606</v>
       </c>
       <c r="AD408" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="409" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
+        <v>268</v>
+      </c>
+      <c r="B409" t="s">
+        <v>72</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD409" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="410" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>269</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9</v>
+      </c>
+      <c r="E410" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD410" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="411" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
         <v>271</v>
       </c>
-      <c r="B409" t="s">
-        <v>9</v>
-      </c>
-      <c r="E409" t="s">
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" t="s">
         <v>272</v>
       </c>
-      <c r="AD409" t="s">
+      <c r="AD411" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="410" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A411" s="7" t="s">
+    <row r="412" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A413" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="AD411" s="5" t="s">
+      <c r="AD413" s="5" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A412" s="5" t="s">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A414" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B412" s="5" t="s">
+      <c r="B414" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5" t="s">
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="5"/>
-      <c r="M412" s="5"/>
-      <c r="N412" s="5"/>
-      <c r="O412" s="5"/>
-      <c r="P412" s="5"/>
-      <c r="Q412" s="5"/>
-      <c r="R412" s="5"/>
-      <c r="S412" s="5"/>
-      <c r="T412" s="5"/>
-      <c r="U412" s="5"/>
-      <c r="V412" s="5"/>
-      <c r="W412" s="5"/>
-      <c r="X412" s="5"/>
-      <c r="Y412" s="5"/>
-      <c r="Z412" s="5"/>
-      <c r="AA412" s="5"/>
-      <c r="AB412" s="5"/>
-      <c r="AC412" s="4"/>
-      <c r="AD412" s="5" t="s">
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="5"/>
+      <c r="L414" s="5"/>
+      <c r="M414" s="5"/>
+      <c r="N414" s="5"/>
+      <c r="O414" s="5"/>
+      <c r="P414" s="5"/>
+      <c r="Q414" s="5"/>
+      <c r="R414" s="5"/>
+      <c r="S414" s="5"/>
+      <c r="T414" s="5"/>
+      <c r="U414" s="5"/>
+      <c r="V414" s="5"/>
+      <c r="W414" s="5"/>
+      <c r="X414" s="5"/>
+      <c r="Y414" s="5"/>
+      <c r="Z414" s="5"/>
+      <c r="AA414" s="5"/>
+      <c r="AB414" s="5"/>
+      <c r="AC414" s="4"/>
+      <c r="AD414" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="AE412" t="s">
+      <c r="AE414" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
         <v>1015</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B415" t="s">
         <v>117</v>
       </c>
-      <c r="C413" t="s">
-        <v>9</v>
-      </c>
-      <c r="E413" t="s">
+      <c r="C415" t="s">
+        <v>9</v>
+      </c>
+      <c r="E415" t="s">
         <v>1022</v>
       </c>
-      <c r="AD413" t="s">
+      <c r="AD415" t="s">
         <v>1019</v>
       </c>
-      <c r="AE413" t="s">
+      <c r="AE415" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="E414" s="10"/>
-      <c r="F414" s="10"/>
-      <c r="G414" s="10"/>
-    </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A415" s="7" t="s">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E416" s="10"/>
+      <c r="F416" s="10"/>
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A417" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="AD415" t="s">
+      <c r="AD417" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
         <v>1079</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B418" t="s">
         <v>10</v>
       </c>
-      <c r="E416" t="s">
+      <c r="E418" t="s">
         <v>2</v>
       </c>
-      <c r="AD416" t="s">
+      <c r="AD418" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
         <v>1072</v>
       </c>
-      <c r="B417" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD417" t="s">
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD419" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A418" s="5" t="s">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A420" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B420" t="s">
         <v>426</v>
       </c>
-      <c r="E418" t="s">
+      <c r="E420" t="s">
         <v>1076</v>
       </c>
-      <c r="AD418" t="s">
+      <c r="AD420" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A419" s="5" t="s">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A421" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B421" t="s">
         <v>10</v>
       </c>
-      <c r="E419" t="s">
+      <c r="E421" t="s">
         <v>3</v>
       </c>
-      <c r="AD419" t="s">
+      <c r="AD421" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
         <v>1109</v>
       </c>
-      <c r="B420" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB420" t="s">
+      <c r="B422" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB422" t="s">
         <v>3</v>
       </c>
-      <c r="AD420" t="s">
+      <c r="AD422" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A422" s="7" t="s">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A424" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="AD422" t="s">
+      <c r="AD424" t="s">
         <v>1265</v>
-      </c>
-    </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B423" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD423" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AE423" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B424" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y424">
-        <v>1</v>
-      </c>
-      <c r="AD424" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AE424" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B425" t="s">
-        <v>117</v>
-      </c>
-      <c r="C425" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC425" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="AD425" t="s">
-        <v>1233</v>
+        <v>1234</v>
+      </c>
+      <c r="AE425" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1256</v>
+        <v>1226</v>
       </c>
       <c r="B426" t="s">
         <v>72</v>
       </c>
       <c r="Y426">
-        <v>4</v>
-      </c>
-      <c r="AB426" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD426" t="s">
-        <v>1257</v>
+        <v>1235</v>
+      </c>
+      <c r="AE426" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1250</v>
+        <v>1227</v>
       </c>
       <c r="B427" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC427" s="4" t="s">
-        <v>1253</v>
+        <v>117</v>
+      </c>
+      <c r="C427" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC427" t="s">
+        <v>165</v>
       </c>
       <c r="AD427" t="s">
-        <v>1258</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1228</v>
+        <v>1256</v>
       </c>
       <c r="B428" t="s">
-        <v>117</v>
-      </c>
-      <c r="C428" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC428" t="s">
-        <v>1232</v>
+        <v>72</v>
+      </c>
+      <c r="Y428">
+        <v>4</v>
+      </c>
+      <c r="AB428" t="s">
+        <v>3</v>
       </c>
       <c r="AD428" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AE428" s="5" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="B429" t="s">
-        <v>203</v>
-      </c>
-      <c r="C429" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC429" t="s">
-        <v>1231</v>
+        <v>72</v>
+      </c>
+      <c r="AC429" s="4" t="s">
+        <v>1253</v>
       </c>
       <c r="AD429" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AE429" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B430" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y430">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="C430" t="s">
+        <v>72</v>
       </c>
       <c r="AC430" t="s">
-        <v>1260</v>
+        <v>1232</v>
       </c>
       <c r="AD430" t="s">
-        <v>1261</v>
+        <v>1251</v>
+      </c>
+      <c r="AE430" s="5" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="B431" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y431" t="s">
-        <v>2</v>
+        <v>203</v>
+      </c>
+      <c r="C431" t="s">
+        <v>9</v>
       </c>
       <c r="AC431" t="s">
-        <v>1196</v>
+        <v>1231</v>
       </c>
       <c r="AD431" t="s">
-        <v>1262</v>
+        <v>1230</v>
+      </c>
+      <c r="AE431" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B432" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="Y432">
+        <v>2</v>
       </c>
       <c r="AC432" t="s">
-        <v>1196</v>
+        <v>1260</v>
       </c>
       <c r="AD432" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AE432" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B433" t="s">
         <v>10</v>
       </c>
+      <c r="Y433" t="s">
+        <v>2</v>
+      </c>
       <c r="AC433" t="s">
         <v>1196</v>
       </c>
       <c r="AD433" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AE433" s="5" t="s">
-        <v>1239</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B434" t="s">
-        <v>117</v>
-      </c>
-      <c r="C434" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB434" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="AC434" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AD434" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AE434" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B435" t="s">
-        <v>117</v>
-      </c>
-      <c r="C435" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB435" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="AC435" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AD435" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AE435" s="5" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B436" t="s">
+        <v>117</v>
+      </c>
+      <c r="C436" t="s">
         <v>72</v>
       </c>
       <c r="AB436" t="s">
@@ -10762,17 +10774,42 @@
     </row>
     <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B437" t="s">
+        <v>117</v>
+      </c>
+      <c r="C437" t="s">
         <v>72</v>
       </c>
       <c r="AB437" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B438" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB438" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="439" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A439" s="1" t="s">
+      <c r="A439" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B439" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB439" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10785,7 +10822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7057C-15EE-3240-BABA-A5F8BA4F4CF6}">
   <dimension ref="A1:AF375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5983DCFC-E09A-A644-B5BF-C2C66D3A96B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC93327-DD30-0F48-A772-FAC17347B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1273">
   <si>
     <t>default</t>
   </si>
@@ -695,9 +695,6 @@
     <t>By default the lowest gridline is bold. Except if your plot contains bars and zero is visible, then the default is zero. If you want the bold line(s) to appear at other places, you can specify the(ir) y-value(s) here.</t>
   </si>
   <si>
-    <t>Expand y_lim so zero is in range.</t>
-  </si>
-  <si>
     <t>y_force_include_zero</t>
   </si>
   <si>
@@ -1088,9 +1085,6 @@
     <t>#64504b</t>
   </si>
   <si>
-    <t>#00AEEF</t>
-  </si>
-  <si>
     <t>#FBAD1D</t>
   </si>
   <si>
@@ -2507,9 +2501,6 @@
     <t>l, l, l, r, r</t>
   </si>
   <si>
-    <t>Indicates for each of the respective time series whether they are projected on the left (l) y-axis or on the right (r) y-axis. If one or more series are on the right axis, style 'y-right' or 'x-top' (if 'turn = y') are automatically added as a style.</t>
-  </si>
-  <si>
     <t>style, turn</t>
   </si>
   <si>
@@ -3842,13 +3833,34 @@
     <t>Parameters to tweak your heatmap.</t>
   </si>
   <si>
-    <t>2023-03-30</t>
-  </si>
-  <si>
     <t>y_title_align_turn</t>
   </si>
   <si>
     <t>x_title_align_turn</t>
+  </si>
+  <si>
+    <t>y_force_include_zero_by_user</t>
+  </si>
+  <si>
+    <t>James sets this to 'true' if user has manually set y_force_include_zero.</t>
+  </si>
+  <si>
+    <t>Expand y_lim so zero (y = 0, x-axis) is in range. Defaults to 'n'. In case of stacked bars (bar=) it defaults to 'y'.</t>
+  </si>
+  <si>
+    <t>Indicates for each of the respective time series whether they are projected on the left (l) y-axis or on the right (r) y-axis. If one or more series are on the right axis, style 'y-right' or 'x-top' (if 'turn = y') is automatically added as a style.</t>
+  </si>
+  <si>
+    <t>#00aeef</t>
+  </si>
+  <si>
+    <t>cbs_map</t>
+  </si>
+  <si>
+    <t>cbs_map_year</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
   </si>
 </sst>
 </file>
@@ -4157,9 +4169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4197,7 +4209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4303,7 +4315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4445,7 +4457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4456,9 +4468,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4506,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>215</v>
@@ -4527,43 +4539,43 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -4572,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>16</v>
@@ -4581,7 +4593,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -4598,32 +4610,32 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="AC4" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AD4" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4635,12 +4647,12 @@
         <v>3</v>
       </c>
       <c r="AD5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -4652,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="AD6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -4668,7 +4680,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -4688,10 +4700,10 @@
         <v>9</v>
       </c>
       <c r="AC9" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="AD9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -4705,7 +4717,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P10" t="s">
         <v>178</v>
@@ -4714,7 +4726,7 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -4725,7 +4737,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -4734,7 +4746,7 @@
         <v>9</v>
       </c>
       <c r="AD11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -4754,7 +4766,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -4764,7 +4776,7 @@
       </c>
       <c r="AC13" s="4"/>
       <c r="AD13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -4779,10 +4791,10 @@
       </c>
       <c r="AC14" s="4"/>
       <c r="AD14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AE14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -4802,16 +4814,16 @@
         <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N15" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="O15" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="AD15" t="s">
         <v>55</v>
@@ -4829,10 +4841,10 @@
       </c>
       <c r="AC16" s="4"/>
       <c r="AD16" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="AE16" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AF16" s="5"/>
     </row>
@@ -4848,16 +4860,16 @@
       </c>
       <c r="AC17" s="4"/>
       <c r="AD17" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="AE17" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AF17" s="5"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -4867,10 +4879,10 @@
       </c>
       <c r="AC18" s="4"/>
       <c r="AD18" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AE18" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AF18" s="5"/>
     </row>
@@ -4886,16 +4898,16 @@
       </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="AE19" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AF19" s="5"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -4905,16 +4917,16 @@
       </c>
       <c r="AC20" s="4"/>
       <c r="AD20" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AE20" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="AF20" s="5"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -4924,16 +4936,16 @@
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AE21" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="AF21" s="5"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -4942,20 +4954,20 @@
         <v>0.1</v>
       </c>
       <c r="AA22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AE22" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="AF22" s="5"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -4965,16 +4977,16 @@
       </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AE23" t="s">
         <v>1066</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>1069</v>
       </c>
       <c r="AF23" s="5"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4984,16 +4996,16 @@
       </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AE24" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AF24" s="5"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -5002,20 +5014,20 @@
         <v>600</v>
       </c>
       <c r="AA25" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AC25" s="4"/>
       <c r="AD25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AE25" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AF25" s="5"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -5050,15 +5062,15 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -5067,46 +5079,46 @@
         <v>75</v>
       </c>
       <c r="AA27" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AC27" s="4"/>
       <c r="AD27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF27" s="5"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AB28" t="s">
         <v>3</v>
       </c>
       <c r="AC28" s="4"/>
       <c r="AD28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF28" s="5"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AF29" s="5"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B30" t="s">
         <v>117</v>
@@ -5116,7 +5128,7 @@
       </c>
       <c r="AC30" s="4"/>
       <c r="AD30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AF30" s="5"/>
     </row>
@@ -5125,13 +5137,13 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF32" s="5"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -5140,13 +5152,13 @@
         <v>0.8</v>
       </c>
       <c r="AA33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AC33">
         <v>0.8</v>
       </c>
       <c r="AD33" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="AF33" s="5"/>
     </row>
@@ -5158,33 +5170,33 @@
         <v>9</v>
       </c>
       <c r="N34" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="S34" s="5"/>
       <c r="AD34" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD35" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -5196,15 +5208,15 @@
         <v>5</v>
       </c>
       <c r="AD36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AE36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -5213,7 +5225,7 @@
         <v>102</v>
       </c>
       <c r="AD37" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -5224,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AC38" t="s">
         <v>30</v>
@@ -5249,7 +5261,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
@@ -5261,12 +5273,12 @@
         <v>5</v>
       </c>
       <c r="AD40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -5277,36 +5289,36 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AC42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD42" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD43" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -5317,7 +5329,7 @@
         <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="AC44" t="s">
         <v>37</v>
@@ -5342,7 +5354,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
         <v>72</v>
@@ -5357,12 +5369,12 @@
         <v>5</v>
       </c>
       <c r="AD46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -5373,46 +5385,46 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AC48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="AD50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -5443,10 +5455,10 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AC53" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AD53" t="s">
         <v>65</v>
@@ -5454,37 +5466,37 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B54" t="s">
         <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E54" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="AC54" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AD54" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F55" s="5"/>
       <c r="AD55" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
@@ -5498,10 +5510,10 @@
         <v>7</v>
       </c>
       <c r="AA56" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="AD56" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
@@ -5528,13 +5540,13 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AD59" s="5"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s">
         <v>117</v>
@@ -5543,29 +5555,29 @@
         <v>72</v>
       </c>
       <c r="AD60" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AC61" s="35" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AD61" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s">
         <v>117</v>
@@ -5574,12 +5586,12 @@
         <v>72</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s">
         <v>117</v>
@@ -5591,12 +5603,12 @@
         <v>104</v>
       </c>
       <c r="AD63" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s">
         <v>203</v>
@@ -5605,15 +5617,15 @@
         <v>9</v>
       </c>
       <c r="AC64" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AD64" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s">
         <v>117</v>
@@ -5625,15 +5637,15 @@
         <v>102</v>
       </c>
       <c r="AC65" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AD65" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B66" t="s">
         <v>117</v>
@@ -5648,12 +5660,12 @@
         <v>116</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s">
         <v>117</v>
@@ -5668,12 +5680,12 @@
         <v>104</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B68" t="s">
         <v>117</v>
@@ -5685,15 +5697,15 @@
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AD68" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B69" t="s">
         <v>117</v>
@@ -5705,7 +5717,7 @@
         <v>0.5</v>
       </c>
       <c r="AD69" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
@@ -5714,16 +5726,16 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C71" s="5"/>
       <c r="AD71" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s">
         <v>203</v>
@@ -5735,7 +5747,7 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
@@ -5744,12 +5756,12 @@
         <v>1</v>
       </c>
       <c r="AD73" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
@@ -5761,12 +5773,12 @@
         <v>102</v>
       </c>
       <c r="AD74" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
@@ -5778,15 +5790,15 @@
         <v>4</v>
       </c>
       <c r="AC75" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="AD75" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
@@ -5801,12 +5813,12 @@
         <v>104</v>
       </c>
       <c r="AD76" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s">
         <v>117</v>
@@ -5818,12 +5830,12 @@
         <v>1</v>
       </c>
       <c r="AD77" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B78" t="s">
         <v>117</v>
@@ -5835,12 +5847,12 @@
         <v>0.5</v>
       </c>
       <c r="AD78" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B79" t="s">
         <v>117</v>
@@ -5855,15 +5867,15 @@
         <v>116</v>
       </c>
       <c r="AD79" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD81" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
@@ -5874,15 +5886,15 @@
         <v>9</v>
       </c>
       <c r="AC82" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AD82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -5893,7 +5905,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
         <v>72</v>
@@ -5905,12 +5917,12 @@
         <v>5</v>
       </c>
       <c r="AD84" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
         <v>72</v>
@@ -5922,46 +5934,46 @@
         <v>5</v>
       </c>
       <c r="AD85" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AC86" t="s">
+        <v>785</v>
+      </c>
+      <c r="AD86" t="s">
         <v>787</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AC87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD87" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
         <v>72</v>
@@ -5973,13 +5985,13 @@
         <v>104</v>
       </c>
       <c r="AD88" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AE88" s="5"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
         <v>72</v>
@@ -5988,7 +6000,7 @@
         <v>0.85</v>
       </c>
       <c r="AD89" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
@@ -5996,7 +6008,7 @@
         <v>98</v>
       </c>
       <c r="AD91" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AE91" t="s">
         <v>18</v>
@@ -6039,12 +6051,12 @@
         <v>118</v>
       </c>
       <c r="AD93" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -6053,15 +6065,15 @@
         <v>2</v>
       </c>
       <c r="AD94" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AE94" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -6076,12 +6088,12 @@
         <v>185</v>
       </c>
       <c r="AE95" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B96" t="s">
         <v>72</v>
@@ -6090,15 +6102,15 @@
         <v>1</v>
       </c>
       <c r="AD96" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AE96" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
@@ -6107,15 +6119,15 @@
         <v>102</v>
       </c>
       <c r="AD97" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="AE97" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B98" t="s">
         <v>72</v>
@@ -6124,15 +6136,15 @@
         <v>1</v>
       </c>
       <c r="AD98" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="AE98" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
@@ -6141,10 +6153,10 @@
         <v>102</v>
       </c>
       <c r="AD99" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AE99" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
@@ -6155,10 +6167,10 @@
         <v>72</v>
       </c>
       <c r="AC100" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AD100" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
@@ -6169,13 +6181,13 @@
         <v>72</v>
       </c>
       <c r="AC101" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AD101" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AE101" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
@@ -6192,7 +6204,7 @@
         <v>88</v>
       </c>
       <c r="AE102" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
@@ -6206,24 +6218,24 @@
         <v>9</v>
       </c>
       <c r="AD103" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="AE103" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
       <c r="AD104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE104" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
@@ -6248,7 +6260,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s">
         <v>117</v>
@@ -6262,7 +6274,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
         <v>72</v>
@@ -6274,7 +6286,7 @@
         <v>5</v>
       </c>
       <c r="AD107" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
@@ -6293,7 +6305,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B109" t="s">
         <v>117</v>
@@ -6302,18 +6314,18 @@
         <v>72</v>
       </c>
       <c r="AA109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AD109" t="s">
         <v>1032</v>
       </c>
-      <c r="AD109" t="s">
-        <v>1035</v>
-      </c>
       <c r="AE109" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
@@ -6322,29 +6334,29 @@
         <v>72</v>
       </c>
       <c r="AA110" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="AD110" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AE110" t="s">
         <v>1034</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="AD111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -6353,12 +6365,12 @@
         <v>3</v>
       </c>
       <c r="AD112" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -6378,13 +6390,13 @@
         <v>72</v>
       </c>
       <c r="AC114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE114" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
@@ -6420,7 +6432,7 @@
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s">
         <v>72</v>
@@ -6431,7 +6443,7 @@
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
@@ -6462,7 +6474,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
         <v>117</v>
@@ -6471,13 +6483,13 @@
         <v>9</v>
       </c>
       <c r="AA120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AC120" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AD120" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="AE120" t="s">
         <v>87</v>
@@ -6497,15 +6509,15 @@
         <v>165</v>
       </c>
       <c r="AD121" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AE121" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -6514,10 +6526,10 @@
         <v>3</v>
       </c>
       <c r="AD122" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="AE122" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
@@ -6536,7 +6548,7 @@
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -6545,10 +6557,10 @@
         <v>2</v>
       </c>
       <c r="AD124" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AE124" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
@@ -6565,12 +6577,12 @@
         <v>97</v>
       </c>
       <c r="AD125" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B126" t="s">
         <v>203</v>
@@ -6579,10 +6591,10 @@
         <v>9</v>
       </c>
       <c r="AD126" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="AE126" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
@@ -6601,7 +6613,7 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B128" t="s">
         <v>117</v>
@@ -6610,18 +6622,18 @@
         <v>72</v>
       </c>
       <c r="AA128" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AD128" t="s">
         <v>1032</v>
       </c>
-      <c r="AD128" t="s">
-        <v>1035</v>
-      </c>
       <c r="AE128" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B129" t="s">
         <v>117</v>
@@ -6630,18 +6642,18 @@
         <v>72</v>
       </c>
       <c r="AA129" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="AD129" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="AE129" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B130" t="s">
         <v>117</v>
@@ -6653,29 +6665,26 @@
         <v>102</v>
       </c>
       <c r="AD130" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AE130" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B131" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="37" t="s">
-        <v>3</v>
-      </c>
       <c r="AD131" s="37" t="s">
-        <v>217</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -6684,7 +6693,7 @@
         <v>2</v>
       </c>
       <c r="AD132" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="133" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -6698,15 +6707,15 @@
         <v>72</v>
       </c>
       <c r="AD133" s="37" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AE133" s="37" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="134" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="36" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B134" s="36" t="s">
         <v>117</v>
@@ -6718,20 +6727,20 @@
         <v>3</v>
       </c>
       <c r="AE134" s="36" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="AD136" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B137" t="s">
         <v>117</v>
@@ -6740,15 +6749,15 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="AD137" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B138" t="s">
         <v>117</v>
@@ -6757,15 +6766,15 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="AD138" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B139" t="s">
         <v>117</v>
@@ -6774,12 +6783,12 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B140" t="s">
         <v>117</v>
@@ -6788,32 +6797,32 @@
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
       <c r="E141" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AC141" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AD141" t="s">
         <v>1199</v>
       </c>
-      <c r="AC141" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AD141" t="s">
-        <v>1202</v>
-      </c>
       <c r="AE141" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>117</v>
@@ -6847,26 +6856,26 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="AD142" s="5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AE142" s="5" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD146" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B147" t="s">
         <v>117</v>
@@ -6878,21 +6887,21 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AC147" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AD147" t="s">
-        <v>821</v>
+        <v>1268</v>
       </c>
       <c r="AE147" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B148" t="s">
         <v>117</v>
@@ -6901,15 +6910,15 @@
         <v>72</v>
       </c>
       <c r="AD148" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AE148" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B149" t="s">
         <v>117</v>
@@ -6918,18 +6927,18 @@
         <v>72</v>
       </c>
       <c r="AC149" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="AD149" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="AE149" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B150" t="s">
         <v>203</v>
@@ -6938,32 +6947,32 @@
         <v>9</v>
       </c>
       <c r="AD150" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="AE150" s="5" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>826</v>
+      </c>
+      <c r="B151" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD151" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="AE151" t="s">
         <v>829</v>
-      </c>
-      <c r="B151" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC151" t="s">
-        <v>834</v>
-      </c>
-      <c r="AD151" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="AE151" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -6972,15 +6981,15 @@
         <v>2</v>
       </c>
       <c r="AD152" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="AE152" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B153" t="s">
         <v>117</v>
@@ -6992,12 +7001,12 @@
         <v>3</v>
       </c>
       <c r="AD153" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B154" t="s">
         <v>117</v>
@@ -7014,7 +7023,7 @@
         <v>142</v>
       </c>
       <c r="AD156" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.2">
@@ -7055,10 +7064,10 @@
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AD158" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AE158" s="5" t="s">
         <v>183</v>
@@ -7066,7 +7075,7 @@
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -7077,13 +7086,13 @@
         <v>2</v>
       </c>
       <c r="AD159" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AE159" s="5"/>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B160" t="s">
         <v>117</v>
@@ -7098,18 +7107,18 @@
         <v>0</v>
       </c>
       <c r="AC160" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AD160" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AE160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B161" t="s">
         <v>117</v>
@@ -7118,15 +7127,15 @@
         <v>9</v>
       </c>
       <c r="AC161" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AD161" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B162" t="s">
         <v>117</v>
@@ -7141,17 +7150,17 @@
         <v>1</v>
       </c>
       <c r="AD162" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B165" t="s">
         <v>72</v>
@@ -7160,18 +7169,18 @@
         <v>15</v>
       </c>
       <c r="AA165" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AC165" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="AD165" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B166" t="s">
         <v>72</v>
@@ -7183,15 +7192,15 @@
         <v>5</v>
       </c>
       <c r="AC166" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="AD166" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B167" t="s">
         <v>117</v>
@@ -7200,18 +7209,18 @@
         <v>72</v>
       </c>
       <c r="AC167" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AD167" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="AE167" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B168" t="s">
         <v>117</v>
@@ -7220,21 +7229,21 @@
         <v>72</v>
       </c>
       <c r="AA168" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AC168" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AD168" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="AE168" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B169" t="s">
         <v>117</v>
@@ -7243,18 +7252,18 @@
         <v>9</v>
       </c>
       <c r="AC169" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AD169" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B170" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AB170" t="s">
         <v>3</v>
@@ -7262,12 +7271,12 @@
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B173" t="s">
         <v>117</v>
@@ -7279,12 +7288,12 @@
         <v>1</v>
       </c>
       <c r="AD173" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.2">
@@ -7298,10 +7307,10 @@
         <v>0.2</v>
       </c>
       <c r="AA176" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AC176" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AD176" t="s">
         <v>182</v>
@@ -7318,10 +7327,10 @@
         <v>3</v>
       </c>
       <c r="AD177" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AE177" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.2">
@@ -7335,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="AD178" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.2">
@@ -7350,7 +7359,7 @@
       </c>
       <c r="AC179" s="4"/>
       <c r="AD179" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.2">
@@ -7370,13 +7379,13 @@
         <v>210</v>
       </c>
       <c r="AD180" s="5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="AE180" s="5"/>
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B181" t="s">
         <v>72</v>
@@ -7388,7 +7397,7 @@
         <v>104</v>
       </c>
       <c r="AD181" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.2">
@@ -7402,23 +7411,23 @@
         <v>102</v>
       </c>
       <c r="AD182" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>336</v>
+      </c>
+      <c r="B183" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD183" t="s">
         <v>337</v>
-      </c>
-      <c r="B183" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD183" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -7427,48 +7436,48 @@
         <v>2</v>
       </c>
       <c r="AD184" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B185" t="s">
         <v>72</v>
       </c>
       <c r="AD185" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD186" t="s">
         <v>225</v>
-      </c>
-      <c r="B186" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD186" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B187" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AB187" t="s">
         <v>3</v>
       </c>
       <c r="AD187" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B188" t="s">
         <v>72</v>
@@ -7479,12 +7488,12 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B191" t="s">
         <v>72</v>
@@ -7493,12 +7502,12 @@
         <v>10</v>
       </c>
       <c r="AD191" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
@@ -7507,7 +7516,7 @@
         <v>2</v>
       </c>
       <c r="AD192" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="AE192" t="s">
         <v>181</v>
@@ -7515,12 +7524,12 @@
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>117</v>
@@ -7529,12 +7538,12 @@
         <v>72</v>
       </c>
       <c r="E195" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>117</v>
@@ -7543,12 +7552,12 @@
         <v>72</v>
       </c>
       <c r="AD196" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>72</v>
@@ -7562,7 +7571,7 @@
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -7573,7 +7582,7 @@
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
@@ -7582,12 +7591,12 @@
         <v>3</v>
       </c>
       <c r="AD199" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
@@ -7596,12 +7605,12 @@
         <v>2</v>
       </c>
       <c r="AD200" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B201" t="s">
         <v>72</v>
@@ -7610,26 +7619,26 @@
         <v>0</v>
       </c>
       <c r="AD201" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>318</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC202" t="s">
         <v>319</v>
       </c>
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC202" t="s">
-        <v>320</v>
-      </c>
       <c r="AD202" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
@@ -7641,12 +7650,12 @@
         <v>2</v>
       </c>
       <c r="AD203" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B204" t="s">
         <v>72</v>
@@ -7655,12 +7664,12 @@
         <v>2</v>
       </c>
       <c r="AD204" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B205" t="s">
         <v>72</v>
@@ -7672,26 +7681,26 @@
         <v>1</v>
       </c>
       <c r="AD205" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
       </c>
       <c r="AC206" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="AD206" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B207" t="s">
         <v>72</v>
@@ -7700,15 +7709,15 @@
         <v>0.2</v>
       </c>
       <c r="AA207" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD207" t="s">
         <v>324</v>
-      </c>
-      <c r="AD207" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B208" t="s">
         <v>72</v>
@@ -7719,7 +7728,7 @@
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B209" t="s">
         <v>10</v>
@@ -7728,15 +7737,15 @@
         <v>2</v>
       </c>
       <c r="AD209" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="210" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B210" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AB210" t="s">
         <v>3</v>
@@ -7744,12 +7753,12 @@
     </row>
     <row r="212" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B213" t="s">
         <v>203</v>
@@ -7758,42 +7767,42 @@
         <v>9</v>
       </c>
       <c r="AC213" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD213" t="s">
         <v>305</v>
       </c>
-      <c r="AD213" t="s">
+      <c r="AE213" t="s">
         <v>306</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>307</v>
       </c>
       <c r="AF213" s="5"/>
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B214" t="s">
         <v>10</v>
       </c>
       <c r="AD214" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
       </c>
       <c r="AC215" s="4"/>
       <c r="AD215" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B216" t="s">
         <v>72</v>
@@ -7802,15 +7811,15 @@
         <v>0</v>
       </c>
       <c r="AC216" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AD216" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B217" t="s">
         <v>72</v>
@@ -7822,12 +7831,12 @@
         <v>5</v>
       </c>
       <c r="AD217" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B218" t="s">
         <v>9</v>
@@ -7843,7 +7852,7 @@
     </row>
     <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B219" t="s">
         <v>72</v>
@@ -7855,12 +7864,12 @@
         <v>104</v>
       </c>
       <c r="AD219" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B220" t="s">
         <v>72</v>
@@ -7872,7 +7881,7 @@
     </row>
     <row r="221" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B221" t="s">
         <v>72</v>
@@ -7884,12 +7893,12 @@
         <v>5</v>
       </c>
       <c r="AD221" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="222" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B222" t="s">
         <v>117</v>
@@ -7898,49 +7907,49 @@
         <v>72</v>
       </c>
       <c r="AD222" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B225" t="s">
         <v>9</v>
       </c>
       <c r="AD225" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>218</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD228" t="s">
         <v>219</v>
-      </c>
-      <c r="B228" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD228" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B231" t="s">
         <v>117</v>
@@ -7949,15 +7958,15 @@
         <v>72</v>
       </c>
       <c r="E231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD231" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B232" t="s">
         <v>72</v>
@@ -7971,7 +7980,7 @@
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B233" t="s">
         <v>72</v>
@@ -7982,7 +7991,7 @@
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B234" t="s">
         <v>117</v>
@@ -7994,23 +8003,23 @@
         <v>102</v>
       </c>
       <c r="AD234" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B235" t="s">
         <v>9</v>
       </c>
       <c r="AD235" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B236" t="s">
         <v>72</v>
@@ -8019,37 +8028,37 @@
         <v>1</v>
       </c>
       <c r="AC236" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AD236" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B237" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AB237" t="s">
         <v>3</v>
       </c>
       <c r="AD237" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD239" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B240" t="s">
         <v>117</v>
@@ -8064,12 +8073,12 @@
         <v>32</v>
       </c>
       <c r="AD240" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" t="s">
         <v>117</v>
@@ -8081,12 +8090,12 @@
         <v>1</v>
       </c>
       <c r="AD241" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B242" t="s">
         <v>117</v>
@@ -8098,12 +8107,12 @@
         <v>1</v>
       </c>
       <c r="AD242" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
@@ -8113,7 +8122,7 @@
         <v>3</v>
       </c>
       <c r="AD243" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.2">
@@ -8121,7 +8130,7 @@
         <v>192</v>
       </c>
       <c r="AD245" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.2">
@@ -8152,18 +8161,18 @@
         <v>197</v>
       </c>
       <c r="AD247" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B248" t="s">
         <v>9</v>
       </c>
       <c r="E248" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F248" s="31"/>
       <c r="AC248" t="s">
@@ -8175,10 +8184,10 @@
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AD250" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.2">
@@ -8195,7 +8204,7 @@
         <v>3</v>
       </c>
       <c r="AD251" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.2">
@@ -8203,13 +8212,13 @@
         <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB252" t="s">
         <v>3</v>
       </c>
       <c r="AD252" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.2">
@@ -8226,12 +8235,12 @@
         <v>148</v>
       </c>
       <c r="AD253" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B254" t="s">
         <v>203</v>
@@ -8240,15 +8249,15 @@
         <v>9</v>
       </c>
       <c r="AC254" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD254" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B255" t="s">
         <v>72</v>
@@ -8265,10 +8274,10 @@
         <v>1E-3</v>
       </c>
       <c r="AC255" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AD255" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.2">
@@ -8314,10 +8323,10 @@
         <v>165</v>
       </c>
       <c r="AD257" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AE257" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="258" spans="1:31" x14ac:dyDescent="0.2">
@@ -8337,31 +8346,31 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
       <c r="AE258" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>288</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC259" t="s">
         <v>289</v>
       </c>
-      <c r="B259" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC259" t="s">
+      <c r="AD259" t="s">
         <v>290</v>
-      </c>
-      <c r="AD259" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
@@ -8373,24 +8382,24 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
       <c r="AC262" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD262" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>564</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD263" t="s">
         <v>566</v>
-      </c>
-      <c r="B263" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC263" t="s">
-        <v>567</v>
-      </c>
-      <c r="AD263" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="267" spans="1:31" x14ac:dyDescent="0.2">
@@ -8398,7 +8407,7 @@
         <v>41</v>
       </c>
       <c r="AD267" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.2">
@@ -8409,10 +8418,10 @@
         <v>9</v>
       </c>
       <c r="AC268" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AD268" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="273" spans="1:31" x14ac:dyDescent="0.2">
@@ -8420,7 +8429,7 @@
         <v>50</v>
       </c>
       <c r="AD273" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.2">
@@ -8438,7 +8447,7 @@
       </c>
       <c r="AC274" s="4"/>
       <c r="AD274" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AE274" t="s">
         <v>18</v>
@@ -8446,7 +8455,7 @@
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
@@ -8455,10 +8464,10 @@
         <v>3</v>
       </c>
       <c r="AC275" s="4" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="AD275" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="276" spans="1:31" x14ac:dyDescent="0.2">
@@ -8472,7 +8481,7 @@
         <v>9</v>
       </c>
       <c r="AC276" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD276" t="s">
         <v>204</v>
@@ -8480,7 +8489,7 @@
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B277" t="s">
         <v>117</v>
@@ -8489,10 +8498,10 @@
         <v>72</v>
       </c>
       <c r="AC277" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD277" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.2">
@@ -8648,12 +8657,12 @@
       </c>
       <c r="AC285" s="4"/>
       <c r="AD285" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B286" t="s">
         <v>72</v>
@@ -8665,12 +8674,12 @@
         <v>104</v>
       </c>
       <c r="AD286" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B287" t="s">
         <v>117</v>
@@ -8683,12 +8692,12 @@
       </c>
       <c r="AC287" s="5"/>
       <c r="AD287" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B288" t="s">
         <v>117</v>
@@ -8701,12 +8710,12 @@
       </c>
       <c r="AC288" s="5"/>
       <c r="AD288" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B289" t="s">
         <v>10</v>
@@ -8716,28 +8725,28 @@
       </c>
       <c r="AC289" s="5"/>
       <c r="AD289" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AE289" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
       </c>
       <c r="E290" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="X290" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AC290" s="5"/>
       <c r="AD290" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="291" spans="1:31" x14ac:dyDescent="0.2">
@@ -8751,20 +8760,20 @@
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AC293" s="4"/>
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B294" t="s">
         <v>72</v>
       </c>
       <c r="AC294" s="4"/>
       <c r="AD294" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.2">
@@ -8778,10 +8787,10 @@
         <v>72</v>
       </c>
       <c r="E295" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="AD295" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AE295" t="s">
         <v>145</v>
@@ -8789,7 +8798,7 @@
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B296" t="s">
         <v>10</v>
@@ -8799,12 +8808,12 @@
       </c>
       <c r="AC296" s="4"/>
       <c r="AD296" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B297" t="s">
         <v>72</v>
@@ -8813,33 +8822,33 @@
         <v>10</v>
       </c>
       <c r="AA297" t="s">
+        <v>722</v>
+      </c>
+      <c r="AC297" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD297" t="s">
         <v>724</v>
-      </c>
-      <c r="AC297" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="AD297" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B298" t="s">
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AC298" s="4"/>
       <c r="AD298" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
@@ -8851,15 +8860,15 @@
         <v>114</v>
       </c>
       <c r="AC299" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AD299" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B300" t="s">
         <v>72</v>
@@ -8871,15 +8880,15 @@
         <v>187</v>
       </c>
       <c r="AC300" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AD300" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B301" t="s">
         <v>10</v>
@@ -8889,12 +8898,12 @@
       </c>
       <c r="AC301" s="4"/>
       <c r="AD301" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
@@ -8903,15 +8912,15 @@
         <v>179</v>
       </c>
       <c r="G302" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AD302" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B303" t="s">
         <v>72</v>
@@ -8926,12 +8935,12 @@
         <v>188</v>
       </c>
       <c r="AD303" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B304" t="s">
         <v>10</v>
@@ -8941,30 +8950,30 @@
       </c>
       <c r="AC304" s="4"/>
       <c r="AD304" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="X305" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AC305" s="4"/>
       <c r="AD305" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B306" t="s">
         <v>72</v>
@@ -8976,12 +8985,12 @@
         <v>104</v>
       </c>
       <c r="AD306" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B307" t="s">
         <v>72</v>
@@ -8991,28 +9000,28 @@
       </c>
       <c r="AC307" s="4"/>
       <c r="AD307" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B308" t="s">
         <v>9</v>
       </c>
       <c r="E308" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F308" s="15"/>
       <c r="AC308" s="4"/>
       <c r="AD308" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B309" t="s">
         <v>10</v>
@@ -9022,7 +9031,7 @@
       </c>
       <c r="AC309" s="4"/>
       <c r="AD309" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.2">
@@ -9107,7 +9116,7 @@
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B317" t="s">
         <v>72</v>
@@ -9116,7 +9125,7 @@
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
@@ -9128,7 +9137,7 @@
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B319" t="s">
         <v>72</v>
@@ -9140,7 +9149,7 @@
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B320" t="s">
         <v>72</v>
@@ -9159,12 +9168,12 @@
       </c>
       <c r="AC321" s="4"/>
       <c r="AD321" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B322" t="s">
         <v>117</v>
@@ -9176,7 +9185,7 @@
     </row>
     <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B323" t="s">
         <v>117</v>
@@ -9185,12 +9194,12 @@
         <v>9</v>
       </c>
       <c r="AC323" s="30" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B324" t="s">
         <v>9</v>
@@ -9202,7 +9211,7 @@
     </row>
     <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B325" t="s">
         <v>72</v>
@@ -9214,7 +9223,7 @@
     </row>
     <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B326" t="s">
         <v>117</v>
@@ -9223,18 +9232,18 @@
         <v>72</v>
       </c>
       <c r="AC326" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD326" t="s">
         <v>262</v>
       </c>
-      <c r="AD326" t="s">
-        <v>263</v>
-      </c>
       <c r="AE326" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B327" t="s">
         <v>117</v>
@@ -9244,15 +9253,15 @@
       </c>
       <c r="AC327" s="4"/>
       <c r="AD327" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="AE327" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B328" t="s">
         <v>117</v>
@@ -9261,13 +9270,13 @@
         <v>9</v>
       </c>
       <c r="E328" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC328" s="4"/>
     </row>
     <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B329" t="s">
         <v>117</v>
@@ -9277,15 +9286,15 @@
       </c>
       <c r="AC329" s="4"/>
       <c r="AD329" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AE329" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B330" t="s">
         <v>117</v>
@@ -9295,27 +9304,27 @@
       </c>
       <c r="AC330" s="4"/>
       <c r="AD330" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AE330" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B331" t="s">
         <v>9</v>
       </c>
       <c r="E331" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="AC331" s="4"/>
     </row>
     <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B332" t="s">
         <v>72</v>
@@ -9330,7 +9339,7 @@
     </row>
     <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AC334" s="4"/>
     </row>
@@ -9339,7 +9348,7 @@
     </row>
     <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B336" t="s">
         <v>117</v>
@@ -9351,7 +9360,7 @@
     </row>
     <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B337" t="s">
         <v>117</v>
@@ -9363,7 +9372,7 @@
     </row>
     <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B338" t="s">
         <v>117</v>
@@ -9375,7 +9384,7 @@
     </row>
     <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B339" t="s">
         <v>117</v>
@@ -9387,7 +9396,7 @@
     </row>
     <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B340" t="s">
         <v>117</v>
@@ -9396,13 +9405,13 @@
         <v>9</v>
       </c>
       <c r="E340" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AC340" s="4"/>
     </row>
     <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B341" t="s">
         <v>117</v>
@@ -9414,39 +9423,39 @@
     </row>
     <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AC342" s="4"/>
     </row>
     <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B343" t="s">
         <v>9</v>
       </c>
       <c r="AC343" s="4"/>
       <c r="AD343" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AE343" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B344" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AD344" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B345" t="s">
         <v>117</v>
@@ -9455,15 +9464,15 @@
         <v>9</v>
       </c>
       <c r="E345" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AC345" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B346" t="s">
         <v>117</v>
@@ -9472,36 +9481,36 @@
         <v>9</v>
       </c>
       <c r="E346" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AC346" s="4"/>
       <c r="AD346" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B347" t="s">
         <v>9</v>
       </c>
       <c r="AC347" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AD347" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B348" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E348" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AB348" t="s">
         <v>3</v>
@@ -9510,27 +9519,27 @@
     </row>
     <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B349" t="s">
         <v>9</v>
       </c>
       <c r="AC349" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AD349" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B350" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
@@ -9559,131 +9568,131 @@
     </row>
     <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B351" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B352" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F352" s="4"/>
       <c r="AC352" s="4"/>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B353" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F353" s="4"/>
       <c r="AC353" s="4"/>
     </row>
     <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B354" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F354" s="4"/>
       <c r="AC354" s="4"/>
     </row>
     <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B355" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F355" s="4"/>
       <c r="AC355" s="4"/>
     </row>
     <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B356" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F356" s="4"/>
       <c r="AC356" s="4"/>
     </row>
     <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B357" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F357" s="4"/>
       <c r="AC357" s="4"/>
     </row>
     <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B358" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F358" s="4"/>
       <c r="AC358" s="4"/>
     </row>
     <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B359" t="s">
         <v>9</v>
       </c>
       <c r="AC359" s="4"/>
       <c r="AD359" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B360" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F360" s="4"/>
       <c r="AC360" s="4"/>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B361" t="s">
         <v>10</v>
@@ -9696,7 +9705,7 @@
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B362" t="s">
         <v>10</v>
@@ -9709,7 +9718,7 @@
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B363" t="s">
         <v>10</v>
@@ -9722,7 +9731,7 @@
     </row>
     <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B364" t="s">
         <v>10</v>
@@ -9734,19 +9743,19 @@
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B365" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E365" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AC365" s="4"/>
     </row>
     <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B366" t="s">
         <v>10</v>
@@ -9758,25 +9767,25 @@
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B367" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E367" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AC367" s="4"/>
     </row>
     <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B368" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E368" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AC368" s="4"/>
     </row>
@@ -9925,7 +9934,7 @@
     </row>
     <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B376" t="s">
         <v>72</v>
@@ -9943,7 +9952,7 @@
         <v>5</v>
       </c>
       <c r="AD376" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="377" spans="1:30" x14ac:dyDescent="0.2">
@@ -10003,7 +10012,7 @@
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B379" t="s">
         <v>72</v>
@@ -10047,7 +10056,7 @@
     </row>
     <row r="381" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="33" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B381" s="29" t="s">
         <v>72</v>
@@ -10057,7 +10066,7 @@
       </c>
       <c r="AC381" s="34"/>
       <c r="AD381" s="29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="382" spans="1:30" x14ac:dyDescent="0.2">
@@ -10079,7 +10088,7 @@
     </row>
     <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B383" t="s">
         <v>72</v>
@@ -10091,7 +10100,7 @@
         <v>5</v>
       </c>
       <c r="AD383" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="384" spans="1:30" x14ac:dyDescent="0.2">
@@ -10114,29 +10123,29 @@
     </row>
     <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B387" t="s">
         <v>9</v>
       </c>
       <c r="AC387" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="AD387" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="AE387" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B388" t="s">
         <v>10</v>
@@ -10146,15 +10155,15 @@
       </c>
       <c r="AC388" s="4"/>
       <c r="AD388" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="AE388" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B389" t="s">
         <v>10</v>
@@ -10164,57 +10173,57 @@
       </c>
       <c r="AC389" s="4"/>
       <c r="AD389" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B390" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E390" t="s">
         <v>32</v>
       </c>
       <c r="AD390" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B391" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E391" t="s">
         <v>32</v>
       </c>
       <c r="AE391" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B392" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E392" t="s">
         <v>32</v>
       </c>
       <c r="AE392" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B393" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E393" t="s">
         <v>32</v>
@@ -10223,21 +10232,21 @@
         <v>28</v>
       </c>
       <c r="AE393" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B394" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E394" t="s">
         <v>32</v>
       </c>
       <c r="AE394" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="395" spans="1:31" x14ac:dyDescent="0.2">
@@ -10245,13 +10254,13 @@
         <v>69</v>
       </c>
       <c r="B395" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AD395" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="AE395" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="396" spans="1:31" x14ac:dyDescent="0.2">
@@ -10259,21 +10268,21 @@
         <v>70</v>
       </c>
       <c r="B396" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AE396" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B397" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AE397" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="398" spans="1:31" x14ac:dyDescent="0.2">
@@ -10281,35 +10290,35 @@
         <v>71</v>
       </c>
       <c r="B398" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AE398" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B399" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AE399" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B400" t="s">
         <v>117</v>
       </c>
       <c r="C400" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AD400" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="402" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10329,18 +10338,18 @@
         <v>2</v>
       </c>
       <c r="AD404" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="405" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="406" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="407" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B407" t="s">
         <v>10</v>
@@ -10349,26 +10358,26 @@
         <v>3</v>
       </c>
       <c r="AD407" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="408" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B408" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E408" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AD408" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="409" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B409" t="s">
         <v>72</v>
@@ -10380,49 +10389,49 @@
         <v>5</v>
       </c>
       <c r="AD409" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="410" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
+        <v>268</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9</v>
+      </c>
+      <c r="E410" t="s">
         <v>269</v>
       </c>
-      <c r="B410" t="s">
-        <v>9</v>
-      </c>
-      <c r="E410" t="s">
-        <v>270</v>
-      </c>
       <c r="AD410" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="411" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
+        <v>270</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" t="s">
         <v>271</v>
       </c>
-      <c r="B411" t="s">
-        <v>9</v>
-      </c>
-      <c r="E411" t="s">
-        <v>272</v>
-      </c>
       <c r="AD411" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="412" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AD413" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="AD413" s="5" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>10</v>
@@ -10457,15 +10466,15 @@
       <c r="AB414" s="5"/>
       <c r="AC414" s="4"/>
       <c r="AD414" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AE414" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B415" t="s">
         <v>117</v>
@@ -10474,13 +10483,13 @@
         <v>9</v>
       </c>
       <c r="E415" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="AD415" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="AE415" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="416" spans="1:31" x14ac:dyDescent="0.2">
@@ -10490,15 +10499,15 @@
     </row>
     <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AD417" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B418" t="s">
         <v>10</v>
@@ -10507,37 +10516,37 @@
         <v>2</v>
       </c>
       <c r="AD418" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B419" t="s">
         <v>9</v>
       </c>
       <c r="AD419" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B420" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E420" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AD420" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B421" t="s">
         <v>10</v>
@@ -10546,12 +10555,12 @@
         <v>3</v>
       </c>
       <c r="AD421" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B422" t="s">
         <v>9</v>
@@ -10560,34 +10569,34 @@
         <v>3</v>
       </c>
       <c r="AD422" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="AD424" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B425" t="s">
         <v>9</v>
       </c>
       <c r="AD425" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="AE425" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B426" t="s">
         <v>72</v>
@@ -10596,15 +10605,15 @@
         <v>1</v>
       </c>
       <c r="AD426" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="AE426" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B427" t="s">
         <v>117</v>
@@ -10616,12 +10625,12 @@
         <v>165</v>
       </c>
       <c r="AD427" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B428" t="s">
         <v>72</v>
@@ -10633,26 +10642,26 @@
         <v>3</v>
       </c>
       <c r="AD428" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B429" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC429" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="B429" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC429" s="4" t="s">
-        <v>1253</v>
-      </c>
       <c r="AD429" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B430" t="s">
         <v>117</v>
@@ -10661,18 +10670,18 @@
         <v>72</v>
       </c>
       <c r="AC430" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="AD430" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="AE430" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B431" t="s">
         <v>203</v>
@@ -10681,18 +10690,18 @@
         <v>9</v>
       </c>
       <c r="AC431" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="AD431" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="AE431" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B432" t="s">
         <v>72</v>
@@ -10701,15 +10710,15 @@
         <v>2</v>
       </c>
       <c r="AC432" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="AD432" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B433" t="s">
         <v>10</v>
@@ -10718,49 +10727,49 @@
         <v>2</v>
       </c>
       <c r="AC433" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AD433" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B434" t="s">
         <v>10</v>
       </c>
       <c r="AC434" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AD434" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="AE434" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="B435" t="s">
         <v>10</v>
       </c>
       <c r="AC435" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AD435" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="AE435" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B436" t="s">
         <v>117</v>
@@ -10774,7 +10783,7 @@
     </row>
     <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B437" t="s">
         <v>117</v>
@@ -10788,7 +10797,7 @@
     </row>
     <row r="438" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B438" t="s">
         <v>72</v>
@@ -10799,7 +10808,7 @@
     </row>
     <row r="439" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B439" t="s">
         <v>72</v>
@@ -10822,8 +10831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7057C-15EE-3240-BABA-A5F8BA4F4CF6}">
   <dimension ref="A1:AF375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10849,10 +10858,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>215</v>
@@ -10870,43 +10879,43 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -10915,7 +10924,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>16</v>
@@ -10924,7 +10933,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -10932,7 +10941,7 @@
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2"/>
@@ -10960,49 +10969,49 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="AD3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AD4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="AD5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -11011,12 +11020,12 @@
         <v>3</v>
       </c>
       <c r="AD6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -11025,18 +11034,18 @@
         <v>2</v>
       </c>
       <c r="AD7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AB8" t="s">
         <v>3</v>
@@ -11044,13 +11053,13 @@
     </row>
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F9"/>
       <c r="AB9" s="32" t="s">
@@ -11059,13 +11068,13 @@
     </row>
     <row r="10" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F10"/>
       <c r="AB10" s="32" t="s">
@@ -11074,13 +11083,13 @@
     </row>
     <row r="11" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="F11"/>
       <c r="AB11" s="32" t="s">
@@ -11089,25 +11098,25 @@
     </row>
     <row r="12" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AB13" s="32" t="s">
         <v>3</v>
@@ -11115,7 +11124,7 @@
     </row>
     <row r="14" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -11123,7 +11132,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F14"/>
       <c r="AB14" s="32" t="s">
@@ -11132,7 +11141,7 @@
     </row>
     <row r="15" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>9</v>
@@ -11140,41 +11149,41 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B16" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B17" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -11182,36 +11191,36 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B19" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F20"/>
       <c r="AB20" s="32" t="s">
@@ -11266,145 +11275,145 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E25" t="s">
         <v>1085</v>
-      </c>
-      <c r="B25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E26" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E28" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B30" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E30" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B31" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B32" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B33" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E33" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B34" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E34" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -11516,10 +11525,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>215</v>
@@ -11537,43 +11546,43 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -11582,7 +11591,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>16</v>
@@ -11591,7 +11600,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -11599,10 +11608,10 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AD2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -11616,7 +11625,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="AD3" t="s">
         <v>91</v>
@@ -11633,7 +11642,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="AD4" t="s">
         <v>90</v>
@@ -11641,15 +11650,15 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AD6" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -11658,7 +11667,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="AD7" t="s">
         <v>91</v>
@@ -11666,7 +11675,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -11675,7 +11684,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AD8" t="s">
         <v>90</v>
@@ -11683,15 +11692,15 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -11700,7 +11709,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AD11" t="s">
         <v>91</v>
@@ -11708,7 +11717,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -11717,7 +11726,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AD12" t="s">
         <v>90</v>
@@ -11806,7 +11815,7 @@
   <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11833,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>215</v>
@@ -11854,43 +11863,43 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -11899,7 +11908,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>16</v>
@@ -11908,7 +11917,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -11916,15 +11925,15 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AD2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -11958,7 +11967,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
@@ -11967,15 +11976,15 @@
         <v>9</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AD7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -11985,15 +11994,15 @@
       </c>
       <c r="AC8" s="4"/>
       <c r="AD8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AB9" t="s">
         <v>3</v>
@@ -12005,13 +12014,13 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -12020,36 +12029,36 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N12" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="Q12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R12" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Y12" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AD12" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -12058,16 +12067,16 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AC13" s="4"/>
       <c r="AE13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -12076,19 +12085,19 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AC14" s="4"/>
       <c r="AD14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AE14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
         <v>117</v>
@@ -12097,16 +12106,16 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC15" s="4"/>
       <c r="AE15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B16" t="s">
         <v>117</v>
@@ -12115,19 +12124,19 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AC16" s="4"/>
       <c r="AD16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AE16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -12136,13 +12145,13 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
@@ -12151,24 +12160,24 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AD18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AE18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -12177,13 +12186,13 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B20" t="s">
         <v>117</v>
@@ -12192,13 +12201,13 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B21" t="s">
         <v>117</v>
@@ -12207,13 +12216,13 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B22" t="s">
         <v>117</v>
@@ -12222,13 +12231,13 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B23" t="s">
         <v>117</v>
@@ -12237,7 +12246,7 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="AC23" s="4"/>
     </row>
@@ -12246,7 +12255,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AB25" t="s">
         <v>3</v>
@@ -12254,7 +12263,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>9</v>
@@ -12262,7 +12271,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F26" s="11"/>
       <c r="AB26" t="s">
@@ -12272,7 +12281,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>9</v>
@@ -12280,7 +12289,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F27" s="12"/>
       <c r="AB27" t="s">
@@ -12290,7 +12299,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>9</v>
@@ -12298,7 +12307,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F28" s="13"/>
       <c r="AB28" t="s">
@@ -12307,7 +12316,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>9</v>
@@ -12315,7 +12324,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>348</v>
+        <v>1269</v>
       </c>
       <c r="F29" s="14"/>
       <c r="AB29" t="s">
@@ -12324,7 +12333,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>9</v>
@@ -12332,7 +12341,7 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F30" s="15"/>
       <c r="AB30" t="s">
@@ -12341,7 +12350,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>9</v>
@@ -12349,7 +12358,7 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F31" s="16"/>
       <c r="AB31" t="s">
@@ -12358,7 +12367,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>9</v>
@@ -12366,7 +12375,7 @@
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F32" s="17"/>
       <c r="AB32" t="s">
@@ -12375,7 +12384,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>9</v>
@@ -12383,7 +12392,7 @@
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F33" s="18"/>
       <c r="AB33" t="s">
@@ -12392,7 +12401,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>9</v>
@@ -12400,7 +12409,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F34" s="19"/>
       <c r="AB34" t="s">
@@ -12409,7 +12418,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>9</v>
@@ -12417,7 +12426,7 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F35" s="20"/>
       <c r="AB35" t="s">
@@ -12426,7 +12435,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>9</v>
@@ -12443,7 +12452,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>9</v>
@@ -12451,7 +12460,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F37" s="22"/>
       <c r="AB37" t="s">
@@ -12460,7 +12469,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>9</v>
@@ -12468,7 +12477,7 @@
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F38" s="23"/>
       <c r="AB38" t="s">
@@ -12477,7 +12486,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>9</v>
@@ -12485,7 +12494,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F39" s="24"/>
       <c r="AB39" t="s">
@@ -12494,7 +12503,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>9</v>
@@ -12502,7 +12511,7 @@
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F40" s="25"/>
       <c r="AB40" t="s">
@@ -12511,7 +12520,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>9</v>
@@ -12519,7 +12528,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F41" s="26"/>
       <c r="AB41" t="s">
@@ -12528,7 +12537,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>9</v>
@@ -12536,7 +12545,7 @@
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F42" s="27"/>
       <c r="AB42" t="s">
@@ -12545,7 +12554,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>9</v>
@@ -12553,7 +12562,7 @@
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F43" s="28"/>
       <c r="AB43" t="s">
@@ -12562,7 +12571,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>9</v>
@@ -12570,7 +12579,7 @@
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F44" s="29"/>
       <c r="AB44" t="s">
@@ -12579,13 +12588,13 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB45" t="s">
         <v>3</v>
@@ -12593,13 +12602,13 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AB46" t="s">
         <v>3</v>
@@ -12607,13 +12616,13 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AB47" t="s">
         <v>3</v>
@@ -12621,13 +12630,13 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AB48" t="s">
         <v>3</v>
@@ -12635,13 +12644,13 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AB49" t="s">
         <v>3</v>
@@ -12649,13 +12658,13 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AB50" t="s">
         <v>3</v>
@@ -12663,13 +12672,13 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AB51" t="s">
         <v>3</v>
@@ -12677,13 +12686,13 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AB52" t="s">
         <v>3</v>
@@ -12691,13 +12700,13 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AB53" t="s">
         <v>3</v>
@@ -12705,13 +12714,13 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AB54" t="s">
         <v>3</v>
@@ -12719,13 +12728,13 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AB55" t="s">
         <v>3</v>
@@ -12733,13 +12742,13 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB56" t="s">
         <v>3</v>
@@ -12747,13 +12756,13 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AB57" t="s">
         <v>3</v>
@@ -12761,73 +12770,73 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -12874,10 +12883,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>215</v>
@@ -12895,43 +12904,43 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -12940,7 +12949,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>16</v>
@@ -12949,7 +12958,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -13062,10 +13071,10 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -13074,10 +13083,10 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -13086,7 +13095,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -13098,10 +13107,10 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -13110,7 +13119,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -13122,82 +13131,82 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E16" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" t="s">
         <v>517</v>
-      </c>
-      <c r="B17" t="s">
-        <v>426</v>
-      </c>
-      <c r="E17" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AD19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="AB25" t="s">
         <v>3</v>
@@ -13205,7 +13214,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B26" t="s">
         <v>117</v>
@@ -13214,14 +13223,14 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="AB26" t="s">
         <v>3</v>
       </c>
       <c r="AC26" s="4"/>
       <c r="AD26" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -13236,10 +13245,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9007D-5D52-AF49-91EA-9825D5C18F7D}">
-  <dimension ref="A1:AF51"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13264,10 +13273,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>215</v>
@@ -13285,43 +13294,43 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -13330,7 +13339,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>16</v>
@@ -13339,7 +13348,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -13347,205 +13356,196 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AD2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AE2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>656</v>
+        <v>1270</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>644</v>
+        <v>1271</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
       </c>
       <c r="AC6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>686</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>675</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>650</v>
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>648</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="E8">
-        <v>3</v>
+        <v>672</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
       </c>
       <c r="AC8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>244</v>
+        <v>165</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>649</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>645</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
       </c>
       <c r="AC9" t="s">
-        <v>628</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>927</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>926</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>936</v>
+        <v>646</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>928</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>925</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>937</v>
+        <v>647</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>626</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="AD12" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>932</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>3</v>
+        <v>922</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>657</v>
+        <v>926</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>658</v>
+        <v>927</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>646</v>
+        <v>928</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>929</v>
       </c>
       <c r="AB15" t="s">
         <v>3</v>
@@ -13553,24 +13553,21 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>3</v>
+        <v>424</v>
+      </c>
+      <c r="E16" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>933</v>
+        <v>644</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -13581,21 +13578,21 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>934</v>
+        <v>678</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="AB18" t="s">
         <v>3</v>
       </c>
-      <c r="AD18" t="s">
-        <v>935</v>
-      </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>681</v>
+        <v>930</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -13607,66 +13604,66 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>931</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>932</v>
+      </c>
+    </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>858</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="S22" s="4"/>
-      <c r="AD22" t="s">
-        <v>891</v>
+      <c r="A21" t="s">
+        <v>679</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>861</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>3</v>
+      <c r="A23" s="7" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
-        <v>892</v>
-      </c>
-      <c r="R24" t="s">
-        <v>650</v>
+      <c r="R24" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="AD24" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>893</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -13677,201 +13674,201 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="R26" t="s">
-        <v>871</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>895</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="S27" s="13"/>
+        <v>890</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>896</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="S28" s="13"/>
+        <v>891</v>
+      </c>
+      <c r="R28" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>897</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="S29" s="4"/>
+        <v>892</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="S29" s="13"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>900</v>
-      </c>
-      <c r="R30" s="4">
-        <v>1</v>
-      </c>
-      <c r="S30" s="4"/>
+        <v>893</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>898</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="S31" s="11"/>
+        <v>894</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
+        <v>897</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>867</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>895</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>866</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>896</v>
+      </c>
+      <c r="R34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>871</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>898</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>872</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
         <v>899</v>
       </c>
-      <c r="R32">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>874</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="R36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>873</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>900</v>
+      </c>
+      <c r="R37">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>875</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
         <v>901</v>
       </c>
-      <c r="R33" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>875</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>882</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
         <v>902</v>
       </c>
-      <c r="R34" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>876</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>903</v>
-      </c>
-      <c r="R35">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>878</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>904</v>
-      </c>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>885</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>905</v>
-      </c>
-      <c r="R37" s="4">
+      <c r="R39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>883</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>906</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>879</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" t="s">
-        <v>907</v>
-      </c>
-      <c r="R39" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>880</v>
       </c>
@@ -13879,58 +13876,86 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
+        <v>903</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>876</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>904</v>
+      </c>
+      <c r="R41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>877</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>905</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>874</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>878</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>907</v>
+      </c>
+      <c r="R44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>879</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
         <v>908</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>877</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>881</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" t="s">
-        <v>910</v>
-      </c>
-      <c r="R42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>882</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>911</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="R45" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13941,10 +13966,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4B343B-AB85-B34F-8B73-F6FF7897D891}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13969,10 +13994,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>215</v>
@@ -13990,43 +14015,43 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -14035,7 +14060,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>16</v>
@@ -14044,7 +14069,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -14052,12 +14077,12 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -14066,7 +14091,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="AB3" t="s">
         <v>3</v>
@@ -14074,13 +14099,13 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AB4" t="s">
         <v>3</v>
@@ -14088,24 +14113,24 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AB6" t="s">
         <v>3</v>
@@ -14113,13 +14138,13 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AB7" t="s">
         <v>3</v>
@@ -14128,13 +14153,13 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AB8" t="s">
         <v>3</v>
@@ -14142,14 +14167,14 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AB9" t="s">
         <v>3</v>
@@ -14158,13 +14183,13 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AB10" t="s">
         <v>3</v>
@@ -14173,13 +14198,13 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AB11" t="s">
         <v>3</v>
@@ -14187,13 +14212,13 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AB12" t="s">
         <v>3</v>
@@ -14201,24 +14226,24 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AB14" t="s">
         <v>3</v>
@@ -14226,13 +14251,13 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="AB15" t="s">
         <v>3</v>
@@ -14240,24 +14265,24 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AB17" t="s">
         <v>3</v>
@@ -14265,13 +14290,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AB18" t="s">
         <v>3</v>
@@ -14279,13 +14304,13 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AB19" t="s">
         <v>3</v>
@@ -14293,13 +14318,13 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AB20" t="s">
         <v>3</v>
@@ -14307,13 +14332,13 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AB21" t="s">
         <v>3</v>
@@ -14321,13 +14346,13 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AB22" t="s">
         <v>3</v>
@@ -14335,13 +14360,13 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="AB23" t="s">
         <v>3</v>
@@ -14349,45 +14374,59 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1113</v>
+        <v>1265</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>426</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>1114</v>
+        <v>1266</v>
       </c>
       <c r="AB24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1172</v>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/inst/extdata/james-base-settings.xlsx
+++ b/inst/extdata/james-base-settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james/ext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC93327-DD30-0F48-A772-FAC17347B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385477EA-8C76-E245-967A-3B93F50CEC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{103B72D2-3FCD-BA4B-9A05-486FC3E56C00}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="1260">
   <si>
     <t>default</t>
   </si>
@@ -1970,12 +1970,6 @@
     <t># GEO REGIONS</t>
   </si>
   <si>
-    <t>geo_border_col</t>
-  </si>
-  <si>
-    <t>geo_border_lwd</t>
-  </si>
-  <si>
     <t>region_label</t>
   </si>
   <si>
@@ -1991,12 +1985,6 @@
     <t>white</t>
   </si>
   <si>
-    <t>arbeidsmarktregio_2018</t>
-  </si>
-  <si>
-    <t>This parameter specifies a specific division of The Netherlands in regions. See appendix of manual for the full list of options currently available.</t>
-  </si>
-  <si>
     <t>The Netherlands is divided in several ways in different regions. You can use these parameters to choose which devision you want to use. You may add items to the legend with parameter `name`. The items in the legend will be colored in the same order as the colors in your `palette`.</t>
   </si>
   <si>
@@ -2006,15 +1994,6 @@
     <t>see_also</t>
   </si>
   <si>
-    <t>geo_cbs_map</t>
-  </si>
-  <si>
-    <t>geo_cbs_available_maps</t>
-  </si>
-  <si>
-    <t>ext/geo/cbs-maps.RData</t>
-  </si>
-  <si>
     <t>user_names_file</t>
   </si>
   <si>
@@ -2060,9 +2039,6 @@
     <t>hex colors or color names</t>
   </si>
   <si>
-    <t>geo_col_threshold</t>
-  </si>
-  <si>
     <t>palette, palette_blue</t>
   </si>
   <si>
@@ -2810,48 +2786,15 @@
     <t>anakiwa_trans</t>
   </si>
   <si>
-    <t>_gegeneraliseerd</t>
-  </si>
-  <si>
-    <t>https://geodata.nationaalgeoregister.nl/cbsgebiedsindelingen/wfs?request=GetFeature&amp;service=WFS&amp;version=2.0.0&amp;outputFormat=json&amp;typeName=cbs_</t>
-  </si>
-  <si>
-    <t>geo_cbs_url_base</t>
-  </si>
-  <si>
-    <t>geo_cbs_url_polygon</t>
-  </si>
-  <si>
-    <t>geo_cbs_url_centroid</t>
-  </si>
-  <si>
-    <t>_labelpoint</t>
-  </si>
-  <si>
-    <t>geo_data_column_names</t>
-  </si>
-  <si>
     <t>region, code, value, color, label</t>
   </si>
   <si>
     <t>region_code</t>
   </si>
   <si>
-    <t>geo_n_regions</t>
-  </si>
-  <si>
     <t>Number of regions.</t>
   </si>
   <si>
-    <t>First part of url that is used to download geographic data originating from CBS. Please edit the url if you need to.</t>
-  </si>
-  <si>
-    <t>Part of url that is pasted after the region name (for polygons).</t>
-  </si>
-  <si>
-    <t>Part of url that is pasted after the region name (for centroids so labels can be placed).</t>
-  </si>
-  <si>
     <t>Color of whiskers. You can supply a different color for each whisker.</t>
   </si>
   <si>
@@ -3440,9 +3383,6 @@
     <t>If you want to highlight a time series of type 'bar', with this parameter you can narrow the highlight to only one given x-position. The x-position specified here, is interpreted as a number (only if all values on the x-axis are numbers) or as a string (if at least one of the values on the x-axis is a string). Obviously, you can highlight more than one value (of one and the same time series).</t>
   </si>
   <si>
-    <t>4.1.3</t>
-  </si>
-  <si>
     <t>If `y`, the histogram graphic is a representation of frequencies (*i.e.* counts). If `n`, probability densities are plotted so that the histogram has a total area of one if you set `bar_gap_fraction = 0`.</t>
   </si>
   <si>
@@ -3464,9 +3404,6 @@
     <t>M:/p_james/release</t>
   </si>
   <si>
-    <t>/cifs/p_james/release</t>
-  </si>
-  <si>
     <t>p_james/release</t>
   </si>
   <si>
@@ -3560,9 +3497,6 @@
     <t>/nas/data</t>
   </si>
   <si>
-    <t>M:/p_james/fonts, /cifs/p_james/fonts, ~/Library/Fonts, fonts</t>
-  </si>
-  <si>
     <t>Gives path to font, dependent on platform or app (*i.e.* windows, linux, osx, shiny app)</t>
   </si>
   <si>
@@ -3860,7 +3794,34 @@
     <t>cbs_map_year</t>
   </si>
   <si>
-    <t>2024-10-10</t>
+    <t>cbs_map_col_threshold</t>
+  </si>
+  <si>
+    <t>cbs_map_data_column_names</t>
+  </si>
+  <si>
+    <t>cbs_map_n_regions</t>
+  </si>
+  <si>
+    <t>cbs_map_border_col</t>
+  </si>
+  <si>
+    <t>cbs_map_border_lwd</t>
+  </si>
+  <si>
+    <t>/nas/mdk/M/p_james/release</t>
+  </si>
+  <si>
+    <t>4.3.2</t>
+  </si>
+  <si>
+    <t>4.3.2_1.2</t>
+  </si>
+  <si>
+    <t>m:/p_james/fonts, /nas/mdk/M/p_james/fonts, ~/Library/Fonts, fonts</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
   </si>
 </sst>
 </file>
@@ -4469,8 +4430,8 @@
   <dimension ref="A1:AF441"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4518,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>264</v>
@@ -4539,25 +4500,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
@@ -4575,7 +4536,7 @@
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -4593,7 +4554,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -4627,15 +4588,15 @@
         <v>10</v>
       </c>
       <c r="AC4" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="AD4" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4647,12 +4608,12 @@
         <v>3</v>
       </c>
       <c r="AD5" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -4664,7 +4625,7 @@
         <v>3</v>
       </c>
       <c r="AD6" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -4700,10 +4661,10 @@
         <v>9</v>
       </c>
       <c r="AC9" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="AD9" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -4726,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -4766,7 +4727,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -4776,7 +4737,7 @@
       </c>
       <c r="AC13" s="4"/>
       <c r="AD13" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -4794,7 +4755,7 @@
         <v>448</v>
       </c>
       <c r="AE14" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -4814,16 +4775,16 @@
         <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="N15" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="O15" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>1216</v>
+        <v>1194</v>
       </c>
       <c r="AD15" t="s">
         <v>55</v>
@@ -4841,10 +4802,10 @@
       </c>
       <c r="AC16" s="4"/>
       <c r="AD16" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="AE16" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="AF16" s="5"/>
     </row>
@@ -4860,10 +4821,10 @@
       </c>
       <c r="AC17" s="4"/>
       <c r="AD17" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="AE17" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="AF17" s="5"/>
     </row>
@@ -4879,10 +4840,10 @@
       </c>
       <c r="AC18" s="4"/>
       <c r="AD18" s="5" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="AE18" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="AF18" s="5"/>
     </row>
@@ -4898,10 +4859,10 @@
       </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="5" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="AE19" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="AF19" s="5"/>
     </row>
@@ -4917,10 +4878,10 @@
       </c>
       <c r="AC20" s="4"/>
       <c r="AD20" s="5" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="AE20" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="AF20" s="5"/>
     </row>
@@ -4936,10 +4897,10 @@
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="5" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="AE21" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="AF21" s="5"/>
     </row>
@@ -4958,10 +4919,10 @@
       </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="5" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="AE22" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="AF22" s="5"/>
     </row>
@@ -4977,16 +4938,16 @@
       </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="5" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="AE23" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="AF23" s="5"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4996,10 +4957,10 @@
       </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="5" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="AE24" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="AF24" s="5"/>
     </row>
@@ -5014,20 +4975,20 @@
         <v>600</v>
       </c>
       <c r="AA25" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="AC25" s="4"/>
       <c r="AD25" t="s">
         <v>430</v>
       </c>
       <c r="AE25" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="AF25" s="5"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -5062,10 +5023,10 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="5" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
@@ -5079,7 +5040,7 @@
         <v>75</v>
       </c>
       <c r="AA27" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="AC27" s="4"/>
       <c r="AD27" t="s">
@@ -5112,7 +5073,7 @@
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="AF29" s="5"/>
     </row>
@@ -5143,7 +5104,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -5152,13 +5113,13 @@
         <v>0.8</v>
       </c>
       <c r="AA33" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="AC33">
         <v>0.8</v>
       </c>
       <c r="AD33" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="AF33" s="5"/>
     </row>
@@ -5170,16 +5131,16 @@
         <v>9</v>
       </c>
       <c r="N34" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="S34" s="5"/>
       <c r="AD34" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -5191,12 +5152,12 @@
         <v>316</v>
       </c>
       <c r="AD35" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -5208,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="AD36" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="AE36" t="s">
         <v>266</v>
@@ -5225,7 +5186,7 @@
         <v>102</v>
       </c>
       <c r="AD37" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -5236,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="AC38" t="s">
         <v>30</v>
@@ -5289,7 +5250,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -5301,12 +5262,12 @@
         <v>316</v>
       </c>
       <c r="AD42" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -5318,7 +5279,7 @@
         <v>316</v>
       </c>
       <c r="AD43" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -5329,7 +5290,7 @@
         <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="AC44" t="s">
         <v>37</v>
@@ -5385,7 +5346,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -5402,7 +5363,7 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1263</v>
+        <v>1241</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -5413,7 +5374,7 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -5424,7 +5385,7 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -5466,7 +5427,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="B54" t="s">
         <v>117</v>
@@ -5475,13 +5436,13 @@
         <v>424</v>
       </c>
       <c r="E54" t="s">
-        <v>1172</v>
+        <v>1258</v>
       </c>
       <c r="AC54" t="s">
         <v>425</v>
       </c>
       <c r="AD54" t="s">
-        <v>1173</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
@@ -5492,11 +5453,11 @@
         <v>424</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="F55" s="5"/>
       <c r="AD55" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
@@ -5510,10 +5471,10 @@
         <v>7</v>
       </c>
       <c r="AA56" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="AD56" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
@@ -5617,7 +5578,7 @@
         <v>9</v>
       </c>
       <c r="AC64" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="AD64" s="5" t="s">
         <v>622</v>
@@ -5761,7 +5722,7 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
@@ -5773,7 +5734,7 @@
         <v>102</v>
       </c>
       <c r="AD74" s="5" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
@@ -5790,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="AC75" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="AD75" s="5" t="s">
         <v>540</v>
@@ -5798,7 +5759,7 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
@@ -5852,7 +5813,7 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="B79" t="s">
         <v>117</v>
@@ -5875,7 +5836,7 @@
         <v>238</v>
       </c>
       <c r="AD81" s="5" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
@@ -5886,7 +5847,7 @@
         <v>9</v>
       </c>
       <c r="AC82" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="AD82" t="s">
         <v>239</v>
@@ -5917,7 +5878,7 @@
         <v>5</v>
       </c>
       <c r="AD84" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
@@ -5934,29 +5895,29 @@
         <v>5</v>
       </c>
       <c r="AD85" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="AC86" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="AD86" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
@@ -5968,7 +5929,7 @@
         <v>316</v>
       </c>
       <c r="AD87" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
@@ -6000,7 +5961,7 @@
         <v>0.85</v>
       </c>
       <c r="AD89" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
@@ -6008,7 +5969,7 @@
         <v>98</v>
       </c>
       <c r="AD91" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="AE91" t="s">
         <v>18</v>
@@ -6051,12 +6012,12 @@
         <v>118</v>
       </c>
       <c r="AD93" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -6065,15 +6026,15 @@
         <v>2</v>
       </c>
       <c r="AD94" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="AE94" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -6088,12 +6049,12 @@
         <v>185</v>
       </c>
       <c r="AE95" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="B96" t="s">
         <v>72</v>
@@ -6102,15 +6063,15 @@
         <v>1</v>
       </c>
       <c r="AD96" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="AE96" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
@@ -6119,15 +6080,15 @@
         <v>102</v>
       </c>
       <c r="AD97" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="AE97" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="B98" t="s">
         <v>72</v>
@@ -6136,15 +6097,15 @@
         <v>1</v>
       </c>
       <c r="AD98" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="AE98" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
@@ -6153,10 +6114,10 @@
         <v>102</v>
       </c>
       <c r="AD99" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="AE99" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
@@ -6167,10 +6128,10 @@
         <v>72</v>
       </c>
       <c r="AC100" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="AD100" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
@@ -6181,13 +6142,13 @@
         <v>72</v>
       </c>
       <c r="AC101" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="AD101" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AE101" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
@@ -6204,7 +6165,7 @@
         <v>88</v>
       </c>
       <c r="AE102" t="s">
-        <v>1184</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
@@ -6218,10 +6179,10 @@
         <v>9</v>
       </c>
       <c r="AD103" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="AE103" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
@@ -6235,7 +6196,7 @@
         <v>254</v>
       </c>
       <c r="AE104" t="s">
-        <v>1181</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
@@ -6286,7 +6247,7 @@
         <v>5</v>
       </c>
       <c r="AD107" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
@@ -6305,7 +6266,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="B109" t="s">
         <v>117</v>
@@ -6314,18 +6275,18 @@
         <v>72</v>
       </c>
       <c r="AA109" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="AD109" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="AE109" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
@@ -6334,13 +6295,13 @@
         <v>72</v>
       </c>
       <c r="AA110" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="AD110" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="AE110" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
@@ -6356,7 +6317,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -6365,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="AD112" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
@@ -6396,7 +6357,7 @@
         <v>253</v>
       </c>
       <c r="AE114" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
@@ -6489,7 +6450,7 @@
         <v>478</v>
       </c>
       <c r="AD120" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="AE120" t="s">
         <v>87</v>
@@ -6512,7 +6473,7 @@
         <v>598</v>
       </c>
       <c r="AE121" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
@@ -6526,10 +6487,10 @@
         <v>3</v>
       </c>
       <c r="AD122" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="AE122" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
@@ -6548,7 +6509,7 @@
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -6557,10 +6518,10 @@
         <v>2</v>
       </c>
       <c r="AD124" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="AE124" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
@@ -6577,7 +6538,7 @@
         <v>97</v>
       </c>
       <c r="AD125" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
@@ -6591,10 +6552,10 @@
         <v>9</v>
       </c>
       <c r="AD126" t="s">
-        <v>1201</v>
+        <v>1179</v>
       </c>
       <c r="AE126" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
@@ -6613,7 +6574,7 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="B128" t="s">
         <v>117</v>
@@ -6622,18 +6583,18 @@
         <v>72</v>
       </c>
       <c r="AA128" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="AD128" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="AE128" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="B129" t="s">
         <v>117</v>
@@ -6642,13 +6603,13 @@
         <v>72</v>
       </c>
       <c r="AA129" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="AD129" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="AE129" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
@@ -6665,7 +6626,7 @@
         <v>102</v>
       </c>
       <c r="AD130" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="AE130" t="s">
         <v>591</v>
@@ -6679,12 +6640,12 @@
         <v>10</v>
       </c>
       <c r="AD131" s="37" t="s">
-        <v>1267</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -6693,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="AD132" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="133" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -6710,12 +6671,12 @@
         <v>599</v>
       </c>
       <c r="AE133" s="37" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="134" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="36" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B134" s="36" t="s">
         <v>117</v>
@@ -6727,20 +6688,20 @@
         <v>3</v>
       </c>
       <c r="AE134" s="36" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>1176</v>
+        <v>1154</v>
       </c>
       <c r="AD136" t="s">
-        <v>1178</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1174</v>
+        <v>1152</v>
       </c>
       <c r="B137" t="s">
         <v>117</v>
@@ -6749,15 +6710,15 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>1177</v>
+        <v>1155</v>
       </c>
       <c r="AD137" t="s">
-        <v>1179</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1175</v>
+        <v>1153</v>
       </c>
       <c r="B138" t="s">
         <v>117</v>
@@ -6766,15 +6727,15 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="AD138" t="s">
-        <v>1180</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1187</v>
+        <v>1165</v>
       </c>
       <c r="B139" t="s">
         <v>117</v>
@@ -6783,12 +6744,12 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>1190</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="B140" t="s">
         <v>117</v>
@@ -6797,32 +6758,32 @@
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1181</v>
+        <v>1159</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>1196</v>
+        <v>1174</v>
       </c>
       <c r="AC141" s="4" t="s">
-        <v>1198</v>
+        <v>1176</v>
       </c>
       <c r="AD141" t="s">
-        <v>1199</v>
+        <v>1177</v>
       </c>
       <c r="AE141" t="s">
-        <v>1192</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1183</v>
+        <v>1161</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>117</v>
@@ -6856,13 +6817,13 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5" t="s">
-        <v>1186</v>
+        <v>1164</v>
       </c>
       <c r="AD142" s="5" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
       <c r="AE142" s="5" t="s">
-        <v>1191</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.2">
@@ -6870,7 +6831,7 @@
         <v>335</v>
       </c>
       <c r="AD146" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.2">
@@ -6890,18 +6851,18 @@
         <v>334</v>
       </c>
       <c r="AC147" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="AD147" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
       <c r="AE147" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B148" t="s">
         <v>117</v>
@@ -6910,15 +6871,15 @@
         <v>72</v>
       </c>
       <c r="AD148" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="AE148" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1200</v>
+        <v>1178</v>
       </c>
       <c r="B149" t="s">
         <v>117</v>
@@ -6927,18 +6888,18 @@
         <v>72</v>
       </c>
       <c r="AC149" t="s">
-        <v>1205</v>
+        <v>1183</v>
       </c>
       <c r="AD149" t="s">
-        <v>1206</v>
+        <v>1184</v>
       </c>
       <c r="AE149" s="5" t="s">
-        <v>1203</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B150" t="s">
         <v>203</v>
@@ -6947,32 +6908,32 @@
         <v>9</v>
       </c>
       <c r="AD150" t="s">
-        <v>1202</v>
+        <v>1180</v>
       </c>
       <c r="AE150" s="5" t="s">
-        <v>1204</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B151" t="s">
         <v>72</v>
       </c>
       <c r="AC151" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="AD151" s="5" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="AE151" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -6981,15 +6942,15 @@
         <v>2</v>
       </c>
       <c r="AD152" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="AE152" s="5" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B153" t="s">
         <v>117</v>
@@ -7001,12 +6962,12 @@
         <v>3</v>
       </c>
       <c r="AD153" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B154" t="s">
         <v>117</v>
@@ -7023,7 +6984,7 @@
         <v>142</v>
       </c>
       <c r="AD156" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.2">
@@ -7067,7 +7028,7 @@
         <v>520</v>
       </c>
       <c r="AD158" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="AE158" s="5" t="s">
         <v>183</v>
@@ -7075,7 +7036,7 @@
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -7086,13 +7047,13 @@
         <v>2</v>
       </c>
       <c r="AD159" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="AE159" s="5"/>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B160" t="s">
         <v>117</v>
@@ -7107,10 +7068,10 @@
         <v>0</v>
       </c>
       <c r="AC160" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="AD160" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="AE160" t="s">
         <v>236</v>
@@ -7118,7 +7079,7 @@
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B161" t="s">
         <v>117</v>
@@ -7130,12 +7091,12 @@
         <v>528</v>
       </c>
       <c r="AD161" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B162" t="s">
         <v>117</v>
@@ -7150,17 +7111,17 @@
         <v>1</v>
       </c>
       <c r="AD162" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="B165" t="s">
         <v>72</v>
@@ -7169,18 +7130,18 @@
         <v>15</v>
       </c>
       <c r="AA165" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="AC165" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="AD165" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="B166" t="s">
         <v>72</v>
@@ -7192,15 +7153,15 @@
         <v>5</v>
       </c>
       <c r="AC166" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="AD166" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="B167" t="s">
         <v>117</v>
@@ -7209,18 +7170,18 @@
         <v>72</v>
       </c>
       <c r="AC167" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="AD167" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="AE167" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="B168" t="s">
         <v>117</v>
@@ -7229,21 +7190,21 @@
         <v>72</v>
       </c>
       <c r="AA168" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="AC168" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="AD168" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="AE168" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="B169" t="s">
         <v>117</v>
@@ -7252,15 +7213,15 @@
         <v>9</v>
       </c>
       <c r="AC169" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="AD169" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="B170" t="s">
         <v>586</v>
@@ -7271,12 +7232,12 @@
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="B173" t="s">
         <v>117</v>
@@ -7288,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="AD173" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
@@ -7330,7 +7291,7 @@
         <v>523</v>
       </c>
       <c r="AE177" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.2">
@@ -7379,7 +7340,7 @@
         <v>210</v>
       </c>
       <c r="AD180" s="5" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="AE180" s="5"/>
     </row>
@@ -7427,7 +7388,7 @@
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -7436,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="AD184" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.2">
@@ -7488,12 +7449,12 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="B191" t="s">
         <v>72</v>
@@ -7502,12 +7463,12 @@
         <v>10</v>
       </c>
       <c r="AD191" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
@@ -7516,7 +7477,7 @@
         <v>2</v>
       </c>
       <c r="AD192" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="AE192" t="s">
         <v>181</v>
@@ -7650,7 +7611,7 @@
         <v>2</v>
       </c>
       <c r="AD203" t="s">
-        <v>1208</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.2">
@@ -7664,7 +7625,7 @@
         <v>2</v>
       </c>
       <c r="AD204" t="s">
-        <v>1209</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.2">
@@ -7681,21 +7642,21 @@
         <v>1</v>
       </c>
       <c r="AD205" t="s">
-        <v>1210</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
       </c>
       <c r="AC206" t="s">
-        <v>1211</v>
+        <v>1189</v>
       </c>
       <c r="AD206" t="s">
-        <v>1212</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.2">
@@ -7728,7 +7689,7 @@
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B209" t="s">
         <v>10</v>
@@ -7737,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="AD209" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="210" spans="1:32" x14ac:dyDescent="0.2">
@@ -7785,7 +7746,7 @@
         <v>10</v>
       </c>
       <c r="AD214" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.2">
@@ -7797,7 +7758,7 @@
       </c>
       <c r="AC215" s="4"/>
       <c r="AD215" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="216" spans="1:32" x14ac:dyDescent="0.2">
@@ -7912,18 +7873,18 @@
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B225" t="s">
         <v>9</v>
       </c>
       <c r="AD225" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.2">
@@ -8003,23 +7964,23 @@
         <v>102</v>
       </c>
       <c r="AD234" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="B235" t="s">
         <v>9</v>
       </c>
       <c r="AD235" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B236" t="s">
         <v>72</v>
@@ -8028,10 +7989,10 @@
         <v>1</v>
       </c>
       <c r="AC236" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="AD236" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.2">
@@ -8053,7 +8014,7 @@
         <v>235</v>
       </c>
       <c r="AD239" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.2">
@@ -8073,7 +8034,7 @@
         <v>32</v>
       </c>
       <c r="AD240" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
@@ -8090,12 +8051,12 @@
         <v>1</v>
       </c>
       <c r="AD241" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B242" t="s">
         <v>117</v>
@@ -8107,12 +8068,12 @@
         <v>1</v>
       </c>
       <c r="AD242" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
@@ -8122,7 +8083,7 @@
         <v>3</v>
       </c>
       <c r="AD243" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.2">
@@ -8161,7 +8122,7 @@
         <v>197</v>
       </c>
       <c r="AD247" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
@@ -8187,7 +8148,7 @@
         <v>532</v>
       </c>
       <c r="AD250" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.2">
@@ -8257,7 +8218,7 @@
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B255" t="s">
         <v>72</v>
@@ -8274,10 +8235,10 @@
         <v>1E-3</v>
       </c>
       <c r="AC255" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="AD255" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.2">
@@ -8326,7 +8287,7 @@
         <v>597</v>
       </c>
       <c r="AE257" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
     </row>
     <row r="258" spans="1:31" x14ac:dyDescent="0.2">
@@ -8346,7 +8307,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
       <c r="AE258" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="259" spans="1:31" x14ac:dyDescent="0.2">
@@ -8407,7 +8368,7 @@
         <v>41</v>
       </c>
       <c r="AD267" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.2">
@@ -8418,10 +8379,10 @@
         <v>9</v>
       </c>
       <c r="AC268" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="AD268" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="273" spans="1:31" x14ac:dyDescent="0.2">
@@ -8429,7 +8390,7 @@
         <v>50</v>
       </c>
       <c r="AD273" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.2">
@@ -8447,7 +8408,7 @@
       </c>
       <c r="AC274" s="4"/>
       <c r="AD274" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="AE274" t="s">
         <v>18</v>
@@ -8455,7 +8416,7 @@
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
@@ -8464,10 +8425,10 @@
         <v>3</v>
       </c>
       <c r="AC275" s="4" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="AD275" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="276" spans="1:31" x14ac:dyDescent="0.2">
@@ -8657,7 +8618,7 @@
       </c>
       <c r="AC285" s="4"/>
       <c r="AD285" t="s">
-        <v>982</v>
+        <v>963</v>
       </c>
     </row>
     <row r="286" spans="1:31" x14ac:dyDescent="0.2">
@@ -8697,7 +8658,7 @@
     </row>
     <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B288" t="s">
         <v>117</v>
@@ -8715,7 +8676,7 @@
     </row>
     <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B289" t="s">
         <v>10</v>
@@ -8725,28 +8686,28 @@
       </c>
       <c r="AC289" s="5"/>
       <c r="AD289" s="5" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="AE289" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
       </c>
       <c r="E290" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="X290" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="AC290" s="5"/>
       <c r="AD290" s="5" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
     </row>
     <row r="291" spans="1:31" x14ac:dyDescent="0.2">
@@ -8760,20 +8721,20 @@
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="AC293" s="4"/>
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B294" t="s">
         <v>72</v>
       </c>
       <c r="AC294" s="4"/>
       <c r="AD294" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.2">
@@ -8787,10 +8748,10 @@
         <v>72</v>
       </c>
       <c r="E295" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="AD295" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="AE295" t="s">
         <v>145</v>
@@ -8798,7 +8759,7 @@
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B296" t="s">
         <v>10</v>
@@ -8808,12 +8769,12 @@
       </c>
       <c r="AC296" s="4"/>
       <c r="AD296" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B297" t="s">
         <v>72</v>
@@ -8822,33 +8783,33 @@
         <v>10</v>
       </c>
       <c r="AA297" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="AC297" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="AD297" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B298" t="s">
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="AC298" s="4"/>
       <c r="AD298" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
@@ -8860,15 +8821,15 @@
         <v>114</v>
       </c>
       <c r="AC299" s="4" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="AD299" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B300" t="s">
         <v>72</v>
@@ -8880,15 +8841,15 @@
         <v>187</v>
       </c>
       <c r="AC300" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="AD300" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B301" t="s">
         <v>10</v>
@@ -8898,12 +8859,12 @@
       </c>
       <c r="AC301" s="4"/>
       <c r="AD301" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
@@ -8912,15 +8873,15 @@
         <v>179</v>
       </c>
       <c r="G302" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AD302" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B303" t="s">
         <v>72</v>
@@ -8935,12 +8896,12 @@
         <v>188</v>
       </c>
       <c r="AD303" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B304" t="s">
         <v>10</v>
@@ -8950,30 +8911,30 @@
       </c>
       <c r="AC304" s="4"/>
       <c r="AD304" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="X305" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="AC305" s="4"/>
       <c r="AD305" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B306" t="s">
         <v>72</v>
@@ -8990,7 +8951,7 @@
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B307" t="s">
         <v>72</v>
@@ -9000,12 +8961,12 @@
       </c>
       <c r="AC307" s="4"/>
       <c r="AD307" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B308" t="s">
         <v>9</v>
@@ -9016,12 +8977,12 @@
       <c r="F308" s="15"/>
       <c r="AC308" s="4"/>
       <c r="AD308" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B309" t="s">
         <v>10</v>
@@ -9031,7 +8992,7 @@
       </c>
       <c r="AC309" s="4"/>
       <c r="AD309" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.2">
@@ -9194,7 +9155,7 @@
         <v>9</v>
       </c>
       <c r="AC323" s="30" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="324" spans="1:31" x14ac:dyDescent="0.2">
@@ -9243,7 +9204,7 @@
     </row>
     <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B327" t="s">
         <v>117</v>
@@ -9253,7 +9214,7 @@
       </c>
       <c r="AC327" s="4"/>
       <c r="AD327" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="AE327" t="s">
         <v>259</v>
@@ -9286,7 +9247,7 @@
       </c>
       <c r="AC329" s="4"/>
       <c r="AD329" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="AE329" t="s">
         <v>259</v>
@@ -9294,7 +9255,7 @@
     </row>
     <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B330" t="s">
         <v>117</v>
@@ -9304,7 +9265,7 @@
       </c>
       <c r="AC330" s="4"/>
       <c r="AD330" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="AE330" s="5" t="s">
         <v>416</v>
@@ -9318,7 +9279,7 @@
         <v>9</v>
       </c>
       <c r="E331" t="s">
-        <v>987</v>
+        <v>968</v>
       </c>
       <c r="AC331" s="4"/>
     </row>
@@ -9405,7 +9366,7 @@
         <v>9</v>
       </c>
       <c r="E340" t="s">
-        <v>988</v>
+        <v>969</v>
       </c>
       <c r="AC340" s="4"/>
     </row>
@@ -9504,13 +9465,13 @@
     </row>
     <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B348" t="s">
         <v>424</v>
       </c>
       <c r="E348" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="AB348" t="s">
         <v>3</v>
@@ -9767,13 +9728,13 @@
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="B367" t="s">
         <v>424</v>
       </c>
       <c r="E367" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="AC367" s="4"/>
     </row>
@@ -9952,7 +9913,7 @@
         <v>5</v>
       </c>
       <c r="AD376" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="377" spans="1:30" x14ac:dyDescent="0.2">
@@ -10056,7 +10017,7 @@
     </row>
     <row r="381" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="33" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B381" s="29" t="s">
         <v>72</v>
@@ -10123,7 +10084,7 @@
     </row>
     <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
     </row>
     <row r="387" spans="1:31" x14ac:dyDescent="0.2">
@@ -10134,18 +10095,18 @@
         <v>9</v>
       </c>
       <c r="AC387" s="4" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="AD387" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="AE387" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="B388" t="s">
         <v>10</v>
@@ -10155,7 +10116,7 @@
       </c>
       <c r="AC388" s="4"/>
       <c r="AD388" t="s">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="AE388" t="s">
         <v>446</v>
@@ -10163,7 +10124,7 @@
     </row>
     <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="B389" t="s">
         <v>10</v>
@@ -10173,7 +10134,7 @@
       </c>
       <c r="AC389" s="4"/>
       <c r="AD389" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
     </row>
     <row r="390" spans="1:31" x14ac:dyDescent="0.2">
@@ -10187,7 +10148,7 @@
         <v>32</v>
       </c>
       <c r="AD390" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
     </row>
     <row r="391" spans="1:31" x14ac:dyDescent="0.2">
@@ -10257,7 +10218,7 @@
         <v>424</v>
       </c>
       <c r="AD395" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="AE395" t="s">
         <v>446</v>
@@ -10271,7 +10232,7 @@
         <v>424</v>
       </c>
       <c r="AE396" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
     </row>
     <row r="397" spans="1:31" x14ac:dyDescent="0.2">
@@ -10282,7 +10243,7 @@
         <v>424</v>
       </c>
       <c r="AE397" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
     </row>
     <row r="398" spans="1:31" x14ac:dyDescent="0.2">
@@ -10293,7 +10254,7 @@
         <v>424</v>
       </c>
       <c r="AE398" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
     </row>
     <row r="399" spans="1:31" x14ac:dyDescent="0.2">
@@ -10304,7 +10265,7 @@
         <v>424</v>
       </c>
       <c r="AE399" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
     </row>
     <row r="400" spans="1:31" x14ac:dyDescent="0.2">
@@ -10358,12 +10319,12 @@
         <v>3</v>
       </c>
       <c r="AD407" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
     </row>
     <row r="408" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="B408" t="s">
         <v>424</v>
@@ -10372,7 +10333,7 @@
         <v>604</v>
       </c>
       <c r="AD408" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
     </row>
     <row r="409" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10389,7 +10350,7 @@
         <v>5</v>
       </c>
       <c r="AD409" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
     </row>
     <row r="410" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10403,7 +10364,7 @@
         <v>269</v>
       </c>
       <c r="AD410" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
     </row>
     <row r="411" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10417,21 +10378,21 @@
         <v>271</v>
       </c>
       <c r="AD411" t="s">
-        <v>979</v>
+        <v>960</v>
       </c>
     </row>
     <row r="412" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
       <c r="AD413" s="5" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
     </row>
     <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>10</v>
@@ -10466,15 +10427,15 @@
       <c r="AB414" s="5"/>
       <c r="AC414" s="4"/>
       <c r="AD414" s="5" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="AE414" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
     </row>
     <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="B415" t="s">
         <v>117</v>
@@ -10483,13 +10444,13 @@
         <v>9</v>
       </c>
       <c r="E415" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="AD415" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="AE415" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
     </row>
     <row r="416" spans="1:31" x14ac:dyDescent="0.2">
@@ -10499,15 +10460,15 @@
     </row>
     <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="AD417" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="B418" t="s">
         <v>10</v>
@@ -10516,37 +10477,37 @@
         <v>2</v>
       </c>
       <c r="AD418" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="B419" t="s">
         <v>9</v>
       </c>
       <c r="AD419" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="B420" t="s">
         <v>424</v>
       </c>
       <c r="E420" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="AD420" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="B421" t="s">
         <v>10</v>
@@ -10555,12 +10516,12 @@
         <v>3</v>
       </c>
       <c r="AD421" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="B422" t="s">
         <v>9</v>
@@ -10569,34 +10530,34 @@
         <v>3</v>
       </c>
       <c r="AD422" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
-        <v>1221</v>
+        <v>1199</v>
       </c>
       <c r="AD424" t="s">
-        <v>1262</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="B425" t="s">
         <v>9</v>
       </c>
       <c r="AD425" t="s">
-        <v>1231</v>
+        <v>1209</v>
       </c>
       <c r="AE425" t="s">
-        <v>1223</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1223</v>
+        <v>1201</v>
       </c>
       <c r="B426" t="s">
         <v>72</v>
@@ -10605,15 +10566,15 @@
         <v>1</v>
       </c>
       <c r="AD426" t="s">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="AE426" t="s">
-        <v>1222</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1224</v>
+        <v>1202</v>
       </c>
       <c r="B427" t="s">
         <v>117</v>
@@ -10625,12 +10586,12 @@
         <v>165</v>
       </c>
       <c r="AD427" t="s">
-        <v>1230</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1253</v>
+        <v>1231</v>
       </c>
       <c r="B428" t="s">
         <v>72</v>
@@ -10642,26 +10603,26 @@
         <v>3</v>
       </c>
       <c r="AD428" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1247</v>
+        <v>1225</v>
       </c>
       <c r="B429" t="s">
         <v>72</v>
       </c>
       <c r="AC429" s="4" t="s">
-        <v>1250</v>
+        <v>1228</v>
       </c>
       <c r="AD429" t="s">
-        <v>1255</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1225</v>
+        <v>1203</v>
       </c>
       <c r="B430" t="s">
         <v>117</v>
@@ -10670,18 +10631,18 @@
         <v>72</v>
       </c>
       <c r="AC430" t="s">
-        <v>1229</v>
+        <v>1207</v>
       </c>
       <c r="AD430" t="s">
-        <v>1248</v>
+        <v>1226</v>
       </c>
       <c r="AE430" s="5" t="s">
-        <v>1249</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1226</v>
+        <v>1204</v>
       </c>
       <c r="B431" t="s">
         <v>203</v>
@@ -10690,18 +10651,18 @@
         <v>9</v>
       </c>
       <c r="AC431" t="s">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="AD431" t="s">
-        <v>1227</v>
+        <v>1205</v>
       </c>
       <c r="AE431" t="s">
-        <v>1256</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1234</v>
+        <v>1212</v>
       </c>
       <c r="B432" t="s">
         <v>72</v>
@@ -10710,15 +10671,15 @@
         <v>2</v>
       </c>
       <c r="AC432" t="s">
-        <v>1257</v>
+        <v>1235</v>
       </c>
       <c r="AD432" t="s">
-        <v>1258</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1233</v>
+        <v>1211</v>
       </c>
       <c r="B433" t="s">
         <v>10</v>
@@ -10727,49 +10688,49 @@
         <v>2</v>
       </c>
       <c r="AC433" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="AD433" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="B434" t="s">
         <v>10</v>
       </c>
       <c r="AC434" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="AD434" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="AE434" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
       <c r="B435" t="s">
         <v>10</v>
       </c>
       <c r="AC435" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="AD435" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="AE435" s="5" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
       <c r="B436" t="s">
         <v>117</v>
@@ -10783,7 +10744,7 @@
     </row>
     <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1238</v>
+        <v>1216</v>
       </c>
       <c r="B437" t="s">
         <v>117</v>
@@ -10797,7 +10758,7 @@
     </row>
     <row r="438" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1239</v>
+        <v>1217</v>
       </c>
       <c r="B438" t="s">
         <v>72</v>
@@ -10808,7 +10769,7 @@
     </row>
     <row r="439" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1240</v>
+        <v>1218</v>
       </c>
       <c r="B439" t="s">
         <v>72</v>
@@ -10832,7 +10793,7 @@
   <dimension ref="A1:AF375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10858,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>264</v>
@@ -10879,25 +10840,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
@@ -10915,7 +10876,7 @@
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -10933,7 +10894,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -10969,30 +10930,30 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1132</v>
+        <v>1256</v>
       </c>
       <c r="AD3" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>806</v>
+        <v>1257</v>
       </c>
       <c r="AD4" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -11003,10 +10964,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="AD5" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -11074,7 +11035,7 @@
         <v>424</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1138</v>
+        <v>1118</v>
       </c>
       <c r="F10"/>
       <c r="AB10" s="32" t="s">
@@ -11089,7 +11050,7 @@
         <v>424</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1139</v>
+        <v>1119</v>
       </c>
       <c r="F11"/>
       <c r="AB11" s="32" t="s">
@@ -11098,13 +11059,13 @@
     </row>
     <row r="12" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>424</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1140</v>
+        <v>1255</v>
       </c>
       <c r="F12"/>
     </row>
@@ -11141,7 +11102,7 @@
     </row>
     <row r="15" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>9</v>
@@ -11149,41 +11110,41 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="B16" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="B17" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -11191,21 +11152,21 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="B19" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="F19"/>
     </row>
@@ -11220,7 +11181,7 @@
         <v>424</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="F20"/>
       <c r="AB20" s="32" t="s">
@@ -11275,145 +11236,145 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1020</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="B25" t="s">
         <v>424</v>
       </c>
       <c r="E25" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="B26" t="s">
         <v>424</v>
       </c>
       <c r="E26" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="B27" t="s">
         <v>424</v>
       </c>
       <c r="E27" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="B28" t="s">
         <v>424</v>
       </c>
       <c r="E28" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="B30" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="E30" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="B31" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="B32" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="B33" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="E33" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="B34" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="E34" t="s">
-        <v>1195</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
@@ -11525,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>264</v>
@@ -11546,25 +11507,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
@@ -11582,7 +11543,7 @@
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -11600,7 +11561,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -11611,7 +11572,7 @@
         <v>635</v>
       </c>
       <c r="AD2" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -11625,7 +11586,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1213</v>
+        <v>1191</v>
       </c>
       <c r="AD3" t="s">
         <v>91</v>
@@ -11642,7 +11603,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="AD4" t="s">
         <v>90</v>
@@ -11653,7 +11614,7 @@
         <v>636</v>
       </c>
       <c r="AD6" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -11667,7 +11628,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="AD7" t="s">
         <v>91</v>
@@ -11684,7 +11645,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="AD8" t="s">
         <v>90</v>
@@ -11692,15 +11653,15 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>973</v>
+        <v>954</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -11709,7 +11670,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="AD11" t="s">
         <v>91</v>
@@ -11717,7 +11678,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -11726,7 +11687,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AD12" t="s">
         <v>90</v>
@@ -11842,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>264</v>
@@ -11863,25 +11824,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
@@ -11899,7 +11860,7 @@
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -11917,7 +11878,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -11928,12 +11889,12 @@
         <v>339</v>
       </c>
       <c r="AD2" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -12014,7 +11975,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
@@ -12029,31 +11990,31 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="G12" t="s">
         <v>264</v>
       </c>
       <c r="M12" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N12" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="Q12" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="R12" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="Y12" t="s">
-        <v>1243</v>
+        <v>1221</v>
       </c>
       <c r="AC12" s="4" t="s">
         <v>570</v>
       </c>
       <c r="AD12" t="s">
-        <v>989</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -12067,7 +12028,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="AC13" s="4"/>
       <c r="AE13" t="s">
@@ -12076,7 +12037,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -12085,14 +12046,14 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="AC14" s="4"/>
       <c r="AD14" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="AE14" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -12115,7 +12076,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B16" t="s">
         <v>117</v>
@@ -12124,11 +12085,11 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="AC16" s="4"/>
       <c r="AD16" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="AE16" t="s">
         <v>530</v>
@@ -12136,7 +12097,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -12145,13 +12106,13 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
@@ -12160,16 +12121,16 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="AA18" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="AD18" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="AE18" t="s">
         <v>530</v>
@@ -12177,7 +12138,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -12186,13 +12147,13 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1244</v>
+        <v>1222</v>
       </c>
       <c r="B20" t="s">
         <v>117</v>
@@ -12201,13 +12162,13 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>1245</v>
+        <v>1223</v>
       </c>
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1242</v>
+        <v>1220</v>
       </c>
       <c r="B21" t="s">
         <v>117</v>
@@ -12216,13 +12177,13 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>1251</v>
+        <v>1229</v>
       </c>
       <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1243</v>
+        <v>1221</v>
       </c>
       <c r="B22" t="s">
         <v>117</v>
@@ -12231,13 +12192,13 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1217</v>
+        <v>1195</v>
       </c>
       <c r="B23" t="s">
         <v>117</v>
@@ -12246,7 +12207,7 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1246</v>
+        <v>1224</v>
       </c>
       <c r="AC23" s="4"/>
     </row>
@@ -12324,7 +12285,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="F29" s="14"/>
       <c r="AB29" t="s">
@@ -12770,73 +12731,73 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1241</v>
+        <v>1219</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>1220</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>1218</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1219</v>
+        <v>1197</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>1220</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -12883,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>264</v>
@@ -12904,25 +12865,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
@@ -12940,7 +12901,7 @@
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -12958,7 +12919,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -13200,13 +13161,13 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="AB25" t="s">
         <v>3</v>
@@ -13223,14 +13184,14 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="AB26" t="s">
         <v>3</v>
       </c>
       <c r="AC26" s="4"/>
       <c r="AD26" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -13245,10 +13206,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9007D-5D52-AF49-91EA-9825D5C18F7D}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13273,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>264</v>
@@ -13294,25 +13255,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
@@ -13330,7 +13291,7 @@
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -13348,7 +13309,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -13359,15 +13320,15 @@
         <v>641</v>
       </c>
       <c r="AD2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AE2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1270</v>
+        <v>1248</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -13375,7 +13336,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1271</v>
+        <v>1249</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -13383,345 +13344,355 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>654</v>
+        <v>1253</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
       <c r="AC5" t="s">
-        <v>649</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>650</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>642</v>
+        <v>1254</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>1250</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
       </c>
       <c r="AC8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>684</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
+        <v>644</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9">
+        <v>3</v>
       </c>
       <c r="AC9" t="s">
-        <v>648</v>
+        <v>104</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="5"/>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>104</v>
+        <v>626</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>243</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>647</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>626</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>627</v>
+        <v>1251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>914</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>924</v>
+        <v>642</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>923</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>933</v>
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>925</v>
+        <v>670</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>922</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>934</v>
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>927</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>935</v>
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>928</v>
+        <v>1252</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>929</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s">
         <v>3</v>
       </c>
+      <c r="AD15" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
-      </c>
-      <c r="E16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>644</v>
-      </c>
-      <c r="B17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>678</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>3</v>
+      <c r="A18" s="7" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>930</v>
+        <v>847</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="AD19" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>931</v>
+        <v>850</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
       </c>
       <c r="AB20" t="s">
         <v>3</v>
       </c>
-      <c r="AD20" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>679</v>
+        <v>856</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>881</v>
+      </c>
+      <c r="R21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>851</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>882</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>856</v>
+      <c r="A23" t="s">
+        <v>853</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>883</v>
+      </c>
+      <c r="R23" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="AD24" t="s">
-        <v>888</v>
-      </c>
+      <c r="D24" t="s">
+        <v>884</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>885</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>889</v>
-      </c>
-      <c r="R26" t="s">
-        <v>648</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>890</v>
-      </c>
-      <c r="R27">
+        <v>889</v>
+      </c>
+      <c r="R27" s="4">
         <v>1</v>
       </c>
+      <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>891</v>
-      </c>
-      <c r="R28" t="s">
-        <v>868</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>892</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="S29" s="13"/>
+        <v>888</v>
+      </c>
+      <c r="R29">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -13731,231 +13702,154 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>893</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="S30" s="13"/>
+        <v>890</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>894</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="S31" s="4"/>
+        <v>891</v>
+      </c>
+      <c r="R31" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>897</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+      <c r="R32">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>867</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
+        <v>893</v>
+      </c>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>874</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>894</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>872</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
         <v>895</v>
       </c>
-      <c r="R33" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="S33" s="11"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="R35" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>868</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>896</v>
+      </c>
+      <c r="R36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>869</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>897</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>866</v>
       </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" t="s">
-        <v>896</v>
-      </c>
-      <c r="R34">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>870</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>899</v>
+      </c>
+      <c r="R39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>871</v>
       </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>898</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>872</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>899</v>
-      </c>
-      <c r="R36" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>873</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
         <v>900</v>
       </c>
-      <c r="R37">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>875</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>901</v>
-      </c>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>882</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" t="s">
-        <v>902</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>880</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>903</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>876</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>904</v>
-      </c>
-      <c r="R41" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>877</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>905</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>874</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>878</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" t="s">
-        <v>907</v>
-      </c>
-      <c r="R44">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>879</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>908</v>
-      </c>
-      <c r="R45" s="13" t="s">
+      <c r="R40" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13994,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>264</v>
@@ -14015,25 +13909,25 @@
         <v>189</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>178</v>
@@ -14051,7 +13945,7 @@
         <v>184</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>137</v>
@@ -14069,7 +13963,7 @@
         <v>15</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>67</v>
@@ -14077,12 +13971,12 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -14091,7 +13985,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1197</v>
+        <v>1175</v>
       </c>
       <c r="AB3" t="s">
         <v>3</v>
@@ -14099,13 +13993,13 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AB4" t="s">
         <v>3</v>
@@ -14113,24 +14007,24 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="AB6" t="s">
         <v>3</v>
@@ -14138,13 +14032,13 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="AB7" t="s">
         <v>3</v>
@@ -14153,13 +14047,13 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="AB8" t="s">
         <v>3</v>
@@ -14167,14 +14061,14 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AB9" t="s">
         <v>3</v>
@@ -14183,13 +14077,13 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AB10" t="s">
         <v>3</v>
@@ -14198,13 +14092,13 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="AB11" t="s">
         <v>3</v>
@@ -14212,13 +14106,13 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="AB12" t="s">
         <v>3</v>
@@ -14226,24 +14120,24 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="AB14" t="s">
         <v>3</v>
@@ -14251,13 +14145,13 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="AB15" t="s">
         <v>3</v>
@@ -14265,24 +14159,24 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="AB17" t="s">
         <v>3</v>
@@ -14290,13 +14184,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AB18" t="s">
         <v>3</v>
@@ -14304,13 +14198,13 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AB19" t="s">
         <v>3</v>
@@ -14318,13 +14212,13 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="AB20" t="s">
         <v>3</v>
@@ -14332,13 +14226,13 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="AB21" t="s">
         <v>3</v>
@@ -14346,13 +14240,13 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="AB22" t="s">
         <v>3</v>
@@ -14360,13 +14254,13 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="AB23" t="s">
         <v>3</v>
@@ -14374,13 +14268,13 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1265</v>
+        <v>1243</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>1266</v>
+        <v>1244</v>
       </c>
       <c r="AB24" t="s">
         <v>3</v>
@@ -14388,7 +14282,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="B25" t="s">
         <v>117</v>
@@ -14397,7 +14291,7 @@
         <v>424</v>
       </c>
       <c r="E25" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="AB25" t="s">
         <v>3</v>
@@ -14405,24 +14299,24 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
